--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +680,16 @@
     <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,16 +708,8 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -718,6 +720,12 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -733,18 +741,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0\ %"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -818,6 +814,12 @@
         <i val="0"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0\ %"/>
     </dxf>
     <dxf>
       <font>
@@ -1026,19 +1028,19 @@
     <tableColumn id="5" name="(pr - μ)/σ" dataDxfId="21">
       <calculatedColumnFormula>(F2-H2)/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="prob" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="15" name="prob" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="rank" dataDxfId="20">
+    <tableColumn id="6" name="rank" dataDxfId="19">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="cost" dataDxfId="19">
+    <tableColumn id="8" name="cost" dataDxfId="18">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="cost/μ" dataDxfId="18">
+    <tableColumn id="4" name="cost/μ" dataDxfId="17">
       <calculatedColumnFormula>M2/H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="#i" dataDxfId="17">
+    <tableColumn id="14" name="#i" dataDxfId="16">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1058,15 +1060,15 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="id" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="date" dataDxfId="16"/>
-    <tableColumn id="4" name="cost" dataDxfId="15"/>
-    <tableColumn id="3" name="sales" dataDxfId="14">
+    <tableColumn id="2" name="date" dataDxfId="15"/>
+    <tableColumn id="4" name="cost" dataDxfId="14"/>
+    <tableColumn id="3" name="sales" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Sales!D:D,Sales!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="12">
       <calculatedColumnFormula>SUMIFS(Prizes!D:D,Prizes!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ/ticket" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="6" name="µ/ticket" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1088,15 +1090,15 @@
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="cost" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="6">
+    <tableColumn id="6" name="µ" dataDxfId="5">
       <calculatedColumnFormula>D2*INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="5">
+    <tableColumn id="7" name="σ2" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1105,7 +1107,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D85" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D85" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D85">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1125,8 +1127,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1134,8 +1136,8 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="4"/>
-    <tableColumn id="4" name="cost" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="2" name="date" dataDxfId="1"/>
+    <tableColumn id="4" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
     <tableColumn id="3" name="prizes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1407,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1420,30 +1422,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -1918,30 +1920,30 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="60" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
@@ -2416,30 +2418,30 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="61" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
@@ -3004,49 +3006,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="57" t="s">
         <v>94</v>
       </c>
       <c r="P1" s="29"/>
@@ -3073,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="35" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</f>
+        <f t="shared" ref="E2:E46" si="0">IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F2" s="35">
@@ -3081,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</f>
+        <f t="shared" ref="G2:G46" si="1">IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H2" s="36">
@@ -3093,15 +3095,15 @@
         <v>0.90534417201851047</v>
       </c>
       <c r="J2" s="36">
-        <f>(F2-H2)/I2</f>
+        <f t="shared" ref="J2:J46" si="2">(F2-H2)/I2</f>
         <v>-1.0911366986652986</v>
       </c>
       <c r="K2" s="49">
-        <f t="shared" ref="K2:K46" si="0">IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</f>
+        <f t="shared" ref="K2:K46" si="3">IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</f>
         <v>0.137606368366785</v>
       </c>
       <c r="L2" s="37" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</f>
+        <f t="shared" ref="L2:L46" si="4">IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M2" s="35">
@@ -3109,11 +3111,11 @@
         <v>100</v>
       </c>
       <c r="N2" s="31">
-        <f>M2/H2</f>
+        <f t="shared" ref="N2:N46" si="5">M2/H2</f>
         <v>101.22950819672131</v>
       </c>
       <c r="O2" s="31" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</f>
+        <f t="shared" ref="O2:O46" si="6">IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3132,7 +3134,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="29">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D3)+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F3" s="29">
@@ -3140,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="29">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F3)+1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H3" s="30">
@@ -3152,15 +3154,15 @@
         <v>2.0742542497121694</v>
       </c>
       <c r="J3" s="30">
-        <f>(F3-H3)/I3</f>
+        <f t="shared" si="2"/>
         <v>-0.97570370398080453</v>
       </c>
       <c r="K3" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16460565809130867</v>
       </c>
       <c r="L3" s="29">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J3)+1)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M3" s="29">
@@ -3168,11 +3170,11 @@
         <v>1110</v>
       </c>
       <c r="N3" s="31">
-        <f>M3/H3</f>
+        <f t="shared" si="5"/>
         <v>220.94575492462749</v>
       </c>
       <c r="O3" s="29">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N3)+1)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="P3" s="29"/>
@@ -3192,7 +3194,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="29">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D4)+1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F4" s="29">
@@ -3200,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="29">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F4)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H4" s="30">
@@ -3212,15 +3214,15 @@
         <v>1.4405480167928464</v>
       </c>
       <c r="J4" s="30">
-        <f>(F4-H4)/I4</f>
+        <f t="shared" si="2"/>
         <v>-0.2247272290975878</v>
       </c>
       <c r="K4" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.41109574029874496</v>
       </c>
       <c r="L4" s="29">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J4)+1)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M4" s="29">
@@ -3228,11 +3230,11 @@
         <v>550</v>
       </c>
       <c r="N4" s="31">
-        <f>M4/H4</f>
+        <f t="shared" si="5"/>
         <v>236.6883905613229</v>
       </c>
       <c r="O4" s="29">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N4)+1)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="P4" s="29"/>
@@ -3252,7 +3254,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="29">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D5)+1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F5" s="29">
@@ -3260,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="29">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F5)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H5" s="30">
@@ -3272,15 +3274,15 @@
         <v>1.2196223879112047</v>
       </c>
       <c r="J5" s="30">
-        <f>(F5-H5)/I5</f>
+        <f t="shared" si="2"/>
         <v>0.21426238923465521</v>
       </c>
       <c r="K5" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.41517122299034059</v>
       </c>
       <c r="L5" s="29">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J5)+1)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M5" s="29">
@@ -3288,11 +3290,11 @@
         <v>350</v>
       </c>
       <c r="N5" s="31">
-        <f>M5/H5</f>
+        <f t="shared" si="5"/>
         <v>201.3020454176737</v>
       </c>
       <c r="O5" s="29">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N5)+1)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P5" s="29"/>
@@ -3312,7 +3314,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="29" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D6)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F6" s="29">
@@ -3320,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="29" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F6)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="30">
@@ -3332,15 +3334,15 @@
         <v>1.4608189121183603</v>
       </c>
       <c r="J6" s="30">
-        <f>(F6-H6)/I6</f>
+        <f t="shared" si="2"/>
         <v>0.42847177024759042</v>
       </c>
       <c r="K6" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.33415384099578926</v>
       </c>
       <c r="L6" s="29" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J6)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="29">
@@ -3348,11 +3350,11 @@
         <v>580</v>
       </c>
       <c r="N6" s="31">
-        <f>M6/H6</f>
+        <f t="shared" si="5"/>
         <v>244.30512797706007</v>
       </c>
       <c r="O6" s="29" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N6)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="29"/>
@@ -3372,7 +3374,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="29">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D7)+1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F7" s="29">
@@ -3380,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="29">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F7)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H7" s="30">
@@ -3392,15 +3394,15 @@
         <v>1.6246358262190024</v>
       </c>
       <c r="J7" s="30">
-        <f>(F7-H7)/I7</f>
+        <f t="shared" si="2"/>
         <v>0.64486200260527571</v>
       </c>
       <c r="K7" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.259508308715931</v>
       </c>
       <c r="L7" s="29">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J7)+1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M7" s="29">
@@ -3408,11 +3410,11 @@
         <v>740</v>
       </c>
       <c r="N7" s="31">
-        <f>M7/H7</f>
+        <f t="shared" si="5"/>
         <v>250.64913998317971</v>
       </c>
       <c r="O7" s="29">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N7)+1)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="P7" s="29"/>
@@ -3432,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="29" t="str">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D8)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F8" s="29">
@@ -3440,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="29" t="str">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F8)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" s="30">
@@ -3452,15 +3454,15 @@
         <v>1.1960152226849081</v>
       </c>
       <c r="J8" s="30">
-        <f>(F8-H8)/I8</f>
+        <f t="shared" si="2"/>
         <v>0.29081541460884686</v>
       </c>
       <c r="K8" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.38559624774223478</v>
       </c>
       <c r="L8" s="29" t="str">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J8)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="29">
@@ -3468,11 +3470,11 @@
         <v>350</v>
       </c>
       <c r="N8" s="31">
-        <f>M8/H8</f>
+        <f t="shared" si="5"/>
         <v>211.8412815677431</v>
       </c>
       <c r="O8" s="31" t="str">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N8)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P8" s="29"/>
@@ -3492,7 +3494,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="29">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D9)+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F9" s="29">
@@ -3500,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="29">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F9)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H9" s="30">
@@ -3512,15 +3514,15 @@
         <v>1.645289709282524</v>
       </c>
       <c r="J9" s="30">
-        <f>(F9-H9)/I9</f>
+        <f t="shared" si="2"/>
         <v>0.55412515952783847</v>
       </c>
       <c r="K9" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.28974659632997213</v>
       </c>
       <c r="L9" s="29">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J9)+1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M9" s="29">
@@ -3528,11 +3530,11 @@
         <v>800</v>
       </c>
       <c r="N9" s="31">
-        <f>M9/H9</f>
+        <f t="shared" si="5"/>
         <v>259.04189143224175</v>
       </c>
       <c r="O9" s="29">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N9)+1)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="P9" s="29"/>
@@ -3552,7 +3554,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="29">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D10)+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="29">
@@ -3560,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="29">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F10)+1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H10" s="30">
@@ -3572,15 +3574,15 @@
         <v>2.4711886604511184</v>
       </c>
       <c r="J10" s="30">
-        <f>(F10-H10)/I10</f>
+        <f t="shared" si="2"/>
         <v>0.30226024766922233</v>
       </c>
       <c r="K10" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.38122683981814831</v>
       </c>
       <c r="L10" s="29">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J10)+1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M10" s="29">
@@ -3588,11 +3590,11 @@
         <v>1740</v>
       </c>
       <c r="N10" s="31">
-        <f>M10/H10</f>
+        <f t="shared" si="5"/>
         <v>239.89881552872043</v>
       </c>
       <c r="O10" s="29">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N10)+1)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="P10" s="29"/>
@@ -3612,7 +3614,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="29" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D11)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F11" s="29">
@@ -3620,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="29" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F11)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H11" s="30">
@@ -3632,15 +3634,15 @@
         <v>1.6903967309717229</v>
       </c>
       <c r="J11" s="30">
-        <f>(F11-H11)/I11</f>
+        <f t="shared" si="2"/>
         <v>2.224200373221318</v>
       </c>
       <c r="K11" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3067482981361178E-2</v>
       </c>
       <c r="L11" s="29" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J11)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="29">
@@ -3648,11 +3650,11 @@
         <v>720</v>
       </c>
       <c r="N11" s="31">
-        <f>M11/H11</f>
+        <f t="shared" si="5"/>
         <v>222.20720539888777</v>
       </c>
       <c r="O11" s="29" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N11)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P11" s="29"/>
@@ -3672,7 +3674,7 @@
         <v>120</v>
       </c>
       <c r="E12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D12)+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="29">
@@ -3680,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F12)+1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H12" s="30">
@@ -3692,15 +3694,15 @@
         <v>2.1775157131870162</v>
       </c>
       <c r="J12" s="30">
-        <f>(F12-H12)/I12</f>
+        <f t="shared" si="2"/>
         <v>-1.0901818568680326</v>
       </c>
       <c r="K12" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13781652188722632</v>
       </c>
       <c r="L12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J12)+1)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="M12" s="29">
@@ -3708,11 +3710,11 @@
         <v>1300</v>
       </c>
       <c r="N12" s="31">
-        <f>M12/H12</f>
+        <f t="shared" si="5"/>
         <v>241.91050690099334</v>
       </c>
       <c r="O12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N12)+1)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P12" s="29"/>
@@ -3732,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="29">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D13)+1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F13" s="29">
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="29">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F13)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H13" s="30">
@@ -3752,15 +3754,15 @@
         <v>1.3415151969039836</v>
       </c>
       <c r="J13" s="30">
-        <f>(F13-H13)/I13</f>
+        <f t="shared" si="2"/>
         <v>-1.5116432729091189</v>
       </c>
       <c r="K13" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5312318472907513E-2</v>
       </c>
       <c r="L13" s="29">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J13)+1)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M13" s="29">
@@ -3768,11 +3770,11 @@
         <v>460</v>
       </c>
       <c r="N13" s="31">
-        <f>M13/H13</f>
+        <f t="shared" si="5"/>
         <v>226.83649034053852</v>
       </c>
       <c r="O13" s="29">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N13)+1)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="P13" s="29"/>
@@ -3792,7 +3794,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="29" t="str">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D14)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F14" s="29">
@@ -3800,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="29" t="str">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F14)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H14" s="30">
@@ -3812,15 +3814,15 @@
         <v>1.3966272062273601</v>
       </c>
       <c r="J14" s="30">
-        <f>(F14-H14)/I14</f>
+        <f t="shared" si="2"/>
         <v>0.59821503232865181</v>
       </c>
       <c r="K14" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27484823119819857</v>
       </c>
       <c r="L14" s="29" t="str">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J14)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="29">
@@ -3828,11 +3830,11 @@
         <v>530</v>
       </c>
       <c r="N14" s="31">
-        <f>M14/H14</f>
+        <f t="shared" si="5"/>
         <v>244.85836578291148</v>
       </c>
       <c r="O14" s="29" t="str">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N14)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P14" s="29"/>
@@ -3852,7 +3854,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="29">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D15)+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F15" s="29">
@@ -3860,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="29">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F15)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H15" s="30">
@@ -3872,15 +3874,15 @@
         <v>1.3555226273956775</v>
       </c>
       <c r="J15" s="30">
-        <f>(F15-H15)/I15</f>
+        <f t="shared" si="2"/>
         <v>-0.83309856993406151</v>
       </c>
       <c r="K15" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20239457002747768</v>
       </c>
       <c r="L15" s="29">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J15)+1)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="M15" s="29">
@@ -3888,11 +3890,11 @@
         <v>420</v>
       </c>
       <c r="N15" s="31">
-        <f>M15/H15</f>
+        <f t="shared" si="5"/>
         <v>197.2494075084621</v>
       </c>
       <c r="O15" s="29">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N15)+1)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P15" s="29"/>
@@ -3912,7 +3914,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="29">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D16)+1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F16" s="29">
@@ -3920,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="29">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F16)+1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H16" s="30">
@@ -3932,15 +3934,15 @@
         <v>1.7530186833491146</v>
       </c>
       <c r="J16" s="30">
-        <f>(F16-H16)/I16</f>
+        <f t="shared" si="2"/>
         <v>0.8647466592551053</v>
       </c>
       <c r="K16" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19358892686978058</v>
       </c>
       <c r="L16" s="29">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J16)+1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M16" s="29">
@@ -3948,11 +3950,11 @@
         <v>770</v>
       </c>
       <c r="N16" s="31">
-        <f>M16/H16</f>
+        <f t="shared" si="5"/>
         <v>221.0050710785697</v>
       </c>
       <c r="O16" s="29">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N16)+1)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="P16" s="29"/>
@@ -3972,7 +3974,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="29">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D17)+1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F17" s="29">
@@ -3980,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="29">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F17)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H17" s="30">
@@ -3992,15 +3994,15 @@
         <v>1.7690626415061241</v>
       </c>
       <c r="J17" s="30">
-        <f>(F17-H17)/I17</f>
+        <f t="shared" si="2"/>
         <v>0.24142041734861824</v>
       </c>
       <c r="K17" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.40461464495785371</v>
       </c>
       <c r="L17" s="29">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J17)+1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M17" s="29">
@@ -4008,11 +4010,11 @@
         <v>740</v>
       </c>
       <c r="N17" s="31">
-        <f>M17/H17</f>
+        <f t="shared" si="5"/>
         <v>207.11396393646277</v>
       </c>
       <c r="O17" s="29">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N17)+1)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P17" s="29"/>
@@ -4032,7 +4034,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="29">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D18)+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F18" s="29">
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="29">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F18)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H18" s="30">
@@ -4052,15 +4054,15 @@
         <v>0.70518688116242267</v>
       </c>
       <c r="J18" s="30">
-        <f>(F18-H18)/I18</f>
+        <f t="shared" si="2"/>
         <v>-0.76198633532411619</v>
       </c>
       <c r="K18" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.22303407988473595</v>
       </c>
       <c r="L18" s="29">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J18)+1)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M18" s="29">
@@ -4068,11 +4070,11 @@
         <v>140</v>
       </c>
       <c r="N18" s="31">
-        <f>M18/H18</f>
+        <f t="shared" si="5"/>
         <v>260.54133138258959</v>
       </c>
       <c r="O18" s="29">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N18)+1)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="P18" s="29"/>
@@ -4092,7 +4094,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="29">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D19)+1)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F19" s="29">
@@ -4100,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="29">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F19)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H19" s="30">
@@ -4112,15 +4114,15 @@
         <v>0.53561854612135185</v>
       </c>
       <c r="J19" s="30">
-        <f>(F19-H19)/I19</f>
+        <f t="shared" si="2"/>
         <v>-0.57282964535113001</v>
       </c>
       <c r="K19" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.28338002224276981</v>
       </c>
       <c r="L19" s="29">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J19)+1)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="M19" s="29">
@@ -4128,11 +4130,11 @@
         <v>90</v>
       </c>
       <c r="N19" s="31">
-        <f>M19/H19</f>
+        <f t="shared" si="5"/>
         <v>293.33333333333331</v>
       </c>
       <c r="O19" s="29">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N19)+1)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="P19" s="29"/>
@@ -4152,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="29">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D20)+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F20" s="29">
@@ -4160,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="29">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F20)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H20" s="30">
@@ -4172,15 +4174,15 @@
         <v>0.78059289122728581</v>
       </c>
       <c r="J20" s="30">
-        <f>(F20-H20)/I20</f>
+        <f t="shared" si="2"/>
         <v>0.38068025533573507</v>
       </c>
       <c r="K20" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.35172026081826924</v>
       </c>
       <c r="L20" s="29">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J20)+1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M20" s="29">
@@ -4188,11 +4190,11 @@
         <v>150</v>
       </c>
       <c r="N20" s="31">
-        <f>M20/H20</f>
+        <f t="shared" si="5"/>
         <v>213.41871634405473</v>
       </c>
       <c r="O20" s="29">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N20)+1)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="P20" s="29"/>
@@ -4212,7 +4214,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="29" t="str">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D21)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F21" s="29">
@@ -4220,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="29" t="str">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F21)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="30">
@@ -4232,15 +4234,15 @@
         <v>2.1480307909963821</v>
       </c>
       <c r="J21" s="30">
-        <f>(F21-H21)/I21</f>
+        <f t="shared" si="2"/>
         <v>-0.6458180421064228</v>
       </c>
       <c r="K21" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.25919860106105741</v>
       </c>
       <c r="L21" s="29" t="str">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J21)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="29">
@@ -4248,11 +4250,11 @@
         <v>1570</v>
       </c>
       <c r="N21" s="31">
-        <f>M21/H21</f>
+        <f t="shared" si="5"/>
         <v>291.4295377006145</v>
       </c>
       <c r="O21" s="31" t="str">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N21)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P21" s="29"/>
@@ -4272,7 +4274,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="29">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D22)+1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F22" s="29">
@@ -4280,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="29">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F22)+1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H22" s="30">
@@ -4292,15 +4294,15 @@
         <v>1.5154338440236188</v>
       </c>
       <c r="J22" s="30">
-        <f>(F22-H22)/I22</f>
+        <f t="shared" si="2"/>
         <v>0.32102335387251679</v>
       </c>
       <c r="K22" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.37409634649123846</v>
       </c>
       <c r="L22" s="29">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J22)+1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M22" s="29">
@@ -4308,11 +4310,11 @@
         <v>560</v>
       </c>
       <c r="N22" s="31">
-        <f>M22/H22</f>
+        <f t="shared" si="5"/>
         <v>222.79597979541578</v>
       </c>
       <c r="O22" s="29">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N22)+1)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="P22" s="29"/>
@@ -4332,7 +4334,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="29" t="str">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D23)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F23" s="29">
@@ -4340,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="29" t="str">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F23)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H23" s="30">
@@ -4352,15 +4354,15 @@
         <v>0.75810728959235163</v>
       </c>
       <c r="J23" s="30">
-        <f>(F23-H23)/I23</f>
+        <f t="shared" si="2"/>
         <v>0.4858824982778579</v>
       </c>
       <c r="K23" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.31352523895390516</v>
       </c>
       <c r="L23" s="29" t="str">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J23)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="29">
@@ -4368,11 +4370,11 @@
         <v>200</v>
       </c>
       <c r="N23" s="31">
-        <f>M23/H23</f>
+        <f t="shared" si="5"/>
         <v>316.6315789473685</v>
       </c>
       <c r="O23" s="29" t="str">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N23)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P23" s="29"/>
@@ -4392,7 +4394,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="29">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D24)+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F24" s="29">
@@ -4400,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="29">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F24)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H24" s="30">
@@ -4412,15 +4414,15 @@
         <v>0.67686632105875888</v>
       </c>
       <c r="J24" s="30">
-        <f>(F24-H24)/I24</f>
+        <f t="shared" si="2"/>
         <v>0.67477248464120332</v>
       </c>
       <c r="K24" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.24991016218462114</v>
       </c>
       <c r="L24" s="29">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J24)+1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M24" s="29">
@@ -4428,11 +4430,11 @@
         <v>100</v>
       </c>
       <c r="N24" s="31">
-        <f>M24/H24</f>
+        <f t="shared" si="5"/>
         <v>184.07079646017698</v>
       </c>
       <c r="O24" s="29">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N24)+1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P24" s="29"/>
@@ -4452,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D25)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F25" s="29">
@@ -4460,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F25)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H25" s="30">
@@ -4472,15 +4474,15 @@
         <v>1.640793642686911</v>
       </c>
       <c r="J25" s="30">
-        <f>(F25-H25)/I25</f>
+        <f t="shared" si="2"/>
         <v>0.61000837120979057</v>
       </c>
       <c r="K25" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27092813112251135</v>
       </c>
       <c r="L25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J25)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="29">
@@ -4488,11 +4490,11 @@
         <v>800</v>
       </c>
       <c r="N25" s="31">
-        <f>M25/H25</f>
+        <f t="shared" si="5"/>
         <v>266.74650011229147</v>
       </c>
       <c r="O25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N25)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P25" s="29"/>
@@ -4512,7 +4514,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D26)+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F26" s="29">
@@ -4520,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F26)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H26" s="30">
@@ -4532,15 +4534,15 @@
         <v>1.5620418614013669</v>
       </c>
       <c r="J26" s="30">
-        <f>(F26-H26)/I26</f>
+        <f t="shared" si="2"/>
         <v>-1.1068535147709484</v>
       </c>
       <c r="K26" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13417863330317295</v>
       </c>
       <c r="L26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J26)+1)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M26" s="29">
@@ -4548,11 +4550,11 @@
         <v>700</v>
       </c>
       <c r="N26" s="31">
-        <f>M26/H26</f>
+        <f t="shared" si="5"/>
         <v>256.50877038767311</v>
       </c>
       <c r="O26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N26)+1)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="P26" s="29"/>
@@ -4572,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="29">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D27)+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F27" s="29">
@@ -4580,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="29">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F27)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H27" s="30">
@@ -4592,15 +4594,15 @@
         <v>0.24791576048881739</v>
       </c>
       <c r="J27" s="30">
-        <f>(F27-H27)/I27</f>
+        <f t="shared" si="2"/>
         <v>-0.25746562908380199</v>
       </c>
       <c r="K27" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.39840967257938792</v>
       </c>
       <c r="L27" s="29">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J27)+1)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="M27" s="29">
@@ -4608,11 +4610,11 @@
         <v>20</v>
       </c>
       <c r="N27" s="31">
-        <f>M27/H27</f>
+        <f t="shared" si="5"/>
         <v>313.33333333333337</v>
       </c>
       <c r="O27" s="29">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N27)+1)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="P27" s="29"/>
@@ -4632,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="29" t="str">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D28)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F28" s="29">
@@ -4640,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="29" t="str">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F28)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H28" s="30">
@@ -4652,15 +4654,15 @@
         <v>0.54230382522055953</v>
       </c>
       <c r="J28" s="30">
-        <f>(F28-H28)/I28</f>
+        <f t="shared" si="2"/>
         <v>-0.58850578094375816</v>
       </c>
       <c r="K28" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27809642736849838</v>
       </c>
       <c r="L28" s="29" t="str">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J28)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M28" s="29">
@@ -4668,11 +4670,11 @@
         <v>100</v>
       </c>
       <c r="N28" s="31">
-        <f>M28/H28</f>
+        <f t="shared" si="5"/>
         <v>313.33333333333337</v>
       </c>
       <c r="O28" s="31" t="str">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N28)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P28" s="29"/>
@@ -4692,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="29">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D29)+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F29" s="29">
@@ -4700,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="29">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F29)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H29" s="30">
@@ -4712,15 +4714,15 @@
         <v>0.71401106976234563</v>
       </c>
       <c r="J29" s="30">
-        <f>(F29-H29)/I29</f>
+        <f t="shared" si="2"/>
         <v>-0.82094159664369926</v>
       </c>
       <c r="K29" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20583976793322406</v>
       </c>
       <c r="L29" s="29">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J29)+1)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M29" s="29">
@@ -4728,11 +4730,11 @@
         <v>100</v>
       </c>
       <c r="N29" s="31">
-        <f>M29/H29</f>
+        <f t="shared" si="5"/>
         <v>170.6014795754262</v>
       </c>
       <c r="O29" s="29">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N29)+1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P29" s="29"/>
@@ -4752,7 +4754,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="29" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D30)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F30" s="29">
@@ -4760,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="29" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F30)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="30">
@@ -4772,15 +4774,15 @@
         <v>0.86060092285446455</v>
       </c>
       <c r="J30" s="30">
-        <f>(F30-H30)/I30</f>
+        <f t="shared" si="2"/>
         <v>-0.92277706012539296</v>
       </c>
       <c r="K30" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17806169891377793</v>
       </c>
       <c r="L30" s="29" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J30)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="29">
@@ -4788,11 +4790,11 @@
         <v>240</v>
       </c>
       <c r="N30" s="31">
-        <f>M30/H30</f>
+        <f t="shared" si="5"/>
         <v>302.21265389966049</v>
       </c>
       <c r="O30" s="31" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N30)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P30" s="29"/>
@@ -4812,7 +4814,7 @@
         <v>51</v>
       </c>
       <c r="E31" s="29">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D31)+1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F31" s="29">
@@ -4820,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="29">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F31)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H31" s="30">
@@ -4832,15 +4834,15 @@
         <v>1.3767007404782396</v>
       </c>
       <c r="J31" s="30">
-        <f>(F31-H31)/I31</f>
+        <f t="shared" si="2"/>
         <v>-0.10114828068400734</v>
       </c>
       <c r="K31" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.45971637604945381</v>
       </c>
       <c r="L31" s="29">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J31)+1)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M31" s="29">
@@ -4848,11 +4850,11 @@
         <v>500</v>
       </c>
       <c r="N31" s="31">
-        <f>M31/H31</f>
+        <f t="shared" si="5"/>
         <v>233.7266736600364</v>
       </c>
       <c r="O31" s="29">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N31)+1)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="P31" s="29"/>
@@ -4872,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="29" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D32)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F32" s="29">
@@ -4880,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="29" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F32)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="30">
@@ -4892,15 +4894,15 @@
         <v>0.43925136315935126</v>
       </c>
       <c r="J32" s="30">
-        <f>(F32-H32)/I32</f>
+        <f t="shared" si="2"/>
         <v>-0.47429183107111794</v>
       </c>
       <c r="K32" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.31764590799841352</v>
       </c>
       <c r="L32" s="29" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J32)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M32" s="29">
@@ -4908,11 +4910,11 @@
         <v>50</v>
       </c>
       <c r="N32" s="31">
-        <f>M32/H32</f>
+        <f t="shared" si="5"/>
         <v>240.00000000000003</v>
       </c>
       <c r="O32" s="31" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N32)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P32" s="29"/>
@@ -4932,7 +4934,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="29" t="str">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D33)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F33" s="29">
@@ -4940,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="29" t="str">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F33)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="30">
@@ -4952,15 +4954,15 @@
         <v>0.79496113990168826</v>
       </c>
       <c r="J33" s="30">
-        <f>(F33-H33)/I33</f>
+        <f t="shared" si="2"/>
         <v>0.39856301064268529</v>
       </c>
       <c r="K33" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.34510761059987882</v>
       </c>
       <c r="L33" s="29" t="str">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J33)+1)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M33" s="29">
@@ -4968,11 +4970,11 @@
         <v>160</v>
       </c>
       <c r="N33" s="31">
-        <f>M33/H33</f>
+        <f t="shared" si="5"/>
         <v>234.20647149460706</v>
       </c>
       <c r="O33" s="31" t="str">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N33)+1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P33" s="29"/>
@@ -4992,7 +4994,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="29">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D34)+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F34" s="29">
@@ -5000,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="29">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F34)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H34" s="30">
@@ -5012,15 +5014,15 @@
         <v>1.2450174883944376</v>
       </c>
       <c r="J34" s="30">
-        <f>(F34-H34)/I34</f>
+        <f t="shared" si="2"/>
         <v>0.19973703231952852</v>
       </c>
       <c r="K34" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.42084312485409769</v>
       </c>
       <c r="L34" s="29">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J34)+1)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M34" s="29">
@@ -5028,11 +5030,11 @@
         <v>400</v>
       </c>
       <c r="N34" s="31">
-        <f>M34/H34</f>
+        <f t="shared" si="5"/>
         <v>228.39864151673595</v>
       </c>
       <c r="O34" s="29">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N34)+1)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="P34" s="29"/>
@@ -5052,7 +5054,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="29">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D35)+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F35" s="29">
@@ -5060,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="29">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F35)+1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H35" s="30">
@@ -5072,15 +5074,15 @@
         <v>1.8257369483316859</v>
       </c>
       <c r="J35" s="30">
-        <f>(F35-H35)/I35</f>
+        <f t="shared" si="2"/>
         <v>-0.43660492998348149</v>
       </c>
       <c r="K35" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.33119894334721611</v>
       </c>
       <c r="L35" s="29">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J35)+1)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M35" s="29">
@@ -5088,11 +5090,11 @@
         <v>810</v>
       </c>
       <c r="N35" s="31">
-        <f>M35/H35</f>
+        <f t="shared" si="5"/>
         <v>213.31924534441649</v>
       </c>
       <c r="O35" s="29">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N35)+1)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="P35" s="29"/>
@@ -5112,7 +5114,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="29">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D36)+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F36" s="29">
@@ -5120,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="29">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F36)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H36" s="30">
@@ -5132,15 +5134,15 @@
         <v>1.3441673982599343</v>
       </c>
       <c r="J36" s="30">
-        <f>(F36-H36)/I36</f>
+        <f t="shared" si="2"/>
         <v>-0.74080480953425287</v>
       </c>
       <c r="K36" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.22940589929755095</v>
       </c>
       <c r="L36" s="29">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J36)+1)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M36" s="29">
@@ -5148,11 +5150,11 @@
         <v>400</v>
       </c>
       <c r="N36" s="31">
-        <f>M36/H36</f>
+        <f t="shared" si="5"/>
         <v>200.42433103306936</v>
       </c>
       <c r="O36" s="29">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N36)+1)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="P36" s="29"/>
@@ -5172,7 +5174,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="29">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D37)+1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F37" s="29">
@@ -5180,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="29">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F37)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H37" s="30">
@@ -5192,15 +5194,15 @@
         <v>1.2852767126125033</v>
       </c>
       <c r="J37" s="30">
-        <f>(F37-H37)/I37</f>
+        <f t="shared" si="2"/>
         <v>0.1312620147123815</v>
       </c>
       <c r="K37" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.44778401980729587</v>
       </c>
       <c r="L37" s="29">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J37)+1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="M37" s="29">
@@ -5208,11 +5210,11 @@
         <v>350</v>
       </c>
       <c r="N37" s="31">
-        <f>M37/H37</f>
+        <f t="shared" si="5"/>
         <v>191.12189757643927</v>
       </c>
       <c r="O37" s="29">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N37)+1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P37" s="29"/>
@@ -5232,7 +5234,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="29">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D38)+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F38" s="29">
@@ -5240,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="29">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F38)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H38" s="30">
@@ -5252,15 +5254,15 @@
         <v>1.3441673982599343</v>
       </c>
       <c r="J38" s="30">
-        <f>(F38-H38)/I38</f>
+        <f t="shared" si="2"/>
         <v>3.1501482295870731E-3</v>
       </c>
       <c r="K38" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.49874327476019131</v>
       </c>
       <c r="L38" s="29">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J38)+1)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M38" s="29">
@@ -5268,11 +5270,11 @@
         <v>400</v>
       </c>
       <c r="N38" s="31">
-        <f>M38/H38</f>
+        <f t="shared" si="5"/>
         <v>200.42433103306936</v>
       </c>
       <c r="O38" s="29">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N38)+1)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="P38" s="29"/>
@@ -5292,7 +5294,7 @@
         <v>91</v>
       </c>
       <c r="E39" s="29">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D39)+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F39" s="29">
@@ -5300,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="29">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F39)+1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H39" s="30">
@@ -5312,15 +5314,15 @@
         <v>1.9032990868959521</v>
       </c>
       <c r="J39" s="30">
-        <f>(F39-H39)/I39</f>
+        <f t="shared" si="2"/>
         <v>-0.609868477383676</v>
       </c>
       <c r="K39" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27097446775170275</v>
       </c>
       <c r="L39" s="29">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J39)+1)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="M39" s="29">
@@ -5328,11 +5330,11 @@
         <v>900</v>
       </c>
       <c r="N39" s="31">
-        <f>M39/H39</f>
+        <f t="shared" si="5"/>
         <v>216.30652627574281</v>
       </c>
       <c r="O39" s="29">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N39)+1)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="P39" s="29"/>
@@ -5352,7 +5354,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="35">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D40)+1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F40" s="35">
@@ -5360,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="35">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F40)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H40" s="36">
@@ -5372,15 +5374,15 @@
         <v>1.2439598119364987</v>
       </c>
       <c r="J40" s="36">
-        <f>(F40-H40)/I40</f>
+        <f t="shared" si="2"/>
         <v>1.7963311108174056</v>
       </c>
       <c r="K40" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6220936405928716E-2</v>
       </c>
       <c r="L40" s="37">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J40)+1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M40" s="35">
@@ -5388,11 +5390,11 @@
         <v>360</v>
       </c>
       <c r="N40" s="31">
-        <f>M40/H40</f>
+        <f t="shared" si="5"/>
         <v>203.9155999000713</v>
       </c>
       <c r="O40" s="29">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N40)+1)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="P40" s="29"/>
@@ -5412,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="35">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D41)+1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F41" s="35">
@@ -5420,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="35">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F41)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H41" s="36">
@@ -5432,15 +5434,15 @@
         <v>0.54598817687849921</v>
       </c>
       <c r="J41" s="36">
-        <f>(F41-H41)/I41</f>
+        <f t="shared" si="2"/>
         <v>-0.66156013751613985</v>
       </c>
       <c r="K41" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.25412658085528567</v>
       </c>
       <c r="L41" s="37">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J41)+1)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="M41" s="35">
@@ -5448,11 +5450,11 @@
         <v>20</v>
       </c>
       <c r="N41" s="31">
-        <f>M41/H41</f>
+        <f t="shared" si="5"/>
         <v>55.370370370370374</v>
       </c>
       <c r="O41" s="29">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N41)+1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P41" s="29"/>
@@ -5472,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="35">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D42)+1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F42" s="35">
@@ -5480,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="35">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F42)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H42" s="36">
@@ -5492,15 +5494,15 @@
         <v>0.42132504423474315</v>
       </c>
       <c r="J42" s="36">
-        <f>(F42-H42)/I42</f>
+        <f t="shared" si="2"/>
         <v>-0.54772255750516619</v>
       </c>
       <c r="K42" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2919412103851825</v>
       </c>
       <c r="L42" s="37">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J42)+1)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M42" s="35">
@@ -5508,11 +5510,11 @@
         <v>0</v>
       </c>
       <c r="N42" s="31">
-        <f>M42/H42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" s="29">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N42)+1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P42" s="29"/>
@@ -5532,7 +5534,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="37">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D43)+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F43" s="35">
@@ -5540,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="37">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F43)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H43" s="36">
@@ -5552,15 +5554,15 @@
         <v>0.73982863701939761</v>
       </c>
       <c r="J43" s="36">
-        <f>(F43-H43)/I43</f>
+        <f t="shared" si="2"/>
         <v>1.8930256409135764</v>
       </c>
       <c r="K43" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9177229841034769E-2</v>
       </c>
       <c r="L43" s="37">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J43)+1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M43" s="35">
@@ -5568,11 +5570,11 @@
         <v>150</v>
       </c>
       <c r="N43" s="31">
-        <f>M43/H43</f>
+        <f t="shared" si="5"/>
         <v>250.21459227467813</v>
       </c>
       <c r="O43" s="37">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N43)+1)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="P43" s="29"/>
@@ -5592,7 +5594,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="35">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D44)+1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F44" s="35">
@@ -5600,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="35">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F44)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H44" s="36">
@@ -5612,15 +5614,15 @@
         <v>0.37094647870344777</v>
       </c>
       <c r="J44" s="36">
-        <f>(F44-H44)/I44</f>
+        <f t="shared" si="2"/>
         <v>-0.39211733715048613</v>
       </c>
       <c r="K44" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.34748575901730239</v>
       </c>
       <c r="L44" s="37">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J44)+1)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="M44" s="35">
@@ -5628,11 +5630,11 @@
         <v>40</v>
       </c>
       <c r="N44" s="31">
-        <f>M44/H44</f>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="O44" s="29">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N44)+1)</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="P44" s="29"/>
@@ -5652,7 +5654,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="35">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D45)+1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F45" s="35">
@@ -5660,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="35">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F45)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H45" s="36">
@@ -5672,15 +5674,15 @@
         <v>0.67996690791586989</v>
       </c>
       <c r="J45" s="36">
-        <f>(F45-H45)/I45</f>
+        <f t="shared" si="2"/>
         <v>0.72370413314432125</v>
       </c>
       <c r="K45" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.23462369757905566</v>
       </c>
       <c r="L45" s="37">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J45)+1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M45" s="35">
@@ -5688,11 +5690,11 @@
         <v>100</v>
       </c>
       <c r="N45" s="31">
-        <f>M45/H45</f>
+        <f t="shared" si="5"/>
         <v>196.88715953307394</v>
       </c>
       <c r="O45" s="29">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N45)+1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P45" s="29"/>
@@ -5712,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="35">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D46)+1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F46" s="35">
@@ -5720,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="35">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F46)+1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H46" s="36">
@@ -5732,15 +5734,15 @@
         <v>0.53983489724168388</v>
       </c>
       <c r="J46" s="36">
-        <f>(F46-H46)/I46</f>
+        <f t="shared" si="2"/>
         <v>1.2483688011309693</v>
       </c>
       <c r="K46" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10594801446913715</v>
       </c>
       <c r="L46" s="37">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J46)+1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M46" s="35">
@@ -5748,11 +5750,11 @@
         <v>50</v>
       </c>
       <c r="N46" s="31">
-        <f>M46/H46</f>
+        <f t="shared" si="5"/>
         <v>153.33333333333334</v>
       </c>
       <c r="O46" s="29">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N46)+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P46" s="29"/>
@@ -5779,22 +5781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="56" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6166,25 +6168,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="62" t="s">
         <v>32</v>
       </c>
       <c r="I1" t="s">
@@ -13308,10 +13310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13319,21 +13321,28 @@
     <col min="5" max="5" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="60" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1">
+        <f>SUM(D:D)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13347,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13361,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13375,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13389,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13403,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13417,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13431,7 +13440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13445,7 +13454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13459,7 +13468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13473,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13487,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13501,7 +13510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13515,7 +13524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13529,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14523,29 +14532,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.08984375" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="60" t="s">
         <v>21</v>
       </c>
       <c r="F1" t="s">
@@ -14553,10 +14563,14 @@
       </c>
       <c r="G1" s="40">
         <f>SUM(C:C)</f>
-        <v>20124.150000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23114.15</v>
+      </c>
+      <c r="H1" s="39">
+        <f>SUM(D:D)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14570,7 +14584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14584,7 +14598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14598,7 +14612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14612,7 +14626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14626,7 +14640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14640,7 +14654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14654,7 +14668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14668,7 +14682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14682,7 +14696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14696,7 +14710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14707,6 +14721,20 @@
         <v>2894</v>
       </c>
       <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43704</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2990</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
     </row>
@@ -14720,26 +14748,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="40">
         <v>3929</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -14747,8 +14782,15 @@
         <f>Sales!J1</f>
         <v>20720</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="39">
+        <f>Purchases!H1</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -14757,22 +14799,36 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="43">
         <f>-Purchases!G1</f>
-        <v>-20124.150000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="69" t="s">
+        <v>-23114.15</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="72">
+        <f>-Prizes!G1</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="64">
         <f>SUM(C2:C5)</f>
-        <v>4424.8499999999985</v>
+        <v>1434.8499999999985</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="73">
+        <f>SUM(G1:G5)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -397,6 +397,21 @@
   <si>
     <t>standard deviation of prizes</t>
   </si>
+  <si>
+    <t>Renter</t>
+  </si>
+  <si>
+    <t>Renter 2016</t>
+  </si>
+  <si>
+    <t>Renter 2017</t>
+  </si>
+  <si>
+    <t>Renter 2018</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
 </sst>
 </file>
 
@@ -486,6 +501,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +706,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,8 +726,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1410,7 +1426,7 @@
   <dimension ref="B2:U41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,30 +1438,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -1920,30 +1936,30 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="70" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
@@ -2418,30 +2434,30 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="71" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
@@ -2988,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5772,7 +5788,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6157,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14534,8 +14550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14748,33 +14764,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
     <col min="7" max="7" width="8.90625" style="39"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="40">
         <v>3929</v>
       </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -14782,53 +14799,84 @@
         <f>Sales!J1</f>
         <v>20720</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="40">
+        <f>J7</f>
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="40">
+        <f>-Persons!R1</f>
+        <v>-100</v>
+      </c>
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G5" s="39">
         <f>Purchases!H1</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="40">
-        <f>-Persons!R1</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="42" t="s">
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C6" s="43">
         <f>-Purchases!G1</f>
         <v>-23114.15</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G6" s="66">
         <f>-Prizes!G1</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="64">
-        <f>SUM(C2:C5)</f>
-        <v>1434.8499999999985</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="C7" s="64">
+        <f>SUM(C2:C6)</f>
+        <v>1460.8499999999985</v>
+      </c>
+      <c r="F7" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="73">
-        <f>SUM(G1:G5)</f>
+      <c r="G7" s="67">
+        <f>SUM(G2:G6)</f>
         <v>12</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="64">
+        <f>SUM(J2:J6)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:O46" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:O46"/>
   <sortState ref="A2:O46">
-    <sortCondition ref="A1:A46"/>
+    <sortCondition ref="K1:K46"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="id" dataDxfId="30"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="B2:U41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2194,15 +2194,15 @@
       </c>
       <c r="C14" s="18">
         <f t="array" ref="C14">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B14,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B14,B14)))</f>
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>Johanne</v>
+        <v>Ragnar</v>
       </c>
       <c r="E14" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F14" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C14,Persons!$A:$A,0))</f>
@@ -2210,23 +2210,23 @@
       </c>
       <c r="G14" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>2.9523340876001374</v>
+        <v>1.7654362892118982</v>
       </c>
       <c r="H14" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>1.6246358262190024</v>
+        <v>1.2439598119364987</v>
       </c>
       <c r="I14" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>0.64486200260527571</v>
+        <v>1.7963311108174056</v>
       </c>
       <c r="J14" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>0.259508308715931</v>
+        <v>3.6220936405928716E-2</v>
       </c>
       <c r="K14" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>250.64913998317971</v>
+        <v>203.9155999000713</v>
       </c>
       <c r="L14" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L14)-ROW(L$12))</f>
@@ -2276,15 +2276,15 @@
       </c>
       <c r="C15" s="18">
         <f t="array" ref="C15">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B15,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B15,B15)))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>Kim</v>
+        <v>Johanne</v>
       </c>
       <c r="E15" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F15" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C15,Persons!$A:$A,0))</f>
@@ -2292,23 +2292,23 @@
       </c>
       <c r="G15" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>3.0883035773743104</v>
+        <v>2.9523340876001374</v>
       </c>
       <c r="H15" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>1.645289709282524</v>
+        <v>1.6246358262190024</v>
       </c>
       <c r="I15" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>0.55412515952783847</v>
+        <v>0.64486200260527571</v>
       </c>
       <c r="J15" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>0.28974659632997213</v>
+        <v>0.259508308715931</v>
       </c>
       <c r="K15" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>259.04189143224175</v>
+        <v>250.64913998317971</v>
       </c>
       <c r="L15" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L15)-ROW(L$12))</f>
@@ -2358,15 +2358,15 @@
       </c>
       <c r="C16" s="18">
         <f t="array" ref="C16">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B16,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B16,B16)))</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>Yngvar</v>
+        <v>Kim</v>
       </c>
       <c r="E16" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F16" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C16,Persons!$A:$A,0))</f>
@@ -2374,23 +2374,23 @@
       </c>
       <c r="G16" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>3.5729121587717425</v>
+        <v>3.0883035773743104</v>
       </c>
       <c r="H16" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>1.7690626415061241</v>
+        <v>1.645289709282524</v>
       </c>
       <c r="I16" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>0.24142041734861824</v>
+        <v>0.55412515952783847</v>
       </c>
       <c r="J16" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>0.40461464495785371</v>
+        <v>0.28974659632997213</v>
       </c>
       <c r="K16" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>207.11396393646277</v>
+        <v>259.04189143224175</v>
       </c>
       <c r="L16" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L16)-ROW(L$12))</f>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3078,1699 +3078,1699 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="29">
         <f>SUMIF(Sales!B:B,A2,Sales!D:D)</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="35" t="str">
-        <f t="shared" ref="E2:E46" si="0">IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</f>
+        <v>68</v>
+      </c>
+      <c r="E2" s="29" t="str">
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="29">
         <f>SUMIF(Prizes!B:B,A2,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f t="shared" ref="G2:G46" si="1">IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="29" t="str">
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="30">
         <f>SUMIF(Sales!B:B,A2,Sales!F:F)</f>
-        <v>0.98785425101214575</v>
-      </c>
-      <c r="I2" s="36">
+        <v>3.2402189600805982</v>
+      </c>
+      <c r="I2" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A2,Sales!G:G))</f>
-        <v>0.90534417201851047</v>
-      </c>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2:J46" si="2">(F2-H2)/I2</f>
-        <v>-1.0911366986652986</v>
+        <v>1.6903967309717229</v>
+      </c>
+      <c r="J2" s="30">
+        <f>(F2-H2)/I2</f>
+        <v>2.224200373221318</v>
       </c>
       <c r="K2" s="49">
-        <f t="shared" ref="K2:K46" si="3">IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</f>
-        <v>0.137606368366785</v>
-      </c>
-      <c r="L2" s="37" t="str">
-        <f t="shared" ref="L2:L46" si="4">IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</f>
+        <f>IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</f>
+        <v>1.3067482981361178E-2</v>
+      </c>
+      <c r="L2" s="29" t="str">
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="29">
         <f>SUMIF(Sales!B:B,A2,Sales!E:E)</f>
-        <v>100</v>
+        <v>720</v>
       </c>
       <c r="N2" s="31">
-        <f t="shared" ref="N2:N46" si="5">M2/H2</f>
-        <v>101.22950819672131</v>
-      </c>
-      <c r="O2" s="31" t="str">
-        <f t="shared" ref="O2:O46" si="6">IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</f>
+        <f>M2/H2</f>
+        <v>222.20720539888777</v>
+      </c>
+      <c r="O2" s="29" t="str">
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="35">
         <f>SUMIF(Sales!B:B,A3,Sales!D:D)</f>
-        <v>102</v>
-      </c>
-      <c r="E3" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3" s="29">
+        <v>15</v>
+      </c>
+      <c r="E3" s="37">
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D3)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="35">
         <f>SUMIF(Prizes!B:B,A3,Prizes!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="G3" s="37">
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F3)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="36">
         <f>SUMIF(Sales!B:B,A3,Sales!F:F)</f>
-        <v>5.0238575544420883</v>
-      </c>
-      <c r="I3" s="30">
+        <v>0.59948542024013718</v>
+      </c>
+      <c r="I3" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A3,Sales!G:G))</f>
-        <v>2.0742542497121694</v>
-      </c>
-      <c r="J3" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.97570370398080453</v>
+        <v>0.73982863701939761</v>
+      </c>
+      <c r="J3" s="36">
+        <f>(F3-H3)/I3</f>
+        <v>1.8930256409135764</v>
       </c>
       <c r="K3" s="49">
-        <f t="shared" si="3"/>
-        <v>0.16460565809130867</v>
-      </c>
-      <c r="L3" s="29">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M3" s="29">
+        <f>IF(F3&gt;H3,1-_xlfn.NORM.DIST(F3,H3,I3,1),_xlfn.NORM.DIST(F3,H3,I3,1))</f>
+        <v>2.9177229841034769E-2</v>
+      </c>
+      <c r="L3" s="37">
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J3)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="35">
         <f>SUMIF(Sales!B:B,A3,Sales!E:E)</f>
-        <v>1110</v>
+        <v>150</v>
       </c>
       <c r="N3" s="31">
-        <f t="shared" si="5"/>
-        <v>220.94575492462749</v>
-      </c>
-      <c r="O3" s="29">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f>M3/H3</f>
+        <v>250.21459227467813</v>
+      </c>
+      <c r="O3" s="37">
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N3)+1)</f>
+        <v>26</v>
       </c>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
+        <v>38</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
+        <f>SUMIF(Sales!B:B,A4,Sales!D:D)</f>
+        <v>37</v>
+      </c>
+      <c r="E4" s="35">
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D4)+1)</f>
+        <v>19</v>
+      </c>
+      <c r="F4" s="35">
+        <f>SUMIF(Prizes!B:B,A4,Prizes!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="35">
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F4)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="36">
+        <f>SUMIF(Sales!B:B,A4,Sales!F:F)</f>
+        <v>1.7654362892118982</v>
+      </c>
+      <c r="I4" s="36">
+        <f>SQRT(SUMIF(Sales!B:B,A4,Sales!G:G))</f>
+        <v>1.2439598119364987</v>
+      </c>
+      <c r="J4" s="36">
+        <f>(F4-H4)/I4</f>
+        <v>1.7963311108174056</v>
+      </c>
+      <c r="K4" s="49">
+        <f>IF(F4&gt;H4,1-_xlfn.NORM.DIST(F4,H4,I4,1),_xlfn.NORM.DIST(F4,H4,I4,1))</f>
+        <v>3.6220936405928716E-2</v>
+      </c>
+      <c r="L4" s="37">
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J4)+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <f>SUMIF(Sales!B:B,A4,Sales!D:D)</f>
-        <v>45</v>
-      </c>
-      <c r="E4" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F4" s="29">
-        <f>SUMIF(Prizes!B:B,A4,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="29">
-        <f t="shared" si="1"/>
+      <c r="M4" s="35">
+        <f>SUMIF(Sales!B:B,A4,Sales!E:E)</f>
+        <v>360</v>
+      </c>
+      <c r="N4" s="31">
+        <f>M4/H4</f>
+        <v>203.9155999000713</v>
+      </c>
+      <c r="O4" s="29">
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N4)+1)</f>
         <v>12</v>
-      </c>
-      <c r="H4" s="30">
-        <f>SUMIF(Sales!B:B,A4,Sales!F:F)</f>
-        <v>2.3237303641958817</v>
-      </c>
-      <c r="I4" s="30">
-        <f>SQRT(SUMIF(Sales!B:B,A4,Sales!G:G))</f>
-        <v>1.4405480167928464</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.2247272290975878</v>
-      </c>
-      <c r="K4" s="49">
-        <f t="shared" si="3"/>
-        <v>0.41109574029874496</v>
-      </c>
-      <c r="L4" s="29">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="M4" s="29">
-        <f>SUMIF(Sales!B:B,A4,Sales!E:E)</f>
-        <v>550</v>
-      </c>
-      <c r="N4" s="31">
-        <f t="shared" si="5"/>
-        <v>236.6883905613229</v>
-      </c>
-      <c r="O4" s="29">
-        <f t="shared" si="6"/>
-        <v>23</v>
       </c>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="29">
         <f>SUMIF(Sales!B:B,A5,Sales!D:D)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E5" s="29">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D5)+1)</f>
+        <v>17</v>
       </c>
       <c r="F5" s="29">
         <f>SUMIF(Prizes!B:B,A5,Prizes!D:D)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F5)+1)</f>
+        <v>26</v>
       </c>
       <c r="H5" s="30">
         <f>SUMIF(Sales!B:B,A5,Sales!F:F)</f>
-        <v>1.7386807932020698</v>
+        <v>2.0278924229052588</v>
       </c>
       <c r="I5" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A5,Sales!G:G))</f>
-        <v>1.2196223879112047</v>
+        <v>1.3415151969039836</v>
       </c>
       <c r="J5" s="30">
-        <f t="shared" si="2"/>
-        <v>0.21426238923465521</v>
+        <f>(F5-H5)/I5</f>
+        <v>-1.5116432729091189</v>
       </c>
       <c r="K5" s="49">
-        <f t="shared" si="3"/>
-        <v>0.41517122299034059</v>
+        <f>IF(F5&gt;H5,1-_xlfn.NORM.DIST(F5,H5,I5,1),_xlfn.NORM.DIST(F5,H5,I5,1))</f>
+        <v>6.5312318472907513E-2</v>
       </c>
       <c r="L5" s="29">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J5)+1)</f>
+        <v>33</v>
       </c>
       <c r="M5" s="29">
         <f>SUMIF(Sales!B:B,A5,Sales!E:E)</f>
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="N5" s="31">
-        <f t="shared" si="5"/>
-        <v>201.3020454176737</v>
+        <f>M5/H5</f>
+        <v>226.83649034053852</v>
       </c>
       <c r="O5" s="29">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N5)+1)</f>
+        <v>20</v>
       </c>
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
         <f>SUMIF(Sales!B:B,A6,Sales!D:D)</f>
-        <v>55</v>
-      </c>
-      <c r="E6" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" s="29">
+        <v>5</v>
+      </c>
+      <c r="E6" s="35">
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D6)+1)</f>
+        <v>29</v>
+      </c>
+      <c r="F6" s="35">
         <f>SUMIF(Prizes!B:B,A6,Prizes!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F6)+1)</f>
+        <v>19</v>
+      </c>
+      <c r="H6" s="36">
+        <f>SUMIF(Sales!B:B,A6,Sales!F:F)</f>
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="I6" s="36">
+        <f>SQRT(SUMIF(Sales!B:B,A6,Sales!G:G))</f>
+        <v>0.53983489724168388</v>
+      </c>
+      <c r="J6" s="36">
+        <f>(F6-H6)/I6</f>
+        <v>1.2483688011309693</v>
+      </c>
+      <c r="K6" s="49">
+        <f>IF(F6&gt;H6,1-_xlfn.NORM.DIST(F6,H6,I6,1),_xlfn.NORM.DIST(F6,H6,I6,1))</f>
+        <v>0.10594801446913715</v>
+      </c>
+      <c r="L6" s="37">
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J6)+1)</f>
         <v>3</v>
       </c>
-      <c r="G6" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="30">
-        <f>SUMIF(Sales!B:B,A6,Sales!F:F)</f>
-        <v>2.3740803347134869</v>
-      </c>
-      <c r="I6" s="30">
-        <f>SQRT(SUMIF(Sales!B:B,A6,Sales!G:G))</f>
-        <v>1.4608189121183603</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="2"/>
-        <v>0.42847177024759042</v>
-      </c>
-      <c r="K6" s="49">
-        <f t="shared" si="3"/>
-        <v>0.33415384099578926</v>
-      </c>
-      <c r="L6" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M6" s="29">
+      <c r="M6" s="35">
         <f>SUMIF(Sales!B:B,A6,Sales!E:E)</f>
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N6" s="31">
-        <f t="shared" si="5"/>
-        <v>244.30512797706007</v>
-      </c>
-      <c r="O6" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f>M6/H6</f>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="O6" s="29">
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N6)+1)</f>
+        <v>3</v>
       </c>
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="29">
         <f>SUMIF(Sales!B:B,A7,Sales!D:D)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D7)+1)</f>
+        <v>8</v>
       </c>
       <c r="F7" s="29">
         <f>SUMIF(Prizes!B:B,A7,Prizes!D:D)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F7)+1)</f>
+        <v>19</v>
       </c>
       <c r="H7" s="30">
         <f>SUMIF(Sales!B:B,A7,Sales!F:F)</f>
-        <v>2.9523340876001374</v>
+        <v>2.7289515245114577</v>
       </c>
       <c r="I7" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A7,Sales!G:G))</f>
-        <v>1.6246358262190024</v>
+        <v>1.5620418614013669</v>
       </c>
       <c r="J7" s="30">
-        <f t="shared" si="2"/>
-        <v>0.64486200260527571</v>
+        <f>(F7-H7)/I7</f>
+        <v>-1.1068535147709484</v>
       </c>
       <c r="K7" s="49">
-        <f t="shared" si="3"/>
-        <v>0.259508308715931</v>
+        <f>IF(F7&gt;H7,1-_xlfn.NORM.DIST(F7,H7,I7,1),_xlfn.NORM.DIST(F7,H7,I7,1))</f>
+        <v>0.13417863330317295</v>
       </c>
       <c r="L7" s="29">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J7)+1)</f>
+        <v>32</v>
       </c>
       <c r="M7" s="29">
         <f>SUMIF(Sales!B:B,A7,Sales!E:E)</f>
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="N7" s="31">
-        <f t="shared" si="5"/>
-        <v>250.64913998317971</v>
+        <f>M7/H7</f>
+        <v>256.50877038767311</v>
       </c>
       <c r="O7" s="29">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N7)+1)</f>
+        <v>28</v>
       </c>
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="35">
         <f>SUMIF(Sales!B:B,A8,Sales!D:D)</f>
-        <v>25</v>
-      </c>
-      <c r="E8" s="29" t="str">
-        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="35" t="str">
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="35">
         <f>SUMIF(Prizes!B:B,A8,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="29" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="35" t="str">
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="36">
         <f>SUMIF(Sales!B:B,A8,Sales!F:F)</f>
-        <v>1.6521803371363961</v>
-      </c>
-      <c r="I8" s="30">
+        <v>0.98785425101214575</v>
+      </c>
+      <c r="I8" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A8,Sales!G:G))</f>
-        <v>1.1960152226849081</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" si="2"/>
-        <v>0.29081541460884686</v>
+        <v>0.90534417201851047</v>
+      </c>
+      <c r="J8" s="36">
+        <f>(F8-H8)/I8</f>
+        <v>-1.0911366986652986</v>
       </c>
       <c r="K8" s="49">
-        <f t="shared" si="3"/>
-        <v>0.38559624774223478</v>
-      </c>
-      <c r="L8" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(F8&gt;H8,1-_xlfn.NORM.DIST(F8,H8,I8,1),_xlfn.NORM.DIST(F8,H8,I8,1))</f>
+        <v>0.137606368366785</v>
+      </c>
+      <c r="L8" s="37" t="str">
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="35">
         <f>SUMIF(Sales!B:B,A8,Sales!E:E)</f>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N8" s="31">
-        <f t="shared" si="5"/>
-        <v>211.8412815677431</v>
+        <f>M8/H8</f>
+        <v>101.22950819672131</v>
       </c>
       <c r="O8" s="31" t="str">
-        <f t="shared" si="6"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="29">
         <f>SUMIF(Sales!B:B,A9,Sales!D:D)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D9)+1)</f>
+        <v>2</v>
       </c>
       <c r="F9" s="29">
         <f>SUMIF(Prizes!B:B,A9,Prizes!D:D)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F9)+1)</f>
+        <v>7</v>
       </c>
       <c r="H9" s="30">
         <f>SUMIF(Sales!B:B,A9,Sales!F:F)</f>
-        <v>3.0883035773743104</v>
+        <v>5.3738881235615397</v>
       </c>
       <c r="I9" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A9,Sales!G:G))</f>
-        <v>1.645289709282524</v>
+        <v>2.1775157131870162</v>
       </c>
       <c r="J9" s="30">
-        <f t="shared" si="2"/>
-        <v>0.55412515952783847</v>
+        <f>(F9-H9)/I9</f>
+        <v>-1.0901818568680326</v>
       </c>
       <c r="K9" s="49">
-        <f t="shared" si="3"/>
-        <v>0.28974659632997213</v>
+        <f>IF(F9&gt;H9,1-_xlfn.NORM.DIST(F9,H9,I9,1),_xlfn.NORM.DIST(F9,H9,I9,1))</f>
+        <v>0.13781652188722632</v>
       </c>
       <c r="L9" s="29">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J9)+1)</f>
+        <v>31</v>
       </c>
       <c r="M9" s="29">
         <f>SUMIF(Sales!B:B,A9,Sales!E:E)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N9" s="31">
-        <f t="shared" si="5"/>
-        <v>259.04189143224175</v>
+        <f>M9/H9</f>
+        <v>241.91050690099334</v>
       </c>
       <c r="O9" s="29">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N9)+1)</f>
+        <v>25</v>
       </c>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
       </c>
       <c r="D10" s="29">
         <f>SUMIF(Sales!B:B,A10,Sales!D:D)</f>
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="E10" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D10)+1)</f>
+        <v>3</v>
       </c>
       <c r="F10" s="29">
         <f>SUMIF(Prizes!B:B,A10,Prizes!D:D)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="29">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F10)+1)</f>
+        <v>7</v>
       </c>
       <c r="H10" s="30">
         <f>SUMIF(Sales!B:B,A10,Sales!F:F)</f>
-        <v>7.2530579034546712</v>
+        <v>5.0238575544420883</v>
       </c>
       <c r="I10" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A10,Sales!G:G))</f>
-        <v>2.4711886604511184</v>
+        <v>2.0742542497121694</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="2"/>
-        <v>0.30226024766922233</v>
+        <f>(F10-H10)/I10</f>
+        <v>-0.97570370398080453</v>
       </c>
       <c r="K10" s="49">
-        <f t="shared" si="3"/>
-        <v>0.38122683981814831</v>
+        <f>IF(F10&gt;H10,1-_xlfn.NORM.DIST(F10,H10,I10,1),_xlfn.NORM.DIST(F10,H10,I10,1))</f>
+        <v>0.16460565809130867</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J10)+1)</f>
+        <v>30</v>
       </c>
       <c r="M10" s="29">
         <f>SUMIF(Sales!B:B,A10,Sales!E:E)</f>
-        <v>1740</v>
+        <v>1110</v>
       </c>
       <c r="N10" s="31">
-        <f t="shared" si="5"/>
-        <v>239.89881552872043</v>
+        <f>M10/H10</f>
+        <v>220.94575492462749</v>
       </c>
       <c r="O10" s="29">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N10)+1)</f>
+        <v>17</v>
       </c>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C11" s="29">
         <v>0</v>
       </c>
       <c r="D11" s="29">
         <f>SUMIF(Sales!B:B,A11,Sales!D:D)</f>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E11" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F11" s="29">
         <f>SUMIF(Prizes!B:B,A11,Prizes!D:D)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H11" s="30">
         <f>SUMIF(Sales!B:B,A11,Sales!F:F)</f>
-        <v>3.2402189600805982</v>
+        <v>0.7941427895328429</v>
       </c>
       <c r="I11" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A11,Sales!G:G))</f>
-        <v>1.6903967309717229</v>
+        <v>0.86060092285446455</v>
       </c>
       <c r="J11" s="30">
-        <f t="shared" si="2"/>
-        <v>2.224200373221318</v>
+        <f>(F11-H11)/I11</f>
+        <v>-0.92277706012539296</v>
       </c>
       <c r="K11" s="49">
-        <f t="shared" si="3"/>
-        <v>1.3067482981361178E-2</v>
+        <f>IF(F11&gt;H11,1-_xlfn.NORM.DIST(F11,H11,I11,1),_xlfn.NORM.DIST(F11,H11,I11,1))</f>
+        <v>0.17806169891377793</v>
       </c>
       <c r="L11" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="29">
         <f>SUMIF(Sales!B:B,A11,Sales!E:E)</f>
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N11" s="31">
-        <f t="shared" si="5"/>
-        <v>222.20720539888777</v>
-      </c>
-      <c r="O11" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f>M11/H11</f>
+        <v>302.21265389966049</v>
+      </c>
+      <c r="O11" s="31" t="str">
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
       </c>
       <c r="D12" s="29">
         <f>SUMIF(Sales!B:B,A12,Sales!D:D)</f>
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D12)+1)</f>
+        <v>7</v>
       </c>
       <c r="F12" s="29">
         <f>SUMIF(Prizes!B:B,A12,Prizes!D:D)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F12)+1)</f>
+        <v>2</v>
       </c>
       <c r="H12" s="30">
         <f>SUMIF(Sales!B:B,A12,Sales!F:F)</f>
-        <v>5.3738881235615397</v>
+        <v>3.4840829499620698</v>
       </c>
       <c r="I12" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A12,Sales!G:G))</f>
-        <v>2.1775157131870162</v>
+        <v>1.7530186833491146</v>
       </c>
       <c r="J12" s="30">
-        <f t="shared" si="2"/>
-        <v>-1.0901818568680326</v>
+        <f>(F12-H12)/I12</f>
+        <v>0.8647466592551053</v>
       </c>
       <c r="K12" s="49">
-        <f t="shared" si="3"/>
-        <v>0.13781652188722632</v>
+        <f>IF(F12&gt;H12,1-_xlfn.NORM.DIST(F12,H12,I12,1),_xlfn.NORM.DIST(F12,H12,I12,1))</f>
+        <v>0.19358892686978058</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J12)+1)</f>
+        <v>4</v>
       </c>
       <c r="M12" s="29">
         <f>SUMIF(Sales!B:B,A12,Sales!E:E)</f>
-        <v>1300</v>
+        <v>770</v>
       </c>
       <c r="N12" s="31">
-        <f t="shared" si="5"/>
-        <v>241.91050690099334</v>
+        <f>M12/H12</f>
+        <v>221.0050710785697</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N12)+1)</f>
+        <v>18</v>
       </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="29">
         <v>1</v>
       </c>
       <c r="D13" s="29">
         <f>SUMIF(Sales!B:B,A13,Sales!D:D)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D13)+1)</f>
+        <v>18</v>
       </c>
       <c r="F13" s="29">
         <f>SUMIF(Prizes!B:B,A13,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="29">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F13)+1)</f>
+        <v>19</v>
       </c>
       <c r="H13" s="30">
         <f>SUMIF(Sales!B:B,A13,Sales!F:F)</f>
-        <v>2.0278924229052588</v>
+        <v>2.1292839623966007</v>
       </c>
       <c r="I13" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A13,Sales!G:G))</f>
-        <v>1.3415151969039836</v>
+        <v>1.3555226273956775</v>
       </c>
       <c r="J13" s="30">
-        <f t="shared" si="2"/>
-        <v>-1.5116432729091189</v>
+        <f>(F13-H13)/I13</f>
+        <v>-0.83309856993406151</v>
       </c>
       <c r="K13" s="49">
-        <f t="shared" si="3"/>
-        <v>6.5312318472907513E-2</v>
+        <f>IF(F13&gt;H13,1-_xlfn.NORM.DIST(F13,H13,I13,1),_xlfn.NORM.DIST(F13,H13,I13,1))</f>
+        <v>0.20239457002747768</v>
       </c>
       <c r="L13" s="29">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J13)+1)</f>
+        <v>29</v>
       </c>
       <c r="M13" s="29">
         <f>SUMIF(Sales!B:B,A13,Sales!E:E)</f>
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="N13" s="31">
-        <f t="shared" si="5"/>
-        <v>226.83649034053852</v>
+        <f>M13/H13</f>
+        <v>197.2494075084621</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N13)+1)</f>
+        <v>8</v>
       </c>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C14" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="29">
         <f>SUMIF(Sales!B:B,A14,Sales!D:D)</f>
-        <v>48</v>
-      </c>
-      <c r="E14" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="29">
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D14)+1)</f>
+        <v>23</v>
       </c>
       <c r="F14" s="29">
         <f>SUMIF(Prizes!B:B,A14,Prizes!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F14)+1)</f>
+        <v>26</v>
       </c>
       <c r="H14" s="30">
         <f>SUMIF(Sales!B:B,A14,Sales!F:F)</f>
-        <v>2.1645166106756251</v>
+        <v>0.58616138763197578</v>
       </c>
       <c r="I14" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A14,Sales!G:G))</f>
-        <v>1.3966272062273601</v>
+        <v>0.71401106976234563</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="2"/>
-        <v>0.59821503232865181</v>
+        <f>(F14-H14)/I14</f>
+        <v>-0.82094159664369926</v>
       </c>
       <c r="K14" s="49">
-        <f t="shared" si="3"/>
-        <v>0.27484823119819857</v>
-      </c>
-      <c r="L14" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(F14&gt;H14,1-_xlfn.NORM.DIST(F14,H14,I14,1),_xlfn.NORM.DIST(F14,H14,I14,1))</f>
+        <v>0.20583976793322406</v>
+      </c>
+      <c r="L14" s="29">
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J14)+1)</f>
+        <v>28</v>
       </c>
       <c r="M14" s="29">
         <f>SUMIF(Sales!B:B,A14,Sales!E:E)</f>
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N14" s="31">
-        <f t="shared" si="5"/>
-        <v>244.85836578291148</v>
-      </c>
-      <c r="O14" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f>M14/H14</f>
+        <v>170.6014795754262</v>
+      </c>
+      <c r="O14" s="29">
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N14)+1)</f>
+        <v>4</v>
       </c>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C15" s="29">
         <v>1</v>
       </c>
       <c r="D15" s="29">
         <f>SUMIF(Sales!B:B,A15,Sales!D:D)</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D15)+1)</f>
+        <v>23</v>
       </c>
       <c r="F15" s="29">
         <f>SUMIF(Prizes!B:B,A15,Prizes!D:D)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F15)+1)</f>
+        <v>26</v>
       </c>
       <c r="H15" s="30">
         <f>SUMIF(Sales!B:B,A15,Sales!F:F)</f>
-        <v>2.1292839623966007</v>
+        <v>0.53734276729559749</v>
       </c>
       <c r="I15" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A15,Sales!G:G))</f>
-        <v>1.3555226273956775</v>
+        <v>0.70518688116242267</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.83309856993406151</v>
+        <f>(F15-H15)/I15</f>
+        <v>-0.76198633532411619</v>
       </c>
       <c r="K15" s="49">
-        <f t="shared" si="3"/>
-        <v>0.20239457002747768</v>
+        <f>IF(F15&gt;H15,1-_xlfn.NORM.DIST(F15,H15,I15,1),_xlfn.NORM.DIST(F15,H15,I15,1))</f>
+        <v>0.22303407988473595</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J15)+1)</f>
+        <v>27</v>
       </c>
       <c r="M15" s="29">
         <f>SUMIF(Sales!B:B,A15,Sales!E:E)</f>
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="N15" s="31">
-        <f t="shared" si="5"/>
-        <v>197.2494075084621</v>
+        <f>M15/H15</f>
+        <v>260.54133138258959</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N15)+1)</f>
+        <v>30</v>
       </c>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
       </c>
       <c r="D16" s="29">
         <f>SUMIF(Sales!B:B,A16,Sales!D:D)</f>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D16)+1)</f>
+        <v>14</v>
       </c>
       <c r="F16" s="29">
         <f>SUMIF(Prizes!B:B,A16,Prizes!D:D)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F16)+1)</f>
+        <v>19</v>
       </c>
       <c r="H16" s="30">
         <f>SUMIF(Sales!B:B,A16,Sales!F:F)</f>
-        <v>3.4840829499620698</v>
+        <v>1.9957656734501028</v>
       </c>
       <c r="I16" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A16,Sales!G:G))</f>
-        <v>1.7530186833491146</v>
+        <v>1.3441673982599343</v>
       </c>
       <c r="J16" s="30">
-        <f t="shared" si="2"/>
-        <v>0.8647466592551053</v>
+        <f>(F16-H16)/I16</f>
+        <v>-0.74080480953425287</v>
       </c>
       <c r="K16" s="49">
-        <f t="shared" si="3"/>
-        <v>0.19358892686978058</v>
+        <f>IF(F16&gt;H16,1-_xlfn.NORM.DIST(F16,H16,I16,1),_xlfn.NORM.DIST(F16,H16,I16,1))</f>
+        <v>0.22940589929755095</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J16)+1)</f>
+        <v>26</v>
       </c>
       <c r="M16" s="29">
         <f>SUMIF(Sales!B:B,A16,Sales!E:E)</f>
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="N16" s="31">
-        <f t="shared" si="5"/>
-        <v>221.0050710785697</v>
+        <f>M16/H16</f>
+        <v>200.42433103306936</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N16)+1)</f>
+        <v>9</v>
       </c>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="35">
         <f>SUMIF(Sales!B:B,A17,Sales!D:D)</f>
-        <v>64</v>
-      </c>
-      <c r="E17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F17" s="29">
+        <v>10</v>
+      </c>
+      <c r="E17" s="35">
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D17)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="F17" s="35">
         <f>SUMIF(Prizes!B:B,A17,Prizes!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F17)+1)</f>
+        <v>19</v>
+      </c>
+      <c r="H17" s="36">
         <f>SUMIF(Sales!B:B,A17,Sales!F:F)</f>
-        <v>3.5729121587717425</v>
-      </c>
-      <c r="I17" s="30">
+        <v>0.5079051383399209</v>
+      </c>
+      <c r="I17" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A17,Sales!G:G))</f>
-        <v>1.7690626415061241</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" si="2"/>
-        <v>0.24142041734861824</v>
+        <v>0.67996690791586989</v>
+      </c>
+      <c r="J17" s="36">
+        <f>(F17-H17)/I17</f>
+        <v>0.72370413314432125</v>
       </c>
       <c r="K17" s="49">
-        <f t="shared" si="3"/>
-        <v>0.40461464495785371</v>
-      </c>
-      <c r="L17" s="29">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="M17" s="29">
+        <f>IF(F17&gt;H17,1-_xlfn.NORM.DIST(F17,H17,I17,1),_xlfn.NORM.DIST(F17,H17,I17,1))</f>
+        <v>0.23462369757905566</v>
+      </c>
+      <c r="L17" s="37">
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J17)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M17" s="35">
         <f>SUMIF(Sales!B:B,A17,Sales!E:E)</f>
-        <v>740</v>
+        <v>100</v>
       </c>
       <c r="N17" s="31">
-        <f t="shared" si="5"/>
-        <v>207.11396393646277</v>
+        <f>M17/H17</f>
+        <v>196.88715953307394</v>
       </c>
       <c r="O17" s="29">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N17)+1)</f>
+        <v>7</v>
       </c>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="29">
         <f>SUMIF(Sales!B:B,A18,Sales!D:D)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D18)+1)</f>
+        <v>28</v>
       </c>
       <c r="F18" s="29">
         <f>SUMIF(Prizes!B:B,A18,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F18)+1)</f>
+        <v>19</v>
       </c>
       <c r="H18" s="30">
         <f>SUMIF(Sales!B:B,A18,Sales!F:F)</f>
-        <v>0.53734276729559749</v>
+        <v>0.54326923076923084</v>
       </c>
       <c r="I18" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A18,Sales!G:G))</f>
-        <v>0.70518688116242267</v>
+        <v>0.67686632105875888</v>
       </c>
       <c r="J18" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.76198633532411619</v>
+        <f>(F18-H18)/I18</f>
+        <v>0.67477248464120332</v>
       </c>
       <c r="K18" s="49">
-        <f t="shared" si="3"/>
-        <v>0.22303407988473595</v>
+        <f>IF(F18&gt;H18,1-_xlfn.NORM.DIST(F18,H18,I18,1),_xlfn.NORM.DIST(F18,H18,I18,1))</f>
+        <v>0.24991016218462114</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J18)+1)</f>
+        <v>6</v>
       </c>
       <c r="M18" s="29">
         <f>SUMIF(Sales!B:B,A18,Sales!E:E)</f>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N18" s="31">
-        <f t="shared" si="5"/>
-        <v>260.54133138258959</v>
+        <f>M18/H18</f>
+        <v>184.07079646017698</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N18)+1)</f>
+        <v>5</v>
       </c>
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="35">
         <f>SUMIF(Sales!B:B,A19,Sales!D:D)</f>
-        <v>7</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F19" s="29">
+        <v>3</v>
+      </c>
+      <c r="E19" s="35">
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D19)+1)</f>
+        <v>31</v>
+      </c>
+      <c r="F19" s="35">
         <f>SUMIF(Prizes!B:B,A19,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
+      <c r="G19" s="35">
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F19)+1)</f>
         <v>26</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="36">
         <f>SUMIF(Sales!B:B,A19,Sales!F:F)</f>
-        <v>0.30681818181818182</v>
-      </c>
-      <c r="I19" s="30">
+        <v>0.3612040133779264</v>
+      </c>
+      <c r="I19" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A19,Sales!G:G))</f>
-        <v>0.53561854612135185</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.57282964535113001</v>
+        <v>0.54598817687849921</v>
+      </c>
+      <c r="J19" s="36">
+        <f>(F19-H19)/I19</f>
+        <v>-0.66156013751613985</v>
       </c>
       <c r="K19" s="49">
-        <f t="shared" si="3"/>
-        <v>0.28338002224276981</v>
-      </c>
-      <c r="L19" s="29">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="M19" s="29">
+        <f>IF(F19&gt;H19,1-_xlfn.NORM.DIST(F19,H19,I19,1),_xlfn.NORM.DIST(F19,H19,I19,1))</f>
+        <v>0.25412658085528567</v>
+      </c>
+      <c r="L19" s="37">
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J19)+1)</f>
+        <v>25</v>
+      </c>
+      <c r="M19" s="35">
         <f>SUMIF(Sales!B:B,A19,Sales!E:E)</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N19" s="31">
-        <f t="shared" si="5"/>
-        <v>293.33333333333331</v>
+        <f>M19/H19</f>
+        <v>55.370370370370374</v>
       </c>
       <c r="O19" s="29">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N19)+1)</f>
+        <v>2</v>
       </c>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="29">
         <f>SUMIF(Sales!B:B,A20,Sales!D:D)</f>
-        <v>11</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>147</v>
+      </c>
+      <c r="E20" s="29" t="str">
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D20)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" s="29">
         <f>SUMIF(Prizes!B:B,A20,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="29" t="str">
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F20)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" s="30">
         <f>SUMIF(Sales!B:B,A20,Sales!F:F)</f>
-        <v>0.70284369885433717</v>
+        <v>5.3872370398255942</v>
       </c>
       <c r="I20" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A20,Sales!G:G))</f>
-        <v>0.78059289122728581</v>
+        <v>2.1480307909963821</v>
       </c>
       <c r="J20" s="30">
-        <f t="shared" si="2"/>
-        <v>0.38068025533573507</v>
+        <f>(F20-H20)/I20</f>
+        <v>-0.6458180421064228</v>
       </c>
       <c r="K20" s="49">
-        <f t="shared" si="3"/>
-        <v>0.35172026081826924</v>
-      </c>
-      <c r="L20" s="29">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>IF(F20&gt;H20,1-_xlfn.NORM.DIST(F20,H20,I20,1),_xlfn.NORM.DIST(F20,H20,I20,1))</f>
+        <v>0.25919860106105741</v>
+      </c>
+      <c r="L20" s="29" t="str">
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J20)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M20" s="29">
         <f>SUMIF(Sales!B:B,A20,Sales!E:E)</f>
-        <v>150</v>
+        <v>1570</v>
       </c>
       <c r="N20" s="31">
-        <f t="shared" si="5"/>
-        <v>213.41871634405473</v>
-      </c>
-      <c r="O20" s="29">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f>M20/H20</f>
+        <v>291.4295377006145</v>
+      </c>
+      <c r="O20" s="31" t="str">
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N20)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="29">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C21" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="29">
         <f>SUMIF(Sales!B:B,A21,Sales!D:D)</f>
-        <v>147</v>
-      </c>
-      <c r="E21" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>64</v>
+      </c>
+      <c r="E21" s="29">
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D21)+1)</f>
+        <v>9</v>
       </c>
       <c r="F21" s="29">
         <f>SUMIF(Prizes!B:B,A21,Prizes!D:D)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+      <c r="G21" s="29">
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F21)+1)</f>
+        <v>3</v>
       </c>
       <c r="H21" s="30">
         <f>SUMIF(Sales!B:B,A21,Sales!F:F)</f>
-        <v>5.3872370398255942</v>
+        <v>2.9523340876001374</v>
       </c>
       <c r="I21" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A21,Sales!G:G))</f>
-        <v>2.1480307909963821</v>
+        <v>1.6246358262190024</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.6458180421064228</v>
+        <f>(F21-H21)/I21</f>
+        <v>0.64486200260527571</v>
       </c>
       <c r="K21" s="49">
-        <f t="shared" si="3"/>
-        <v>0.25919860106105741</v>
-      </c>
-      <c r="L21" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(F21&gt;H21,1-_xlfn.NORM.DIST(F21,H21,I21,1),_xlfn.NORM.DIST(F21,H21,I21,1))</f>
+        <v>0.259508308715931</v>
+      </c>
+      <c r="L21" s="29">
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J21)+1)</f>
+        <v>7</v>
       </c>
       <c r="M21" s="29">
         <f>SUMIF(Sales!B:B,A21,Sales!E:E)</f>
-        <v>1570</v>
+        <v>740</v>
       </c>
       <c r="N21" s="31">
-        <f t="shared" si="5"/>
-        <v>291.4295377006145</v>
-      </c>
-      <c r="O21" s="31" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f>M21/H21</f>
+        <v>250.64913998317971</v>
+      </c>
+      <c r="O21" s="29">
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N21)+1)</f>
+        <v>27</v>
       </c>
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="29">
         <f>SUMIF(Sales!B:B,A22,Sales!D:D)</f>
-        <v>55</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="E22" s="29" t="str">
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D22)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" s="29">
         <f>SUMIF(Prizes!B:B,A22,Prizes!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="29" t="str">
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F22)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H22" s="30">
         <f>SUMIF(Sales!B:B,A22,Sales!F:F)</f>
-        <v>2.5135103448196174</v>
+        <v>2.9991021425331783</v>
       </c>
       <c r="I22" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A22,Sales!G:G))</f>
-        <v>1.5154338440236188</v>
+        <v>1.640793642686911</v>
       </c>
       <c r="J22" s="30">
-        <f t="shared" si="2"/>
-        <v>0.32102335387251679</v>
+        <f>(F22-H22)/I22</f>
+        <v>0.61000837120979057</v>
       </c>
       <c r="K22" s="49">
-        <f t="shared" si="3"/>
-        <v>0.37409634649123846</v>
-      </c>
-      <c r="L22" s="29">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>IF(F22&gt;H22,1-_xlfn.NORM.DIST(F22,H22,I22,1),_xlfn.NORM.DIST(F22,H22,I22,1))</f>
+        <v>0.27092813112251135</v>
+      </c>
+      <c r="L22" s="29" t="str">
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J22)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M22" s="29">
         <f>SUMIF(Sales!B:B,A22,Sales!E:E)</f>
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N22" s="31">
-        <f t="shared" si="5"/>
-        <v>222.79597979541578</v>
-      </c>
-      <c r="O22" s="29">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f>M22/H22</f>
+        <v>266.74650011229147</v>
+      </c>
+      <c r="O22" s="29" t="str">
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N22)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="29">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C23" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="29">
         <f>SUMIF(Sales!B:B,A23,Sales!D:D)</f>
-        <v>15</v>
-      </c>
-      <c r="E23" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>91</v>
+      </c>
+      <c r="E23" s="29">
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D23)+1)</f>
+        <v>4</v>
       </c>
       <c r="F23" s="29">
         <f>SUMIF(Prizes!B:B,A23,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
+      </c>
+      <c r="G23" s="29">
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F23)+1)</f>
+        <v>7</v>
       </c>
       <c r="H23" s="30">
         <f>SUMIF(Sales!B:B,A23,Sales!F:F)</f>
-        <v>0.63164893617021267</v>
+        <v>4.1607621161309751</v>
       </c>
       <c r="I23" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A23,Sales!G:G))</f>
-        <v>0.75810728959235163</v>
+        <v>1.9032990868959521</v>
       </c>
       <c r="J23" s="30">
-        <f t="shared" si="2"/>
-        <v>0.4858824982778579</v>
+        <f>(F23-H23)/I23</f>
+        <v>-0.609868477383676</v>
       </c>
       <c r="K23" s="49">
-        <f t="shared" si="3"/>
-        <v>0.31352523895390516</v>
-      </c>
-      <c r="L23" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(F23&gt;H23,1-_xlfn.NORM.DIST(F23,H23,I23,1),_xlfn.NORM.DIST(F23,H23,I23,1))</f>
+        <v>0.27097446775170275</v>
+      </c>
+      <c r="L23" s="29">
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J23)+1)</f>
+        <v>24</v>
       </c>
       <c r="M23" s="29">
         <f>SUMIF(Sales!B:B,A23,Sales!E:E)</f>
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N23" s="31">
-        <f t="shared" si="5"/>
-        <v>316.6315789473685</v>
-      </c>
-      <c r="O23" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f>M23/H23</f>
+        <v>216.30652627574281</v>
+      </c>
+      <c r="O23" s="29">
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N23)+1)</f>
+        <v>16</v>
       </c>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="29">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C24" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="29">
         <f>SUMIF(Sales!B:B,A24,Sales!D:D)</f>
-        <v>6</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="29" t="str">
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D24)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F24" s="29">
         <f>SUMIF(Prizes!B:B,A24,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="G24" s="29" t="str">
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F24)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H24" s="30">
         <f>SUMIF(Sales!B:B,A24,Sales!F:F)</f>
-        <v>0.54326923076923084</v>
+        <v>2.1645166106756251</v>
       </c>
       <c r="I24" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A24,Sales!G:G))</f>
-        <v>0.67686632105875888</v>
+        <v>1.3966272062273601</v>
       </c>
       <c r="J24" s="30">
-        <f t="shared" si="2"/>
-        <v>0.67477248464120332</v>
+        <f>(F24-H24)/I24</f>
+        <v>0.59821503232865181</v>
       </c>
       <c r="K24" s="49">
-        <f t="shared" si="3"/>
-        <v>0.24991016218462114</v>
-      </c>
-      <c r="L24" s="29">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>IF(F24&gt;H24,1-_xlfn.NORM.DIST(F24,H24,I24,1),_xlfn.NORM.DIST(F24,H24,I24,1))</f>
+        <v>0.27484823119819857</v>
+      </c>
+      <c r="L24" s="29" t="str">
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J24)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M24" s="29">
         <f>SUMIF(Sales!B:B,A24,Sales!E:E)</f>
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" si="5"/>
-        <v>184.07079646017698</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>M24/H24</f>
+        <v>244.85836578291148</v>
+      </c>
+      <c r="O24" s="29" t="str">
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N24)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="29">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C25" s="29">
         <v>0</v>
       </c>
       <c r="D25" s="29">
         <f>SUMIF(Sales!B:B,A25,Sales!D:D)</f>
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E25" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F25" s="29">
         <f>SUMIF(Prizes!B:B,A25,Prizes!D:D)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H25" s="30">
         <f>SUMIF(Sales!B:B,A25,Sales!F:F)</f>
-        <v>2.9991021425331783</v>
+        <v>0.31914893617021273</v>
       </c>
       <c r="I25" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A25,Sales!G:G))</f>
-        <v>1.640793642686911</v>
+        <v>0.54230382522055953</v>
       </c>
       <c r="J25" s="30">
-        <f t="shared" si="2"/>
-        <v>0.61000837120979057</v>
+        <f>(F25-H25)/I25</f>
+        <v>-0.58850578094375816</v>
       </c>
       <c r="K25" s="49">
-        <f t="shared" si="3"/>
-        <v>0.27092813112251135</v>
+        <f>IF(F25&gt;H25,1-_xlfn.NORM.DIST(F25,H25,I25,1),_xlfn.NORM.DIST(F25,H25,I25,1))</f>
+        <v>0.27809642736849838</v>
       </c>
       <c r="L25" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="29">
         <f>SUMIF(Sales!B:B,A25,Sales!E:E)</f>
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" si="5"/>
-        <v>266.74650011229147</v>
-      </c>
-      <c r="O25" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f>M25/H25</f>
+        <v>313.33333333333337</v>
+      </c>
+      <c r="O25" s="31" t="str">
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="29">
+        <v>17</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
       </c>
       <c r="D26" s="29">
         <f>SUMIF(Sales!B:B,A26,Sales!D:D)</f>
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E26" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D26)+1)</f>
+        <v>27</v>
       </c>
       <c r="F26" s="29">
         <f>SUMIF(Prizes!B:B,A26,Prizes!D:D)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F26)+1)</f>
+        <v>26</v>
       </c>
       <c r="H26" s="30">
         <f>SUMIF(Sales!B:B,A26,Sales!F:F)</f>
-        <v>2.7289515245114577</v>
+        <v>0.30681818181818182</v>
       </c>
       <c r="I26" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A26,Sales!G:G))</f>
-        <v>1.5620418614013669</v>
+        <v>0.53561854612135185</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="2"/>
-        <v>-1.1068535147709484</v>
+        <f>(F26-H26)/I26</f>
+        <v>-0.57282964535113001</v>
       </c>
       <c r="K26" s="49">
-        <f t="shared" si="3"/>
-        <v>0.13417863330317295</v>
+        <f>IF(F26&gt;H26,1-_xlfn.NORM.DIST(F26,H26,I26,1),_xlfn.NORM.DIST(F26,H26,I26,1))</f>
+        <v>0.28338002224276981</v>
       </c>
       <c r="L26" s="29">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J26)+1)</f>
+        <v>23</v>
       </c>
       <c r="M26" s="29">
         <f>SUMIF(Sales!B:B,A26,Sales!E:E)</f>
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N26" s="31">
-        <f t="shared" si="5"/>
-        <v>256.50877038767311</v>
+        <f>M26/H26</f>
+        <v>293.33333333333331</v>
       </c>
       <c r="O26" s="29">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N26)+1)</f>
+        <v>32</v>
       </c>
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="29">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C27" s="29">
         <v>1</v>
       </c>
       <c r="D27" s="29">
         <f>SUMIF(Sales!B:B,A27,Sales!D:D)</f>
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E27" s="29">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D27)+1)</f>
+        <v>6</v>
       </c>
       <c r="F27" s="29">
         <f>SUMIF(Prizes!B:B,A27,Prizes!D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="29">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F27)+1)</f>
+        <v>3</v>
       </c>
       <c r="H27" s="30">
         <f>SUMIF(Sales!B:B,A27,Sales!F:F)</f>
-        <v>6.3829787234042548E-2</v>
+        <v>3.0883035773743104</v>
       </c>
       <c r="I27" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A27,Sales!G:G))</f>
-        <v>0.24791576048881739</v>
+        <v>1.645289709282524</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.25746562908380199</v>
+        <f>(F27-H27)/I27</f>
+        <v>0.55412515952783847</v>
       </c>
       <c r="K27" s="49">
-        <f t="shared" si="3"/>
-        <v>0.39840967257938792</v>
+        <f>IF(F27&gt;H27,1-_xlfn.NORM.DIST(F27,H27,I27,1),_xlfn.NORM.DIST(F27,H27,I27,1))</f>
+        <v>0.28974659632997213</v>
       </c>
       <c r="L27" s="29">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J27)+1)</f>
+        <v>8</v>
       </c>
       <c r="M27" s="29">
         <f>SUMIF(Sales!B:B,A27,Sales!E:E)</f>
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="N27" s="31">
-        <f t="shared" si="5"/>
-        <v>313.33333333333337</v>
+        <f>M27/H27</f>
+        <v>259.04189143224175</v>
       </c>
       <c r="O27" s="29">
-        <f t="shared" si="6"/>
-        <v>33</v>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N27)+1)</f>
+        <v>29</v>
       </c>
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="29">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C28" s="29">
-        <v>0</v>
-      </c>
-      <c r="D28" s="29">
+        <v>1</v>
+      </c>
+      <c r="D28" s="35">
         <f>SUMIF(Sales!B:B,A28,Sales!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="E28" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F28" s="29">
+        <v>1</v>
+      </c>
+      <c r="E28" s="35">
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D28)+1)</f>
+        <v>33</v>
+      </c>
+      <c r="F28" s="35">
         <f>SUMIF(Prizes!B:B,A28,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H28" s="30">
+      <c r="G28" s="35">
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F28)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="H28" s="36">
         <f>SUMIF(Sales!B:B,A28,Sales!F:F)</f>
-        <v>0.31914893617021273</v>
-      </c>
-      <c r="I28" s="30">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I28" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A28,Sales!G:G))</f>
-        <v>0.54230382522055953</v>
-      </c>
-      <c r="J28" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.58850578094375816</v>
+        <v>0.42132504423474315</v>
+      </c>
+      <c r="J28" s="36">
+        <f>(F28-H28)/I28</f>
+        <v>-0.54772255750516619</v>
       </c>
       <c r="K28" s="49">
-        <f t="shared" si="3"/>
-        <v>0.27809642736849838</v>
-      </c>
-      <c r="L28" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M28" s="29">
+        <f>IF(F28&gt;H28,1-_xlfn.NORM.DIST(F28,H28,I28,1),_xlfn.NORM.DIST(F28,H28,I28,1))</f>
+        <v>0.2919412103851825</v>
+      </c>
+      <c r="L28" s="37">
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J28)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="M28" s="35">
         <f>SUMIF(Sales!B:B,A28,Sales!E:E)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" s="31">
-        <f t="shared" si="5"/>
-        <v>313.33333333333337</v>
-      </c>
-      <c r="O28" s="31" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f>M28/H28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="29">
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N28)+1)</f>
+        <v>1</v>
       </c>
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="29">
         <f>SUMIF(Sales!B:B,A29,Sales!D:D)</f>
-        <v>11</v>
-      </c>
-      <c r="E29" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="E29" s="29" t="str">
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D29)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F29" s="29">
         <f>SUMIF(Prizes!B:B,A29,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="G29" s="29" t="str">
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F29)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="30">
         <f>SUMIF(Sales!B:B,A29,Sales!F:F)</f>
-        <v>0.58616138763197578</v>
+        <v>0.63164893617021267</v>
       </c>
       <c r="I29" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A29,Sales!G:G))</f>
-        <v>0.71401106976234563</v>
+        <v>0.75810728959235163</v>
       </c>
       <c r="J29" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.82094159664369926</v>
+        <f>(F29-H29)/I29</f>
+        <v>0.4858824982778579</v>
       </c>
       <c r="K29" s="49">
-        <f t="shared" si="3"/>
-        <v>0.20583976793322406</v>
-      </c>
-      <c r="L29" s="29">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f>IF(F29&gt;H29,1-_xlfn.NORM.DIST(F29,H29,I29,1),_xlfn.NORM.DIST(F29,H29,I29,1))</f>
+        <v>0.31352523895390516</v>
+      </c>
+      <c r="L29" s="29" t="str">
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J29)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M29" s="29">
         <f>SUMIF(Sales!B:B,A29,Sales!E:E)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N29" s="31">
-        <f t="shared" si="5"/>
-        <v>170.6014795754262</v>
-      </c>
-      <c r="O29" s="29">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>M29/H29</f>
+        <v>316.6315789473685</v>
+      </c>
+      <c r="O29" s="29" t="str">
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N29)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="29">
         <v>0</v>
       </c>
       <c r="D30" s="29">
         <f>SUMIF(Sales!B:B,A30,Sales!D:D)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E30" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F30" s="29">
@@ -4778,159 +4778,159 @@
         <v>0</v>
       </c>
       <c r="G30" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="30">
         <f>SUMIF(Sales!B:B,A30,Sales!F:F)</f>
-        <v>0.7941427895328429</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="I30" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A30,Sales!G:G))</f>
-        <v>0.86060092285446455</v>
+        <v>0.43925136315935126</v>
       </c>
       <c r="J30" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.92277706012539296</v>
+        <f>(F30-H30)/I30</f>
+        <v>-0.47429183107111794</v>
       </c>
       <c r="K30" s="49">
-        <f t="shared" si="3"/>
-        <v>0.17806169891377793</v>
+        <f>IF(F30&gt;H30,1-_xlfn.NORM.DIST(F30,H30,I30,1),_xlfn.NORM.DIST(F30,H30,I30,1))</f>
+        <v>0.31764590799841352</v>
       </c>
       <c r="L30" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="29">
         <f>SUMIF(Sales!B:B,A30,Sales!E:E)</f>
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N30" s="31">
-        <f t="shared" si="5"/>
-        <v>302.21265389966049</v>
+        <f>M30/H30</f>
+        <v>240.00000000000003</v>
       </c>
       <c r="O30" s="31" t="str">
-        <f t="shared" si="6"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
       <c r="D31" s="29">
         <f>SUMIF(Sales!B:B,A31,Sales!D:D)</f>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E31" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D31)+1)</f>
+        <v>5</v>
       </c>
       <c r="F31" s="29">
         <f>SUMIF(Prizes!B:B,A31,Prizes!D:D)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F31)+1)</f>
+        <v>7</v>
       </c>
       <c r="H31" s="30">
         <f>SUMIF(Sales!B:B,A31,Sales!F:F)</f>
-        <v>2.1392509129157737</v>
+        <v>3.7971257524946109</v>
       </c>
       <c r="I31" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A31,Sales!G:G))</f>
-        <v>1.3767007404782396</v>
+        <v>1.8257369483316859</v>
       </c>
       <c r="J31" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.10114828068400734</v>
+        <f>(F31-H31)/I31</f>
+        <v>-0.43660492998348149</v>
       </c>
       <c r="K31" s="49">
-        <f t="shared" si="3"/>
-        <v>0.45971637604945381</v>
+        <f>IF(F31&gt;H31,1-_xlfn.NORM.DIST(F31,H31,I31,1),_xlfn.NORM.DIST(F31,H31,I31,1))</f>
+        <v>0.33119894334721611</v>
       </c>
       <c r="L31" s="29">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J31)+1)</f>
+        <v>21</v>
       </c>
       <c r="M31" s="29">
         <f>SUMIF(Sales!B:B,A31,Sales!E:E)</f>
-        <v>500</v>
+        <v>810</v>
       </c>
       <c r="N31" s="31">
-        <f t="shared" si="5"/>
-        <v>233.7266736600364</v>
+        <f>M31/H31</f>
+        <v>213.31924534441649</v>
       </c>
       <c r="O31" s="29">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N31)+1)</f>
+        <v>14</v>
       </c>
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="29">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C32" s="29">
         <v>0</v>
       </c>
       <c r="D32" s="29">
         <f>SUMIF(Sales!B:B,A32,Sales!D:D)</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E32" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F32" s="29">
         <f>SUMIF(Prizes!B:B,A32,Prizes!D:D)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="30">
         <f>SUMIF(Sales!B:B,A32,Sales!F:F)</f>
-        <v>0.20833333333333331</v>
+        <v>2.3740803347134869</v>
       </c>
       <c r="I32" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A32,Sales!G:G))</f>
-        <v>0.43925136315935126</v>
+        <v>1.4608189121183603</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.47429183107111794</v>
+        <f>(F32-H32)/I32</f>
+        <v>0.42847177024759042</v>
       </c>
       <c r="K32" s="49">
-        <f t="shared" si="3"/>
-        <v>0.31764590799841352</v>
+        <f>IF(F32&gt;H32,1-_xlfn.NORM.DIST(F32,H32,I32,1),_xlfn.NORM.DIST(F32,H32,I32,1))</f>
+        <v>0.33415384099578926</v>
       </c>
       <c r="L32" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M32" s="29">
         <f>SUMIF(Sales!B:B,A32,Sales!E:E)</f>
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="N32" s="31">
-        <f t="shared" si="5"/>
-        <v>240.00000000000003</v>
-      </c>
-      <c r="O32" s="31" t="str">
-        <f t="shared" si="6"/>
+        <f>M32/H32</f>
+        <v>244.30512797706007</v>
+      </c>
+      <c r="O32" s="29" t="str">
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P32" s="29"/>
@@ -4950,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F33" s="29">
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="30">
@@ -4970,15 +4970,15 @@
         <v>0.79496113990168826</v>
       </c>
       <c r="J33" s="30">
-        <f t="shared" si="2"/>
+        <f>(F33-H33)/I33</f>
         <v>0.39856301064268529</v>
       </c>
       <c r="K33" s="49">
-        <f t="shared" si="3"/>
+        <f>IF(F33&gt;H33,1-_xlfn.NORM.DIST(F33,H33,I33,1),_xlfn.NORM.DIST(F33,H33,I33,1))</f>
         <v>0.34510761059987882</v>
       </c>
       <c r="L33" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M33" s="29">
@@ -4986,792 +4986,792 @@
         <v>160</v>
       </c>
       <c r="N33" s="31">
-        <f t="shared" si="5"/>
+        <f>M33/H33</f>
         <v>234.20647149460706</v>
       </c>
       <c r="O33" s="31" t="str">
-        <f t="shared" si="6"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="29">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" s="35">
+        <f>SUMIF(Sales!B:B,A34,Sales!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="E34" s="35">
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D34)+1)</f>
+        <v>30</v>
+      </c>
+      <c r="F34" s="35">
+        <f>SUMIF(Prizes!B:B,A34,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F34)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="H34" s="36">
+        <f>SUMIF(Sales!B:B,A34,Sales!F:F)</f>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="I34" s="36">
+        <f>SQRT(SUMIF(Sales!B:B,A34,Sales!G:G))</f>
+        <v>0.37094647870344777</v>
+      </c>
+      <c r="J34" s="36">
+        <f>(F34-H34)/I34</f>
+        <v>-0.39211733715048613</v>
+      </c>
+      <c r="K34" s="49">
+        <f>IF(F34&gt;H34,1-_xlfn.NORM.DIST(F34,H34,I34,1),_xlfn.NORM.DIST(F34,H34,I34,1))</f>
+        <v>0.34748575901730239</v>
+      </c>
+      <c r="L34" s="37">
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J34)+1)</f>
+        <v>20</v>
+      </c>
+      <c r="M34" s="35">
+        <f>SUMIF(Sales!B:B,A34,Sales!E:E)</f>
         <v>40</v>
       </c>
-      <c r="C34" s="29">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29">
-        <f>SUMIF(Sales!B:B,A34,Sales!D:D)</f>
-        <v>41</v>
-      </c>
-      <c r="E34" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F34" s="29">
-        <f>SUMIF(Prizes!B:B,A34,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G34" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H34" s="30">
-        <f>SUMIF(Sales!B:B,A34,Sales!F:F)</f>
-        <v>1.751323901682182</v>
-      </c>
-      <c r="I34" s="30">
-        <f>SQRT(SUMIF(Sales!B:B,A34,Sales!G:G))</f>
-        <v>1.2450174883944376</v>
-      </c>
-      <c r="J34" s="30">
-        <f t="shared" si="2"/>
-        <v>0.19973703231952852</v>
-      </c>
-      <c r="K34" s="49">
-        <f t="shared" si="3"/>
-        <v>0.42084312485409769</v>
-      </c>
-      <c r="L34" s="29">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M34" s="29">
-        <f>SUMIF(Sales!B:B,A34,Sales!E:E)</f>
-        <v>400</v>
-      </c>
       <c r="N34" s="31">
-        <f t="shared" si="5"/>
-        <v>228.39864151673595</v>
+        <f>M34/H34</f>
+        <v>275</v>
       </c>
       <c r="O34" s="29">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N34)+1)</f>
+        <v>31</v>
       </c>
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C35" s="29">
         <v>1</v>
       </c>
       <c r="D35" s="29">
         <f>SUMIF(Sales!B:B,A35,Sales!D:D)</f>
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E35" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D35)+1)</f>
+        <v>23</v>
       </c>
       <c r="F35" s="29">
         <f>SUMIF(Prizes!B:B,A35,Prizes!D:D)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F35)+1)</f>
+        <v>19</v>
       </c>
       <c r="H35" s="30">
         <f>SUMIF(Sales!B:B,A35,Sales!F:F)</f>
-        <v>3.7971257524946109</v>
+        <v>0.70284369885433717</v>
       </c>
       <c r="I35" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A35,Sales!G:G))</f>
-        <v>1.8257369483316859</v>
+        <v>0.78059289122728581</v>
       </c>
       <c r="J35" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.43660492998348149</v>
+        <f>(F35-H35)/I35</f>
+        <v>0.38068025533573507</v>
       </c>
       <c r="K35" s="49">
-        <f t="shared" si="3"/>
-        <v>0.33119894334721611</v>
+        <f>IF(F35&gt;H35,1-_xlfn.NORM.DIST(F35,H35,I35,1),_xlfn.NORM.DIST(F35,H35,I35,1))</f>
+        <v>0.35172026081826924</v>
       </c>
       <c r="L35" s="29">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J35)+1)</f>
+        <v>9</v>
       </c>
       <c r="M35" s="29">
         <f>SUMIF(Sales!B:B,A35,Sales!E:E)</f>
-        <v>810</v>
+        <v>150</v>
       </c>
       <c r="N35" s="31">
-        <f t="shared" si="5"/>
-        <v>213.31924534441649</v>
+        <f>M35/H35</f>
+        <v>213.41871634405473</v>
       </c>
       <c r="O35" s="29">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N35)+1)</f>
+        <v>15</v>
       </c>
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C36" s="29">
         <v>1</v>
       </c>
       <c r="D36" s="29">
         <f>SUMIF(Sales!B:B,A36,Sales!D:D)</f>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E36" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D36)+1)</f>
+        <v>11</v>
       </c>
       <c r="F36" s="29">
         <f>SUMIF(Prizes!B:B,A36,Prizes!D:D)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F36)+1)</f>
+        <v>7</v>
       </c>
       <c r="H36" s="30">
         <f>SUMIF(Sales!B:B,A36,Sales!F:F)</f>
-        <v>1.9957656734501028</v>
+        <v>2.5135103448196174</v>
       </c>
       <c r="I36" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A36,Sales!G:G))</f>
-        <v>1.3441673982599343</v>
+        <v>1.5154338440236188</v>
       </c>
       <c r="J36" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.74080480953425287</v>
+        <f>(F36-H36)/I36</f>
+        <v>0.32102335387251679</v>
       </c>
       <c r="K36" s="49">
-        <f t="shared" si="3"/>
-        <v>0.22940589929755095</v>
+        <f>IF(F36&gt;H36,1-_xlfn.NORM.DIST(F36,H36,I36,1),_xlfn.NORM.DIST(F36,H36,I36,1))</f>
+        <v>0.37409634649123846</v>
       </c>
       <c r="L36" s="29">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J36)+1)</f>
+        <v>10</v>
       </c>
       <c r="M36" s="29">
         <f>SUMIF(Sales!B:B,A36,Sales!E:E)</f>
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="N36" s="31">
-        <f t="shared" si="5"/>
-        <v>200.42433103306936</v>
+        <f>M36/H36</f>
+        <v>222.79597979541578</v>
       </c>
       <c r="O36" s="29">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N36)+1)</f>
+        <v>19</v>
       </c>
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C37" s="29">
         <v>1</v>
       </c>
       <c r="D37" s="29">
         <f>SUMIF(Sales!B:B,A37,Sales!D:D)</f>
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E37" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D37)+1)</f>
+        <v>1</v>
       </c>
       <c r="F37" s="29">
         <f>SUMIF(Prizes!B:B,A37,Prizes!D:D)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G37" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F37)+1)</f>
+        <v>1</v>
       </c>
       <c r="H37" s="30">
         <f>SUMIF(Sales!B:B,A37,Sales!F:F)</f>
-        <v>1.8312919892395763</v>
+        <v>7.2530579034546712</v>
       </c>
       <c r="I37" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A37,Sales!G:G))</f>
-        <v>1.2852767126125033</v>
+        <v>2.4711886604511184</v>
       </c>
       <c r="J37" s="30">
-        <f t="shared" si="2"/>
-        <v>0.1312620147123815</v>
+        <f>(F37-H37)/I37</f>
+        <v>0.30226024766922233</v>
       </c>
       <c r="K37" s="49">
-        <f t="shared" si="3"/>
-        <v>0.44778401980729587</v>
+        <f>IF(F37&gt;H37,1-_xlfn.NORM.DIST(F37,H37,I37,1),_xlfn.NORM.DIST(F37,H37,I37,1))</f>
+        <v>0.38122683981814831</v>
       </c>
       <c r="L37" s="29">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J37)+1)</f>
+        <v>11</v>
       </c>
       <c r="M37" s="29">
         <f>SUMIF(Sales!B:B,A37,Sales!E:E)</f>
-        <v>350</v>
+        <v>1740</v>
       </c>
       <c r="N37" s="31">
-        <f t="shared" si="5"/>
-        <v>191.12189757643927</v>
+        <f>M37/H37</f>
+        <v>239.89881552872043</v>
       </c>
       <c r="O37" s="29">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N37)+1)</f>
+        <v>24</v>
       </c>
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="29">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C38" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="29">
         <f>SUMIF(Sales!B:B,A38,Sales!D:D)</f>
-        <v>41</v>
-      </c>
-      <c r="E38" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="E38" s="29" t="str">
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D38)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F38" s="29">
         <f>SUMIF(Prizes!B:B,A38,Prizes!D:D)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G38" s="29" t="str">
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F38)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H38" s="30">
         <f>SUMIF(Sales!B:B,A38,Sales!F:F)</f>
-        <v>1.9957656734501028</v>
+        <v>1.6521803371363961</v>
       </c>
       <c r="I38" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A38,Sales!G:G))</f>
-        <v>1.3441673982599343</v>
+        <v>1.1960152226849081</v>
       </c>
       <c r="J38" s="30">
-        <f t="shared" si="2"/>
-        <v>3.1501482295870731E-3</v>
+        <f>(F38-H38)/I38</f>
+        <v>0.29081541460884686</v>
       </c>
       <c r="K38" s="49">
-        <f t="shared" si="3"/>
-        <v>0.49874327476019131</v>
-      </c>
-      <c r="L38" s="29">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>IF(F38&gt;H38,1-_xlfn.NORM.DIST(F38,H38,I38,1),_xlfn.NORM.DIST(F38,H38,I38,1))</f>
+        <v>0.38559624774223478</v>
+      </c>
+      <c r="L38" s="29" t="str">
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J38)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M38" s="29">
         <f>SUMIF(Sales!B:B,A38,Sales!E:E)</f>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N38" s="31">
-        <f t="shared" si="5"/>
-        <v>200.42433103306936</v>
-      </c>
-      <c r="O38" s="29">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f>M38/H38</f>
+        <v>211.8412815677431</v>
+      </c>
+      <c r="O38" s="31" t="str">
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N38)+1)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="29">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C39" s="29">
         <v>1</v>
       </c>
       <c r="D39" s="29">
         <f>SUMIF(Sales!B:B,A39,Sales!D:D)</f>
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D39)+1)</f>
+        <v>32</v>
       </c>
       <c r="F39" s="29">
         <f>SUMIF(Prizes!B:B,A39,Prizes!D:D)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F39)+1)</f>
+        <v>26</v>
       </c>
       <c r="H39" s="30">
         <f>SUMIF(Sales!B:B,A39,Sales!F:F)</f>
-        <v>4.1607621161309751</v>
+        <v>6.3829787234042548E-2</v>
       </c>
       <c r="I39" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A39,Sales!G:G))</f>
-        <v>1.9032990868959521</v>
+        <v>0.24791576048881739</v>
       </c>
       <c r="J39" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.609868477383676</v>
+        <f>(F39-H39)/I39</f>
+        <v>-0.25746562908380199</v>
       </c>
       <c r="K39" s="49">
-        <f t="shared" si="3"/>
-        <v>0.27097446775170275</v>
+        <f>IF(F39&gt;H39,1-_xlfn.NORM.DIST(F39,H39,I39,1),_xlfn.NORM.DIST(F39,H39,I39,1))</f>
+        <v>0.39840967257938792</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J39)+1)</f>
+        <v>19</v>
       </c>
       <c r="M39" s="29">
         <f>SUMIF(Sales!B:B,A39,Sales!E:E)</f>
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="N39" s="31">
-        <f t="shared" si="5"/>
-        <v>216.30652627574281</v>
+        <f>M39/H39</f>
+        <v>313.33333333333337</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N39)+1)</f>
+        <v>33</v>
       </c>
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="29">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="29">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29">
+        <f>SUMIF(Sales!B:B,A40,Sales!D:D)</f>
         <v>64</v>
       </c>
-      <c r="C40" s="29">
-        <v>1</v>
-      </c>
-      <c r="D40" s="35">
-        <f>SUMIF(Sales!B:B,A40,Sales!D:D)</f>
-        <v>37</v>
-      </c>
-      <c r="E40" s="35">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F40" s="35">
+      <c r="E40" s="29">
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D40)+1)</f>
+        <v>9</v>
+      </c>
+      <c r="F40" s="29">
         <f>SUMIF(Prizes!B:B,A40,Prizes!D:D)</f>
         <v>4</v>
       </c>
-      <c r="G40" s="35">
-        <f t="shared" si="1"/>
+      <c r="G40" s="29">
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F40)+1)</f>
         <v>3</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="30">
         <f>SUMIF(Sales!B:B,A40,Sales!F:F)</f>
-        <v>1.7654362892118982</v>
-      </c>
-      <c r="I40" s="36">
+        <v>3.5729121587717425</v>
+      </c>
+      <c r="I40" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A40,Sales!G:G))</f>
-        <v>1.2439598119364987</v>
-      </c>
-      <c r="J40" s="36">
-        <f t="shared" si="2"/>
-        <v>1.7963311108174056</v>
+        <v>1.7690626415061241</v>
+      </c>
+      <c r="J40" s="30">
+        <f>(F40-H40)/I40</f>
+        <v>0.24142041734861824</v>
       </c>
       <c r="K40" s="49">
-        <f t="shared" si="3"/>
-        <v>3.6220936405928716E-2</v>
-      </c>
-      <c r="L40" s="37">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M40" s="35">
+        <f>IF(F40&gt;H40,1-_xlfn.NORM.DIST(F40,H40,I40,1),_xlfn.NORM.DIST(F40,H40,I40,1))</f>
+        <v>0.40461464495785371</v>
+      </c>
+      <c r="L40" s="29">
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J40)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M40" s="29">
         <f>SUMIF(Sales!B:B,A40,Sales!E:E)</f>
-        <v>360</v>
+        <v>740</v>
       </c>
       <c r="N40" s="31">
-        <f t="shared" si="5"/>
-        <v>203.9155999000713</v>
+        <f>M40/H40</f>
+        <v>207.11396393646277</v>
       </c>
       <c r="O40" s="29">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N40)+1)</f>
+        <v>13</v>
       </c>
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="29">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C41" s="29">
         <v>1</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="29">
         <f>SUMIF(Sales!B:B,A41,Sales!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="E41" s="35">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="F41" s="35">
+        <v>45</v>
+      </c>
+      <c r="E41" s="29">
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D41)+1)</f>
+        <v>13</v>
+      </c>
+      <c r="F41" s="29">
         <f>SUMIF(Prizes!B:B,A41,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H41" s="36">
+        <v>2</v>
+      </c>
+      <c r="G41" s="29">
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F41)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H41" s="30">
         <f>SUMIF(Sales!B:B,A41,Sales!F:F)</f>
-        <v>0.3612040133779264</v>
-      </c>
-      <c r="I41" s="36">
+        <v>2.3237303641958817</v>
+      </c>
+      <c r="I41" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A41,Sales!G:G))</f>
-        <v>0.54598817687849921</v>
-      </c>
-      <c r="J41" s="36">
-        <f t="shared" si="2"/>
-        <v>-0.66156013751613985</v>
+        <v>1.4405480167928464</v>
+      </c>
+      <c r="J41" s="30">
+        <f>(F41-H41)/I41</f>
+        <v>-0.2247272290975878</v>
       </c>
       <c r="K41" s="49">
-        <f t="shared" si="3"/>
-        <v>0.25412658085528567</v>
-      </c>
-      <c r="L41" s="37">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="M41" s="35">
+        <f>IF(F41&gt;H41,1-_xlfn.NORM.DIST(F41,H41,I41,1),_xlfn.NORM.DIST(F41,H41,I41,1))</f>
+        <v>0.41109574029874496</v>
+      </c>
+      <c r="L41" s="29">
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J41)+1)</f>
+        <v>18</v>
+      </c>
+      <c r="M41" s="29">
         <f>SUMIF(Sales!B:B,A41,Sales!E:E)</f>
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="N41" s="31">
-        <f t="shared" si="5"/>
-        <v>55.370370370370374</v>
+        <f>M41/H41</f>
+        <v>236.6883905613229</v>
       </c>
       <c r="O41" s="29">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N41)+1)</f>
+        <v>23</v>
       </c>
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="29">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C42" s="29">
         <v>1</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="29">
         <f>SUMIF(Sales!B:B,A42,Sales!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="E42" s="35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F42" s="35">
+        <v>26</v>
+      </c>
+      <c r="E42" s="29">
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D42)+1)</f>
+        <v>21</v>
+      </c>
+      <c r="F42" s="29">
         <f>SUMIF(Prizes!B:B,A42,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H42" s="36">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29">
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F42)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H42" s="30">
         <f>SUMIF(Sales!B:B,A42,Sales!F:F)</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I42" s="36">
+        <v>1.7386807932020698</v>
+      </c>
+      <c r="I42" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A42,Sales!G:G))</f>
-        <v>0.42132504423474315</v>
-      </c>
-      <c r="J42" s="36">
-        <f t="shared" si="2"/>
-        <v>-0.54772255750516619</v>
+        <v>1.2196223879112047</v>
+      </c>
+      <c r="J42" s="30">
+        <f>(F42-H42)/I42</f>
+        <v>0.21426238923465521</v>
       </c>
       <c r="K42" s="49">
-        <f t="shared" si="3"/>
-        <v>0.2919412103851825</v>
-      </c>
-      <c r="L42" s="37">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M42" s="35">
+        <f>IF(F42&gt;H42,1-_xlfn.NORM.DIST(F42,H42,I42,1),_xlfn.NORM.DIST(F42,H42,I42,1))</f>
+        <v>0.41517122299034059</v>
+      </c>
+      <c r="L42" s="29">
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J42)+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M42" s="29">
         <f>SUMIF(Sales!B:B,A42,Sales!E:E)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N42" s="31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>M42/H42</f>
+        <v>201.3020454176737</v>
       </c>
       <c r="O42" s="29">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N42)+1)</f>
+        <v>11</v>
       </c>
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="29">
+        <v>32</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29">
+        <f>SUMIF(Sales!B:B,A43,Sales!D:D)</f>
         <v>41</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="29">
-        <v>1</v>
-      </c>
-      <c r="D43" s="35">
-        <f>SUMIF(Sales!B:B,A43,Sales!D:D)</f>
-        <v>15</v>
-      </c>
-      <c r="E43" s="37">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F43" s="35">
+      <c r="E43" s="29">
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D43)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F43" s="29">
         <f>SUMIF(Prizes!B:B,A43,Prizes!D:D)</f>
         <v>2</v>
       </c>
-      <c r="G43" s="37">
-        <f t="shared" si="1"/>
+      <c r="G43" s="29">
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F43)+1)</f>
         <v>12</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="30">
         <f>SUMIF(Sales!B:B,A43,Sales!F:F)</f>
-        <v>0.59948542024013718</v>
-      </c>
-      <c r="I43" s="36">
+        <v>1.751323901682182</v>
+      </c>
+      <c r="I43" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A43,Sales!G:G))</f>
-        <v>0.73982863701939761</v>
-      </c>
-      <c r="J43" s="36">
-        <f t="shared" si="2"/>
-        <v>1.8930256409135764</v>
+        <v>1.2450174883944376</v>
+      </c>
+      <c r="J43" s="30">
+        <f>(F43-H43)/I43</f>
+        <v>0.19973703231952852</v>
       </c>
       <c r="K43" s="49">
-        <f t="shared" si="3"/>
-        <v>2.9177229841034769E-2</v>
-      </c>
-      <c r="L43" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M43" s="35">
+        <f>IF(F43&gt;H43,1-_xlfn.NORM.DIST(F43,H43,I43,1),_xlfn.NORM.DIST(F43,H43,I43,1))</f>
+        <v>0.42084312485409769</v>
+      </c>
+      <c r="L43" s="29">
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J43)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="M43" s="29">
         <f>SUMIF(Sales!B:B,A43,Sales!E:E)</f>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N43" s="31">
-        <f t="shared" si="5"/>
-        <v>250.21459227467813</v>
-      </c>
-      <c r="O43" s="37">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f>M43/H43</f>
+        <v>228.39864151673595</v>
+      </c>
+      <c r="O43" s="29">
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N43)+1)</f>
+        <v>21</v>
       </c>
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="29">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C44" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="29">
         <f>SUMIF(Sales!B:B,A44,Sales!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="E44" s="35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F44" s="35">
+        <v>36</v>
+      </c>
+      <c r="E44" s="29">
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D44)+1)</f>
+        <v>20</v>
+      </c>
+      <c r="F44" s="29">
         <f>SUMIF(Prizes!B:B,A44,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H44" s="36">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29">
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F44)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H44" s="30">
         <f>SUMIF(Sales!B:B,A44,Sales!F:F)</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="I44" s="36">
+        <v>1.8312919892395763</v>
+      </c>
+      <c r="I44" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A44,Sales!G:G))</f>
-        <v>0.37094647870344777</v>
-      </c>
-      <c r="J44" s="36">
-        <f t="shared" si="2"/>
-        <v>-0.39211733715048613</v>
+        <v>1.2852767126125033</v>
+      </c>
+      <c r="J44" s="30">
+        <f>(F44-H44)/I44</f>
+        <v>0.1312620147123815</v>
       </c>
       <c r="K44" s="49">
-        <f t="shared" si="3"/>
-        <v>0.34748575901730239</v>
-      </c>
-      <c r="L44" s="37">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="M44" s="35">
+        <f>IF(F44&gt;H44,1-_xlfn.NORM.DIST(F44,H44,I44,1),_xlfn.NORM.DIST(F44,H44,I44,1))</f>
+        <v>0.44778401980729587</v>
+      </c>
+      <c r="L44" s="29">
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J44)+1)</f>
+        <v>15</v>
+      </c>
+      <c r="M44" s="29">
         <f>SUMIF(Sales!B:B,A44,Sales!E:E)</f>
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N44" s="31">
-        <f t="shared" si="5"/>
-        <v>275</v>
+        <f>M44/H44</f>
+        <v>191.12189757643927</v>
       </c>
       <c r="O44" s="29">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N44)+1)</f>
+        <v>6</v>
       </c>
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="29">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C45" s="29">
         <v>1</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="29">
         <f>SUMIF(Sales!B:B,A45,Sales!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="E45" s="35">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F45" s="35">
+        <v>51</v>
+      </c>
+      <c r="E45" s="29">
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D45)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="F45" s="29">
         <f>SUMIF(Prizes!B:B,A45,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="35">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H45" s="36">
+        <v>2</v>
+      </c>
+      <c r="G45" s="29">
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F45)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H45" s="30">
         <f>SUMIF(Sales!B:B,A45,Sales!F:F)</f>
-        <v>0.5079051383399209</v>
-      </c>
-      <c r="I45" s="36">
+        <v>2.1392509129157737</v>
+      </c>
+      <c r="I45" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A45,Sales!G:G))</f>
-        <v>0.67996690791586989</v>
-      </c>
-      <c r="J45" s="36">
-        <f t="shared" si="2"/>
-        <v>0.72370413314432125</v>
+        <v>1.3767007404782396</v>
+      </c>
+      <c r="J45" s="30">
+        <f>(F45-H45)/I45</f>
+        <v>-0.10114828068400734</v>
       </c>
       <c r="K45" s="49">
-        <f t="shared" si="3"/>
-        <v>0.23462369757905566</v>
-      </c>
-      <c r="L45" s="37">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M45" s="35">
+        <f>IF(F45&gt;H45,1-_xlfn.NORM.DIST(F45,H45,I45,1),_xlfn.NORM.DIST(F45,H45,I45,1))</f>
+        <v>0.45971637604945381</v>
+      </c>
+      <c r="L45" s="29">
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J45)+1)</f>
+        <v>17</v>
+      </c>
+      <c r="M45" s="29">
         <f>SUMIF(Sales!B:B,A45,Sales!E:E)</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N45" s="31">
-        <f t="shared" si="5"/>
-        <v>196.88715953307394</v>
+        <f>M45/H45</f>
+        <v>233.7266736600364</v>
       </c>
       <c r="O45" s="29">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N45)+1)</f>
+        <v>22</v>
       </c>
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="29">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C46" s="29">
         <v>1</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="29">
         <f>SUMIF(Sales!B:B,A46,Sales!D:D)</f>
-        <v>5</v>
-      </c>
-      <c r="E46" s="35">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F46" s="35">
+        <v>41</v>
+      </c>
+      <c r="E46" s="29">
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D46)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="F46" s="29">
         <f>SUMIF(Prizes!B:B,A46,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="35">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H46" s="36">
+        <v>2</v>
+      </c>
+      <c r="G46" s="29">
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F46)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="H46" s="30">
         <f>SUMIF(Sales!B:B,A46,Sales!F:F)</f>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="I46" s="36">
+        <v>1.9957656734501028</v>
+      </c>
+      <c r="I46" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A46,Sales!G:G))</f>
-        <v>0.53983489724168388</v>
-      </c>
-      <c r="J46" s="36">
-        <f t="shared" si="2"/>
-        <v>1.2483688011309693</v>
+        <v>1.3441673982599343</v>
+      </c>
+      <c r="J46" s="30">
+        <f>(F46-H46)/I46</f>
+        <v>3.1501482295870731E-3</v>
       </c>
       <c r="K46" s="49">
-        <f t="shared" si="3"/>
-        <v>0.10594801446913715</v>
-      </c>
-      <c r="L46" s="37">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M46" s="35">
+        <f>IF(F46&gt;H46,1-_xlfn.NORM.DIST(F46,H46,I46,1),_xlfn.NORM.DIST(F46,H46,I46,1))</f>
+        <v>0.49874327476019131</v>
+      </c>
+      <c r="L46" s="29">
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J46)+1)</f>
+        <v>16</v>
+      </c>
+      <c r="M46" s="29">
         <f>SUMIF(Sales!B:B,A46,Sales!E:E)</f>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N46" s="31">
-        <f t="shared" si="5"/>
-        <v>153.33333333333334</v>
+        <f>M46/H46</f>
+        <v>200.42433103306936</v>
       </c>
       <c r="O46" s="29">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N46)+1)</f>
+        <v>9</v>
       </c>
       <c r="P46" s="29"/>
     </row>
@@ -6173,7 +6173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
+    <sheetView topLeftCell="A256" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -13328,7 +13328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -14766,7 +14766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="9220"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -412,6 +412,15 @@
   <si>
     <t>SUM</t>
   </si>
+  <si>
+    <t>Fridtjof</t>
+  </si>
+  <si>
+    <t>Ciaran</t>
+  </si>
+  <si>
+    <t>cost/µ</t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +634,7 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,6 +735,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -735,7 +745,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -776,9 +792,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1014,49 +1027,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:O46" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:O46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:O48" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:O48"/>
   <sortState ref="A2:O46">
-    <sortCondition ref="K1:K46"/>
+    <sortCondition ref="A1:A46"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="id" dataDxfId="30"/>
-    <tableColumn id="2" name="name" dataDxfId="29"/>
-    <tableColumn id="3" name="active" dataDxfId="28"/>
-    <tableColumn id="9" name="tickets" dataDxfId="27">
+    <tableColumn id="1" name="id" dataDxfId="31"/>
+    <tableColumn id="2" name="name" dataDxfId="30"/>
+    <tableColumn id="3" name="active" dataDxfId="29"/>
+    <tableColumn id="9" name="tickets" dataDxfId="28">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="#t" dataDxfId="26">
+    <tableColumn id="12" name="#t" dataDxfId="27">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="prizes" dataDxfId="25">
+    <tableColumn id="10" name="prizes" dataDxfId="26">
       <calculatedColumnFormula>SUMIF(Prizes!B:B,A2,Prizes!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="#p" dataDxfId="24">
+    <tableColumn id="13" name="#p" dataDxfId="25">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="μ" dataDxfId="23">
+    <tableColumn id="7" name="μ" dataDxfId="24">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="σ" dataDxfId="22">
+    <tableColumn id="11" name="σ" dataDxfId="23">
       <calculatedColumnFormula>SQRT(SUMIF(Sales!B:B,A2,Sales!G:G))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="(pr - μ)/σ" dataDxfId="21">
+    <tableColumn id="5" name="(pr - μ)/σ" dataDxfId="22">
       <calculatedColumnFormula>(F2-H2)/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="prob" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="15" name="prob" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="rank" dataDxfId="19">
+    <tableColumn id="6" name="rank" dataDxfId="20">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="cost" dataDxfId="18">
+    <tableColumn id="8" name="cost" dataDxfId="19">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="cost/μ" dataDxfId="17">
+    <tableColumn id="4" name="cost/μ" dataDxfId="18">
       <calculatedColumnFormula>M2/H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="#i" dataDxfId="16">
+    <tableColumn id="14" name="#i" dataDxfId="17">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1065,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:F16">
-  <autoFilter ref="A1:F16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:G17">
+  <autoFilter ref="A1:G17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1074,18 +1087,21 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="id" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="date" dataDxfId="15"/>
-    <tableColumn id="4" name="cost" dataDxfId="14"/>
-    <tableColumn id="3" name="sales" dataDxfId="13">
+    <tableColumn id="2" name="date" dataDxfId="16"/>
+    <tableColumn id="4" name="cost" dataDxfId="15"/>
+    <tableColumn id="3" name="sales" dataDxfId="14">
       <calculatedColumnFormula>SUMIFS(Sales!D:D,Sales!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Prizes!D:D,Prizes!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ/ticket" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="6" name="µ/ticket" dataDxfId="1" totalsRowDxfId="12">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="cost/µ" dataDxfId="0">
+      <calculatedColumnFormula>C2*D2/E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1093,8 +1109,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G274" totalsRowShown="0">
-  <autoFilter ref="A1:G274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G290" totalsRowShown="0">
+  <autoFilter ref="A1:G290">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1106,15 +1122,15 @@
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="lottery_id" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="5" name="cost" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="5">
+    <tableColumn id="6" name="µ" dataDxfId="7">
       <calculatedColumnFormula>D2*INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="4">
+    <tableColumn id="7" name="σ2" dataDxfId="6">
       <calculatedColumnFormula>INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1123,8 +1139,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D85" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D90" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D90">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1143,7 +1159,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1152,8 +1168,8 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="1"/>
-    <tableColumn id="4" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" name="date" dataDxfId="3"/>
+    <tableColumn id="4" name="cost" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="3" name="prizes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1425,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,35 +1556,35 @@
       </c>
       <c r="E4" s="23">
         <f>INDEX(Persons!$D:$D,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="23">
         <f>INDEX(Persons!$F:$F,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="24">
         <f>INDEX(Persons!$H:$H,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>0.59948542024013718</v>
+        <v>0.87221269296740989</v>
       </c>
       <c r="H4" s="24">
         <f>INDEX(Persons!$I:$I,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>0.73982863701939761</v>
+        <v>0.89203992119738906</v>
       </c>
       <c r="I4" s="24">
         <f>INDEX(Persons!$J:$J,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>1.8930256409135764</v>
+        <v>2.3853050255603492</v>
       </c>
       <c r="J4" s="50">
         <f>INDEX(Persons!$K:$K,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>2.9177229841034769E-2</v>
+        <v>8.5324827515246282E-3</v>
       </c>
       <c r="K4" s="44">
         <f>INDEX(Persons!$N:$N,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>250.21459227467813</v>
+        <v>229.30186823992136</v>
       </c>
       <c r="L4" s="14">
         <f>LARGE(Persons!L:L,1+ROW(L4)-ROW(L$4))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="14">
         <f t="array" ref="M4">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=L4,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($L$4:L4,L4)))</f>
@@ -1650,7 +1666,7 @@
       </c>
       <c r="L5" s="14">
         <f>LARGE(Persons!L:L,1+ROW(L5)-ROW(L$4))</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" s="14">
         <f t="array" ref="M5">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=L5,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($L$4:L5,L5)))</f>
@@ -1696,55 +1712,55 @@
       </c>
       <c r="C6" s="23">
         <f t="array" ref="C6">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=B6,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($B$4:B6,B6)))</f>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D6" s="23" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>Jan</v>
+        <v>Truls</v>
       </c>
       <c r="E6" s="23">
         <f>INDEX(Persons!$D:$D,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F6" s="23">
         <f>INDEX(Persons!$F:$F,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="24">
         <f>INDEX(Persons!$H:$H,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>0.32608695652173914</v>
+        <v>3.7568102226893423</v>
       </c>
       <c r="H6" s="24">
         <f>INDEX(Persons!$I:$I,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>0.53983489724168388</v>
+        <v>1.8224882202711019</v>
       </c>
       <c r="I6" s="24">
         <f>INDEX(Persons!$J:$J,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>1.2483688011309693</v>
+        <v>1.2308391090599065</v>
       </c>
       <c r="J6" s="50">
         <f>INDEX(Persons!$K:$K,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>0.10594801446913715</v>
+        <v>0.10919152255792985</v>
       </c>
       <c r="K6" s="44">
         <f>INDEX(Persons!$N:$N,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>153.33333333333334</v>
+        <v>218.27027488575041</v>
       </c>
       <c r="L6" s="14">
         <f>LARGE(Persons!L:L,1+ROW(L6)-ROW(L$4))</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="14">
         <f t="array" ref="M6">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=L6,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($L$4:L6,L6)))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N6" s="14" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>Odd</v>
+        <v>Anders W</v>
       </c>
       <c r="O6" s="14">
         <f>INDEX(Persons!$D:$D,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="P6" s="14">
         <f>INDEX(Persons!$F:$F,MATCH(M6,Persons!$A:$A,0))</f>
@@ -1752,23 +1768,23 @@
       </c>
       <c r="Q6" s="15">
         <f>INDEX(Persons!$H:$H,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>5.3738881235615397</v>
+        <v>5.0238575544420883</v>
       </c>
       <c r="R6" s="15">
         <f>INDEX(Persons!$I:$I,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>2.1775157131870162</v>
+        <v>2.0742542497121694</v>
       </c>
       <c r="S6" s="15">
         <f>INDEX(Persons!$J:$J,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>-1.0901818568680326</v>
+        <v>-0.97570370398080453</v>
       </c>
       <c r="T6" s="51">
         <f>INDEX(Persons!$K:$K,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>0.13781652188722632</v>
+        <v>0.16460565809130867</v>
       </c>
       <c r="U6" s="46">
         <f>INDEX(Persons!$N:$N,MATCH(M6,Persons!$A:$A,0))</f>
-        <v>241.91050690099334</v>
+        <v>220.94575492462749</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
@@ -1778,15 +1794,15 @@
       </c>
       <c r="C7" s="23">
         <f t="array" ref="C7">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=B7,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($B$4:B7,B7)))</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>Truls</v>
+        <v>Johanne</v>
       </c>
       <c r="E7" s="23">
         <f>INDEX(Persons!$D:$D,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7" s="23">
         <f>INDEX(Persons!$F:$F,MATCH(C7,Persons!$A:$A,0))</f>
@@ -1794,63 +1810,63 @@
       </c>
       <c r="G7" s="24">
         <f>INDEX(Persons!$H:$H,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>3.4840829499620698</v>
+        <v>3.2250613603274099</v>
       </c>
       <c r="H7" s="24">
         <f>INDEX(Persons!$I:$I,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>1.7530186833491146</v>
+        <v>1.6993617556865768</v>
       </c>
       <c r="I7" s="24">
         <f>INDEX(Persons!$J:$J,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>0.8647466592551053</v>
+        <v>1.0444736876848677</v>
       </c>
       <c r="J7" s="50">
         <f>INDEX(Persons!$K:$K,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>0.19358892686978058</v>
+        <v>0.1481331433566947</v>
       </c>
       <c r="K7" s="44">
         <f>INDEX(Persons!$N:$N,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>221.0050710785697</v>
+        <v>244.95657965397558</v>
       </c>
       <c r="L7" s="14">
         <f>LARGE(Persons!L:L,1+ROW(L7)-ROW(L$4))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="14">
         <f t="array" ref="M7">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=L7,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($L$4:L7,L7)))</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N7" s="14" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>Anders W</v>
+        <v>Asgeir</v>
       </c>
       <c r="O7" s="14">
         <f>INDEX(Persons!$D:$D,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="P7" s="14">
         <f>INDEX(Persons!$F:$F,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="15">
         <f>INDEX(Persons!$H:$H,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>5.0238575544420883</v>
+        <v>2.2684929461773757</v>
       </c>
       <c r="R7" s="15">
         <f>INDEX(Persons!$I:$I,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>2.0742542497121694</v>
+        <v>1.4335880870740889</v>
       </c>
       <c r="S7" s="15">
         <f>INDEX(Persons!$J:$J,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>-0.97570370398080453</v>
+        <v>-0.88483781193127276</v>
       </c>
       <c r="T7" s="51">
         <f>INDEX(Persons!$K:$K,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>0.16460565809130867</v>
+        <v>0.18812205630598353</v>
       </c>
       <c r="U7" s="46">
         <f>INDEX(Persons!$N:$N,MATCH(M7,Persons!$A:$A,0))</f>
-        <v>220.94575492462749</v>
+        <v>198.36958310066265</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
@@ -1896,43 +1912,43 @@
       </c>
       <c r="L8" s="14">
         <f>LARGE(Persons!L:L,1+ROW(L8)-ROW(L$4))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M8" s="14">
         <f t="array" ref="M8">INDEX(Persons!A:A,SMALL(IF(Persons!L:L=L8,ROW(Persons!L:L)-ROW(Persons!$L$1)+1),COUNTIF($L$4:L8,L8)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8" s="14" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>Sven</v>
+        <v>Bjarke</v>
       </c>
       <c r="O8" s="14">
         <f>INDEX(Persons!$D:$D,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="P8" s="14">
         <f>INDEX(Persons!$F:$F,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <f>INDEX(Persons!$H:$H,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>2.1292839623966007</v>
+        <v>0.70097913093196107</v>
       </c>
       <c r="R8" s="15">
         <f>INDEX(Persons!$I:$I,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>1.3555226273956775</v>
+        <v>0.80570500303843884</v>
       </c>
       <c r="S8" s="15">
         <f>INDEX(Persons!$J:$J,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>-0.83309856993406151</v>
+        <v>-0.87001958320782391</v>
       </c>
       <c r="T8" s="51">
         <f>INDEX(Persons!$K:$K,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>0.20239457002747768</v>
+        <v>0.19214485114680332</v>
       </c>
       <c r="U8" s="46">
         <f>INDEX(Persons!$N:$N,MATCH(M8,Persons!$A:$A,0))</f>
-        <v>197.2494075084621</v>
+        <v>242.51791886298062</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
@@ -2038,7 +2054,7 @@
       </c>
       <c r="E12" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F12" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C12,Persons!$A:$A,0))</f>
@@ -2046,23 +2062,23 @@
       </c>
       <c r="G12" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>7.2530579034546712</v>
+        <v>8.1257851761819442</v>
       </c>
       <c r="H12" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>2.4711886604511184</v>
+        <v>2.6111966974400187</v>
       </c>
       <c r="I12" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>0.30226024766922233</v>
+        <v>-4.8171467245367701E-2</v>
       </c>
       <c r="J12" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>0.38122683981814831</v>
+        <v>0.4807897948096726</v>
       </c>
       <c r="K12" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>239.89881552872043</v>
+        <v>233.82355782296861</v>
       </c>
       <c r="L12" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L12)-ROW(L$12))</f>
@@ -2078,7 +2094,7 @@
       </c>
       <c r="O12" s="10">
         <f>INDEX(Persons!$D:$D,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="P12" s="10">
         <f>INDEX(Persons!$F:$F,MATCH(M12,Persons!$A:$A,0))</f>
@@ -2086,23 +2102,23 @@
       </c>
       <c r="Q12" s="11">
         <f>INDEX(Persons!$H:$H,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>7.2530579034546712</v>
+        <v>8.1257851761819442</v>
       </c>
       <c r="R12" s="11">
         <f>INDEX(Persons!$I:$I,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>2.4711886604511184</v>
+        <v>2.6111966974400187</v>
       </c>
       <c r="S12" s="11">
         <f>INDEX(Persons!$J:$J,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>0.30226024766922233</v>
+        <v>-4.8171467245367701E-2</v>
       </c>
       <c r="T12" s="53">
         <f>INDEX(Persons!$K:$K,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>0.38122683981814831</v>
+        <v>0.4807897948096726</v>
       </c>
       <c r="U12" s="47">
         <f>INDEX(Persons!$N:$N,MATCH(M12,Persons!$A:$A,0))</f>
-        <v>239.89881552872043</v>
+        <v>233.82355782296861</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
@@ -2120,31 +2136,31 @@
       </c>
       <c r="E13" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>3.4840829499620698</v>
+        <v>3.7568102226893423</v>
       </c>
       <c r="H13" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>1.7530186833491146</v>
+        <v>1.8224882202711019</v>
       </c>
       <c r="I13" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>0.8647466592551053</v>
+        <v>1.2308391090599065</v>
       </c>
       <c r="J13" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>0.19358892686978058</v>
+        <v>0.10919152255792985</v>
       </c>
       <c r="K13" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C13,Persons!$A:$A,0))</f>
-        <v>221.0050710785697</v>
+        <v>218.27027488575041</v>
       </c>
       <c r="L13" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L13)-ROW(L$12))</f>
@@ -2160,31 +2176,31 @@
       </c>
       <c r="O13" s="10">
         <f>INDEX(Persons!$D:$D,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P13" s="10">
         <f>INDEX(Persons!$F:$F,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="11">
         <f>INDEX(Persons!$H:$H,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>5.3738881235615397</v>
+        <v>5.9193426690160855</v>
       </c>
       <c r="R13" s="11">
         <f>INDEX(Persons!$I:$I,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>2.1775157131870162</v>
+        <v>2.2835709364620573</v>
       </c>
       <c r="S13" s="11">
         <f>INDEX(Persons!$J:$J,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>-1.0901818568680326</v>
+        <v>-0.40258993243294017</v>
       </c>
       <c r="T13" s="53">
         <f>INDEX(Persons!$K:$K,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>0.13781652188722632</v>
+        <v>0.34362495855693742</v>
       </c>
       <c r="U13" s="47">
         <f>INDEX(Persons!$N:$N,MATCH(M13,Persons!$A:$A,0))</f>
-        <v>241.91050690099334</v>
+        <v>236.51274783061484</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
@@ -2194,39 +2210,39 @@
       </c>
       <c r="C14" s="18">
         <f t="array" ref="C14">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B14,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B14,B14)))</f>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D14" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>Ragnar</v>
+        <v>Johanne</v>
       </c>
       <c r="E14" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F14" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>1.7654362892118982</v>
+        <v>3.2250613603274099</v>
       </c>
       <c r="H14" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>1.2439598119364987</v>
+        <v>1.6993617556865768</v>
       </c>
       <c r="I14" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>1.7963311108174056</v>
+        <v>1.0444736876848677</v>
       </c>
       <c r="J14" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>3.6220936405928716E-2</v>
+        <v>0.1481331433566947</v>
       </c>
       <c r="K14" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C14,Persons!$A:$A,0))</f>
-        <v>203.9155999000713</v>
+        <v>244.95657965397558</v>
       </c>
       <c r="L14" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L14)-ROW(L$12))</f>
@@ -2276,39 +2292,39 @@
       </c>
       <c r="C15" s="18">
         <f t="array" ref="C15">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B15,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B15,B15)))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>Johanne</v>
+        <v>Odd</v>
       </c>
       <c r="E15" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F15" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>2.9523340876001374</v>
+        <v>5.9193426690160855</v>
       </c>
       <c r="H15" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>1.6246358262190024</v>
+        <v>2.2835709364620573</v>
       </c>
       <c r="I15" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>0.64486200260527571</v>
+        <v>-0.40258993243294017</v>
       </c>
       <c r="J15" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>0.259508308715931</v>
+        <v>0.34362495855693742</v>
       </c>
       <c r="K15" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C15,Persons!$A:$A,0))</f>
-        <v>250.64913998317971</v>
+        <v>236.51274783061484</v>
       </c>
       <c r="L15" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L15)-ROW(L$12))</f>
@@ -2324,7 +2340,7 @@
       </c>
       <c r="O15" s="10">
         <f>INDEX(Persons!$D:$D,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P15" s="10">
         <f>INDEX(Persons!$F:$F,MATCH(M15,Persons!$A:$A,0))</f>
@@ -2332,23 +2348,23 @@
       </c>
       <c r="Q15" s="11">
         <f>INDEX(Persons!$H:$H,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>4.1607621161309751</v>
+        <v>4.7062166615855201</v>
       </c>
       <c r="R15" s="11">
         <f>INDEX(Persons!$I:$I,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>1.9032990868959521</v>
+        <v>2.0237759151785562</v>
       </c>
       <c r="S15" s="11">
         <f>INDEX(Persons!$J:$J,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>-0.609868477383676</v>
+        <v>-0.84308576299811433</v>
       </c>
       <c r="T15" s="53">
         <f>INDEX(Persons!$K:$K,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>0.27097446775170275</v>
+        <v>0.19959024025866698</v>
       </c>
       <c r="U15" s="47">
         <f>INDEX(Persons!$N:$N,MATCH(M15,Persons!$A:$A,0))</f>
-        <v>216.30652627574281</v>
+        <v>212.48490494764025</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.35">
@@ -2358,39 +2374,39 @@
       </c>
       <c r="C16" s="18">
         <f t="array" ref="C16">INDEX(Persons!A:A,SMALL(IF(Persons!G:G=B16,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$12:B16,B16)))</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>Kim</v>
+        <v>Yngvar</v>
       </c>
       <c r="E16" s="18">
         <f>INDEX(Persons!$D:$D,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" s="18">
         <f>INDEX(Persons!$F:$F,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="19">
         <f>INDEX(Persons!$H:$H,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>3.0883035773743104</v>
+        <v>3.9001848860444697</v>
       </c>
       <c r="H16" s="19">
         <f>INDEX(Persons!$I:$I,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>1.645289709282524</v>
+        <v>1.8506243462560401</v>
       </c>
       <c r="I16" s="19">
         <f>INDEX(Persons!$J:$J,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>0.55412515952783847</v>
+        <v>0.59429409117011978</v>
       </c>
       <c r="J16" s="52">
         <f>INDEX(Persons!$K:$K,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>0.28974659632997213</v>
+        <v>0.27615771500533071</v>
       </c>
       <c r="K16" s="45">
         <f>INDEX(Persons!$N:$N,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>259.04189143224175</v>
+        <v>205.11848114240357</v>
       </c>
       <c r="L16" s="10">
         <f>SMALL(Persons!E:E,1+ROW(L16)-ROW(L$12))</f>
@@ -2406,7 +2422,7 @@
       </c>
       <c r="O16" s="10">
         <f>INDEX(Persons!$D:$D,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P16" s="10">
         <f>INDEX(Persons!$F:$F,MATCH(M16,Persons!$A:$A,0))</f>
@@ -2414,23 +2430,23 @@
       </c>
       <c r="Q16" s="11">
         <f>INDEX(Persons!$H:$H,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>3.7971257524946109</v>
+        <v>4.3425802979491568</v>
       </c>
       <c r="R16" s="11">
         <f>INDEX(Persons!$I:$I,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>1.8257369483316859</v>
+        <v>1.9510092119673177</v>
       </c>
       <c r="S16" s="11">
         <f>INDEX(Persons!$J:$J,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>-0.43660492998348149</v>
+        <v>-0.68814657035645355</v>
       </c>
       <c r="T16" s="53">
         <f>INDEX(Persons!$K:$K,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>0.33119894334721611</v>
+        <v>0.24568024310018882</v>
       </c>
       <c r="U16" s="47">
         <f>INDEX(Persons!$N:$N,MATCH(M16,Persons!$A:$A,0))</f>
-        <v>213.31924534441649</v>
+        <v>209.55283208689542</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
@@ -2564,7 +2580,7 @@
       </c>
       <c r="L20" s="27">
         <f>LARGE(Persons!O:O,1+ROW(L20)-ROW(L$20))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M20" s="27">
         <f t="array" ref="M20">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=L20,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($L$20:L20,L20)))</f>
@@ -2646,19 +2662,19 @@
       </c>
       <c r="L21" s="27">
         <f>LARGE(Persons!O:O,1+ROW(L21)-ROW(L$20))</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21" s="27">
         <f t="array" ref="M21">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=L21,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($L$20:L21,L21)))</f>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N21" s="27" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>Hanne</v>
+        <v>Magnus W</v>
       </c>
       <c r="O21" s="27">
         <f>INDEX(Persons!$D:$D,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P21" s="27">
         <f>INDEX(Persons!$F:$F,MATCH(M21,Persons!$A:$A,0))</f>
@@ -2666,23 +2682,23 @@
       </c>
       <c r="Q21" s="28">
         <f>INDEX(Persons!$H:$H,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>0.30681818181818182</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="R21" s="28">
         <f>INDEX(Persons!$I:$I,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>0.53561854612135185</v>
+        <v>0.37094647870344777</v>
       </c>
       <c r="S21" s="28">
         <f>INDEX(Persons!$J:$J,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>-0.57282964535113001</v>
+        <v>-0.39211733715048613</v>
       </c>
       <c r="T21" s="55">
         <f>INDEX(Persons!$K:$K,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>0.28338002224276981</v>
+        <v>0.34748575901730239</v>
       </c>
       <c r="U21" s="32">
         <f>INDEX(Persons!$N:$N,MATCH(M21,Persons!$A:$A,0))</f>
-        <v>293.33333333333331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.35">
@@ -2700,7 +2716,7 @@
       </c>
       <c r="E22" s="6">
         <f>INDEX(Persons!$D:$D,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6">
         <f>INDEX(Persons!$F:$F,MATCH(C22,Persons!$A:$A,0))</f>
@@ -2708,63 +2724,63 @@
       </c>
       <c r="G22" s="7">
         <f>INDEX(Persons!$H:$H,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>0.32608695652173914</v>
+        <v>0.59881422924901184</v>
       </c>
       <c r="H22" s="7">
         <f>INDEX(Persons!$I:$I,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>0.53983489724168388</v>
+        <v>0.73471799020835471</v>
       </c>
       <c r="I22" s="7">
         <f>INDEX(Persons!$J:$J,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>1.2483688011309693</v>
+        <v>0.54604048913681569</v>
       </c>
       <c r="J22" s="54">
         <f>INDEX(Persons!$K:$K,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>0.10594801446913715</v>
+        <v>0.29251905278721679</v>
       </c>
       <c r="K22" s="33">
         <f>INDEX(Persons!$N:$N,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>153.33333333333334</v>
+        <v>166.996699669967</v>
       </c>
       <c r="L22" s="27">
         <f>LARGE(Persons!O:O,1+ROW(L22)-ROW(L$20))</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M22" s="27">
         <f t="array" ref="M22">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=L22,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($L$20:L22,L22)))</f>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N22" s="27" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>Magnus W</v>
+        <v>Kim</v>
       </c>
       <c r="O22" s="27">
         <f>INDEX(Persons!$D:$D,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="P22" s="27">
         <f>INDEX(Persons!$F:$F,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="28">
         <f>INDEX(Persons!$H:$H,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>0.14545454545454545</v>
+        <v>3.0883035773743104</v>
       </c>
       <c r="R22" s="28">
         <f>INDEX(Persons!$I:$I,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>0.37094647870344777</v>
+        <v>1.645289709282524</v>
       </c>
       <c r="S22" s="28">
         <f>INDEX(Persons!$J:$J,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>-0.39211733715048613</v>
+        <v>0.55412515952783847</v>
       </c>
       <c r="T22" s="55">
         <f>INDEX(Persons!$K:$K,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>0.34748575901730239</v>
+        <v>0.28974659632997213</v>
       </c>
       <c r="U22" s="32">
         <f>INDEX(Persons!$N:$N,MATCH(M22,Persons!$A:$A,0))</f>
-        <v>275</v>
+        <v>259.04189143224175</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.35">
@@ -2810,43 +2826,43 @@
       </c>
       <c r="L23" s="27">
         <f>LARGE(Persons!O:O,1+ROW(L23)-ROW(L$20))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M23" s="27">
         <f t="array" ref="M23">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=L23,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($L$20:L23,L23)))</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N23" s="27" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>Bjarke</v>
+        <v>Terje</v>
       </c>
       <c r="O23" s="27">
         <f>INDEX(Persons!$D:$D,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P23" s="27">
         <f>INDEX(Persons!$F:$F,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="28">
         <f>INDEX(Persons!$H:$H,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>0.53734276729559749</v>
+        <v>2.7289515245114577</v>
       </c>
       <c r="R23" s="28">
         <f>INDEX(Persons!$I:$I,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>0.70518688116242267</v>
+        <v>1.5620418614013669</v>
       </c>
       <c r="S23" s="28">
         <f>INDEX(Persons!$J:$J,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>-0.76198633532411619</v>
+        <v>-1.1068535147709484</v>
       </c>
       <c r="T23" s="55">
         <f>INDEX(Persons!$K:$K,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>0.22303407988473595</v>
+        <v>0.13417863330317295</v>
       </c>
       <c r="U23" s="32">
         <f>INDEX(Persons!$N:$N,MATCH(M23,Persons!$A:$A,0))</f>
-        <v>260.54133138258959</v>
+        <v>256.50877038767311</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.35">
@@ -2856,79 +2872,79 @@
       </c>
       <c r="C24" s="6">
         <f t="array" ref="C24">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=B24,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($B$20:B24,B24)))</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>Morten F</v>
+        <v>Fridtjof</v>
       </c>
       <c r="E24" s="6">
         <f>INDEX(Persons!$D:$D,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6">
         <f>INDEX(Persons!$F:$F,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <f>INDEX(Persons!$H:$H,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>0.54326923076923084</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H24" s="7">
         <f>INDEX(Persons!$I:$I,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>0.67686632105875888</v>
+        <v>0.49838620452001348</v>
       </c>
       <c r="I24" s="7">
         <f>INDEX(Persons!$J:$J,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>0.67477248464120332</v>
+        <v>-0.5472207502010038</v>
       </c>
       <c r="J24" s="54">
         <f>INDEX(Persons!$K:$K,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>0.24991016218462114</v>
+        <v>0.29211354104004084</v>
       </c>
       <c r="K24" s="33">
         <f>INDEX(Persons!$N:$N,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>184.07079646017698</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="L24" s="27">
         <f>LARGE(Persons!O:O,1+ROW(L24)-ROW(L$20))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M24" s="27">
         <f t="array" ref="M24">INDEX(Persons!A:A,SMALL(IF(Persons!O:O=L24,ROW(Persons!A:A)-ROW(Persons!$A$1)+1),COUNTIF($L$20:L24,L24)))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N24" s="27" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>Kim</v>
+        <v>Johanne</v>
       </c>
       <c r="O24" s="27">
         <f>INDEX(Persons!$D:$D,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P24" s="27">
         <f>INDEX(Persons!$F:$F,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="28">
         <f>INDEX(Persons!$H:$H,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>3.0883035773743104</v>
+        <v>3.2250613603274099</v>
       </c>
       <c r="R24" s="28">
         <f>INDEX(Persons!$I:$I,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>1.645289709282524</v>
+        <v>1.6993617556865768</v>
       </c>
       <c r="S24" s="28">
         <f>INDEX(Persons!$J:$J,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>0.55412515952783847</v>
+        <v>1.0444736876848677</v>
       </c>
       <c r="T24" s="55">
         <f>INDEX(Persons!$K:$K,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>0.28974659632997213</v>
+        <v>0.1481331433566947</v>
       </c>
       <c r="U24" s="32">
         <f>INDEX(Persons!$N:$N,MATCH(M24,Persons!$A:$A,0))</f>
-        <v>259.04189143224175</v>
+        <v>244.95657965397558</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.35">
@@ -3002,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3078,416 +3094,416 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="35">
         <f>SUMIF(Sales!B:B,A2,Sales!D:D)</f>
-        <v>68</v>
-      </c>
-      <c r="E2" s="29" t="str">
+        <v>12</v>
+      </c>
+      <c r="E2" s="35" t="str">
         <f>IF($C2=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="35">
         <f>SUMIF(Prizes!B:B,A2,Prizes!D:D)</f>
-        <v>7</v>
-      </c>
-      <c r="G2" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
         <f>IF($C2=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="36">
         <f>SUMIF(Sales!B:B,A2,Sales!F:F)</f>
-        <v>3.2402189600805982</v>
-      </c>
-      <c r="I2" s="30">
+        <v>0.98785425101214575</v>
+      </c>
+      <c r="I2" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A2,Sales!G:G))</f>
-        <v>1.6903967309717229</v>
-      </c>
-      <c r="J2" s="30">
+        <v>0.90534417201851047</v>
+      </c>
+      <c r="J2" s="36">
         <f>(F2-H2)/I2</f>
-        <v>2.224200373221318</v>
+        <v>-1.0911366986652986</v>
       </c>
       <c r="K2" s="49">
         <f>IF(F2&gt;H2,1-_xlfn.NORM.DIST(F2,H2,I2,1),_xlfn.NORM.DIST(F2,H2,I2,1))</f>
-        <v>1.3067482981361178E-2</v>
-      </c>
-      <c r="L2" s="29" t="str">
+        <v>0.137606368366785</v>
+      </c>
+      <c r="L2" s="37" t="str">
         <f>IF($C2=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="35">
         <f>SUMIF(Sales!B:B,A2,Sales!E:E)</f>
-        <v>720</v>
+        <v>100</v>
       </c>
       <c r="N2" s="31">
         <f>M2/H2</f>
-        <v>222.20720539888777</v>
-      </c>
-      <c r="O2" s="29" t="str">
+        <v>101.22950819672131</v>
+      </c>
+      <c r="O2" s="31" t="str">
         <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="29">
         <f>SUMIF(Sales!B:B,A3,Sales!D:D)</f>
-        <v>15</v>
-      </c>
-      <c r="E3" s="37">
+        <v>102</v>
+      </c>
+      <c r="E3" s="29">
         <f>IF($C3=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D3)+1)</f>
-        <v>22</v>
-      </c>
-      <c r="F3" s="35">
+        <v>3</v>
+      </c>
+      <c r="F3" s="29">
         <f>SUMIF(Prizes!B:B,A3,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="37">
+        <v>3</v>
+      </c>
+      <c r="G3" s="29">
         <f>IF($C3=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F3)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H3" s="36">
+        <v>8</v>
+      </c>
+      <c r="H3" s="30">
         <f>SUMIF(Sales!B:B,A3,Sales!F:F)</f>
-        <v>0.59948542024013718</v>
-      </c>
-      <c r="I3" s="36">
+        <v>5.0238575544420883</v>
+      </c>
+      <c r="I3" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A3,Sales!G:G))</f>
-        <v>0.73982863701939761</v>
-      </c>
-      <c r="J3" s="36">
+        <v>2.0742542497121694</v>
+      </c>
+      <c r="J3" s="30">
         <f>(F3-H3)/I3</f>
-        <v>1.8930256409135764</v>
+        <v>-0.97570370398080453</v>
       </c>
       <c r="K3" s="49">
         <f>IF(F3&gt;H3,1-_xlfn.NORM.DIST(F3,H3,I3,1),_xlfn.NORM.DIST(F3,H3,I3,1))</f>
-        <v>2.9177229841034769E-2</v>
-      </c>
-      <c r="L3" s="37">
+        <v>0.16460565809130867</v>
+      </c>
+      <c r="L3" s="29">
         <f>IF($C3=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J3)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="35">
+        <v>33</v>
+      </c>
+      <c r="M3" s="29">
         <f>SUMIF(Sales!B:B,A3,Sales!E:E)</f>
-        <v>150</v>
+        <v>1110</v>
       </c>
       <c r="N3" s="31">
         <f>M3/H3</f>
-        <v>250.21459227467813</v>
-      </c>
-      <c r="O3" s="37">
+        <v>220.94575492462749</v>
+      </c>
+      <c r="O3" s="29">
         <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N3)+1)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="29">
         <f>SUMIF(Sales!B:B,A4,Sales!D:D)</f>
-        <v>37</v>
-      </c>
-      <c r="E4" s="35">
+        <v>45</v>
+      </c>
+      <c r="E4" s="29">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D4)+1)</f>
-        <v>19</v>
-      </c>
-      <c r="F4" s="35">
+        <v>14</v>
+      </c>
+      <c r="F4" s="29">
         <f>SUMIF(Prizes!B:B,A4,Prizes!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="35">
+        <v>2</v>
+      </c>
+      <c r="G4" s="29">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F4)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="36">
+        <v>13</v>
+      </c>
+      <c r="H4" s="30">
         <f>SUMIF(Sales!B:B,A4,Sales!F:F)</f>
-        <v>1.7654362892118982</v>
-      </c>
-      <c r="I4" s="36">
+        <v>2.3237303641958817</v>
+      </c>
+      <c r="I4" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A4,Sales!G:G))</f>
-        <v>1.2439598119364987</v>
-      </c>
-      <c r="J4" s="36">
+        <v>1.4405480167928464</v>
+      </c>
+      <c r="J4" s="30">
         <f>(F4-H4)/I4</f>
-        <v>1.7963311108174056</v>
+        <v>-0.2247272290975878</v>
       </c>
       <c r="K4" s="49">
         <f>IF(F4&gt;H4,1-_xlfn.NORM.DIST(F4,H4,I4,1),_xlfn.NORM.DIST(F4,H4,I4,1))</f>
-        <v>3.6220936405928716E-2</v>
-      </c>
-      <c r="L4" s="37">
+        <v>0.41109574029874496</v>
+      </c>
+      <c r="L4" s="29">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J4)+1)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="35">
+        <v>18</v>
+      </c>
+      <c r="M4" s="29">
         <f>SUMIF(Sales!B:B,A4,Sales!E:E)</f>
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="N4" s="31">
         <f>M4/H4</f>
-        <v>203.9155999000713</v>
+        <v>236.6883905613229</v>
       </c>
       <c r="O4" s="29">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N4)+1)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="29">
         <f>SUMIF(Sales!B:B,A5,Sales!D:D)</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E5" s="29">
         <f>IF($C5=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D5)+1)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="29">
         <f>SUMIF(Prizes!B:B,A5,Prizes!D:D)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="29">
         <f>IF($C5=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F5)+1)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H5" s="30">
         <f>SUMIF(Sales!B:B,A5,Sales!F:F)</f>
-        <v>2.0278924229052588</v>
+        <v>1.7386807932020698</v>
       </c>
       <c r="I5" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A5,Sales!G:G))</f>
-        <v>1.3415151969039836</v>
+        <v>1.2196223879112047</v>
       </c>
       <c r="J5" s="30">
         <f>(F5-H5)/I5</f>
-        <v>-1.5116432729091189</v>
+        <v>0.21426238923465521</v>
       </c>
       <c r="K5" s="49">
         <f>IF(F5&gt;H5,1-_xlfn.NORM.DIST(F5,H5,I5,1),_xlfn.NORM.DIST(F5,H5,I5,1))</f>
-        <v>6.5312318472907513E-2</v>
+        <v>0.41517122299034059</v>
       </c>
       <c r="L5" s="29">
         <f>IF($C5=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J5)+1)</f>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M5" s="29">
         <f>SUMIF(Sales!B:B,A5,Sales!E:E)</f>
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="N5" s="31">
         <f>M5/H5</f>
-        <v>226.83649034053852</v>
+        <v>201.3020454176737</v>
       </c>
       <c r="O5" s="29">
         <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N5)+1)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
         <f>SUMIF(Sales!B:B,A6,Sales!D:D)</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="35">
+        <v>55</v>
+      </c>
+      <c r="E6" s="29" t="str">
         <f>IF($C6=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D6)+1)</f>
-        <v>29</v>
-      </c>
-      <c r="F6" s="35">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" s="29">
         <f>SUMIF(Prizes!B:B,A6,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="35">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29" t="str">
         <f>IF($C6=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F6)+1)</f>
-        <v>19</v>
-      </c>
-      <c r="H6" s="36">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="30">
         <f>SUMIF(Sales!B:B,A6,Sales!F:F)</f>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="I6" s="36">
+        <v>2.3740803347134869</v>
+      </c>
+      <c r="I6" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A6,Sales!G:G))</f>
-        <v>0.53983489724168388</v>
-      </c>
-      <c r="J6" s="36">
+        <v>1.4608189121183603</v>
+      </c>
+      <c r="J6" s="30">
         <f>(F6-H6)/I6</f>
-        <v>1.2483688011309693</v>
+        <v>0.42847177024759042</v>
       </c>
       <c r="K6" s="49">
         <f>IF(F6&gt;H6,1-_xlfn.NORM.DIST(F6,H6,I6,1),_xlfn.NORM.DIST(F6,H6,I6,1))</f>
-        <v>0.10594801446913715</v>
-      </c>
-      <c r="L6" s="37">
+        <v>0.33415384099578926</v>
+      </c>
+      <c r="L6" s="29" t="str">
         <f>IF($C6=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J6)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="35">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M6" s="29">
         <f>SUMIF(Sales!B:B,A6,Sales!E:E)</f>
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="N6" s="31">
         <f>M6/H6</f>
-        <v>153.33333333333334</v>
-      </c>
-      <c r="O6" s="29">
+        <v>244.30512797706007</v>
+      </c>
+      <c r="O6" s="29" t="str">
         <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N6)+1)</f>
-        <v>3</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="29">
         <f>SUMIF(Sales!B:B,A7,Sales!D:D)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" s="29">
         <f>IF($C7=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D7)+1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="29">
         <f>SUMIF(Prizes!B:B,A7,Prizes!D:D)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="29">
         <f>IF($C7=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F7)+1)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H7" s="30">
         <f>SUMIF(Sales!B:B,A7,Sales!F:F)</f>
-        <v>2.7289515245114577</v>
+        <v>3.2250613603274099</v>
       </c>
       <c r="I7" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A7,Sales!G:G))</f>
-        <v>1.5620418614013669</v>
+        <v>1.6993617556865768</v>
       </c>
       <c r="J7" s="30">
         <f>(F7-H7)/I7</f>
-        <v>-1.1068535147709484</v>
+        <v>1.0444736876848677</v>
       </c>
       <c r="K7" s="49">
         <f>IF(F7&gt;H7,1-_xlfn.NORM.DIST(F7,H7,I7,1),_xlfn.NORM.DIST(F7,H7,I7,1))</f>
-        <v>0.13417863330317295</v>
+        <v>0.1481331433566947</v>
       </c>
       <c r="L7" s="29">
         <f>IF($C7=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J7)+1)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="M7" s="29">
         <f>SUMIF(Sales!B:B,A7,Sales!E:E)</f>
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="N7" s="31">
         <f>M7/H7</f>
-        <v>256.50877038767311</v>
+        <v>244.95657965397558</v>
       </c>
       <c r="O7" s="29">
         <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N7)+1)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="29">
         <f>SUMIF(Sales!B:B,A8,Sales!D:D)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="35" t="str">
+        <v>25</v>
+      </c>
+      <c r="E8" s="29" t="str">
         <f>IF($C8=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <f>SUMIF(Prizes!B:B,A8,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="35" t="str">
+        <v>2</v>
+      </c>
+      <c r="G8" s="29" t="str">
         <f>IF($C8=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="30">
         <f>SUMIF(Sales!B:B,A8,Sales!F:F)</f>
-        <v>0.98785425101214575</v>
-      </c>
-      <c r="I8" s="36">
+        <v>1.6521803371363961</v>
+      </c>
+      <c r="I8" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A8,Sales!G:G))</f>
-        <v>0.90534417201851047</v>
-      </c>
-      <c r="J8" s="36">
+        <v>1.1960152226849081</v>
+      </c>
+      <c r="J8" s="30">
         <f>(F8-H8)/I8</f>
-        <v>-1.0911366986652986</v>
+        <v>0.29081541460884686</v>
       </c>
       <c r="K8" s="49">
         <f>IF(F8&gt;H8,1-_xlfn.NORM.DIST(F8,H8,I8,1),_xlfn.NORM.DIST(F8,H8,I8,1))</f>
-        <v>0.137606368366785</v>
-      </c>
-      <c r="L8" s="37" t="str">
+        <v>0.38559624774223478</v>
+      </c>
+      <c r="L8" s="29" t="str">
         <f>IF($C8=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="29">
         <f>SUMIF(Sales!B:B,A8,Sales!E:E)</f>
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N8" s="31">
         <f>M8/H8</f>
-        <v>101.22950819672131</v>
+        <v>211.8412815677431</v>
       </c>
       <c r="O8" s="31" t="str">
         <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N8)+1)</f>
@@ -3497,137 +3513,137 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="29">
         <f>SUMIF(Sales!B:B,A9,Sales!D:D)</f>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E9" s="29">
         <f>IF($C9=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D9)+1)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="29">
         <f>SUMIF(Prizes!B:B,A9,Prizes!D:D)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="29">
         <f>IF($C9=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F9)+1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="30">
         <f>SUMIF(Sales!B:B,A9,Sales!F:F)</f>
-        <v>5.3738881235615397</v>
+        <v>3.0883035773743104</v>
       </c>
       <c r="I9" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A9,Sales!G:G))</f>
-        <v>2.1775157131870162</v>
+        <v>1.645289709282524</v>
       </c>
       <c r="J9" s="30">
         <f>(F9-H9)/I9</f>
-        <v>-1.0901818568680326</v>
+        <v>0.55412515952783847</v>
       </c>
       <c r="K9" s="49">
         <f>IF(F9&gt;H9,1-_xlfn.NORM.DIST(F9,H9,I9,1),_xlfn.NORM.DIST(F9,H9,I9,1))</f>
-        <v>0.13781652188722632</v>
+        <v>0.28974659632997213</v>
       </c>
       <c r="L9" s="29">
         <f>IF($C9=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J9)+1)</f>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M9" s="29">
         <f>SUMIF(Sales!B:B,A9,Sales!E:E)</f>
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N9" s="31">
         <f>M9/H9</f>
-        <v>241.91050690099334</v>
+        <v>259.04189143224175</v>
       </c>
       <c r="O9" s="29">
         <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N9)+1)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
       </c>
       <c r="D10" s="29">
         <f>SUMIF(Sales!B:B,A10,Sales!D:D)</f>
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E10" s="29">
         <f>IF($C10=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D10)+1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="29">
         <f>SUMIF(Prizes!B:B,A10,Prizes!D:D)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="29">
         <f>IF($C10=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F10)+1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" s="30">
         <f>SUMIF(Sales!B:B,A10,Sales!F:F)</f>
-        <v>5.0238575544420883</v>
+        <v>8.1257851761819442</v>
       </c>
       <c r="I10" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A10,Sales!G:G))</f>
-        <v>2.0742542497121694</v>
+        <v>2.6111966974400187</v>
       </c>
       <c r="J10" s="30">
         <f>(F10-H10)/I10</f>
-        <v>-0.97570370398080453</v>
+        <v>-4.8171467245367701E-2</v>
       </c>
       <c r="K10" s="49">
         <f>IF(F10&gt;H10,1-_xlfn.NORM.DIST(F10,H10,I10,1),_xlfn.NORM.DIST(F10,H10,I10,1))</f>
-        <v>0.16460565809130867</v>
+        <v>0.4807897948096726</v>
       </c>
       <c r="L10" s="29">
         <f>IF($C10=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J10)+1)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M10" s="29">
         <f>SUMIF(Sales!B:B,A10,Sales!E:E)</f>
-        <v>1110</v>
+        <v>1900</v>
       </c>
       <c r="N10" s="31">
         <f>M10/H10</f>
-        <v>220.94575492462749</v>
+        <v>233.82355782296861</v>
       </c>
       <c r="O10" s="29">
         <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N10)+1)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C11" s="29">
         <v>0</v>
       </c>
       <c r="D11" s="29">
         <f>SUMIF(Sales!B:B,A11,Sales!D:D)</f>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>IF($C11=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D11)+1)</f>
@@ -3635,7 +3651,7 @@
       </c>
       <c r="F11" s="29">
         <f>SUMIF(Prizes!B:B,A11,Prizes!D:D)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="29" t="str">
         <f>IF($C11=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F11)+1)</f>
@@ -3643,19 +3659,19 @@
       </c>
       <c r="H11" s="30">
         <f>SUMIF(Sales!B:B,A11,Sales!F:F)</f>
-        <v>0.7941427895328429</v>
+        <v>3.2402189600805982</v>
       </c>
       <c r="I11" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A11,Sales!G:G))</f>
-        <v>0.86060092285446455</v>
+        <v>1.6903967309717229</v>
       </c>
       <c r="J11" s="30">
         <f>(F11-H11)/I11</f>
-        <v>-0.92277706012539296</v>
+        <v>2.224200373221318</v>
       </c>
       <c r="K11" s="49">
         <f>IF(F11&gt;H11,1-_xlfn.NORM.DIST(F11,H11,I11,1),_xlfn.NORM.DIST(F11,H11,I11,1))</f>
-        <v>0.17806169891377793</v>
+        <v>1.3067482981361178E-2</v>
       </c>
       <c r="L11" s="29" t="str">
         <f>IF($C11=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J11)+1)</f>
@@ -3663,13 +3679,13 @@
       </c>
       <c r="M11" s="29">
         <f>SUMIF(Sales!B:B,A11,Sales!E:E)</f>
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N11" s="31">
         <f>M11/H11</f>
-        <v>302.21265389966049</v>
-      </c>
-      <c r="O11" s="31" t="str">
+        <v>222.20720539888777</v>
+      </c>
+      <c r="O11" s="29" t="str">
         <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3677,21 +3693,21 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
       </c>
       <c r="D12" s="29">
         <f>SUMIF(Sales!B:B,A12,Sales!D:D)</f>
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E12" s="29">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D12)+1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12" s="29">
         <f>SUMIF(Prizes!B:B,A12,Prizes!D:D)</f>
@@ -3699,55 +3715,55 @@
       </c>
       <c r="G12" s="29">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F12)+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="30">
         <f>SUMIF(Sales!B:B,A12,Sales!F:F)</f>
-        <v>3.4840829499620698</v>
+        <v>5.9193426690160855</v>
       </c>
       <c r="I12" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A12,Sales!G:G))</f>
-        <v>1.7530186833491146</v>
+        <v>2.2835709364620573</v>
       </c>
       <c r="J12" s="30">
         <f>(F12-H12)/I12</f>
-        <v>0.8647466592551053</v>
+        <v>-0.40258993243294017</v>
       </c>
       <c r="K12" s="49">
         <f>IF(F12&gt;H12,1-_xlfn.NORM.DIST(F12,H12,I12,1),_xlfn.NORM.DIST(F12,H12,I12,1))</f>
-        <v>0.19358892686978058</v>
+        <v>0.34362495855693742</v>
       </c>
       <c r="L12" s="29">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J12)+1)</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M12" s="29">
         <f>SUMIF(Sales!B:B,A12,Sales!E:E)</f>
-        <v>770</v>
+        <v>1400</v>
       </c>
       <c r="N12" s="31">
         <f>M12/H12</f>
-        <v>221.0050710785697</v>
+        <v>236.51274783061484</v>
       </c>
       <c r="O12" s="29">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N12)+1)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="29">
         <v>1</v>
       </c>
       <c r="D13" s="29">
         <f>SUMIF(Sales!B:B,A13,Sales!D:D)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="29">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D13)+1)</f>
@@ -3755,719 +3771,719 @@
       </c>
       <c r="F13" s="29">
         <f>SUMIF(Prizes!B:B,A13,Prizes!D:D)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="29">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F13)+1)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H13" s="30">
         <f>SUMIF(Sales!B:B,A13,Sales!F:F)</f>
-        <v>2.1292839623966007</v>
+        <v>2.0278924229052588</v>
       </c>
       <c r="I13" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A13,Sales!G:G))</f>
-        <v>1.3555226273956775</v>
+        <v>1.3415151969039836</v>
       </c>
       <c r="J13" s="30">
         <f>(F13-H13)/I13</f>
-        <v>-0.83309856993406151</v>
+        <v>-1.5116432729091189</v>
       </c>
       <c r="K13" s="49">
         <f>IF(F13&gt;H13,1-_xlfn.NORM.DIST(F13,H13,I13,1),_xlfn.NORM.DIST(F13,H13,I13,1))</f>
-        <v>0.20239457002747768</v>
+        <v>6.5312318472907513E-2</v>
       </c>
       <c r="L13" s="29">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J13)+1)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M13" s="29">
         <f>SUMIF(Sales!B:B,A13,Sales!E:E)</f>
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="N13" s="31">
         <f>M13/H13</f>
-        <v>197.2494075084621</v>
+        <v>226.83649034053852</v>
       </c>
       <c r="O13" s="29">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N13)+1)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C14" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="29">
         <f>SUMIF(Sales!B:B,A14,Sales!D:D)</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="29">
+        <v>48</v>
+      </c>
+      <c r="E14" s="29" t="str">
         <f>IF($C14=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D14)+1)</f>
-        <v>23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" s="29">
         <f>SUMIF(Prizes!B:B,A14,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
+        <v>3</v>
+      </c>
+      <c r="G14" s="29" t="str">
         <f>IF($C14=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F14)+1)</f>
-        <v>26</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" s="30">
         <f>SUMIF(Sales!B:B,A14,Sales!F:F)</f>
-        <v>0.58616138763197578</v>
+        <v>2.1645166106756251</v>
       </c>
       <c r="I14" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A14,Sales!G:G))</f>
-        <v>0.71401106976234563</v>
+        <v>1.3966272062273601</v>
       </c>
       <c r="J14" s="30">
         <f>(F14-H14)/I14</f>
-        <v>-0.82094159664369926</v>
+        <v>0.59821503232865181</v>
       </c>
       <c r="K14" s="49">
         <f>IF(F14&gt;H14,1-_xlfn.NORM.DIST(F14,H14,I14,1),_xlfn.NORM.DIST(F14,H14,I14,1))</f>
-        <v>0.20583976793322406</v>
-      </c>
-      <c r="L14" s="29">
+        <v>0.27484823119819857</v>
+      </c>
+      <c r="L14" s="29" t="str">
         <f>IF($C14=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J14)+1)</f>
-        <v>28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="29">
         <f>SUMIF(Sales!B:B,A14,Sales!E:E)</f>
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="N14" s="31">
         <f>M14/H14</f>
-        <v>170.6014795754262</v>
-      </c>
-      <c r="O14" s="29">
+        <v>244.85836578291148</v>
+      </c>
+      <c r="O14" s="29" t="str">
         <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N14)+1)</f>
-        <v>4</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" s="29">
         <v>1</v>
       </c>
       <c r="D15" s="29">
         <f>SUMIF(Sales!B:B,A15,Sales!D:D)</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E15" s="29">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D15)+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="29">
         <f>SUMIF(Prizes!B:B,A15,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="29">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F15)+1)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H15" s="30">
         <f>SUMIF(Sales!B:B,A15,Sales!F:F)</f>
-        <v>0.53734276729559749</v>
+        <v>2.1292839623966007</v>
       </c>
       <c r="I15" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A15,Sales!G:G))</f>
-        <v>0.70518688116242267</v>
+        <v>1.3555226273956775</v>
       </c>
       <c r="J15" s="30">
         <f>(F15-H15)/I15</f>
-        <v>-0.76198633532411619</v>
+        <v>-0.83309856993406151</v>
       </c>
       <c r="K15" s="49">
         <f>IF(F15&gt;H15,1-_xlfn.NORM.DIST(F15,H15,I15,1),_xlfn.NORM.DIST(F15,H15,I15,1))</f>
-        <v>0.22303407988473595</v>
+        <v>0.20239457002747768</v>
       </c>
       <c r="L15" s="29">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J15)+1)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="29">
         <f>SUMIF(Sales!B:B,A15,Sales!E:E)</f>
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N15" s="31">
         <f>M15/H15</f>
-        <v>260.54133138258959</v>
+        <v>197.2494075084621</v>
       </c>
       <c r="O15" s="29">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N15)+1)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
       </c>
       <c r="D16" s="29">
         <f>SUMIF(Sales!B:B,A16,Sales!D:D)</f>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E16" s="29">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D16)+1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F16" s="29">
         <f>SUMIF(Prizes!B:B,A16,Prizes!D:D)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="29">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F16)+1)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H16" s="30">
         <f>SUMIF(Sales!B:B,A16,Sales!F:F)</f>
-        <v>1.9957656734501028</v>
+        <v>3.7568102226893423</v>
       </c>
       <c r="I16" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A16,Sales!G:G))</f>
-        <v>1.3441673982599343</v>
+        <v>1.8224882202711019</v>
       </c>
       <c r="J16" s="30">
         <f>(F16-H16)/I16</f>
-        <v>-0.74080480953425287</v>
+        <v>1.2308391090599065</v>
       </c>
       <c r="K16" s="49">
         <f>IF(F16&gt;H16,1-_xlfn.NORM.DIST(F16,H16,I16,1),_xlfn.NORM.DIST(F16,H16,I16,1))</f>
-        <v>0.22940589929755095</v>
+        <v>0.10919152255792985</v>
       </c>
       <c r="L16" s="29">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J16)+1)</f>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M16" s="29">
         <f>SUMIF(Sales!B:B,A16,Sales!E:E)</f>
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N16" s="31">
         <f>M16/H16</f>
-        <v>200.42433103306936</v>
+        <v>218.27027488575041</v>
       </c>
       <c r="O16" s="29">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N16)+1)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="29">
         <f>SUMIF(Sales!B:B,A17,Sales!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="35">
+        <v>70</v>
+      </c>
+      <c r="E17" s="29">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D17)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="F17" s="35">
+        <v>8</v>
+      </c>
+      <c r="F17" s="29">
         <f>SUMIF(Prizes!B:B,A17,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="35">
+        <v>5</v>
+      </c>
+      <c r="G17" s="29">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F17)+1)</f>
-        <v>19</v>
-      </c>
-      <c r="H17" s="36">
+        <v>3</v>
+      </c>
+      <c r="H17" s="30">
         <f>SUMIF(Sales!B:B,A17,Sales!F:F)</f>
-        <v>0.5079051383399209</v>
-      </c>
-      <c r="I17" s="36">
+        <v>3.9001848860444697</v>
+      </c>
+      <c r="I17" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A17,Sales!G:G))</f>
-        <v>0.67996690791586989</v>
-      </c>
-      <c r="J17" s="36">
+        <v>1.8506243462560401</v>
+      </c>
+      <c r="J17" s="30">
         <f>(F17-H17)/I17</f>
-        <v>0.72370413314432125</v>
+        <v>0.59429409117011978</v>
       </c>
       <c r="K17" s="49">
         <f>IF(F17&gt;H17,1-_xlfn.NORM.DIST(F17,H17,I17,1),_xlfn.NORM.DIST(F17,H17,I17,1))</f>
-        <v>0.23462369757905566</v>
-      </c>
-      <c r="L17" s="37">
+        <v>0.27615771500533071</v>
+      </c>
+      <c r="L17" s="29">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J17)+1)</f>
-        <v>5</v>
-      </c>
-      <c r="M17" s="35">
+        <v>7</v>
+      </c>
+      <c r="M17" s="29">
         <f>SUMIF(Sales!B:B,A17,Sales!E:E)</f>
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N17" s="31">
         <f>M17/H17</f>
-        <v>196.88715953307394</v>
+        <v>205.11848114240357</v>
       </c>
       <c r="O17" s="29">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N17)+1)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="29">
         <f>SUMIF(Sales!B:B,A18,Sales!D:D)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E18" s="29">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D18)+1)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18" s="29">
         <f>SUMIF(Prizes!B:B,A18,Prizes!D:D)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="29">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F18)+1)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="30">
         <f>SUMIF(Sales!B:B,A18,Sales!F:F)</f>
-        <v>0.54326923076923084</v>
+        <v>0.70097913093196107</v>
       </c>
       <c r="I18" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A18,Sales!G:G))</f>
-        <v>0.67686632105875888</v>
+        <v>0.80570500303843884</v>
       </c>
       <c r="J18" s="30">
         <f>(F18-H18)/I18</f>
-        <v>0.67477248464120332</v>
+        <v>-0.87001958320782391</v>
       </c>
       <c r="K18" s="49">
         <f>IF(F18&gt;H18,1-_xlfn.NORM.DIST(F18,H18,I18,1),_xlfn.NORM.DIST(F18,H18,I18,1))</f>
-        <v>0.24991016218462114</v>
+        <v>0.19214485114680332</v>
       </c>
       <c r="L18" s="29">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J18)+1)</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M18" s="29">
         <f>SUMIF(Sales!B:B,A18,Sales!E:E)</f>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N18" s="31">
         <f>M18/H18</f>
-        <v>184.07079646017698</v>
+        <v>242.51791886298062</v>
       </c>
       <c r="O18" s="29">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N18)+1)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="29">
         <f>SUMIF(Sales!B:B,A19,Sales!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="E19" s="35">
+        <v>12</v>
+      </c>
+      <c r="E19" s="29">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D19)+1)</f>
-        <v>31</v>
-      </c>
-      <c r="F19" s="35">
+        <v>24</v>
+      </c>
+      <c r="F19" s="29">
         <f>SUMIF(Prizes!B:B,A19,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="29">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F19)+1)</f>
         <v>26</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="30">
         <f>SUMIF(Sales!B:B,A19,Sales!F:F)</f>
-        <v>0.3612040133779264</v>
-      </c>
-      <c r="I19" s="36">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="I19" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A19,Sales!G:G))</f>
-        <v>0.54598817687849921</v>
-      </c>
-      <c r="J19" s="36">
+        <v>0.73162561177491281</v>
+      </c>
+      <c r="J19" s="30">
         <f>(F19-H19)/I19</f>
-        <v>-0.66156013751613985</v>
+        <v>-0.79213390731290279</v>
       </c>
       <c r="K19" s="49">
         <f>IF(F19&gt;H19,1-_xlfn.NORM.DIST(F19,H19,I19,1),_xlfn.NORM.DIST(F19,H19,I19,1))</f>
-        <v>0.25412658085528567</v>
-      </c>
-      <c r="L19" s="37">
+        <v>0.21414130055484898</v>
+      </c>
+      <c r="L19" s="29">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J19)+1)</f>
-        <v>25</v>
-      </c>
-      <c r="M19" s="35">
+        <v>26</v>
+      </c>
+      <c r="M19" s="29">
         <f>SUMIF(Sales!B:B,A19,Sales!E:E)</f>
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N19" s="31">
         <f>M19/H19</f>
-        <v>55.370370370370374</v>
+        <v>241.56862745098039</v>
       </c>
       <c r="O19" s="29">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N19)+1)</f>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="29">
         <f>SUMIF(Sales!B:B,A20,Sales!D:D)</f>
-        <v>147</v>
-      </c>
-      <c r="E20" s="29" t="str">
+        <v>11</v>
+      </c>
+      <c r="E20" s="29">
         <f>IF($C20=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D20)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>25</v>
       </c>
       <c r="F20" s="29">
         <f>SUMIF(Prizes!B:B,A20,Prizes!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G20" s="29">
         <f>IF($C20=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F20)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>19</v>
       </c>
       <c r="H20" s="30">
         <f>SUMIF(Sales!B:B,A20,Sales!F:F)</f>
-        <v>5.3872370398255942</v>
+        <v>0.70284369885433717</v>
       </c>
       <c r="I20" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A20,Sales!G:G))</f>
-        <v>2.1480307909963821</v>
+        <v>0.78059289122728581</v>
       </c>
       <c r="J20" s="30">
         <f>(F20-H20)/I20</f>
-        <v>-0.6458180421064228</v>
+        <v>0.38068025533573507</v>
       </c>
       <c r="K20" s="49">
         <f>IF(F20&gt;H20,1-_xlfn.NORM.DIST(F20,H20,I20,1),_xlfn.NORM.DIST(F20,H20,I20,1))</f>
-        <v>0.25919860106105741</v>
-      </c>
-      <c r="L20" s="29" t="str">
+        <v>0.35172026081826924</v>
+      </c>
+      <c r="L20" s="29">
         <f>IF($C20=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J20)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>10</v>
       </c>
       <c r="M20" s="29">
         <f>SUMIF(Sales!B:B,A20,Sales!E:E)</f>
-        <v>1570</v>
+        <v>150</v>
       </c>
       <c r="N20" s="31">
         <f>M20/H20</f>
-        <v>291.4295377006145</v>
-      </c>
-      <c r="O20" s="31" t="str">
+        <v>213.41871634405473</v>
+      </c>
+      <c r="O20" s="29">
         <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N20)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>18</v>
       </c>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="29">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C21" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="29">
         <f>SUMIF(Sales!B:B,A21,Sales!D:D)</f>
-        <v>64</v>
-      </c>
-      <c r="E21" s="29">
+        <v>147</v>
+      </c>
+      <c r="E21" s="29" t="str">
         <f>IF($C21=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D21)+1)</f>
-        <v>9</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F21" s="29">
         <f>SUMIF(Prizes!B:B,A21,Prizes!D:D)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="29" t="str">
         <f>IF($C21=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F21)+1)</f>
-        <v>3</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="30">
         <f>SUMIF(Sales!B:B,A21,Sales!F:F)</f>
-        <v>2.9523340876001374</v>
+        <v>5.3872370398255942</v>
       </c>
       <c r="I21" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A21,Sales!G:G))</f>
-        <v>1.6246358262190024</v>
+        <v>2.1480307909963821</v>
       </c>
       <c r="J21" s="30">
         <f>(F21-H21)/I21</f>
-        <v>0.64486200260527571</v>
+        <v>-0.6458180421064228</v>
       </c>
       <c r="K21" s="49">
         <f>IF(F21&gt;H21,1-_xlfn.NORM.DIST(F21,H21,I21,1),_xlfn.NORM.DIST(F21,H21,I21,1))</f>
-        <v>0.259508308715931</v>
-      </c>
-      <c r="L21" s="29">
+        <v>0.25919860106105741</v>
+      </c>
+      <c r="L21" s="29" t="str">
         <f>IF($C21=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J21)+1)</f>
-        <v>7</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="29">
         <f>SUMIF(Sales!B:B,A21,Sales!E:E)</f>
-        <v>740</v>
+        <v>1570</v>
       </c>
       <c r="N21" s="31">
         <f>M21/H21</f>
-        <v>250.64913998317971</v>
-      </c>
-      <c r="O21" s="29">
+        <v>291.4295377006145</v>
+      </c>
+      <c r="O21" s="31" t="str">
         <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N21)+1)</f>
-        <v>27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="29">
         <f>SUMIF(Sales!B:B,A22,Sales!D:D)</f>
-        <v>75</v>
-      </c>
-      <c r="E22" s="29" t="str">
+        <v>60</v>
+      </c>
+      <c r="E22" s="29">
         <f>IF($C22=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D22)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>11</v>
       </c>
       <c r="F22" s="29">
         <f>SUMIF(Prizes!B:B,A22,Prizes!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="G22" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="G22" s="29">
         <f>IF($C22=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F22)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>8</v>
       </c>
       <c r="H22" s="30">
         <f>SUMIF(Sales!B:B,A22,Sales!F:F)</f>
-        <v>2.9991021425331783</v>
+        <v>2.7862376175468899</v>
       </c>
       <c r="I22" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A22,Sales!G:G))</f>
-        <v>1.640793642686911</v>
+        <v>1.5952832176350589</v>
       </c>
       <c r="J22" s="30">
         <f>(F22-H22)/I22</f>
-        <v>0.61000837120979057</v>
+        <v>0.1339965092656111</v>
       </c>
       <c r="K22" s="49">
         <f>IF(F22&gt;H22,1-_xlfn.NORM.DIST(F22,H22,I22,1),_xlfn.NORM.DIST(F22,H22,I22,1))</f>
-        <v>0.27092813112251135</v>
-      </c>
-      <c r="L22" s="29" t="str">
+        <v>0.44670266737258757</v>
+      </c>
+      <c r="L22" s="29">
         <f>IF($C22=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J22)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>13</v>
       </c>
       <c r="M22" s="29">
         <f>SUMIF(Sales!B:B,A22,Sales!E:E)</f>
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="N22" s="31">
         <f>M22/H22</f>
-        <v>266.74650011229147</v>
-      </c>
-      <c r="O22" s="29" t="str">
+        <v>218.93322958472842</v>
+      </c>
+      <c r="O22" s="29">
         <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N22)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>20</v>
       </c>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="29">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C23" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="29">
         <f>SUMIF(Sales!B:B,A23,Sales!D:D)</f>
-        <v>91</v>
-      </c>
-      <c r="E23" s="29">
+        <v>15</v>
+      </c>
+      <c r="E23" s="29" t="str">
         <f>IF($C23=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D23)+1)</f>
-        <v>4</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F23" s="29">
         <f>SUMIF(Prizes!B:B,A23,Prizes!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="29" t="str">
         <f>IF($C23=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F23)+1)</f>
-        <v>7</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H23" s="30">
         <f>SUMIF(Sales!B:B,A23,Sales!F:F)</f>
-        <v>4.1607621161309751</v>
+        <v>0.63164893617021267</v>
       </c>
       <c r="I23" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A23,Sales!G:G))</f>
-        <v>1.9032990868959521</v>
+        <v>0.75810728959235163</v>
       </c>
       <c r="J23" s="30">
         <f>(F23-H23)/I23</f>
-        <v>-0.609868477383676</v>
+        <v>0.4858824982778579</v>
       </c>
       <c r="K23" s="49">
         <f>IF(F23&gt;H23,1-_xlfn.NORM.DIST(F23,H23,I23,1),_xlfn.NORM.DIST(F23,H23,I23,1))</f>
-        <v>0.27097446775170275</v>
-      </c>
-      <c r="L23" s="29">
+        <v>0.31352523895390516</v>
+      </c>
+      <c r="L23" s="29" t="str">
         <f>IF($C23=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J23)+1)</f>
-        <v>24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="29">
         <f>SUMIF(Sales!B:B,A23,Sales!E:E)</f>
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N23" s="31">
         <f>M23/H23</f>
-        <v>216.30652627574281</v>
-      </c>
-      <c r="O23" s="29">
+        <v>316.6315789473685</v>
+      </c>
+      <c r="O23" s="29" t="str">
         <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N23)+1)</f>
-        <v>16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="29">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C24" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="29">
         <f>SUMIF(Sales!B:B,A24,Sales!D:D)</f>
-        <v>48</v>
-      </c>
-      <c r="E24" s="29" t="str">
+        <v>6</v>
+      </c>
+      <c r="E24" s="29">
         <f>IF($C24=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D24)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>30</v>
       </c>
       <c r="F24" s="29">
         <f>SUMIF(Prizes!B:B,A24,Prizes!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="G24" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G24" s="29">
         <f>IF($C24=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F24)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>19</v>
       </c>
       <c r="H24" s="30">
         <f>SUMIF(Sales!B:B,A24,Sales!F:F)</f>
-        <v>2.1645166106756251</v>
+        <v>0.54326923076923084</v>
       </c>
       <c r="I24" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A24,Sales!G:G))</f>
-        <v>1.3966272062273601</v>
+        <v>0.67686632105875888</v>
       </c>
       <c r="J24" s="30">
         <f>(F24-H24)/I24</f>
-        <v>0.59821503232865181</v>
+        <v>0.67477248464120332</v>
       </c>
       <c r="K24" s="49">
         <f>IF(F24&gt;H24,1-_xlfn.NORM.DIST(F24,H24,I24,1),_xlfn.NORM.DIST(F24,H24,I24,1))</f>
-        <v>0.27484823119819857</v>
-      </c>
-      <c r="L24" s="29" t="str">
+        <v>0.24991016218462114</v>
+      </c>
+      <c r="L24" s="29">
         <f>IF($C24=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J24)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
       </c>
       <c r="M24" s="29">
         <f>SUMIF(Sales!B:B,A24,Sales!E:E)</f>
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N24" s="31">
         <f>M24/H24</f>
-        <v>244.85836578291148</v>
-      </c>
-      <c r="O24" s="29" t="str">
+        <v>184.07079646017698</v>
+      </c>
+      <c r="O24" s="29">
         <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N24)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>7</v>
       </c>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="29">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="29">
         <v>0</v>
       </c>
       <c r="D25" s="29">
         <f>SUMIF(Sales!B:B,A25,Sales!D:D)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>IF($C25=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D25)+1)</f>
@@ -4475,7 +4491,7 @@
       </c>
       <c r="F25" s="29">
         <f>SUMIF(Prizes!B:B,A25,Prizes!D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="29" t="str">
         <f>IF($C25=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F25)+1)</f>
@@ -4483,19 +4499,19 @@
       </c>
       <c r="H25" s="30">
         <f>SUMIF(Sales!B:B,A25,Sales!F:F)</f>
-        <v>0.31914893617021273</v>
+        <v>2.9991021425331783</v>
       </c>
       <c r="I25" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A25,Sales!G:G))</f>
-        <v>0.54230382522055953</v>
+        <v>1.640793642686911</v>
       </c>
       <c r="J25" s="30">
         <f>(F25-H25)/I25</f>
-        <v>-0.58850578094375816</v>
+        <v>0.61000837120979057</v>
       </c>
       <c r="K25" s="49">
         <f>IF(F25&gt;H25,1-_xlfn.NORM.DIST(F25,H25,I25,1),_xlfn.NORM.DIST(F25,H25,I25,1))</f>
-        <v>0.27809642736849838</v>
+        <v>0.27092813112251135</v>
       </c>
       <c r="L25" s="29" t="str">
         <f>IF($C25=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J25)+1)</f>
@@ -4503,13 +4519,13 @@
       </c>
       <c r="M25" s="29">
         <f>SUMIF(Sales!B:B,A25,Sales!E:E)</f>
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N25" s="31">
         <f>M25/H25</f>
-        <v>313.33333333333337</v>
-      </c>
-      <c r="O25" s="31" t="str">
+        <v>266.74650011229147</v>
+      </c>
+      <c r="O25" s="29" t="str">
         <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4517,57 +4533,57 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="29">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
       </c>
       <c r="D26" s="29">
         <f>SUMIF(Sales!B:B,A26,Sales!D:D)</f>
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E26" s="29">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D26)+1)</f>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F26" s="29">
         <f>SUMIF(Prizes!B:B,A26,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="29">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F26)+1)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H26" s="30">
         <f>SUMIF(Sales!B:B,A26,Sales!F:F)</f>
-        <v>0.30681818181818182</v>
+        <v>2.7289515245114577</v>
       </c>
       <c r="I26" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A26,Sales!G:G))</f>
-        <v>0.53561854612135185</v>
+        <v>1.5620418614013669</v>
       </c>
       <c r="J26" s="30">
         <f>(F26-H26)/I26</f>
-        <v>-0.57282964535113001</v>
+        <v>-1.1068535147709484</v>
       </c>
       <c r="K26" s="49">
         <f>IF(F26&gt;H26,1-_xlfn.NORM.DIST(F26,H26,I26,1),_xlfn.NORM.DIST(F26,H26,I26,1))</f>
-        <v>0.28338002224276981</v>
+        <v>0.13417863330317295</v>
       </c>
       <c r="L26" s="29">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J26)+1)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M26" s="29">
         <f>SUMIF(Sales!B:B,A26,Sales!E:E)</f>
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="N26" s="31">
         <f>M26/H26</f>
-        <v>293.33333333333331</v>
+        <v>256.50877038767311</v>
       </c>
       <c r="O26" s="29">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N26)+1)</f>
@@ -4577,197 +4593,197 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="29">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C27" s="29">
         <v>1</v>
       </c>
       <c r="D27" s="29">
         <f>SUMIF(Sales!B:B,A27,Sales!D:D)</f>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E27" s="29">
         <f>IF($C27=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D27)+1)</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F27" s="29">
         <f>SUMIF(Prizes!B:B,A27,Prizes!D:D)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="29">
         <f>IF($C27=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F27)+1)</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H27" s="30">
         <f>SUMIF(Sales!B:B,A27,Sales!F:F)</f>
-        <v>3.0883035773743104</v>
+        <v>6.3829787234042548E-2</v>
       </c>
       <c r="I27" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A27,Sales!G:G))</f>
-        <v>1.645289709282524</v>
+        <v>0.24791576048881739</v>
       </c>
       <c r="J27" s="30">
         <f>(F27-H27)/I27</f>
-        <v>0.55412515952783847</v>
+        <v>-0.25746562908380199</v>
       </c>
       <c r="K27" s="49">
         <f>IF(F27&gt;H27,1-_xlfn.NORM.DIST(F27,H27,I27,1),_xlfn.NORM.DIST(F27,H27,I27,1))</f>
-        <v>0.28974659632997213</v>
+        <v>0.39840967257938792</v>
       </c>
       <c r="L27" s="29">
         <f>IF($C27=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J27)+1)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M27" s="29">
         <f>SUMIF(Sales!B:B,A27,Sales!E:E)</f>
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="N27" s="31">
         <f>M27/H27</f>
-        <v>259.04189143224175</v>
+        <v>313.33333333333337</v>
       </c>
       <c r="O27" s="29">
         <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N27)+1)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="29">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29">
         <f>SUMIF(Sales!B:B,A28,Sales!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="35">
+        <v>10</v>
+      </c>
+      <c r="E28" s="29" t="str">
         <f>IF($C28=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D28)+1)</f>
-        <v>33</v>
-      </c>
-      <c r="F28" s="35">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F28" s="29">
         <f>SUMIF(Prizes!B:B,A28,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="29" t="str">
         <f>IF($C28=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F28)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="H28" s="36">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H28" s="30">
         <f>SUMIF(Sales!B:B,A28,Sales!F:F)</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I28" s="36">
+        <v>0.31914893617021273</v>
+      </c>
+      <c r="I28" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A28,Sales!G:G))</f>
-        <v>0.42132504423474315</v>
-      </c>
-      <c r="J28" s="36">
+        <v>0.54230382522055953</v>
+      </c>
+      <c r="J28" s="30">
         <f>(F28-H28)/I28</f>
-        <v>-0.54772255750516619</v>
+        <v>-0.58850578094375816</v>
       </c>
       <c r="K28" s="49">
         <f>IF(F28&gt;H28,1-_xlfn.NORM.DIST(F28,H28,I28,1),_xlfn.NORM.DIST(F28,H28,I28,1))</f>
-        <v>0.2919412103851825</v>
-      </c>
-      <c r="L28" s="37">
+        <v>0.27809642736849838</v>
+      </c>
+      <c r="L28" s="29" t="str">
         <f>IF($C28=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J28)+1)</f>
-        <v>22</v>
-      </c>
-      <c r="M28" s="35">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M28" s="29">
         <f>SUMIF(Sales!B:B,A28,Sales!E:E)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N28" s="31">
         <f>M28/H28</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="29">
+        <v>313.33333333333337</v>
+      </c>
+      <c r="O28" s="31" t="str">
         <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N28)+1)</f>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="29">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="29">
         <f>SUMIF(Sales!B:B,A29,Sales!D:D)</f>
-        <v>15</v>
-      </c>
-      <c r="E29" s="29" t="str">
+        <v>11</v>
+      </c>
+      <c r="E29" s="29">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D29)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>25</v>
       </c>
       <c r="F29" s="29">
         <f>SUMIF(Prizes!B:B,A29,Prizes!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F29)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>26</v>
       </c>
       <c r="H29" s="30">
         <f>SUMIF(Sales!B:B,A29,Sales!F:F)</f>
-        <v>0.63164893617021267</v>
+        <v>0.58616138763197578</v>
       </c>
       <c r="I29" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A29,Sales!G:G))</f>
-        <v>0.75810728959235163</v>
+        <v>0.71401106976234563</v>
       </c>
       <c r="J29" s="30">
         <f>(F29-H29)/I29</f>
-        <v>0.4858824982778579</v>
+        <v>-0.82094159664369926</v>
       </c>
       <c r="K29" s="49">
         <f>IF(F29&gt;H29,1-_xlfn.NORM.DIST(F29,H29,I29,1),_xlfn.NORM.DIST(F29,H29,I29,1))</f>
-        <v>0.31352523895390516</v>
-      </c>
-      <c r="L29" s="29" t="str">
+        <v>0.20583976793322406</v>
+      </c>
+      <c r="L29" s="29">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J29)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>28</v>
       </c>
       <c r="M29" s="29">
         <f>SUMIF(Sales!B:B,A29,Sales!E:E)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N29" s="31">
         <f>M29/H29</f>
-        <v>316.6315789473685</v>
-      </c>
-      <c r="O29" s="29" t="str">
+        <v>170.6014795754262</v>
+      </c>
+      <c r="O29" s="29">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N29)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>4</v>
       </c>
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="29">
         <v>0</v>
       </c>
       <c r="D30" s="29">
         <f>SUMIF(Sales!B:B,A30,Sales!D:D)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>IF($C30=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D30)+1)</f>
@@ -4783,19 +4799,19 @@
       </c>
       <c r="H30" s="30">
         <f>SUMIF(Sales!B:B,A30,Sales!F:F)</f>
-        <v>0.20833333333333331</v>
+        <v>0.7941427895328429</v>
       </c>
       <c r="I30" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A30,Sales!G:G))</f>
-        <v>0.43925136315935126</v>
+        <v>0.86060092285446455</v>
       </c>
       <c r="J30" s="30">
         <f>(F30-H30)/I30</f>
-        <v>-0.47429183107111794</v>
+        <v>-0.92277706012539296</v>
       </c>
       <c r="K30" s="49">
         <f>IF(F30&gt;H30,1-_xlfn.NORM.DIST(F30,H30,I30,1),_xlfn.NORM.DIST(F30,H30,I30,1))</f>
-        <v>0.31764590799841352</v>
+        <v>0.17806169891377793</v>
       </c>
       <c r="L30" s="29" t="str">
         <f>IF($C30=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J30)+1)</f>
@@ -4803,11 +4819,11 @@
       </c>
       <c r="M30" s="29">
         <f>SUMIF(Sales!B:B,A30,Sales!E:E)</f>
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N30" s="31">
         <f>M30/H30</f>
-        <v>240.00000000000003</v>
+        <v>302.21265389966049</v>
       </c>
       <c r="O30" s="31" t="str">
         <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N30)+1)</f>
@@ -4817,77 +4833,77 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
       <c r="D31" s="29">
         <f>SUMIF(Sales!B:B,A31,Sales!D:D)</f>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E31" s="29">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D31)+1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F31" s="29">
         <f>SUMIF(Prizes!B:B,A31,Prizes!D:D)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="29">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F31)+1)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H31" s="30">
         <f>SUMIF(Sales!B:B,A31,Sales!F:F)</f>
-        <v>3.7971257524946109</v>
+        <v>2.1392509129157737</v>
       </c>
       <c r="I31" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A31,Sales!G:G))</f>
-        <v>1.8257369483316859</v>
+        <v>1.3767007404782396</v>
       </c>
       <c r="J31" s="30">
         <f>(F31-H31)/I31</f>
-        <v>-0.43660492998348149</v>
+        <v>-0.10114828068400734</v>
       </c>
       <c r="K31" s="49">
         <f>IF(F31&gt;H31,1-_xlfn.NORM.DIST(F31,H31,I31,1),_xlfn.NORM.DIST(F31,H31,I31,1))</f>
-        <v>0.33119894334721611</v>
+        <v>0.45971637604945381</v>
       </c>
       <c r="L31" s="29">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J31)+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M31" s="29">
         <f>SUMIF(Sales!B:B,A31,Sales!E:E)</f>
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="N31" s="31">
         <f>M31/H31</f>
-        <v>213.31924534441649</v>
+        <v>233.7266736600364</v>
       </c>
       <c r="O31" s="29">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N31)+1)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="29">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C32" s="29">
         <v>0</v>
       </c>
       <c r="D32" s="29">
         <f>SUMIF(Sales!B:B,A32,Sales!D:D)</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>IF($C32=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D32)+1)</f>
@@ -4895,7 +4911,7 @@
       </c>
       <c r="F32" s="29">
         <f>SUMIF(Prizes!B:B,A32,Prizes!D:D)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="29" t="str">
         <f>IF($C32=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F32)+1)</f>
@@ -4903,19 +4919,19 @@
       </c>
       <c r="H32" s="30">
         <f>SUMIF(Sales!B:B,A32,Sales!F:F)</f>
-        <v>2.3740803347134869</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="I32" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A32,Sales!G:G))</f>
-        <v>1.4608189121183603</v>
+        <v>0.43925136315935126</v>
       </c>
       <c r="J32" s="30">
         <f>(F32-H32)/I32</f>
-        <v>0.42847177024759042</v>
+        <v>-0.47429183107111794</v>
       </c>
       <c r="K32" s="49">
         <f>IF(F32&gt;H32,1-_xlfn.NORM.DIST(F32,H32,I32,1),_xlfn.NORM.DIST(F32,H32,I32,1))</f>
-        <v>0.33415384099578926</v>
+        <v>0.31764590799841352</v>
       </c>
       <c r="L32" s="29" t="str">
         <f>IF($C32=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J32)+1)</f>
@@ -4923,13 +4939,13 @@
       </c>
       <c r="M32" s="29">
         <f>SUMIF(Sales!B:B,A32,Sales!E:E)</f>
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N32" s="31">
         <f>M32/H32</f>
-        <v>244.30512797706007</v>
-      </c>
-      <c r="O32" s="29" t="str">
+        <v>240.00000000000003</v>
+      </c>
+      <c r="O32" s="31" t="str">
         <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4997,783 +5013,901 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="29">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C34" s="29">
         <v>1</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="29">
         <f>SUMIF(Sales!B:B,A34,Sales!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="E34" s="35">
+        <v>41</v>
+      </c>
+      <c r="E34" s="29">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D34)+1)</f>
-        <v>30</v>
-      </c>
-      <c r="F34" s="35">
+        <v>15</v>
+      </c>
+      <c r="F34" s="29">
         <f>SUMIF(Prizes!B:B,A34,Prizes!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="35">
+        <v>2</v>
+      </c>
+      <c r="G34" s="29">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F34)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="H34" s="36">
+        <v>13</v>
+      </c>
+      <c r="H34" s="30">
         <f>SUMIF(Sales!B:B,A34,Sales!F:F)</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="I34" s="36">
+        <v>1.751323901682182</v>
+      </c>
+      <c r="I34" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A34,Sales!G:G))</f>
-        <v>0.37094647870344777</v>
-      </c>
-      <c r="J34" s="36">
+        <v>1.2450174883944376</v>
+      </c>
+      <c r="J34" s="30">
         <f>(F34-H34)/I34</f>
-        <v>-0.39211733715048613</v>
+        <v>0.19973703231952852</v>
       </c>
       <c r="K34" s="49">
         <f>IF(F34&gt;H34,1-_xlfn.NORM.DIST(F34,H34,I34,1),_xlfn.NORM.DIST(F34,H34,I34,1))</f>
-        <v>0.34748575901730239</v>
-      </c>
-      <c r="L34" s="37">
+        <v>0.42084312485409769</v>
+      </c>
+      <c r="L34" s="29">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J34)+1)</f>
-        <v>20</v>
-      </c>
-      <c r="M34" s="35">
+        <v>12</v>
+      </c>
+      <c r="M34" s="29">
         <f>SUMIF(Sales!B:B,A34,Sales!E:E)</f>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N34" s="31">
         <f>M34/H34</f>
-        <v>275</v>
+        <v>228.39864151673595</v>
       </c>
       <c r="O34" s="29">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N34)+1)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C35" s="29">
         <v>1</v>
       </c>
       <c r="D35" s="29">
         <f>SUMIF(Sales!B:B,A35,Sales!D:D)</f>
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E35" s="29">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D35)+1)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F35" s="29">
         <f>SUMIF(Prizes!B:B,A35,Prizes!D:D)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="29">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F35)+1)</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H35" s="30">
         <f>SUMIF(Sales!B:B,A35,Sales!F:F)</f>
-        <v>0.70284369885433717</v>
+        <v>4.3425802979491568</v>
       </c>
       <c r="I35" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A35,Sales!G:G))</f>
-        <v>0.78059289122728581</v>
+        <v>1.9510092119673177</v>
       </c>
       <c r="J35" s="30">
         <f>(F35-H35)/I35</f>
-        <v>0.38068025533573507</v>
+        <v>-0.68814657035645355</v>
       </c>
       <c r="K35" s="49">
         <f>IF(F35&gt;H35,1-_xlfn.NORM.DIST(F35,H35,I35,1),_xlfn.NORM.DIST(F35,H35,I35,1))</f>
-        <v>0.35172026081826924</v>
+        <v>0.24568024310018882</v>
       </c>
       <c r="L35" s="29">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J35)+1)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M35" s="29">
         <f>SUMIF(Sales!B:B,A35,Sales!E:E)</f>
-        <v>150</v>
+        <v>910</v>
       </c>
       <c r="N35" s="31">
         <f>M35/H35</f>
-        <v>213.41871634405473</v>
+        <v>209.55283208689542</v>
       </c>
       <c r="O35" s="29">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N35)+1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C36" s="29">
         <v>1</v>
       </c>
       <c r="D36" s="29">
         <f>SUMIF(Sales!B:B,A36,Sales!D:D)</f>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E36" s="29">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D36)+1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36" s="29">
         <f>SUMIF(Prizes!B:B,A36,Prizes!D:D)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="29">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F36)+1)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H36" s="30">
         <f>SUMIF(Sales!B:B,A36,Sales!F:F)</f>
-        <v>2.5135103448196174</v>
+        <v>2.2684929461773757</v>
       </c>
       <c r="I36" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A36,Sales!G:G))</f>
-        <v>1.5154338440236188</v>
+        <v>1.4335880870740889</v>
       </c>
       <c r="J36" s="30">
         <f>(F36-H36)/I36</f>
-        <v>0.32102335387251679</v>
+        <v>-0.88483781193127276</v>
       </c>
       <c r="K36" s="49">
         <f>IF(F36&gt;H36,1-_xlfn.NORM.DIST(F36,H36,I36,1),_xlfn.NORM.DIST(F36,H36,I36,1))</f>
-        <v>0.37409634649123846</v>
+        <v>0.18812205630598353</v>
       </c>
       <c r="L36" s="29">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J36)+1)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M36" s="29">
         <f>SUMIF(Sales!B:B,A36,Sales!E:E)</f>
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="N36" s="31">
         <f>M36/H36</f>
-        <v>222.79597979541578</v>
+        <v>198.36958310066265</v>
       </c>
       <c r="O36" s="29">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N36)+1)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C37" s="29">
         <v>1</v>
       </c>
       <c r="D37" s="29">
         <f>SUMIF(Sales!B:B,A37,Sales!D:D)</f>
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E37" s="29">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D37)+1)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F37" s="29">
         <f>SUMIF(Prizes!B:B,A37,Prizes!D:D)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G37" s="29">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F37)+1)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H37" s="30">
         <f>SUMIF(Sales!B:B,A37,Sales!F:F)</f>
-        <v>7.2530579034546712</v>
+        <v>2.1040192619668492</v>
       </c>
       <c r="I37" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A37,Sales!G:G))</f>
-        <v>2.4711886604511184</v>
+        <v>1.3785227734208341</v>
       </c>
       <c r="J37" s="30">
         <f>(F37-H37)/I37</f>
-        <v>0.30226024766922233</v>
+        <v>-7.5457050091906092E-2</v>
       </c>
       <c r="K37" s="49">
         <f>IF(F37&gt;H37,1-_xlfn.NORM.DIST(F37,H37,I37,1),_xlfn.NORM.DIST(F37,H37,I37,1))</f>
-        <v>0.38122683981814831</v>
+        <v>0.46992553456506037</v>
       </c>
       <c r="L37" s="29">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J37)+1)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M37" s="29">
         <f>SUMIF(Sales!B:B,A37,Sales!E:E)</f>
-        <v>1740</v>
+        <v>400</v>
       </c>
       <c r="N37" s="31">
         <f>M37/H37</f>
-        <v>239.89881552872043</v>
+        <v>190.11232797654034</v>
       </c>
       <c r="O37" s="29">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N37)+1)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="29">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C38" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="29">
         <f>SUMIF(Sales!B:B,A38,Sales!D:D)</f>
-        <v>25</v>
-      </c>
-      <c r="E38" s="29" t="str">
+        <v>41</v>
+      </c>
+      <c r="E38" s="29">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D38)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>15</v>
       </c>
       <c r="F38" s="29">
         <f>SUMIF(Prizes!B:B,A38,Prizes!D:D)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="29" t="str">
+      <c r="G38" s="29">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F38)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>13</v>
       </c>
       <c r="H38" s="30">
         <f>SUMIF(Sales!B:B,A38,Sales!F:F)</f>
-        <v>1.6521803371363961</v>
+        <v>1.9957656734501028</v>
       </c>
       <c r="I38" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A38,Sales!G:G))</f>
-        <v>1.1960152226849081</v>
+        <v>1.3441673982599343</v>
       </c>
       <c r="J38" s="30">
         <f>(F38-H38)/I38</f>
-        <v>0.29081541460884686</v>
+        <v>3.1501482295870731E-3</v>
       </c>
       <c r="K38" s="49">
         <f>IF(F38&gt;H38,1-_xlfn.NORM.DIST(F38,H38,I38,1),_xlfn.NORM.DIST(F38,H38,I38,1))</f>
-        <v>0.38559624774223478</v>
-      </c>
-      <c r="L38" s="29" t="str">
+        <v>0.49874327476019131</v>
+      </c>
+      <c r="L38" s="29">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J38)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>14</v>
       </c>
       <c r="M38" s="29">
         <f>SUMIF(Sales!B:B,A38,Sales!E:E)</f>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N38" s="31">
         <f>M38/H38</f>
-        <v>211.8412815677431</v>
-      </c>
-      <c r="O38" s="31" t="str">
+        <v>200.42433103306936</v>
+      </c>
+      <c r="O38" s="29">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N38)+1)</f>
-        <v xml:space="preserve"> </v>
+        <v>12</v>
       </c>
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="29">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C39" s="29">
         <v>1</v>
       </c>
       <c r="D39" s="29">
         <f>SUMIF(Sales!B:B,A39,Sales!D:D)</f>
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E39" s="29">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D39)+1)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F39" s="29">
         <f>SUMIF(Prizes!B:B,A39,Prizes!D:D)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="29">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F39)+1)</f>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H39" s="30">
         <f>SUMIF(Sales!B:B,A39,Sales!F:F)</f>
-        <v>6.3829787234042548E-2</v>
+        <v>4.7062166615855201</v>
       </c>
       <c r="I39" s="30">
         <f>SQRT(SUMIF(Sales!B:B,A39,Sales!G:G))</f>
-        <v>0.24791576048881739</v>
+        <v>2.0237759151785562</v>
       </c>
       <c r="J39" s="30">
         <f>(F39-H39)/I39</f>
-        <v>-0.25746562908380199</v>
+        <v>-0.84308576299811433</v>
       </c>
       <c r="K39" s="49">
         <f>IF(F39&gt;H39,1-_xlfn.NORM.DIST(F39,H39,I39,1),_xlfn.NORM.DIST(F39,H39,I39,1))</f>
-        <v>0.39840967257938792</v>
+        <v>0.19959024025866698</v>
       </c>
       <c r="L39" s="29">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J39)+1)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M39" s="29">
         <f>SUMIF(Sales!B:B,A39,Sales!E:E)</f>
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="N39" s="31">
         <f>M39/H39</f>
-        <v>313.33333333333337</v>
+        <v>212.48490494764025</v>
       </c>
       <c r="O39" s="29">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N39)+1)</f>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="29">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C40" s="29">
         <v>1</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="35">
         <f>SUMIF(Sales!B:B,A40,Sales!D:D)</f>
-        <v>64</v>
-      </c>
-      <c r="E40" s="29">
+        <v>37</v>
+      </c>
+      <c r="E40" s="35">
         <f>IF($C40=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D40)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="F40" s="29">
+        <v>20</v>
+      </c>
+      <c r="F40" s="35">
         <f>SUMIF(Prizes!B:B,A40,Prizes!D:D)</f>
         <v>4</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="35">
         <f>IF($C40=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F40)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="H40" s="30">
+        <v>6</v>
+      </c>
+      <c r="H40" s="36">
         <f>SUMIF(Sales!B:B,A40,Sales!F:F)</f>
-        <v>3.5729121587717425</v>
-      </c>
-      <c r="I40" s="30">
+        <v>1.7654362892118982</v>
+      </c>
+      <c r="I40" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A40,Sales!G:G))</f>
-        <v>1.7690626415061241</v>
-      </c>
-      <c r="J40" s="30">
+        <v>1.2439598119364987</v>
+      </c>
+      <c r="J40" s="36">
         <f>(F40-H40)/I40</f>
-        <v>0.24142041734861824</v>
+        <v>1.7963311108174056</v>
       </c>
       <c r="K40" s="49">
         <f>IF(F40&gt;H40,1-_xlfn.NORM.DIST(F40,H40,I40,1),_xlfn.NORM.DIST(F40,H40,I40,1))</f>
-        <v>0.40461464495785371</v>
-      </c>
-      <c r="L40" s="29">
+        <v>3.6220936405928716E-2</v>
+      </c>
+      <c r="L40" s="37">
         <f>IF($C40=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J40)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="M40" s="29">
+        <v>2</v>
+      </c>
+      <c r="M40" s="35">
         <f>SUMIF(Sales!B:B,A40,Sales!E:E)</f>
-        <v>740</v>
+        <v>360</v>
       </c>
       <c r="N40" s="31">
         <f>M40/H40</f>
-        <v>207.11396393646277</v>
+        <v>203.9155999000713</v>
       </c>
       <c r="O40" s="29">
         <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N40)+1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="29">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" s="35">
+        <f>SUMIF(Sales!B:B,A41,Sales!D:D)</f>
         <v>3</v>
       </c>
-      <c r="C41" s="29">
-        <v>1</v>
-      </c>
-      <c r="D41" s="29">
-        <f>SUMIF(Sales!B:B,A41,Sales!D:D)</f>
-        <v>45</v>
-      </c>
-      <c r="E41" s="29">
+      <c r="E41" s="35">
         <f>IF($C41=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D41)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="F41" s="29">
+        <v>33</v>
+      </c>
+      <c r="F41" s="35">
         <f>SUMIF(Prizes!B:B,A41,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G41" s="29">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
         <f>IF($C41=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F41)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H41" s="30">
+        <v>26</v>
+      </c>
+      <c r="H41" s="36">
         <f>SUMIF(Sales!B:B,A41,Sales!F:F)</f>
-        <v>2.3237303641958817</v>
-      </c>
-      <c r="I41" s="30">
+        <v>0.3612040133779264</v>
+      </c>
+      <c r="I41" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A41,Sales!G:G))</f>
-        <v>1.4405480167928464</v>
-      </c>
-      <c r="J41" s="30">
+        <v>0.54598817687849921</v>
+      </c>
+      <c r="J41" s="36">
         <f>(F41-H41)/I41</f>
-        <v>-0.2247272290975878</v>
+        <v>-0.66156013751613985</v>
       </c>
       <c r="K41" s="49">
         <f>IF(F41&gt;H41,1-_xlfn.NORM.DIST(F41,H41,I41,1),_xlfn.NORM.DIST(F41,H41,I41,1))</f>
-        <v>0.41109574029874496</v>
-      </c>
-      <c r="L41" s="29">
+        <v>0.25412658085528567</v>
+      </c>
+      <c r="L41" s="37">
         <f>IF($C41=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J41)+1)</f>
-        <v>18</v>
-      </c>
-      <c r="M41" s="29">
+        <v>24</v>
+      </c>
+      <c r="M41" s="35">
         <f>SUMIF(Sales!B:B,A41,Sales!E:E)</f>
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="N41" s="31">
         <f>M41/H41</f>
-        <v>236.6883905613229</v>
+        <v>55.370370370370374</v>
       </c>
       <c r="O41" s="29">
         <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N41)+1)</f>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="29">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C42" s="29">
         <v>1</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="35">
         <f>SUMIF(Sales!B:B,A42,Sales!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="35">
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D42)+1)</f>
+        <v>35</v>
+      </c>
+      <c r="F42" s="35">
+        <f>SUMIF(Prizes!B:B,A42,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="35">
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F42)+1)</f>
         <v>26</v>
       </c>
-      <c r="E42" s="29">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D42)+1)</f>
-        <v>21</v>
-      </c>
-      <c r="F42" s="29">
-        <f>SUMIF(Prizes!B:B,A42,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G42" s="29">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F42)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H42" s="30">
+      <c r="H42" s="36">
         <f>SUMIF(Sales!B:B,A42,Sales!F:F)</f>
-        <v>1.7386807932020698</v>
-      </c>
-      <c r="I42" s="30">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I42" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A42,Sales!G:G))</f>
-        <v>1.2196223879112047</v>
-      </c>
-      <c r="J42" s="30">
+        <v>0.42132504423474315</v>
+      </c>
+      <c r="J42" s="36">
         <f>(F42-H42)/I42</f>
-        <v>0.21426238923465521</v>
+        <v>-0.54772255750516619</v>
       </c>
       <c r="K42" s="49">
         <f>IF(F42&gt;H42,1-_xlfn.NORM.DIST(F42,H42,I42,1),_xlfn.NORM.DIST(F42,H42,I42,1))</f>
-        <v>0.41517122299034059</v>
-      </c>
-      <c r="L42" s="29">
+        <v>0.2919412103851825</v>
+      </c>
+      <c r="L42" s="37">
         <f>IF($C42=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J42)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="M42" s="29">
+        <v>23</v>
+      </c>
+      <c r="M42" s="35">
         <f>SUMIF(Sales!B:B,A42,Sales!E:E)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N42" s="31">
         <f>M42/H42</f>
-        <v>201.3020454176737</v>
+        <v>0</v>
       </c>
       <c r="O42" s="29">
         <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N42)+1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="29">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C43" s="29">
         <v>1</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="35">
         <f>SUMIF(Sales!B:B,A43,Sales!D:D)</f>
-        <v>41</v>
-      </c>
-      <c r="E43" s="29">
+        <v>20</v>
+      </c>
+      <c r="E43" s="37">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D43)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="F43" s="29">
+        <v>22</v>
+      </c>
+      <c r="F43" s="35">
         <f>SUMIF(Prizes!B:B,A43,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G43" s="29">
+        <v>3</v>
+      </c>
+      <c r="G43" s="37">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F43)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H43" s="30">
+        <v>8</v>
+      </c>
+      <c r="H43" s="36">
         <f>SUMIF(Sales!B:B,A43,Sales!F:F)</f>
-        <v>1.751323901682182</v>
-      </c>
-      <c r="I43" s="30">
+        <v>0.87221269296740989</v>
+      </c>
+      <c r="I43" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A43,Sales!G:G))</f>
-        <v>1.2450174883944376</v>
-      </c>
-      <c r="J43" s="30">
+        <v>0.89203992119738906</v>
+      </c>
+      <c r="J43" s="36">
         <f>(F43-H43)/I43</f>
-        <v>0.19973703231952852</v>
+        <v>2.3853050255603492</v>
       </c>
       <c r="K43" s="49">
         <f>IF(F43&gt;H43,1-_xlfn.NORM.DIST(F43,H43,I43,1),_xlfn.NORM.DIST(F43,H43,I43,1))</f>
-        <v>0.42084312485409769</v>
-      </c>
-      <c r="L43" s="29">
+        <v>8.5324827515246282E-3</v>
+      </c>
+      <c r="L43" s="37">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J43)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="M43" s="29">
+        <v>1</v>
+      </c>
+      <c r="M43" s="35">
         <f>SUMIF(Sales!B:B,A43,Sales!E:E)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N43" s="31">
         <f>M43/H43</f>
-        <v>228.39864151673595</v>
-      </c>
-      <c r="O43" s="29">
+        <v>229.30186823992136</v>
+      </c>
+      <c r="O43" s="37">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N43)+1)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C44" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="35">
         <f>SUMIF(Sales!B:B,A44,Sales!D:D)</f>
-        <v>36</v>
-      </c>
-      <c r="E44" s="29">
+        <v>4</v>
+      </c>
+      <c r="E44" s="35">
         <f>IF($C44=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D44)+1)</f>
-        <v>20</v>
-      </c>
-      <c r="F44" s="29">
+        <v>32</v>
+      </c>
+      <c r="F44" s="35">
         <f>SUMIF(Prizes!B:B,A44,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
         <f>IF($C44=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F44)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H44" s="30">
+        <v>26</v>
+      </c>
+      <c r="H44" s="36">
         <f>SUMIF(Sales!B:B,A44,Sales!F:F)</f>
-        <v>1.8312919892395763</v>
-      </c>
-      <c r="I44" s="30">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="I44" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A44,Sales!G:G))</f>
-        <v>1.2852767126125033</v>
-      </c>
-      <c r="J44" s="30">
+        <v>0.37094647870344777</v>
+      </c>
+      <c r="J44" s="36">
         <f>(F44-H44)/I44</f>
-        <v>0.1312620147123815</v>
+        <v>-0.39211733715048613</v>
       </c>
       <c r="K44" s="49">
         <f>IF(F44&gt;H44,1-_xlfn.NORM.DIST(F44,H44,I44,1),_xlfn.NORM.DIST(F44,H44,I44,1))</f>
-        <v>0.44778401980729587</v>
-      </c>
-      <c r="L44" s="29">
+        <v>0.34748575901730239</v>
+      </c>
+      <c r="L44" s="37">
         <f>IF($C44=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J44)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="M44" s="29">
+        <v>20</v>
+      </c>
+      <c r="M44" s="35">
         <f>SUMIF(Sales!B:B,A44,Sales!E:E)</f>
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N44" s="31">
         <f>M44/H44</f>
-        <v>191.12189757643927</v>
+        <v>275</v>
       </c>
       <c r="O44" s="29">
         <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N44)+1)</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="29">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C45" s="29">
         <v>1</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="35">
         <f>SUMIF(Sales!B:B,A45,Sales!D:D)</f>
-        <v>51</v>
-      </c>
-      <c r="E45" s="29">
+        <v>10</v>
+      </c>
+      <c r="E45" s="35">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D45)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="F45" s="29">
+        <v>27</v>
+      </c>
+      <c r="F45" s="35">
         <f>SUMIF(Prizes!B:B,A45,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G45" s="29">
+        <v>1</v>
+      </c>
+      <c r="G45" s="35">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F45)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H45" s="30">
+        <v>19</v>
+      </c>
+      <c r="H45" s="36">
         <f>SUMIF(Sales!B:B,A45,Sales!F:F)</f>
-        <v>2.1392509129157737</v>
-      </c>
-      <c r="I45" s="30">
+        <v>0.5079051383399209</v>
+      </c>
+      <c r="I45" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A45,Sales!G:G))</f>
-        <v>1.3767007404782396</v>
-      </c>
-      <c r="J45" s="30">
+        <v>0.67996690791586989</v>
+      </c>
+      <c r="J45" s="36">
         <f>(F45-H45)/I45</f>
-        <v>-0.10114828068400734</v>
+        <v>0.72370413314432125</v>
       </c>
       <c r="K45" s="49">
         <f>IF(F45&gt;H45,1-_xlfn.NORM.DIST(F45,H45,I45,1),_xlfn.NORM.DIST(F45,H45,I45,1))</f>
-        <v>0.45971637604945381</v>
-      </c>
-      <c r="L45" s="29">
+        <v>0.23462369757905566</v>
+      </c>
+      <c r="L45" s="37">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J45)+1)</f>
-        <v>17</v>
-      </c>
-      <c r="M45" s="29">
+        <v>5</v>
+      </c>
+      <c r="M45" s="35">
         <f>SUMIF(Sales!B:B,A45,Sales!E:E)</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N45" s="31">
         <f>M45/H45</f>
-        <v>233.7266736600364</v>
+        <v>196.88715953307394</v>
       </c>
       <c r="O45" s="29">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N45)+1)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="29">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C46" s="29">
         <v>1</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="35">
         <f>SUMIF(Sales!B:B,A46,Sales!D:D)</f>
-        <v>41</v>
-      </c>
-      <c r="E46" s="29">
+        <v>10</v>
+      </c>
+      <c r="E46" s="35">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D46)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="F46" s="29">
+        <v>27</v>
+      </c>
+      <c r="F46" s="35">
         <f>SUMIF(Prizes!B:B,A46,Prizes!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="G46" s="29">
+        <v>1</v>
+      </c>
+      <c r="G46" s="35">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F46)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="H46" s="30">
+        <v>19</v>
+      </c>
+      <c r="H46" s="36">
         <f>SUMIF(Sales!B:B,A46,Sales!F:F)</f>
-        <v>1.9957656734501028</v>
-      </c>
-      <c r="I46" s="30">
+        <v>0.59881422924901184</v>
+      </c>
+      <c r="I46" s="36">
         <f>SQRT(SUMIF(Sales!B:B,A46,Sales!G:G))</f>
-        <v>1.3441673982599343</v>
-      </c>
-      <c r="J46" s="30">
+        <v>0.73471799020835471</v>
+      </c>
+      <c r="J46" s="36">
         <f>(F46-H46)/I46</f>
-        <v>3.1501482295870731E-3</v>
+        <v>0.54604048913681569</v>
       </c>
       <c r="K46" s="49">
         <f>IF(F46&gt;H46,1-_xlfn.NORM.DIST(F46,H46,I46,1),_xlfn.NORM.DIST(F46,H46,I46,1))</f>
-        <v>0.49874327476019131</v>
-      </c>
-      <c r="L46" s="29">
+        <v>0.29251905278721679</v>
+      </c>
+      <c r="L46" s="37">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J46)+1)</f>
-        <v>16</v>
-      </c>
-      <c r="M46" s="29">
+        <v>9</v>
+      </c>
+      <c r="M46" s="35">
         <f>SUMIF(Sales!B:B,A46,Sales!E:E)</f>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N46" s="31">
         <f>M46/H46</f>
-        <v>200.42433103306936</v>
+        <v>166.996699669967</v>
       </c>
       <c r="O46" s="29">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N46)+1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P46" s="29"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="29">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1</v>
+      </c>
+      <c r="D47" s="37">
+        <f>SUMIF(Sales!B:B,A47,Sales!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="37">
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D47)+1)</f>
+        <v>31</v>
+      </c>
+      <c r="F47" s="37">
+        <f>SUMIF(Prizes!B:B,A47,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="37">
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F47)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="H47" s="30">
+        <f>SUMIF(Sales!B:B,A47,Sales!F:F)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="I47" s="30">
+        <f>SQRT(SUMIF(Sales!B:B,A47,Sales!G:G))</f>
+        <v>0.49838620452001348</v>
+      </c>
+      <c r="J47" s="30">
+        <f>(F47-H47)/I47</f>
+        <v>-0.5472207502010038</v>
+      </c>
+      <c r="K47" s="49">
+        <f>IF(F47&gt;H47,1-_xlfn.NORM.DIST(F47,H47,I47,1),_xlfn.NORM.DIST(F47,H47,I47,1))</f>
+        <v>0.29211354104004084</v>
+      </c>
+      <c r="L47" s="37">
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J47)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="M47" s="37">
+        <f>SUMIF(Sales!B:B,A47,Sales!E:E)</f>
+        <v>50</v>
+      </c>
+      <c r="N47" s="31">
+        <f>M47/H47</f>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="O47" s="37">
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N47)+1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="29">
+        <v>46</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="29">
+        <v>1</v>
+      </c>
+      <c r="D48" s="37">
+        <f>SUMIF(Sales!B:B,A48,Sales!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="E48" s="37">
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,D:D,"&gt;"&amp;D48)+1)</f>
+        <v>27</v>
+      </c>
+      <c r="F48" s="37">
+        <f>SUMIF(Prizes!B:B,A48,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="37">
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,F:F,"&gt;"&amp;F48)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="H48" s="30">
+        <f>SUMIF(Sales!B:B,A48,Sales!F:F)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I48" s="30">
+        <f>SQRT(SUMIF(Sales!B:B,A48,Sales!G:G))</f>
+        <v>0.68783830998123208</v>
+      </c>
+      <c r="J48" s="30">
+        <f>(F48-H48)/I48</f>
+        <v>-0.79299820544951671</v>
+      </c>
+      <c r="K48" s="49">
+        <f>IF(F48&gt;H48,1-_xlfn.NORM.DIST(F48,H48,I48,1),_xlfn.NORM.DIST(F48,H48,I48,1))</f>
+        <v>0.21388943416367223</v>
+      </c>
+      <c r="L48" s="37">
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,J:J,"&gt;"&amp;J48)+1)</f>
+        <v>27</v>
+      </c>
+      <c r="M48" s="37">
+        <f>SUMIF(Sales!B:B,A48,Sales!E:E)</f>
+        <v>100</v>
+      </c>
+      <c r="N48" s="31">
+        <f>M48/H48</f>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="O48" s="37">
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,N:N,"&lt;"&amp;N48)+1)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5785,10 +5919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5796,7 +5930,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -5815,8 +5949,11 @@
       <c r="F1" s="56" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5838,8 +5975,12 @@
         <f t="shared" ref="F2:F16" si="0">E2/D2</f>
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="74">
+        <f t="shared" ref="G2:G17" si="1">C2*D2/E2</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5861,8 +6002,12 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="74">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5884,8 +6029,12 @@
         <f t="shared" si="0"/>
         <v>3.1914893617021274E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="74">
+        <f t="shared" si="1"/>
+        <v>313.33333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5907,8 +6056,12 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="74">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5930,8 +6083,12 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="74">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5953,8 +6110,12 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="74">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5976,8 +6137,12 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="74">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5999,8 +6164,12 @@
         <f t="shared" si="0"/>
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="74">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6022,8 +6191,12 @@
         <f t="shared" si="0"/>
         <v>3.2894736842105261E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="74">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6045,8 +6218,12 @@
         <f t="shared" si="0"/>
         <v>3.1847133757961783E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="74">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6068,8 +6245,12 @@
         <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6091,8 +6272,12 @@
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="74">
+        <f t="shared" si="1"/>
+        <v>213.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6114,8 +6299,12 @@
         <f t="shared" si="0"/>
         <v>4.716981132075472E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="74">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6137,8 +6326,12 @@
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="74">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6159,6 +6352,37 @@
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="G16" s="74">
+        <f t="shared" si="1"/>
+        <v>153.33333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43721</v>
+      </c>
+      <c r="C17" s="34">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34">
+        <f>SUMIFS(Sales!D:D,Sales!C:C,A17)</f>
+        <v>110</v>
+      </c>
+      <c r="E17" s="34">
+        <f>SUMIFS(Prizes!D:D,Prizes!C:C,A17)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E17/D17</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="G17" s="74">
+        <f t="shared" si="1"/>
+        <v>183.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -6171,10 +6395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6210,7 +6434,7 @@
       </c>
       <c r="J1" s="40">
         <f>SUM(E:E)</f>
-        <v>20720</v>
+        <v>21820</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -13313,6 +13537,486 @@
       </c>
       <c r="H274" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H275,Persons!B:B,0))</f>
+        <v>33</v>
+      </c>
+      <c r="C275" s="38">
+        <v>16</v>
+      </c>
+      <c r="D275">
+        <v>10</v>
+      </c>
+      <c r="E275" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C275,Lotteries!A:A,0))*D275</f>
+        <v>100</v>
+      </c>
+      <c r="F275" s="3">
+        <f>D275*INDEX(Lotteries!F:F,MATCH(C275,Lotteries!A:A,0))</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G275" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C275,Lotteries!A:A,0))*D275/INDEX(Lotteries!D:D,MATCH(C275,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C275,Lotteries!A:A,0))-D275)/INDEX(Lotteries!D:D,MATCH(C275,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C275,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C275,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C275,Lotteries!A:A,0))-1)</f>
+        <v>0.47312154067783757</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H276,Persons!B:B,0))</f>
+        <v>41</v>
+      </c>
+      <c r="C276" s="38">
+        <v>16</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C276,Lotteries!A:A,0))*D276</f>
+        <v>50</v>
+      </c>
+      <c r="F276" s="3">
+        <f>D276*INDEX(Lotteries!F:F,MATCH(C276,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G276" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C276,Lotteries!A:A,0))*D276/INDEX(Lotteries!D:D,MATCH(C276,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C276,Lotteries!A:A,0))-D276)/INDEX(Lotteries!D:D,MATCH(C276,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C276,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C276,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C276,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H277,Persons!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="C277" s="38">
+        <v>16</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C277,Lotteries!A:A,0))*D277</f>
+        <v>50</v>
+      </c>
+      <c r="F277" s="3">
+        <f>D277*INDEX(Lotteries!F:F,MATCH(C277,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G277" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C277,Lotteries!A:A,0))*D277/INDEX(Lotteries!D:D,MATCH(C277,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C277,Lotteries!A:A,0))-D277)/INDEX(Lotteries!D:D,MATCH(C277,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C277,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C277,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C277,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H278,Persons!B:B,0))</f>
+        <v>35</v>
+      </c>
+      <c r="C278" s="38">
+        <v>16</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+      <c r="E278" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C278,Lotteries!A:A,0))*D278</f>
+        <v>50</v>
+      </c>
+      <c r="F278" s="3">
+        <f>D278*INDEX(Lotteries!F:F,MATCH(C278,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G278" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C278,Lotteries!A:A,0))*D278/INDEX(Lotteries!D:D,MATCH(C278,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C278,Lotteries!A:A,0))-D278)/INDEX(Lotteries!D:D,MATCH(C278,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C278,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C278,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C278,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H279,Persons!B:B,0))</f>
+        <v>20</v>
+      </c>
+      <c r="C279" s="38">
+        <v>16</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+      <c r="E279" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C279,Lotteries!A:A,0))*D279</f>
+        <v>50</v>
+      </c>
+      <c r="F279" s="3">
+        <f>D279*INDEX(Lotteries!F:F,MATCH(C279,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G279" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C279,Lotteries!A:A,0))*D279/INDEX(Lotteries!D:D,MATCH(C279,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C279,Lotteries!A:A,0))-D279)/INDEX(Lotteries!D:D,MATCH(C279,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C279,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C279,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C279,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H280,Persons!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C280" s="38">
+        <v>16</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C280,Lotteries!A:A,0))*D280</f>
+        <v>50</v>
+      </c>
+      <c r="F280" s="3">
+        <f>D280*INDEX(Lotteries!F:F,MATCH(C280,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G280" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C280,Lotteries!A:A,0))*D280/INDEX(Lotteries!D:D,MATCH(C280,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C280,Lotteries!A:A,0))-D280)/INDEX(Lotteries!D:D,MATCH(C280,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C280,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C280,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C280,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H281,Persons!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="C281" s="38">
+        <v>16</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C281,Lotteries!A:A,0))*D281</f>
+        <v>50</v>
+      </c>
+      <c r="F281" s="3">
+        <f>D281*INDEX(Lotteries!F:F,MATCH(C281,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G281" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C281,Lotteries!A:A,0))*D281/INDEX(Lotteries!D:D,MATCH(C281,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C281,Lotteries!A:A,0))-D281)/INDEX(Lotteries!D:D,MATCH(C281,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C281,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C281,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C281,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H282,Persons!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C282" s="38">
+        <v>16</v>
+      </c>
+      <c r="D282">
+        <v>16</v>
+      </c>
+      <c r="E282" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C282,Lotteries!A:A,0))*D282</f>
+        <v>160</v>
+      </c>
+      <c r="F282" s="3">
+        <f>D282*INDEX(Lotteries!F:F,MATCH(C282,Lotteries!A:A,0))</f>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G282" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C282,Lotteries!A:A,0))*D282/INDEX(Lotteries!D:D,MATCH(C282,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C282,Lotteries!A:A,0))-D282)/INDEX(Lotteries!D:D,MATCH(C282,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C282,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C282,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C282,Lotteries!A:A,0))-1)</f>
+        <v>0.7115747971794677</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H283,Persons!B:B,0))</f>
+        <v>45</v>
+      </c>
+      <c r="C283" s="38">
+        <v>16</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C283,Lotteries!A:A,0))*D283</f>
+        <v>50</v>
+      </c>
+      <c r="F283" s="3">
+        <f>D283*INDEX(Lotteries!F:F,MATCH(C283,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G283" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C283,Lotteries!A:A,0))*D283/INDEX(Lotteries!D:D,MATCH(C283,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C283,Lotteries!A:A,0))-D283)/INDEX(Lotteries!D:D,MATCH(C283,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C283,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C283,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C283,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H284,Persons!B:B,0))</f>
+        <v>44</v>
+      </c>
+      <c r="C284" s="38">
+        <v>16</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C284,Lotteries!A:A,0))*D284</f>
+        <v>50</v>
+      </c>
+      <c r="F284" s="3">
+        <f>D284*INDEX(Lotteries!F:F,MATCH(C284,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G284" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C284,Lotteries!A:A,0))*D284/INDEX(Lotteries!D:D,MATCH(C284,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C284,Lotteries!A:A,0))-D284)/INDEX(Lotteries!D:D,MATCH(C284,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C284,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C284,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C284,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H285,Persons!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="C285" s="38">
+        <v>16</v>
+      </c>
+      <c r="D285">
+        <v>6</v>
+      </c>
+      <c r="E285" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C285,Lotteries!A:A,0))*D285</f>
+        <v>60</v>
+      </c>
+      <c r="F285" s="3">
+        <f>D285*INDEX(Lotteries!F:F,MATCH(C285,Lotteries!A:A,0))</f>
+        <v>0.32727272727272727</v>
+      </c>
+      <c r="G285" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C285,Lotteries!A:A,0))*D285/INDEX(Lotteries!D:D,MATCH(C285,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C285,Lotteries!A:A,0))-D285)/INDEX(Lotteries!D:D,MATCH(C285,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C285,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C285,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C285,Lotteries!A:A,0))-1)</f>
+        <v>0.2952278413829707</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H286,Persons!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="C286" s="38">
+        <v>16</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C286,Lotteries!A:A,0))*D286</f>
+        <v>30</v>
+      </c>
+      <c r="F286" s="3">
+        <f>D286*INDEX(Lotteries!F:F,MATCH(C286,Lotteries!A:A,0))</f>
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="G286" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C286,Lotteries!A:A,0))*D286/INDEX(Lotteries!D:D,MATCH(C286,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C286,Lotteries!A:A,0))-D286)/INDEX(Lotteries!D:D,MATCH(C286,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C286,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C286,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C286,Lotteries!A:A,0))-1)</f>
+        <v>0.15187201455758587</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H287,Persons!B:B,0))</f>
+        <v>46</v>
+      </c>
+      <c r="C287" s="38">
+        <v>16</v>
+      </c>
+      <c r="D287">
+        <v>10</v>
+      </c>
+      <c r="E287" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C287,Lotteries!A:A,0))*D287</f>
+        <v>100</v>
+      </c>
+      <c r="F287" s="3">
+        <f>D287*INDEX(Lotteries!F:F,MATCH(C287,Lotteries!A:A,0))</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G287" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C287,Lotteries!A:A,0))*D287/INDEX(Lotteries!D:D,MATCH(C287,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C287,Lotteries!A:A,0))-D287)/INDEX(Lotteries!D:D,MATCH(C287,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C287,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C287,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C287,Lotteries!A:A,0))-1)</f>
+        <v>0.47312154067783757</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H288,Persons!B:B,0))</f>
+        <v>34</v>
+      </c>
+      <c r="C288" s="38">
+        <v>16</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C288,Lotteries!A:A,0))*D288</f>
+        <v>50</v>
+      </c>
+      <c r="F288" s="3">
+        <f>D288*INDEX(Lotteries!F:F,MATCH(C288,Lotteries!A:A,0))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G288" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C288,Lotteries!A:A,0))*D288/INDEX(Lotteries!D:D,MATCH(C288,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C288,Lotteries!A:A,0))-D288)/INDEX(Lotteries!D:D,MATCH(C288,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C288,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C288,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C288,Lotteries!A:A,0))-1)</f>
+        <v>0.2483888088558647</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H289,Persons!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C289" s="38">
+        <v>16</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C289,Lotteries!A:A,0))*D289</f>
+        <v>100</v>
+      </c>
+      <c r="F289" s="3">
+        <f>D289*INDEX(Lotteries!F:F,MATCH(C289,Lotteries!A:A,0))</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G289" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C289,Lotteries!A:A,0))*D289/INDEX(Lotteries!D:D,MATCH(C289,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C289,Lotteries!A:A,0))-D289)/INDEX(Lotteries!D:D,MATCH(C289,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C289,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C289,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C289,Lotteries!A:A,0))-1)</f>
+        <v>0.47312154067783757</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <f>INDEX(Persons!A:A,MATCH(Sales!H290,Persons!B:B,0))</f>
+        <v>37</v>
+      </c>
+      <c r="C290" s="38">
+        <v>16</v>
+      </c>
+      <c r="D290">
+        <v>10</v>
+      </c>
+      <c r="E290" s="34">
+        <f>INDEX(Lotteries!C:C,MATCH(C290,Lotteries!A:A,0))*D290</f>
+        <v>100</v>
+      </c>
+      <c r="F290" s="3">
+        <f>D290*INDEX(Lotteries!F:F,MATCH(C290,Lotteries!A:A,0))</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G290" s="3">
+        <f>INDEX(Lotteries!E:E,MATCH(C290,Lotteries!A:A,0))*D290/INDEX(Lotteries!D:D,MATCH(C290,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C290,Lotteries!A:A,0))-D290)/INDEX(Lotteries!D:D,MATCH(C290,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C290,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C290,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C290,Lotteries!A:A,0))-1)</f>
+        <v>0.47312154067783757</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13326,10 +14030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13355,7 +14059,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -14536,6 +15240,96 @@
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!E86,Persons!B:B,0))</f>
+        <v>41</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!E87,Persons!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!E88,Persons!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!E89,Persons!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!E90,Persons!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -14797,7 +15591,7 @@
       </c>
       <c r="C3" s="40">
         <f>Sales!J1</f>
-        <v>20720</v>
+        <v>21820</v>
       </c>
       <c r="I3" t="s">
         <v>110</v>
@@ -14851,7 +15645,7 @@
       </c>
       <c r="G6" s="66">
         <f>-Prizes!G1</f>
-        <v>-90</v>
+        <v>-96</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="43"/>
@@ -14862,14 +15656,14 @@
       </c>
       <c r="C7" s="64">
         <f>SUM(C2:C6)</f>
-        <v>1460.8499999999985</v>
+        <v>2560.8499999999985</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="67">
         <f>SUM(G2:G6)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>112</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -717,6 +717,7 @@
     <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,7 +736,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -746,12 +746,6 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -792,6 +786,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1029,8 +1029,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:O48" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:O48"/>
-  <sortState ref="A2:O46">
-    <sortCondition ref="A1:A46"/>
+  <sortState ref="A2:O48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="id" dataDxfId="31"/>
@@ -1097,10 +1097,10 @@
     <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Prizes!D:D,Prizes!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ/ticket" dataDxfId="1" totalsRowDxfId="12">
+    <tableColumn id="6" name="µ/ticket" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="cost/µ" dataDxfId="0">
+    <tableColumn id="7" name="cost/µ" dataDxfId="10">
       <calculatedColumnFormula>C2*D2/E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1122,15 +1122,15 @@
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" name="cost" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="7">
+    <tableColumn id="6" name="µ" dataDxfId="5">
       <calculatedColumnFormula>D2*INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="6">
+    <tableColumn id="7" name="σ2" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!E:E,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1139,7 +1139,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D90" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D90" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D90">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1159,7 +1159,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:D13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1168,8 +1168,8 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="3"/>
-    <tableColumn id="4" name="cost" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="2" name="date" dataDxfId="1"/>
+    <tableColumn id="4" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
     <tableColumn id="3" name="prizes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="B2:U41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,30 +1454,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -1952,30 +1952,30 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="72" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
@@ -2450,30 +2450,30 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="73" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5922,7 +5922,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5975,7 +5975,7 @@
         <f t="shared" ref="F2:F16" si="0">E2/D2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="68">
         <f t="shared" ref="G2:G17" si="1">C2*D2/E2</f>
         <v>144</v>
       </c>
@@ -6002,7 +6002,7 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="68">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
@@ -6029,7 +6029,7 @@
         <f t="shared" si="0"/>
         <v>3.1914893617021274E-2</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="68">
         <f t="shared" si="1"/>
         <v>313.33333333333331</v>
       </c>
@@ -6056,7 +6056,7 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="68">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
@@ -6083,7 +6083,7 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="68">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
@@ -6110,7 +6110,7 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="68">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
@@ -6137,7 +6137,7 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="68">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
@@ -6164,7 +6164,7 @@
         <f t="shared" si="0"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="68">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
@@ -6191,7 +6191,7 @@
         <f t="shared" si="0"/>
         <v>3.2894736842105261E-2</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="68">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
@@ -6218,7 +6218,7 @@
         <f t="shared" si="0"/>
         <v>3.1847133757961783E-2</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="68">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
@@ -6245,7 +6245,7 @@
         <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6272,7 +6272,7 @@
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="68">
         <f t="shared" si="1"/>
         <v>213.33333333333334</v>
       </c>
@@ -6299,7 +6299,7 @@
         <f t="shared" si="0"/>
         <v>4.716981132075472E-2</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="68">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
@@ -6326,7 +6326,7 @@
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="68">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
@@ -6353,7 +6353,7 @@
         <f t="shared" si="0"/>
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="68">
         <f t="shared" si="1"/>
         <v>153.33333333333334</v>
       </c>
@@ -6380,12 +6380,24 @@
         <f>E17/D17</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="68">
         <f t="shared" si="1"/>
         <v>183.33333333333334</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6397,7 +6409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
@@ -14032,7 +14044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -15561,7 +15573,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="9230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -1619,8 +1619,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1904,8 +1904,8 @@
   </sheetPr>
   <dimension ref="B2:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,7 +3024,7 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5884,7 +5884,7 @@
         <v>600</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="12">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
+        <f t="shared" ref="F34:F52" si="12">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
         <v>10</v>
       </c>
       <c r="G34" s="4">
@@ -5892,7 +5892,7 @@
         <v>61</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" ref="H34:H65" si="13">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
+        <f t="shared" ref="H34:H52" si="13">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
         <v>9</v>
       </c>
       <c r="I34" s="4">
@@ -5900,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" ref="J34:J65" si="14">IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
+        <f t="shared" ref="J34:J52" si="14">IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
         <v>6</v>
       </c>
       <c r="K34" s="5">
@@ -5908,7 +5908,7 @@
         <v>2.692860930816682</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" ref="L34:L65" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
+        <f t="shared" ref="L34:L52" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
         <v>11</v>
       </c>
       <c r="M34" s="5">
@@ -5920,7 +5920,7 @@
         <v>1.307139069183318</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:O65" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
+        <f t="shared" ref="O34:O52" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
         <v>4</v>
       </c>
       <c r="P34" s="5">
@@ -5928,7 +5928,7 @@
         <v>0.84460083262224395</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q65" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
+        <f t="shared" ref="Q34:Q52" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
         <v>5</v>
       </c>
       <c r="R34" s="17">
@@ -5936,7 +5936,7 @@
         <v>0.19916687201318095</v>
       </c>
       <c r="S34" s="32">
-        <f t="shared" ref="S34:S65" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
+        <f t="shared" ref="S34:S52" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
         <v>17</v>
       </c>
       <c r="T34" s="6">
@@ -5944,7 +5944,7 @@
         <v>222.81135766563111</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
+        <f t="shared" ref="U34:U52" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
         <v>19</v>
       </c>
       <c r="V34" s="4"/>
@@ -7671,7 +7671,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20106,10 +20106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20137,11 +20137,11 @@
       </c>
       <c r="G1" s="13">
         <f>SUM(C:C)</f>
-        <v>26132.15</v>
+        <v>29031.15</v>
       </c>
       <c r="H1" s="12">
         <f>SUM(D:D)</f>
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -20352,6 +20352,20 @@
       </c>
       <c r="D16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2899</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -20368,7 +20382,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20435,7 +20449,7 @@
       </c>
       <c r="G5" s="12">
         <f>Purchases!H1</f>
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
         <v>184</v>
@@ -20450,7 +20464,7 @@
       </c>
       <c r="C6" s="16">
         <f>-Purchases!G1</f>
-        <v>-26132.15</v>
+        <v>-29031.15</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>44</v>
@@ -20468,14 +20482,14 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(C2:C6)</f>
-        <v>4127.8499999999985</v>
+        <v>1228.8499999999985</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="26">
         <f>SUM(G2:G6)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>96</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -561,28 +561,13 @@
     <t>{"name": "Truls", "tickets": 5},</t>
   </si>
   <si>
-    <t>{"name": "Hanne", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Andreas", "tickets": 5},</t>
-  </si>
-  <si>
     <t>{"name": "Kyrre", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Martin", "tickets": 10},</t>
   </si>
   <si>
     <t>{"name": "Erik B", "tickets": 5},</t>
   </si>
   <si>
-    <t>{"name": "Kenneth", "tickets": 10},</t>
-  </si>
-  <si>
     <t>{"name": "Ruben O", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Ruben B", "tickets": 10},</t>
   </si>
   <si>
     <t>Ivan</t>
@@ -706,37 +691,67 @@
     <t>income</t>
   </si>
   <si>
-    <t>{"name": "Anders Sz", "tickets": 4},</t>
-  </si>
-  <si>
     <t>{"name": "Sven", "tickets": 10, "prizes": 1},</t>
   </si>
   <si>
-    <t>{"name": "Asgeir", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Mathias", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Magnus B", "tickets": 10, "prizes": 2},</t>
-  </si>
-  <si>
-    <t>{"name": "Anders A", "tickets": 20, "prizes": 1},</t>
-  </si>
-  <si>
-    <t>{"name": "Ivan", "tickets": 10, "prizes": 1},</t>
-  </si>
-  <si>
     <t>{"name": "Svein", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Sondre", "tickets": 5}</t>
   </si>
   <si>
     <t>Magnus B</t>
   </si>
   <si>
     <t>Sondre</t>
+  </si>
+  <si>
+    <t>{"name": "Bjarke", "tickets": 2},</t>
+  </si>
+  <si>
+    <t>{"name": "Hanne", "tickets": 5, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Magnus B", "tickets": 10},</t>
+  </si>
+  <si>
+    <t>{"name": "Yngvar", "tickets": 6},</t>
+  </si>
+  <si>
+    <t>{"name": "Ciaran", "tickets": 4},</t>
+  </si>
+  <si>
+    <t>{"name": "Andrea", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>{"name": "Asgeir", "tickets": 10, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Ivan", "tickets": 5, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Anders Sz", "tickets": 40},</t>
+  </si>
+  <si>
+    <t>{"name": "Anders A", "tickets": 10},</t>
+  </si>
+  <si>
+    <t>{"name": "Ruben B", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>{"name": "Martin", "tickets": 12},</t>
+  </si>
+  <si>
+    <t>{"name": "Mathias", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>{"name": "Ingvild", "tickets": 5}</t>
+  </si>
+  <si>
+    <t>Morten S</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>{"name": "Morten S", "tickets": 5},</t>
   </si>
 </sst>
 </file>
@@ -1083,6 +1098,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,7 +1126,6 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1120,14 +1135,6 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -1152,6 +1159,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1514,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U55" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:U55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U57" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:U57"/>
   <sortState ref="A2:U51">
     <sortCondition ref="A1:A51"/>
   </sortState>
@@ -1583,8 +1598,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:H21">
-  <autoFilter ref="A1:H21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:H22">
+  <autoFilter ref="A1:H22">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1619,20 +1634,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G374" totalsRowShown="0">
-  <autoFilter ref="A1:G374"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G396" totalsRowShown="0">
+  <autoFilter ref="A1:G396"/>
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="5" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="lottery_id" dataDxfId="4" totalsRowDxfId="5"/>
     <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="3" totalsRowDxfId="4">
+    <tableColumn id="5" name="cost" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="2">
+    <tableColumn id="6" name="µ" dataDxfId="1">
       <calculatedColumnFormula>D2*INDEX(Lotteries!G:G,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="1">
+    <tableColumn id="7" name="σ2" dataDxfId="0">
       <calculatedColumnFormula>INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1641,8 +1656,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D113" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D118" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:D118">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1659,7 +1674,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:E17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1669,8 +1684,8 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="8"/>
-    <tableColumn id="4" name="cost" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="2" name="date" dataDxfId="7"/>
+    <tableColumn id="4" name="cost" dataDxfId="6" dataCellStyle="Comma"/>
     <tableColumn id="3" name="prizes"/>
     <tableColumn id="5" name="faktura"/>
   </tableColumns>
@@ -1958,24 +1973,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:26" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
@@ -1988,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>42</v>
@@ -2000,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>42</v>
@@ -2012,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -2030,11 +2045,11 @@
       </c>
       <c r="E4" s="69">
         <f>INDEX(Persons!$R:$R,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>1.8936664958206673E-2</v>
+        <v>1.6969605821705036E-3</v>
       </c>
       <c r="F4" s="38">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F4)-ROW(F$4))</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="38">
         <f t="array" ref="G4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F4,F4)))</f>
@@ -2054,15 +2069,15 @@
       </c>
       <c r="K4" s="39">
         <f t="array" ref="K4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J4,J4)))</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L4" s="39" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K4,Persons!$A:$A,0))</f>
-        <v>Ingvild</v>
+        <v>Magnus B</v>
       </c>
       <c r="M4" s="71">
         <f>INDEX(Persons!$R:$R,MATCH(K4,Persons!$A:$A,0))</f>
-        <v>0.49874327476019131</v>
+        <v>0.46317026873308886</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2080,11 +2095,11 @@
       </c>
       <c r="E5" s="69">
         <f>INDEX(Persons!$R:$R,MATCH(C5,Persons!$A:$A,0))</f>
-        <v>9.6379304489716322E-2</v>
+        <v>0.11279586296928212</v>
       </c>
       <c r="F5" s="38">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F5)-ROW(F$4))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="38">
         <f t="array" ref="G5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F5,F5)))</f>
@@ -2104,15 +2119,15 @@
       </c>
       <c r="K5" s="39">
         <f t="array" ref="K5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J5,J5)))</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L5" s="39" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K5,Persons!$A:$A,0))</f>
-        <v>Magnus B</v>
+        <v>Ingvild</v>
       </c>
       <c r="M5" s="71">
         <f>INDEX(Persons!$R:$R,MATCH(K5,Persons!$A:$A,0))</f>
-        <v>0.47846916108888093</v>
+        <v>0.46126552630700979</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2130,23 +2145,23 @@
       </c>
       <c r="E6" s="69">
         <f>INDEX(Persons!$R:$R,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>0.10159250997977498</v>
+        <v>0.12030853778064177</v>
       </c>
       <c r="F6" s="38">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F6)-ROW(F$4))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="38">
         <f t="array" ref="G6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F6,F6)))</f>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H6" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G6,Persons!$A:$A,0))</f>
-        <v>Asgeir</v>
+        <v>Fridtjof</v>
       </c>
       <c r="I6" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G6,Persons!$A:$A,0))</f>
-        <v>0.10433634968230081</v>
+        <v>0.12701859000624371</v>
       </c>
       <c r="J6" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J6)-ROW(J$4))</f>
@@ -2154,15 +2169,15 @@
       </c>
       <c r="K6" s="39">
         <f t="array" ref="K6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J6,J6)))</f>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L6" s="39" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K6,Persons!$A:$A,0))</f>
-        <v>Anders A</v>
+        <v>Stan</v>
       </c>
       <c r="M6" s="71">
         <f>INDEX(Persons!$R:$R,MATCH(K6,Persons!$A:$A,0))</f>
-        <v>0.42021792215524006</v>
+        <v>0.41864929133648948</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2180,23 +2195,23 @@
       </c>
       <c r="E7" s="69">
         <f>INDEX(Persons!$R:$R,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>0.15038792718730676</v>
+        <v>0.18027159619307453</v>
       </c>
       <c r="F7" s="38">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F7)-ROW(F$4))</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="38">
         <f t="array" ref="G7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F7,F7)))</f>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H7" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>Hanne</v>
+        <v>Ruben O</v>
       </c>
       <c r="I7" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>0.12386998868090468</v>
+        <v>0.12986049313998585</v>
       </c>
       <c r="J7" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J7)-ROW(J$4))</f>
@@ -2204,15 +2219,15 @@
       </c>
       <c r="K7" s="39">
         <f t="array" ref="K7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J7,J7)))</f>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="L7" s="39" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K7,Persons!$A:$A,0))</f>
-        <v>Stan</v>
+        <v>Erik O</v>
       </c>
       <c r="M7" s="71">
         <f>INDEX(Persons!$R:$R,MATCH(K7,Persons!$A:$A,0))</f>
-        <v>0.41864929133648948</v>
+        <v>0.41517122299034059</v>
       </c>
       <c r="W7">
         <f>SUMPRODUCT(V8:V17,W8:W17)</f>
@@ -2226,31 +2241,31 @@
       </c>
       <c r="C8" s="40">
         <f t="array" ref="C8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B8,B8)))</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D8" s="40" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C8,Persons!$A:$A,0))</f>
-        <v>Ciaran</v>
+        <v>Odd</v>
       </c>
       <c r="E8" s="69">
         <f>INDEX(Persons!$R:$R,MATCH(C8,Persons!$A:$A,0))</f>
-        <v>0.25520009193827553</v>
+        <v>0.28801651091050329</v>
       </c>
       <c r="F8" s="38">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F8)-ROW(F$4))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="38">
         <f t="array" ref="G8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F8,F8)))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>Fridtjof</v>
+        <v>Kenneth</v>
       </c>
       <c r="I8" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>0.12701859000624371</v>
+        <v>0.1341301701833536</v>
       </c>
       <c r="J8" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J8)-ROW(J$4))</f>
@@ -2258,15 +2273,15 @@
       </c>
       <c r="K8" s="39">
         <f t="array" ref="K8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J8,J8)))</f>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="L8" s="39" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K8,Persons!$A:$A,0))</f>
-        <v>Erik O</v>
+        <v>Jan</v>
       </c>
       <c r="M8" s="71">
         <f>INDEX(Persons!$R:$R,MATCH(K8,Persons!$A:$A,0))</f>
-        <v>0.41517122299034059</v>
+        <v>0.4088218881933674</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2296,24 +2311,24 @@
       <c r="Z9" s="40"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
       <c r="U10">
         <v>2</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J11" s="54" t="s">
         <v>42</v>
@@ -2364,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2377,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z11" s="39"/>
     </row>
@@ -2396,7 +2411,7 @@
       </c>
       <c r="E12" s="49">
         <f>INDEX(Persons!$I:$I,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="59">
         <f>SMALL(Persons!$O:$O,1+ROW(F12)-ROW(F$12))</f>
@@ -2412,23 +2427,23 @@
       </c>
       <c r="I12" s="72">
         <f>INDEX(Persons!$N:$N,MATCH(G12,Persons!$A:$A,0))</f>
-        <v>2.5837420174603887</v>
+        <v>2.4440772129911146</v>
       </c>
       <c r="J12" s="56">
         <f>LARGE(Persons!$O:$O,1+ROW(J12)-ROW(J$12))</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12" s="56">
         <f t="array" ref="K12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J12,J12)))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L12" s="56" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K12,Persons!$A:$A,0))</f>
-        <v>Stein</v>
+        <v>Ruben O</v>
       </c>
       <c r="M12" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K12,Persons!$A:$A,0))</f>
-        <v>-2.4986609374725086</v>
+        <v>-2.7456182608128401</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2468,31 +2483,31 @@
       </c>
       <c r="G13" s="59">
         <f t="array" ref="G13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F13,F13)))</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H13" s="59" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G13,Persons!$A:$A,0))</f>
-        <v>Kyrre</v>
+        <v>Ivan</v>
       </c>
       <c r="I13" s="72">
         <f>INDEX(Persons!$N:$N,MATCH(G13,Persons!$A:$A,0))</f>
-        <v>2.3337263873087237</v>
+        <v>2.3211269939820296</v>
       </c>
       <c r="J13" s="56">
         <f>LARGE(Persons!$O:$O,1+ROW(J13)-ROW(J$12))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K13" s="56">
         <f t="array" ref="K13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J13,J13)))</f>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L13" s="56" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K13,Persons!$A:$A,0))</f>
-        <v>Ruben O</v>
+        <v>Stein</v>
       </c>
       <c r="M13" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K13,Persons!$A:$A,0))</f>
-        <v>-2.4662886518742928</v>
+        <v>-2.4986609374725086</v>
       </c>
       <c r="U13">
         <v>5</v>
@@ -2505,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Z13" s="43"/>
     </row>
@@ -2532,19 +2547,19 @@
       </c>
       <c r="G14" s="59">
         <f t="array" ref="G14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F14,F14)))</f>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H14" s="59" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G14,Persons!$A:$A,0))</f>
-        <v>Ruben B</v>
+        <v>Kyrre</v>
       </c>
       <c r="I14" s="72">
         <f>INDEX(Persons!$N:$N,MATCH(G14,Persons!$A:$A,0))</f>
-        <v>1.5441859049791113</v>
+        <v>2.1940615828394501</v>
       </c>
       <c r="J14" s="56">
         <f>LARGE(Persons!$O:$O,1+ROW(J14)-ROW(J$12))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14" s="56">
         <f t="array" ref="K14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J14,J14)))</f>
@@ -2569,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Z14" s="42"/>
     </row>
@@ -2596,19 +2611,19 @@
       </c>
       <c r="G15" s="59">
         <f t="array" ref="G15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F15,F15)))</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H15" s="59" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G15,Persons!$A:$A,0))</f>
-        <v>Ivan</v>
+        <v>Odd</v>
       </c>
       <c r="I15" s="72">
         <f>INDEX(Persons!$N:$N,MATCH(G15,Persons!$A:$A,0))</f>
-        <v>1.4607917984513032</v>
+        <v>1.4458800092132416</v>
       </c>
       <c r="J15" s="56">
         <f>LARGE(Persons!$O:$O,1+ROW(J15)-ROW(J$12))</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="56">
         <f t="array" ref="K15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J15,J15)))</f>
@@ -2620,7 +2635,7 @@
       </c>
       <c r="M15" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K15,Persons!$A:$A,0))</f>
-        <v>-2.1166199513106632</v>
+        <v>-1.3959495602492105</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -2633,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Z15" s="44"/>
     </row>
@@ -2660,31 +2675,31 @@
       </c>
       <c r="G16" s="59">
         <f t="array" ref="G16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F16,F16)))</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H16" s="59" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G16,Persons!$A:$A,0))</f>
-        <v>Yngvar</v>
+        <v>Ruben B</v>
       </c>
       <c r="I16" s="72">
         <f>INDEX(Persons!$N:$N,MATCH(G16,Persons!$A:$A,0))</f>
-        <v>1.2701870141218894</v>
+        <v>1.4045211005098377</v>
       </c>
       <c r="J16" s="56">
         <f>LARGE(Persons!$O:$O,1+ROW(J16)-ROW(J$12))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16" s="56">
         <f t="array" ref="K16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J16,J16)))</f>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L16" s="56" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>Hanne</v>
+        <v>Fridtjof</v>
       </c>
       <c r="M16" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>-1.2389932143957234</v>
+        <v>-1.184672257882758</v>
       </c>
       <c r="U16">
         <v>8</v>
@@ -2718,24 +2733,24 @@
       <c r="Z17" s="45"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="66" t="s">
@@ -2790,7 +2805,7 @@
       </c>
       <c r="E20" s="74">
         <f>INDEX(Persons!$G:$G,MATCH(C20,Persons!$A:$A,0))</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F20" s="62">
         <f>SMALL(Persons!$U:$U,1+ROW(F20)-ROW(F$20))</f>
@@ -2810,19 +2825,19 @@
       </c>
       <c r="J20" s="65">
         <f>LARGE(Persons!$U:$U,1+ROW(J20)-ROW(J$20))</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="65">
         <f t="array" ref="K20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J20,J20)))</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="65" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K20,Persons!$A:$A,0))</f>
-        <v>Sondre</v>
+        <v>Morten S</v>
       </c>
       <c r="M20" s="75">
         <f>INDEX(Persons!$T:$T,MATCH(K20,Persons!$A:$A,0))</f>
-        <v>265</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -2840,7 +2855,7 @@
       </c>
       <c r="E21" s="74">
         <f>INDEX(Persons!$G:$G,MATCH(C21,Persons!$A:$A,0))</f>
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F21" s="62">
         <f>SMALL(Persons!$U:$U,1+ROW(F21)-ROW(F$20))</f>
@@ -2848,31 +2863,31 @@
       </c>
       <c r="G21" s="62">
         <f t="array" ref="G21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F21,F21)))</f>
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H21" s="62" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G21,Persons!$A:$A,0))</f>
-        <v>Ingvild</v>
+        <v>Erik O</v>
       </c>
       <c r="I21" s="76">
         <f>INDEX(Persons!$T:$T,MATCH(G21,Persons!$A:$A,0))</f>
-        <v>200.42433103306936</v>
+        <v>201.3020454176737</v>
       </c>
       <c r="J21" s="65">
         <f>LARGE(Persons!$U:$U,1+ROW(J21)-ROW(J$20))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="65">
         <f t="array" ref="K21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J21,J21)))</f>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L21" s="65" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K21,Persons!$A:$A,0))</f>
-        <v>Ivan</v>
+        <v>Andrea</v>
       </c>
       <c r="M21" s="75">
         <f>INDEX(Persons!$T:$T,MATCH(K21,Persons!$A:$A,0))</f>
-        <v>259.63996763754045</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -2890,7 +2905,7 @@
       </c>
       <c r="E22" s="74">
         <f>INDEX(Persons!$G:$G,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F22" s="62">
         <f>SMALL(Persons!$U:$U,1+ROW(F22)-ROW(F$20))</f>
@@ -2898,31 +2913,31 @@
       </c>
       <c r="G22" s="62">
         <f t="array" ref="G22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F22,F22)))</f>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H22" s="62" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G22,Persons!$A:$A,0))</f>
-        <v>Erik O</v>
+        <v>Jan</v>
       </c>
       <c r="I22" s="76">
         <f>INDEX(Persons!$T:$T,MATCH(G22,Persons!$A:$A,0))</f>
-        <v>201.3020454176737</v>
+        <v>204.31139622989377</v>
       </c>
       <c r="J22" s="65">
         <f>LARGE(Persons!$U:$U,1+ROW(J22)-ROW(J$20))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" s="65">
         <f t="array" ref="K22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J22,J22)))</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L22" s="65" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K22,Persons!$A:$A,0))</f>
-        <v>Terje</v>
+        <v>Anders Sz</v>
       </c>
       <c r="M22" s="75">
         <f>INDEX(Persons!$T:$T,MATCH(K22,Persons!$A:$A,0))</f>
-        <v>248.51561082044944</v>
+        <v>295.87933813970341</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
@@ -2932,15 +2947,15 @@
       </c>
       <c r="C23" s="68">
         <f t="array" ref="C23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B23,B23)))</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D23" s="68" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C23,Persons!$A:$A,0))</f>
-        <v>Truls</v>
+        <v>Magnus B</v>
       </c>
       <c r="E23" s="74">
         <f>INDEX(Persons!$G:$G,MATCH(C23,Persons!$A:$A,0))</f>
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F23" s="62">
         <f>SMALL(Persons!$U:$U,1+ROW(F23)-ROW(F$20))</f>
@@ -2948,31 +2963,31 @@
       </c>
       <c r="G23" s="62">
         <f t="array" ref="G23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F23,F23)))</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H23" s="62" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G23,Persons!$A:$A,0))</f>
-        <v>Ciaran</v>
+        <v>Mathias</v>
       </c>
       <c r="I23" s="76">
         <f>INDEX(Persons!$T:$T,MATCH(G23,Persons!$A:$A,0))</f>
-        <v>201.47189625709032</v>
+        <v>210.23276809409268</v>
       </c>
       <c r="J23" s="65">
         <f>LARGE(Persons!$U:$U,1+ROW(J23)-ROW(J$20))</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K23" s="65">
         <f t="array" ref="K23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J23,J23)))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="65" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K23,Persons!$A:$A,0))</f>
-        <v>Stan</v>
+        <v>Ivan</v>
       </c>
       <c r="M23" s="75">
         <f>INDEX(Persons!$T:$T,MATCH(K23,Persons!$A:$A,0))</f>
-        <v>247.14285714285714</v>
+        <v>279.87561490251761</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -2982,15 +2997,15 @@
       </c>
       <c r="C24" s="68">
         <f t="array" ref="C24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B24,B24)))</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" s="68" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>Magnus B</v>
+        <v>Truls</v>
       </c>
       <c r="E24" s="74">
         <f>INDEX(Persons!$G:$G,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F24" s="62">
         <f>SMALL(Persons!$U:$U,1+ROW(F24)-ROW(F$20))</f>
@@ -2998,47 +3013,47 @@
       </c>
       <c r="G24" s="62">
         <f t="array" ref="G24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F24,F24)))</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H24" s="62" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G24,Persons!$A:$A,0))</f>
-        <v>Anders Sz</v>
+        <v>Ingvild</v>
       </c>
       <c r="I24" s="76">
         <f>INDEX(Persons!$T:$T,MATCH(G24,Persons!$A:$A,0))</f>
-        <v>202.27971311475409</v>
+        <v>210.73034437461553</v>
       </c>
       <c r="J24" s="65">
         <f>LARGE(Persons!$U:$U,1+ROW(J24)-ROW(J$20))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K24" s="65">
         <f t="array" ref="K24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J24,J24)))</f>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="L24" s="65" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K24,Persons!$A:$A,0))</f>
-        <v>Bjarke</v>
+        <v>Svein</v>
       </c>
       <c r="M24" s="75">
         <f>INDEX(Persons!$T:$T,MATCH(K24,Persons!$A:$A,0))</f>
-        <v>240.00036323332142</v>
+        <v>275.40205251596376</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="78" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="78" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3063,10 +3078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,58 +3108,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>91</v>
       </c>
       <c r="N1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>125</v>
-      </c>
       <c r="P1" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>57</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4" t="s">
@@ -3339,19 +3354,19 @@
       </c>
       <c r="D4" s="4">
         <f t="array" ref="D4">MAX(IF(Sales!B:B=A4,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <f>SUMIF(Sales!B:B,A4,Sales!E:E)</f>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4">
         <f>SUMIF(Sales!B:B,A4,Sales!D:D)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
@@ -3363,11 +3378,11 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="5">
         <f>SUMIF(Sales!B:B,A4,Sales!F:F)</f>
-        <v>2.9353099835013419</v>
+        <v>3.0749747879706155</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="3"/>
@@ -3375,39 +3390,39 @@
       </c>
       <c r="M4" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A4,Sales!G:G))</f>
-        <v>1.6267642015512189</v>
+        <v>1.6670556241583492</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="4"/>
-        <v>-0.93530998350134187</v>
+        <v>-1.0749747879706155</v>
       </c>
       <c r="O4" s="6">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" si="6"/>
-        <v>-0.57495117154008357</v>
+        <v>-0.64483438488343237</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="8"/>
-        <v>0.28266216031479668</v>
+        <v>0.25951725827739575</v>
       </c>
       <c r="S4" s="32">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T4" s="6">
         <f t="shared" si="10"/>
-        <v>238.47566489894712</v>
+        <v>243.90443880516364</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V4" s="4"/>
       <c r="X4" s="4"/>
@@ -3433,7 +3448,7 @@
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4">
         <f>SUMIF(Sales!B:B,A5,Sales!D:D)</f>
@@ -3441,7 +3456,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4">
         <f>SUMIF(Prizes!B:B,A5,Prizes!D:D)</f>
@@ -3449,7 +3464,7 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="5">
         <f>SUMIF(Sales!B:B,A5,Sales!F:F)</f>
@@ -3457,7 +3472,7 @@
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A5,Sales!G:G))</f>
@@ -3477,7 +3492,7 @@
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="8"/>
@@ -3485,7 +3500,7 @@
       </c>
       <c r="S5" s="32">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" s="6">
         <f t="shared" si="10"/>
@@ -3493,7 +3508,7 @@
       </c>
       <c r="U5" s="4">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" s="4"/>
       <c r="X5" s="4"/>
@@ -4027,11 +4042,11 @@
       </c>
       <c r="D12" s="4">
         <f t="array" ref="D12">MAX(IF(Sales!B:B=A12,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <f>SUMIF(Sales!B:B,A12,Sales!E:E)</f>
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
@@ -4039,7 +4054,7 @@
       </c>
       <c r="G12" s="4">
         <f>SUMIF(Sales!B:B,A12,Sales!D:D)</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
@@ -4047,7 +4062,7 @@
       </c>
       <c r="I12" s="4">
         <f>SUMIF(Prizes!B:B,A12,Prizes!D:D)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
@@ -4055,7 +4070,7 @@
       </c>
       <c r="K12" s="5">
         <f>SUMIF(Sales!B:B,A12,Sales!F:F)</f>
-        <v>7.2747903818482111</v>
+        <v>7.5541199907867584</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
@@ -4063,39 +4078,39 @@
       </c>
       <c r="M12" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A12,Sales!G:G))</f>
-        <v>2.5353338171753337</v>
+        <v>2.5856751094821875</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="4"/>
-        <v>0.72520961815178886</v>
+        <v>1.4458800092132416</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="6"/>
-        <v>0.28604107799885675</v>
+        <v>0.55918858634285129</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R12" s="17">
         <f t="shared" si="8"/>
-        <v>0.38742332982470684</v>
+        <v>0.28801651091050329</v>
       </c>
       <c r="S12" s="32">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T12" s="6">
         <f t="shared" si="10"/>
-        <v>233.68370918862175</v>
+        <v>238.28056771607234</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V12" s="4"/>
       <c r="X12" s="4"/>
@@ -4121,7 +4136,7 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4">
         <f>SUMIF(Sales!B:B,A13,Sales!D:D)</f>
@@ -4129,7 +4144,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(Prizes!B:B,A13,Prizes!D:D)</f>
@@ -4137,7 +4152,7 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="5">
         <f>SUMIF(Sales!B:B,A13,Sales!F:F)</f>
@@ -4145,7 +4160,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A13,Sales!G:G))</f>
@@ -4157,7 +4172,7 @@
       </c>
       <c r="O13" s="6">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="6"/>
@@ -4165,7 +4180,7 @@
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="8"/>
@@ -4173,7 +4188,7 @@
       </c>
       <c r="S13" s="32">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T13" s="6">
         <f t="shared" si="10"/>
@@ -4181,7 +4196,7 @@
       </c>
       <c r="U13" s="4">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V13" s="4"/>
       <c r="X13" s="4"/>
@@ -4285,11 +4300,11 @@
       </c>
       <c r="D15" s="4">
         <f t="array" ref="D15">MAX(IF(Sales!B:B=A15,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <f>SUMIF(Sales!B:B,A15,Sales!E:E)</f>
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4297,7 +4312,7 @@
       </c>
       <c r="G15" s="4">
         <f>SUMIF(Sales!B:B,A15,Sales!D:D)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4305,7 +4320,7 @@
       </c>
       <c r="I15" s="4">
         <f>SUMIF(Prizes!B:B,A15,Prizes!D:D)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4313,7 +4328,7 @@
       </c>
       <c r="K15" s="5">
         <f>SUMIF(Sales!B:B,A15,Sales!F:F)</f>
-        <v>3.0435552046404908</v>
+        <v>3.3228848135790381</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4321,11 +4336,11 @@
       </c>
       <c r="M15" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A15,Sales!G:G))</f>
-        <v>1.630050404166502</v>
+        <v>1.7072968480631159</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="4"/>
-        <v>-1.0435552046404908</v>
+        <v>-0.32288481357903809</v>
       </c>
       <c r="O15" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4333,7 +4348,7 @@
       </c>
       <c r="P15" s="5">
         <f t="shared" si="6"/>
-        <v>-0.64019812023794109</v>
+        <v>-0.18912048830017028</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4341,7 +4356,7 @@
       </c>
       <c r="R15" s="17">
         <f t="shared" si="8"/>
-        <v>0.26102190236295569</v>
+        <v>0.42499919195049596</v>
       </c>
       <c r="S15" s="32" t="str">
         <f t="shared" si="9"/>
@@ -4349,7 +4364,7 @@
       </c>
       <c r="T15" s="6">
         <f t="shared" si="10"/>
-        <v>203.70913563673483</v>
+        <v>216.67919304867414</v>
       </c>
       <c r="U15" s="4" t="str">
         <f t="shared" si="11"/>
@@ -4371,11 +4386,11 @@
       </c>
       <c r="D16" s="4">
         <f t="array" ref="D16">MAX(IF(Sales!B:B=A16,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
         <f>SUMIF(Sales!B:B,A16,Sales!E:E)</f>
-        <v>970</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
@@ -4383,11 +4398,11 @@
       </c>
       <c r="G16" s="4">
         <f>SUMIF(Sales!B:B,A16,Sales!D:D)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="4">
         <f>SUMIF(Prizes!B:B,A16,Prizes!D:D)</f>
@@ -4399,7 +4414,7 @@
       </c>
       <c r="K16" s="5">
         <f>SUMIF(Sales!B:B,A16,Sales!F:F)</f>
-        <v>4.4162579825396113</v>
+        <v>4.5559227870088854</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="3"/>
@@ -4407,11 +4422,11 @@
       </c>
       <c r="M16" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A16,Sales!G:G))</f>
-        <v>1.9837374528076175</v>
+        <v>2.0169102529019636</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="4"/>
-        <v>2.5837420174603887</v>
+        <v>2.4440772129911146</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="5"/>
@@ -4419,7 +4434,7 @@
       </c>
       <c r="P16" s="5">
         <f t="shared" si="6"/>
-        <v>1.3024616810070175</v>
+        <v>1.2117927455991342</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="7"/>
@@ -4427,19 +4442,19 @@
       </c>
       <c r="R16" s="17">
         <f t="shared" si="8"/>
-        <v>9.6379304489716322E-2</v>
+        <v>0.11279586296928212</v>
       </c>
       <c r="S16" s="32">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="10"/>
-        <v>219.64296556837294</v>
+        <v>223.88439130454708</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V16" s="4"/>
       <c r="X16" s="4"/>
@@ -4457,11 +4472,11 @@
       </c>
       <c r="D17" s="4">
         <f t="array" ref="D17">MAX(IF(Sales!B:B=A17,Sales!C:C))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4">
         <f>SUMIF(Sales!B:B,A17,Sales!E:E)</f>
-        <v>980</v>
+        <v>1040</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
@@ -4469,7 +4484,7 @@
       </c>
       <c r="G17" s="4">
         <f>SUMIF(Sales!B:B,A17,Sales!D:D)</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
@@ -4485,7 +4500,7 @@
       </c>
       <c r="K17" s="5">
         <f>SUMIF(Sales!B:B,A17,Sales!F:F)</f>
-        <v>4.7298129858781106</v>
+        <v>4.8974107512412388</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="3"/>
@@ -4493,39 +4508,39 @@
       </c>
       <c r="M17" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A17,Sales!G:G))</f>
-        <v>2.0467531220325488</v>
+        <v>2.0850751321114935</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="4"/>
-        <v>1.2701870141218894</v>
+        <v>1.1025892487587612</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="6"/>
-        <v>0.62058633278669062</v>
+        <v>0.52880072846209714</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R17" s="17">
         <f t="shared" si="8"/>
-        <v>0.26743591720908921</v>
+        <v>0.29847184618231593</v>
       </c>
       <c r="S17" s="32">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="10"/>
-        <v>207.19635277885277</v>
+        <v>212.35711130344012</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17" s="4"/>
       <c r="X17" s="4"/>
@@ -4543,19 +4558,19 @@
       </c>
       <c r="D18" s="4">
         <f t="array" ref="D18">MAX(IF(Sales!B:B=A18,Sales!C:C))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4">
         <f>SUMIF(Sales!B:B,A18,Sales!E:E)</f>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4">
         <f>SUMIF(Sales!B:B,A18,Sales!D:D)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
@@ -4567,51 +4582,51 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="5">
         <f>SUMIF(Sales!B:B,A18,Sales!F:F)</f>
-        <v>0.83333207210843163</v>
+        <v>0.88919799389614118</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A18,Sales!G:G))</f>
-        <v>0.87965908943647397</v>
+        <v>0.90983539619619269</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="4"/>
-        <v>-0.83333207210843163</v>
+        <v>-0.88919799389614118</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="6"/>
-        <v>-0.9473352598928747</v>
+        <v>-0.97731743303642438</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="8"/>
-        <v>0.17173398450216945</v>
+        <v>0.16420601256102682</v>
       </c>
       <c r="S18" s="32">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="10"/>
-        <v>240.00036323332142</v>
+        <v>247.41396349314766</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V18" s="4"/>
       <c r="X18" s="4"/>
@@ -4629,11 +4644,11 @@
       </c>
       <c r="D19" s="4">
         <f t="array" ref="D19">MAX(IF(Sales!B:B=A19,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4">
         <f>SUMIF(Sales!B:B,A19,Sales!E:E)</f>
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
@@ -4641,7 +4656,7 @@
       </c>
       <c r="G19" s="4">
         <f>SUMIF(Sales!B:B,A19,Sales!D:D)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
@@ -4649,51 +4664,51 @@
       </c>
       <c r="I19" s="4">
         <f>SUMIF(Prizes!B:B,A19,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K19" s="5">
         <f>SUMIF(Sales!B:B,A19,Sales!F:F)</f>
-        <v>1.2389932143957234</v>
+        <v>1.3786580188649971</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A19,Sales!G:G))</f>
-        <v>1.071926771962405</v>
+        <v>1.1321394309179194</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="4"/>
-        <v>-1.2389932143957234</v>
+        <v>-0.37865801886499706</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="6"/>
-        <v>-1.1558562084679211</v>
+        <v>-0.33446235377385236</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="8"/>
-        <v>0.12386998868090468</v>
+        <v>0.36901534705848416</v>
       </c>
       <c r="S19" s="32">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="10"/>
-        <v>234.06100746196387</v>
+        <v>246.61663396402727</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="11"/>
@@ -4887,23 +4902,23 @@
       </c>
       <c r="D22" s="4">
         <f t="array" ref="D22">MAX(IF(Sales!B:B=A22,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="4">
         <f>SUMIF(Sales!B:B,A22,Sales!E:E)</f>
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="4">
         <f>SUMIF(Sales!B:B,A22,Sales!D:D)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" s="4">
         <f>SUMIF(Prizes!B:B,A22,Prizes!D:D)</f>
@@ -4915,7 +4930,7 @@
       </c>
       <c r="K22" s="5">
         <f>SUMIF(Sales!B:B,A22,Sales!F:F)</f>
-        <v>3.6662736126912763</v>
+        <v>3.8059384171605499</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="3"/>
@@ -4923,19 +4938,19 @@
       </c>
       <c r="M22" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A22,Sales!G:G))</f>
-        <v>1.8339270207450538</v>
+        <v>1.8697596112891726</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="4"/>
-        <v>2.3337263873087237</v>
+        <v>2.1940615828394501</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="6"/>
-        <v>1.2725295831895322</v>
+        <v>1.1734458106765264</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="7"/>
@@ -4943,19 +4958,19 @@
       </c>
       <c r="R22" s="17">
         <f t="shared" si="8"/>
-        <v>0.10159250997977498</v>
+        <v>0.12030853778064177</v>
       </c>
       <c r="S22" s="32">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T22" s="6">
         <f t="shared" si="10"/>
-        <v>220.93277413777332</v>
+        <v>225.96266826661102</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V22" s="4"/>
       <c r="X22" s="4"/>
@@ -5239,7 +5254,7 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" s="4">
         <f>SUMIF(Sales!B:B,A26,Sales!D:D)</f>
@@ -5247,7 +5262,7 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I26" s="4">
         <f>SUMIF(Prizes!B:B,A26,Prizes!D:D)</f>
@@ -5255,7 +5270,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" s="5">
         <f>SUMIF(Sales!B:B,A26,Sales!F:F)</f>
@@ -5275,7 +5290,7 @@
       </c>
       <c r="O26" s="6">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="6"/>
@@ -5283,7 +5298,7 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="8"/>
@@ -5291,7 +5306,7 @@
       </c>
       <c r="S26" s="32">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T26" s="6">
         <f t="shared" si="10"/>
@@ -5299,7 +5314,7 @@
       </c>
       <c r="U26" s="4">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V26" s="4"/>
       <c r="X26" s="4"/>
@@ -5654,18 +5669,18 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
       <c r="D31" s="4">
         <f t="array" ref="D31">MAX(IF(Sales!B:B=A31,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="4">
         <f>SUMIF(Sales!B:B,A31,Sales!E:E)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="0"/>
@@ -5673,11 +5688,11 @@
       </c>
       <c r="G31" s="4">
         <f>SUMIF(Sales!B:B,A31,Sales!D:D)</f>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="4">
         <f>SUMIF(Prizes!B:B,A31,Prizes!D:D)</f>
@@ -5689,7 +5704,7 @@
       </c>
       <c r="K31" s="5">
         <f>SUMIF(Sales!B:B,A31,Sales!F:F)</f>
-        <v>3.8993229032045469</v>
+        <v>4.1786525121430946</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="3"/>
@@ -5697,35 +5712,35 @@
       </c>
       <c r="M31" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A31,Sales!G:G))</f>
-        <v>1.8645275397346293</v>
+        <v>1.9324236475762098</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="4"/>
-        <v>0.10067709679545311</v>
+        <v>-0.17865251214309463</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="6"/>
-        <v>5.3996036341615039E-2</v>
+        <v>-9.2449972016836982E-2</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="8"/>
-        <v>0.47846916108888093</v>
+        <v>0.46317026873308886</v>
       </c>
       <c r="S31" s="32">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" s="6">
         <f t="shared" si="10"/>
-        <v>230.80930262542782</v>
+        <v>239.31159556675667</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="11"/>
@@ -5919,11 +5934,11 @@
       </c>
       <c r="D34" s="4">
         <f t="array" ref="D34">MAX(IF(Sales!B:B=A34,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="4">
         <f>SUMIF(Sales!B:B,A34,Sales!E:E)</f>
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ref="F34:F52" si="12">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
@@ -5931,11 +5946,11 @@
       </c>
       <c r="G34" s="4">
         <f>SUMIF(Sales!B:B,A34,Sales!D:D)</f>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ref="H34:H52" si="13">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="4">
         <f>SUMIF(Prizes!B:B,A34,Prizes!D:D)</f>
@@ -5947,47 +5962,47 @@
       </c>
       <c r="K34" s="5">
         <f>SUMIF(Sales!B:B,A34,Sales!F:F)</f>
-        <v>3.0702194213827196</v>
+        <v>3.4054149521089765</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" ref="L34:L52" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M34" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A34,Sales!G:G))</f>
-        <v>1.6545778761021117</v>
+        <v>1.7445127563867142</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" ref="N34:N52" si="16">I34-K34</f>
-        <v>0.92978057861728036</v>
+        <v>0.59458504789102351</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" ref="O34:O52" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P34" s="5">
         <f t="shared" ref="P34:P52" si="18">N34/M34</f>
-        <v>0.56194428321964296</v>
+        <v>0.34083158504529681</v>
       </c>
       <c r="Q34" s="4">
         <f t="shared" ref="Q34:Q52" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R34" s="17">
         <f t="shared" ref="R34:R52" si="20">IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
-        <v>0.28707699051703384</v>
+        <v>0.36661518558908524</v>
       </c>
       <c r="S34" s="32">
         <f t="shared" ref="S34:S52" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T34" s="6">
         <f t="shared" ref="T34:T52" si="22">E34/K34</f>
-        <v>227.99673375942115</v>
+        <v>240.79297575532559</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" ref="U34:U52" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V34" s="4"/>
       <c r="X34" s="4"/>
@@ -6005,11 +6020,11 @@
       </c>
       <c r="D35" s="4">
         <f t="array" ref="D35">MAX(IF(Sales!B:B=A35,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="4">
         <f>SUMIF(Sales!B:B,A35,Sales!E:E)</f>
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="12"/>
@@ -6017,7 +6032,7 @@
       </c>
       <c r="G35" s="4">
         <f>SUMIF(Sales!B:B,A35,Sales!D:D)</f>
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="13"/>
@@ -6033,7 +6048,7 @@
       </c>
       <c r="K35" s="5">
         <f>SUMIF(Sales!B:B,A35,Sales!F:F)</f>
-        <v>6.4800107788039671</v>
+        <v>6.7593403877425144</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="15"/>
@@ -6041,19 +6056,19 @@
       </c>
       <c r="M35" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A35,Sales!G:G))</f>
-        <v>2.3841277585945573</v>
+        <v>2.4375937677521211</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="16"/>
-        <v>-0.48001077880396714</v>
+        <v>-0.75934038774251444</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="18"/>
-        <v>-0.2013360135896968</v>
+        <v>-0.31151227812776872</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="19"/>
@@ -6061,19 +6076,19 @@
       </c>
       <c r="R35" s="17">
         <f t="shared" si="20"/>
-        <v>0.42021792215524006</v>
+        <v>0.37770560515978768</v>
       </c>
       <c r="S35" s="32">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T35" s="6">
         <f t="shared" si="22"/>
-        <v>217.59223065061744</v>
+        <v>223.39457896487295</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V35" s="4"/>
       <c r="X35" s="4"/>
@@ -6091,19 +6106,19 @@
       </c>
       <c r="D36" s="4">
         <f t="array" ref="D36">MAX(IF(Sales!B:B=A36,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="4">
         <f>SUMIF(Sales!B:B,A36,Sales!E:E)</f>
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4">
         <f>SUMIF(Sales!B:B,A36,Sales!D:D)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="13"/>
@@ -6111,55 +6126,55 @@
       </c>
       <c r="I36" s="4">
         <f>SUMIF(Prizes!B:B,A36,Prizes!D:D)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K36" s="5">
         <f>SUMIF(Sales!B:B,A36,Sales!F:F)</f>
-        <v>3.1166199513106632</v>
+        <v>3.3959495602492105</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M36" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A36,Sales!G:G))</f>
-        <v>1.6835669025084183</v>
+        <v>1.7584640236594731</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="16"/>
-        <v>-2.1166199513106632</v>
+        <v>-1.3959495602492105</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="18"/>
-        <v>-1.2572235461252064</v>
+        <v>-0.79384595958019799</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="19"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="20"/>
-        <v>0.10433634968230081</v>
+        <v>0.21364255652874861</v>
       </c>
       <c r="S36" s="32">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T36" s="6">
         <f t="shared" si="22"/>
-        <v>208.55927580347068</v>
+        <v>220.85133677455491</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V36" s="4"/>
       <c r="X36" s="4"/>
@@ -6177,11 +6192,11 @@
       </c>
       <c r="D37" s="4">
         <f t="array" ref="D37">MAX(IF(Sales!B:B=A37,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="4">
         <f>SUMIF(Sales!B:B,A37,Sales!E:E)</f>
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="12"/>
@@ -6189,7 +6204,7 @@
       </c>
       <c r="G37" s="4">
         <f>SUMIF(Sales!B:B,A37,Sales!D:D)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="13"/>
@@ -6201,11 +6216,11 @@
       </c>
       <c r="J37" s="4">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K37" s="5">
         <f>SUMIF(Sales!B:B,A37,Sales!F:F)</f>
-        <v>2.9521462671001366</v>
+        <v>3.0918110715694103</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="15"/>
@@ -6213,39 +6228,39 @@
       </c>
       <c r="M37" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A37,Sales!G:G))</f>
-        <v>1.6369324203096818</v>
+        <v>1.6769795571951143</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="16"/>
-        <v>-0.95214626710013661</v>
+        <v>-1.0918110715694103</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="18"/>
-        <v>-0.58166498218662288</v>
+        <v>-0.65105806858823834</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="20"/>
-        <v>0.28039618153878632</v>
+        <v>0.25750450144443959</v>
       </c>
       <c r="S37" s="32">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T37" s="6">
         <f t="shared" si="22"/>
-        <v>203.24196219090931</v>
+        <v>210.23276809409268</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V37" s="4"/>
       <c r="X37" s="4"/>
@@ -6263,23 +6278,23 @@
       </c>
       <c r="D38" s="4">
         <f t="array" ref="D38">MAX(IF(Sales!B:B=A38,Sales!C:C))</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E38" s="4">
         <f>SUMIF(Sales!B:B,A38,Sales!E:E)</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="4">
         <f>SUMIF(Sales!B:B,A38,Sales!D:D)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="4">
         <f>SUMIF(Prizes!B:B,A38,Prizes!D:D)</f>
@@ -6287,11 +6302,11 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K38" s="5">
         <f>SUMIF(Sales!B:B,A38,Sales!F:F)</f>
-        <v>1.9957656734501028</v>
+        <v>2.1354304779193765</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="15"/>
@@ -6299,39 +6314,39 @@
       </c>
       <c r="M38" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A38,Sales!G:G))</f>
-        <v>1.3441673982599343</v>
+        <v>1.3926588531059174</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="16"/>
-        <v>4.2343265498971938E-3</v>
+        <v>-0.13543047791937646</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="18"/>
-        <v>3.1501482295870731E-3</v>
+        <v>-9.7245982113522256E-2</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38" s="17">
         <f t="shared" si="20"/>
-        <v>0.49874327476019131</v>
+        <v>0.46126552630700979</v>
       </c>
       <c r="S38" s="32">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" s="6">
         <f t="shared" si="22"/>
-        <v>200.42433103306936</v>
+        <v>210.73034437461553</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V38" s="4"/>
       <c r="X38" s="4"/>
@@ -6349,11 +6364,11 @@
       </c>
       <c r="D39" s="4">
         <f t="array" ref="D39">MAX(IF(Sales!B:B=A39,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="4">
         <f>SUMIF(Sales!B:B,A39,Sales!E:E)</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="12"/>
@@ -6361,7 +6376,7 @@
       </c>
       <c r="G39" s="4">
         <f>SUMIF(Sales!B:B,A39,Sales!D:D)</f>
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="13"/>
@@ -6377,7 +6392,7 @@
       </c>
       <c r="K39" s="5">
         <f>SUMIF(Sales!B:B,A39,Sales!F:F)</f>
-        <v>6.4662886518742928</v>
+        <v>6.7456182608128401</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="15"/>
@@ -6385,39 +6400,39 @@
       </c>
       <c r="M39" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A39,Sales!G:G))</f>
-        <v>2.3826092781764152</v>
+        <v>2.4361086141088233</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="16"/>
-        <v>-2.4662886518742928</v>
+        <v>-2.7456182608128401</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P39" s="5">
         <f t="shared" si="18"/>
-        <v>-1.0351208964324707</v>
+        <v>-1.1270508403900708</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="19"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R39" s="17">
         <f t="shared" si="20"/>
-        <v>0.15030622742195676</v>
+        <v>0.12986049313998585</v>
       </c>
       <c r="S39" s="32">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="T39" s="6">
         <f t="shared" si="22"/>
-        <v>216.50750150075677</v>
+        <v>222.3665707136015</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V39" s="4"/>
       <c r="X39" s="4"/>
@@ -6529,7 +6544,7 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41" s="8">
         <f>SUMIF(Sales!B:B,A41,Sales!D:D)</f>
@@ -6545,7 +6560,7 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="9">
         <f>SUMIF(Sales!B:B,A41,Sales!F:F)</f>
@@ -6565,7 +6580,7 @@
       </c>
       <c r="O41" s="30">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="18"/>
@@ -6573,7 +6588,7 @@
       </c>
       <c r="Q41" s="10">
         <f t="shared" si="19"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R41" s="17">
         <f t="shared" si="20"/>
@@ -6581,7 +6596,7 @@
       </c>
       <c r="S41" s="32">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T41" s="6">
         <f t="shared" si="22"/>
@@ -6693,11 +6708,11 @@
       </c>
       <c r="D43" s="4">
         <f t="array" ref="D43">MAX(IF(Sales!B:B=A43,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" s="8">
         <f>SUMIF(Sales!B:B,A43,Sales!E:E)</f>
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="12"/>
@@ -6705,7 +6720,7 @@
       </c>
       <c r="G43" s="8">
         <f>SUMIF(Sales!B:B,A43,Sales!D:D)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="13"/>
@@ -6721,27 +6736,27 @@
       </c>
       <c r="K43" s="9">
         <f>SUMIF(Sales!B:B,A43,Sales!F:F)</f>
-        <v>2.4558140950208887</v>
+        <v>2.5954788994901623</v>
       </c>
       <c r="L43" s="30">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M43" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A43,Sales!G:G))</f>
-        <v>1.492297191826164</v>
+        <v>1.5361196552748302</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="16"/>
-        <v>1.5441859049791113</v>
+        <v>1.4045211005098377</v>
       </c>
       <c r="O43" s="30">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P43" s="5">
         <f t="shared" si="18"/>
-        <v>1.0347710318274135</v>
+        <v>0.91433053127528141</v>
       </c>
       <c r="Q43" s="10">
         <f t="shared" si="19"/>
@@ -6749,19 +6764,19 @@
       </c>
       <c r="R43" s="17">
         <f t="shared" si="20"/>
-        <v>0.15038792718730676</v>
+        <v>0.18027159619307453</v>
       </c>
       <c r="S43" s="32">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="22"/>
-        <v>228.03028988854987</v>
+        <v>235.02406439128598</v>
       </c>
       <c r="U43" s="10">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V43" s="4"/>
       <c r="X43" s="4"/>
@@ -6787,7 +6802,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="8">
         <f>SUMIF(Sales!B:B,A44,Sales!D:D)</f>
@@ -6795,7 +6810,7 @@
       </c>
       <c r="H44" s="8">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44" s="8">
         <f>SUMIF(Prizes!B:B,A44,Prizes!D:D)</f>
@@ -6803,7 +6818,7 @@
       </c>
       <c r="J44" s="8">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K44" s="9">
         <f>SUMIF(Sales!B:B,A44,Sales!F:F)</f>
@@ -6811,7 +6826,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A44,Sales!G:G))</f>
@@ -6823,7 +6838,7 @@
       </c>
       <c r="O44" s="30">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P44" s="5">
         <f t="shared" si="18"/>
@@ -6831,7 +6846,7 @@
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R44" s="17">
         <f t="shared" si="20"/>
@@ -6839,7 +6854,7 @@
       </c>
       <c r="S44" s="32">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T44" s="6">
         <f t="shared" si="22"/>
@@ -6847,7 +6862,7 @@
       </c>
       <c r="U44" s="4">
         <f t="shared" si="23"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V44" s="4"/>
       <c r="X44" s="4"/>
@@ -6873,7 +6888,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" s="8">
         <f>SUMIF(Sales!B:B,A45,Sales!D:D)</f>
@@ -6881,7 +6896,7 @@
       </c>
       <c r="H45" s="8">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8">
         <f>SUMIF(Prizes!B:B,A45,Prizes!D:D)</f>
@@ -6889,7 +6904,7 @@
       </c>
       <c r="J45" s="8">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K45" s="9">
         <f>SUMIF(Sales!B:B,A45,Sales!F:F)</f>
@@ -6897,7 +6912,7 @@
       </c>
       <c r="L45" s="30">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A45,Sales!G:G))</f>
@@ -6909,7 +6924,7 @@
       </c>
       <c r="O45" s="30">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P45" s="5">
         <f t="shared" si="18"/>
@@ -6933,7 +6948,7 @@
       </c>
       <c r="U45" s="4">
         <f t="shared" si="23"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V45" s="4"/>
       <c r="X45" s="4"/>
@@ -6959,7 +6974,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" s="8">
         <f>SUMIF(Sales!B:B,A46,Sales!D:D)</f>
@@ -6967,7 +6982,7 @@
       </c>
       <c r="H46" s="8">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8">
         <f>SUMIF(Prizes!B:B,A46,Prizes!D:D)</f>
@@ -6975,7 +6990,7 @@
       </c>
       <c r="J46" s="8">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K46" s="9">
         <f>SUMIF(Sales!B:B,A46,Sales!F:F)</f>
@@ -6983,7 +6998,7 @@
       </c>
       <c r="L46" s="30">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A46,Sales!G:G))</f>
@@ -7003,7 +7018,7 @@
       </c>
       <c r="Q46" s="10">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R46" s="17">
         <f t="shared" si="20"/>
@@ -7011,7 +7026,7 @@
       </c>
       <c r="S46" s="32">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="22"/>
@@ -7019,7 +7034,7 @@
       </c>
       <c r="U46" s="4">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V46" s="4"/>
       <c r="X46" s="4"/>
@@ -7045,7 +7060,7 @@
       </c>
       <c r="F47" s="6">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="10">
         <f>SUMIF(Sales!B:B,A47,Sales!D:D)</f>
@@ -7053,7 +7068,7 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" s="10">
         <f>SUMIF(Prizes!B:B,A47,Prizes!D:D)</f>
@@ -7061,7 +7076,7 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="5">
         <f>SUMIF(Sales!B:B,A47,Sales!F:F)</f>
@@ -7069,7 +7084,7 @@
       </c>
       <c r="L47" s="6">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M47" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A47,Sales!G:G))</f>
@@ -7081,7 +7096,7 @@
       </c>
       <c r="O47" s="6">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P47" s="5">
         <f t="shared" si="18"/>
@@ -7089,7 +7104,7 @@
       </c>
       <c r="Q47" s="10">
         <f t="shared" si="19"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R47" s="17">
         <f t="shared" si="20"/>
@@ -7097,7 +7112,7 @@
       </c>
       <c r="S47" s="32">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T47" s="6">
         <f t="shared" si="22"/>
@@ -7105,7 +7120,7 @@
       </c>
       <c r="U47" s="10">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
@@ -7122,11 +7137,11 @@
       </c>
       <c r="D48" s="4">
         <f t="array" ref="D48">MAX(IF(Sales!B:B=A48,Sales!C:C))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E48" s="10">
         <f>SUMIF(Sales!B:B,A48,Sales!E:E)</f>
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="12"/>
@@ -7134,7 +7149,7 @@
       </c>
       <c r="G48" s="10">
         <f>SUMIF(Sales!B:B,A48,Sales!D:D)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="13"/>
@@ -7146,11 +7161,11 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K48" s="5">
         <f>SUMIF(Sales!B:B,A48,Sales!F:F)</f>
-        <v>1.2905025704836981</v>
+        <v>1.4022344140591172</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="15"/>
@@ -7158,39 +7173,39 @@
       </c>
       <c r="M48" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A48,Sales!G:G))</f>
-        <v>1.0779118660921123</v>
+        <v>1.1263544351603461</v>
       </c>
       <c r="N48" s="5">
         <f t="shared" si="16"/>
-        <v>0.7094974295163019</v>
+        <v>0.5977655859408828</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P48" s="5">
         <f t="shared" si="18"/>
-        <v>0.65821469438733526</v>
+        <v>0.53070824536309114</v>
       </c>
       <c r="Q48" s="10">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R48" s="17">
         <f t="shared" si="20"/>
-        <v>0.25520009193827553</v>
+        <v>0.29781048568497837</v>
       </c>
       <c r="S48" s="32">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T48" s="6">
         <f t="shared" si="22"/>
-        <v>201.47189625709032</v>
+        <v>213.94425710290136</v>
       </c>
       <c r="U48" s="10">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -7215,7 +7230,7 @@
       </c>
       <c r="F49" s="31">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="28">
         <f>SUMIF(Sales!B:B,A49,Sales!D:D)</f>
@@ -7223,7 +7238,7 @@
       </c>
       <c r="H49" s="28">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" s="28">
         <f>SUMIF(Prizes!B:B,A49,Prizes!D:D)</f>
@@ -7231,7 +7246,7 @@
       </c>
       <c r="J49" s="28">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" s="29">
         <f>SUMIF(Sales!B:B,A49,Sales!F:F)</f>
@@ -7239,7 +7254,7 @@
       </c>
       <c r="L49" s="31">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M49" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A49,Sales!G:G))</f>
@@ -7251,7 +7266,7 @@
       </c>
       <c r="O49" s="31">
         <f t="shared" si="17"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P49" s="5">
         <f t="shared" si="18"/>
@@ -7259,7 +7274,7 @@
       </c>
       <c r="Q49" s="10">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R49" s="17">
         <f t="shared" si="20"/>
@@ -7267,7 +7282,7 @@
       </c>
       <c r="S49" s="32">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T49" s="6">
         <f t="shared" si="22"/>
@@ -7275,7 +7290,7 @@
       </c>
       <c r="U49" s="10">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
@@ -7285,34 +7300,34 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
       <c r="D50" s="4">
         <f t="array" ref="D50">MAX(IF(Sales!B:B=A50,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="28">
         <f>SUMIF(Sales!B:B,A50,Sales!E:E)</f>
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="F50" s="31">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="28">
         <f>SUMIF(Sales!B:B,A50,Sales!D:D)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I50" s="28">
         <f>SUMIF(Prizes!B:B,A50,Prizes!D:D)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="28">
         <f t="shared" si="14"/>
@@ -7320,7 +7335,7 @@
       </c>
       <c r="K50" s="29">
         <f>SUMIF(Sales!B:B,A50,Sales!F:F)</f>
-        <v>0.53920820154869664</v>
+        <v>0.6788730060179704</v>
       </c>
       <c r="L50" s="31">
         <f t="shared" si="15"/>
@@ -7328,19 +7343,19 @@
       </c>
       <c r="M50" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A50,Sales!G:G))</f>
-        <v>0.70358135429950996</v>
+        <v>0.79230007491312338</v>
       </c>
       <c r="N50" s="29">
         <f t="shared" si="16"/>
-        <v>1.4607917984513032</v>
+        <v>2.3211269939820296</v>
       </c>
       <c r="O50" s="31">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P50" s="5">
         <f t="shared" si="18"/>
-        <v>2.0762230117733531</v>
+        <v>2.9296059251749331</v>
       </c>
       <c r="Q50" s="10">
         <f t="shared" si="19"/>
@@ -7348,15 +7363,15 @@
       </c>
       <c r="R50" s="17">
         <f t="shared" si="20"/>
-        <v>1.8936664958206673E-2</v>
+        <v>1.6969605821705036E-3</v>
       </c>
       <c r="S50" s="32">
         <f t="shared" si="21"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T50" s="6">
         <f t="shared" si="22"/>
-        <v>259.63996763754045</v>
+        <v>279.87561490251761</v>
       </c>
       <c r="U50" s="10">
         <f t="shared" si="23"/>
@@ -7370,7 +7385,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -7385,7 +7400,7 @@
       </c>
       <c r="F51" s="31">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51" s="28">
         <f>SUMIF(Sales!B:B,A51,Sales!D:D)</f>
@@ -7393,7 +7408,7 @@
       </c>
       <c r="H51" s="28">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I51" s="28">
         <f>SUMIF(Prizes!B:B,A51,Prizes!D:D)</f>
@@ -7401,7 +7416,7 @@
       </c>
       <c r="J51" s="28">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" s="29">
         <f>SUMIF(Sales!B:B,A51,Sales!F:F)</f>
@@ -7409,7 +7424,7 @@
       </c>
       <c r="L51" s="31">
         <f t="shared" si="15"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M51" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A51,Sales!G:G))</f>
@@ -7421,7 +7436,7 @@
       </c>
       <c r="O51" s="31">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P51" s="5">
         <f t="shared" si="18"/>
@@ -7429,7 +7444,7 @@
       </c>
       <c r="Q51" s="10">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R51" s="17">
         <f t="shared" si="20"/>
@@ -7437,7 +7452,7 @@
       </c>
       <c r="S51" s="32">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T51" s="6">
         <f t="shared" si="22"/>
@@ -7445,7 +7460,7 @@
       </c>
       <c r="U51" s="10">
         <f t="shared" si="23"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
@@ -7455,7 +7470,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -7470,7 +7485,7 @@
       </c>
       <c r="F52" s="31">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G52" s="28">
         <f>SUMIF(Sales!B:B,A52,Sales!D:D)</f>
@@ -7478,7 +7493,7 @@
       </c>
       <c r="H52" s="28">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I52" s="28">
         <f>SUMIF(Prizes!B:B,A52,Prizes!D:D)</f>
@@ -7486,7 +7501,7 @@
       </c>
       <c r="J52" s="28">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" s="29">
         <f>SUMIF(Sales!B:B,A52,Sales!F:F)</f>
@@ -7506,7 +7521,7 @@
       </c>
       <c r="O52" s="31">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P52" s="29">
         <f t="shared" si="18"/>
@@ -7514,7 +7529,7 @@
       </c>
       <c r="Q52" s="10">
         <f t="shared" si="19"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R52" s="17">
         <f t="shared" si="20"/>
@@ -7522,7 +7537,7 @@
       </c>
       <c r="S52" s="77">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T52" s="6">
         <f t="shared" si="22"/>
@@ -7530,7 +7545,7 @@
       </c>
       <c r="U52" s="10">
         <f t="shared" si="23"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -7538,30 +7553,30 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
       <c r="D53" s="28">
         <f t="array" ref="D53">MAX(IF(Sales!B:B=A53,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="28">
         <f>SUMIF(Sales!B:B,A53,Sales!E:E)</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F53" s="31">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E53)+1)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="28">
         <f>SUMIF(Sales!B:B,A53,Sales!D:D)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H53" s="28">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G53)+1)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I53" s="28">
         <f>SUMIF(Prizes!B:B,A53,Prizes!D:D)</f>
@@ -7569,11 +7584,11 @@
       </c>
       <c r="J53" s="28">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I53)+1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" s="29">
         <f>SUMIF(Sales!B:B,A53,Sales!F:F)</f>
-        <v>0.29606179561858931</v>
+        <v>0.43572660008786301</v>
       </c>
       <c r="L53" s="31">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K53)+1)</f>
@@ -7581,39 +7596,39 @@
       </c>
       <c r="M53" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A53,Sales!G:G))</f>
-        <v>0.52715583946231137</v>
+        <v>0.64078542872682642</v>
       </c>
       <c r="N53" s="29">
         <f>I53-K53</f>
-        <v>-0.29606179561858931</v>
+        <v>-0.43572660008786301</v>
       </c>
       <c r="O53" s="31">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N53)+1)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P53" s="29">
         <f>N53/M53</f>
-        <v>-0.56162101119958485</v>
+        <v>-0.6799883089626525</v>
       </c>
       <c r="Q53" s="10">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P53)+1)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R53" s="17">
         <f>IF(I53&gt;K53,1-_xlfn.NORM.DIST(I53,K53,M53,1),_xlfn.NORM.DIST(I53,K53,M53,1))</f>
-        <v>0.28718713089644365</v>
+        <v>0.24825593176779093</v>
       </c>
       <c r="S53" s="77">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R53)+1)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="T53" s="6">
         <f>E53/K53</f>
-        <v>236.43712574850301</v>
+        <v>275.40205251596376</v>
       </c>
       <c r="U53" s="10">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T53)+1)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -7621,30 +7636,30 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="28">
         <f t="array" ref="D54">MAX(IF(Sales!B:B=A54,Sales!C:C))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" s="28">
         <f>SUMIF(Sales!B:B,A54,Sales!E:E)</f>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="F54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E54)+1)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G54" s="28">
         <f>SUMIF(Sales!B:B,A54,Sales!D:D)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H54" s="28">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G54)+1)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I54" s="28">
         <f>SUMIF(Prizes!B:B,A54,Prizes!D:D)</f>
@@ -7652,51 +7667,51 @@
       </c>
       <c r="J54" s="28">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I54)+1)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K54" s="29">
         <f>SUMIF(Sales!B:B,A54,Sales!F:F)</f>
-        <v>0.74154742307205268</v>
+        <v>1.8588658588262426</v>
       </c>
       <c r="L54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K54)+1)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M54" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A54,Sales!G:G))</f>
-        <v>0.8146288783061878</v>
+        <v>1.2295369278713271</v>
       </c>
       <c r="N54" s="29">
         <f>I54-K54</f>
-        <v>0.25845257692794732</v>
+        <v>-0.85886585882624256</v>
       </c>
       <c r="O54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N54)+1)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P54" s="29">
         <f>N54/M54</f>
-        <v>0.31726419699892455</v>
+        <v>-0.69852790864376879</v>
       </c>
       <c r="Q54" s="10">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P54)+1)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R54" s="17">
         <f>IF(I54&gt;K54,1-_xlfn.NORM.DIST(I54,K54,M54,1),_xlfn.NORM.DIST(I54,K54,M54,1))</f>
-        <v>0.37552157086952909</v>
+        <v>0.24242355528933757</v>
       </c>
       <c r="S54" s="77">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R54)+1)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T54" s="6">
         <f>E54/K54</f>
-        <v>202.27971311475409</v>
+        <v>295.87933813970341</v>
       </c>
       <c r="U54" s="10">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T54)+1)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -7704,7 +7719,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -7735,7 +7750,7 @@
       </c>
       <c r="J55" s="28">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I55)+1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" s="29">
         <f>SUMIF(Sales!B:B,A55,Sales!F:F)</f>
@@ -7755,7 +7770,7 @@
       </c>
       <c r="O55" s="31">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N55)+1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P55" s="29">
         <f>N55/M55</f>
@@ -7763,7 +7778,7 @@
       </c>
       <c r="Q55" s="10">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P55)+1)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R55" s="17">
         <f>IF(I55&gt;K55,1-_xlfn.NORM.DIST(I55,K55,M55,1),_xlfn.NORM.DIST(I55,K55,M55,1))</f>
@@ -7771,7 +7786,7 @@
       </c>
       <c r="S55" s="77">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R55)+1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T55" s="6">
         <f>E55/K55</f>
@@ -7779,7 +7794,173 @@
       </c>
       <c r="U55" s="10">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T55)+1)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="28">
+        <f t="array" ref="D56">MAX(IF(Sales!B:B=A56,Sales!C:C))</f>
+        <v>21</v>
+      </c>
+      <c r="E56" s="28">
+        <f>SUMIF(Sales!B:B,A56,Sales!E:E)</f>
+        <v>50</v>
+      </c>
+      <c r="F56" s="31">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E56)+1)</f>
+        <v>29</v>
+      </c>
+      <c r="G56" s="28">
+        <f>SUMIF(Sales!B:B,A56,Sales!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="H56" s="28">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G56)+1)</f>
+        <v>29</v>
+      </c>
+      <c r="I56" s="28">
+        <f>SUMIF(Prizes!B:B,A56,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="28">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I56)+1)</f>
+        <v>23</v>
+      </c>
+      <c r="K56" s="29">
+        <f>SUMIF(Sales!B:B,A56,Sales!F:F)</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="L56" s="31">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K56)+1)</f>
         <v>31</v>
+      </c>
+      <c r="M56" s="29">
+        <f>SQRT(SUMIF(Sales!B:B,A56,Sales!G:G))</f>
+        <v>0.36429752481921757</v>
+      </c>
+      <c r="N56" s="29">
+        <f>I56-K56</f>
+        <v>-0.13966480446927373</v>
+      </c>
+      <c r="O56" s="31">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N56)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="P56" s="29">
+        <f>N56/M56</f>
+        <v>-0.3833811512679981</v>
+      </c>
+      <c r="Q56" s="10">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P56)+1)</f>
+        <v>18</v>
+      </c>
+      <c r="R56" s="17">
+        <f>IF(I56&gt;K56,1-_xlfn.NORM.DIST(I56,K56,M56,1),_xlfn.NORM.DIST(I56,K56,M56,1))</f>
+        <v>0.35071858839852854</v>
+      </c>
+      <c r="S56" s="77">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R56)+1)</f>
+        <v>11</v>
+      </c>
+      <c r="T56" s="6">
+        <f>E56/K56</f>
+        <v>358</v>
+      </c>
+      <c r="U56" s="10">
+        <f>IF($C56=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T56)+1)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="28">
+        <f t="array" ref="D57">MAX(IF(Sales!B:B=A57,Sales!C:C))</f>
+        <v>21</v>
+      </c>
+      <c r="E57" s="28">
+        <f>SUMIF(Sales!B:B,A57,Sales!E:E)</f>
+        <v>50</v>
+      </c>
+      <c r="F57" s="31">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E57)+1)</f>
+        <v>29</v>
+      </c>
+      <c r="G57" s="28">
+        <f>SUMIF(Sales!B:B,A57,Sales!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="H57" s="28">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G57)+1)</f>
+        <v>29</v>
+      </c>
+      <c r="I57" s="28">
+        <f>SUMIF(Prizes!B:B,A57,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="28">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I57)+1)</f>
+        <v>23</v>
+      </c>
+      <c r="K57" s="29">
+        <f>SUMIF(Sales!B:B,A57,Sales!F:F)</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="L57" s="31">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K57)+1)</f>
+        <v>31</v>
+      </c>
+      <c r="M57" s="29">
+        <f>SQRT(SUMIF(Sales!B:B,A57,Sales!G:G))</f>
+        <v>0.36429752481921757</v>
+      </c>
+      <c r="N57" s="29">
+        <f>I57-K57</f>
+        <v>-0.13966480446927373</v>
+      </c>
+      <c r="O57" s="31">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N57)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="P57" s="29">
+        <f>N57/M57</f>
+        <v>-0.3833811512679981</v>
+      </c>
+      <c r="Q57" s="10">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P57)+1)</f>
+        <v>18</v>
+      </c>
+      <c r="R57" s="17">
+        <f>IF(I57&gt;K57,1-_xlfn.NORM.DIST(I57,K57,M57,1),_xlfn.NORM.DIST(I57,K57,M57,1))</f>
+        <v>0.35071858839852854</v>
+      </c>
+      <c r="S57" s="77">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R57)+1)</f>
+        <v>11</v>
+      </c>
+      <c r="T57" s="6">
+        <f>E57/K57</f>
+        <v>358</v>
+      </c>
+      <c r="U57" s="10">
+        <f>IF($C57=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T57)+1)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7793,10 +7974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7819,7 +8000,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>21</v>
@@ -8425,7 +8606,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>37363</v>
+        <v>43938</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -8451,8 +8632,39 @@
         <v>265</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUMIFS(Sales!D:D,Sales!C:C,A22)</f>
+        <v>179</v>
+      </c>
+      <c r="E22" s="14">
+        <f>C22*D22</f>
+        <v>1790</v>
+      </c>
+      <c r="F22" s="7">
+        <f>SUMIFS(Prizes!D:D,Prizes!C:C,A22)</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <f>F22/D22</f>
+        <v>2.7932960893854747E-2</v>
+      </c>
+      <c r="H22" s="27">
+        <f>C22*D22/F22</f>
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H21">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8473,10 +8685,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L374"/>
+  <dimension ref="A1:L396"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="F373" sqref="F373"/>
+    <sheetView topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="K376" sqref="K376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8513,7 +8725,7 @@
       </c>
       <c r="K1" s="13">
         <f>SUM(E:E)</f>
-        <v>27990</v>
+        <v>29780</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -17993,7 +18205,7 @@
       </c>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -18020,7 +18232,7 @@
       </c>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -18047,7 +18259,7 @@
       </c>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -18074,7 +18286,7 @@
       </c>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -18099,23 +18311,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C356,Lotteries!A:A,0))*D356/INDEX(Lotteries!D:D,MATCH(C356,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C356,Lotteries!A:A,0))-D356)/INDEX(Lotteries!D:D,MATCH(C356,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C356,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C356,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C356,Lotteries!A:A,0))-1)</f>
         <v>0.14248955662405197</v>
       </c>
-      <c r="H356" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I356,Persons!B:B,0))</f>
-        <v>52</v>
-      </c>
-      <c r="I356" s="2" t="str">
-        <f t="shared" ref="I356" si="0">MID(L356,FIND("""name"": """,L356)+9,FIND("""",L356,FIND("""name"": """,L356)+9)-FIND("""name"": """,L356)-9)</f>
-        <v>Anders Sz</v>
-      </c>
-      <c r="J356">
-        <f>VALUE(MID(L356,FIND("""tickets"": ",L356)+11,MIN(IFERROR(FIND(",",L356,FIND("""tickets"": ",L356)),100),FIND("}",L356,FIND("""tickets"": ",L356)))-FIND("""tickets"": ",L356)-11))</f>
-        <v>4</v>
-      </c>
-      <c r="L356" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H356" s="7"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -18140,23 +18338,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C357,Lotteries!A:A,0))*D357/INDEX(Lotteries!D:D,MATCH(C357,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C357,Lotteries!A:A,0))-D357)/INDEX(Lotteries!D:D,MATCH(C357,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C357,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C357,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C357,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H357" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I357,Persons!B:B,0))</f>
-        <v>41</v>
-      </c>
-      <c r="I357" s="2" t="str">
-        <f t="shared" ref="I357:I374" si="1">MID(L357,FIND("""name"": """,L357)+9,FIND("""",L357,FIND("""name"": """,L357)+9)-FIND("""name"": """,L357)-9)</f>
-        <v>Ruben B</v>
-      </c>
-      <c r="J357">
-        <f t="shared" ref="J357:J373" si="2">VALUE(MID(L357,FIND("""tickets"": ",L357)+11,MIN(IFERROR(FIND(",",L357,FIND("""tickets"": ",L357)),100),FIND("}",L357,FIND("""tickets"": ",L357)))-FIND("""tickets"": ",L357)-11))</f>
-        <v>10</v>
-      </c>
-      <c r="L357" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -18181,23 +18365,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C358,Lotteries!A:A,0))*D358/INDEX(Lotteries!D:D,MATCH(C358,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C358,Lotteries!A:A,0))-D358)/INDEX(Lotteries!D:D,MATCH(C358,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C358,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C358,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C358,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H358" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I358,Persons!B:B,0))</f>
-        <v>13</v>
-      </c>
-      <c r="I358" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sven</v>
-      </c>
-      <c r="J358">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L358" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H358" s="7"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -18222,23 +18392,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C359,Lotteries!A:A,0))*D359/INDEX(Lotteries!D:D,MATCH(C359,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C359,Lotteries!A:A,0))-D359)/INDEX(Lotteries!D:D,MATCH(C359,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C359,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C359,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C359,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H359" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I359,Persons!B:B,0))</f>
-        <v>10</v>
-      </c>
-      <c r="I359" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Odd</v>
-      </c>
-      <c r="J359">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L359" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -18263,23 +18419,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C360,Lotteries!A:A,0))*D360/INDEX(Lotteries!D:D,MATCH(C360,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C360,Lotteries!A:A,0))-D360)/INDEX(Lotteries!D:D,MATCH(C360,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C360,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C360,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C360,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H360" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I360,Persons!B:B,0))</f>
-        <v>47</v>
-      </c>
-      <c r="I360" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Kenneth</v>
-      </c>
-      <c r="J360">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L360" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H360" s="7"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -18304,23 +18446,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C361,Lotteries!A:A,0))*D361/INDEX(Lotteries!D:D,MATCH(C361,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C361,Lotteries!A:A,0))-D361)/INDEX(Lotteries!D:D,MATCH(C361,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C361,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C361,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C361,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H361" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I361,Persons!B:B,0))</f>
-        <v>34</v>
-      </c>
-      <c r="I361" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Asgeir</v>
-      </c>
-      <c r="J361">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L361" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H361" s="7"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -18345,23 +18473,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C362,Lotteries!A:A,0))*D362/INDEX(Lotteries!D:D,MATCH(C362,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C362,Lotteries!A:A,0))-D362)/INDEX(Lotteries!D:D,MATCH(C362,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C362,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C362,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C362,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H362" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I362,Persons!B:B,0))</f>
-        <v>14</v>
-      </c>
-      <c r="I362" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Truls</v>
-      </c>
-      <c r="J362">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L362" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H362" s="7"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -18386,23 +18500,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C363,Lotteries!A:A,0))*D363/INDEX(Lotteries!D:D,MATCH(C363,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C363,Lotteries!A:A,0))-D363)/INDEX(Lotteries!D:D,MATCH(C363,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C363,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C363,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C363,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H363" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I363,Persons!B:B,0))</f>
-        <v>35</v>
-      </c>
-      <c r="I363" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Mathias</v>
-      </c>
-      <c r="J363">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L363" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H363" s="7"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -18427,23 +18527,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C364,Lotteries!A:A,0))*D364/INDEX(Lotteries!D:D,MATCH(C364,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C364,Lotteries!A:A,0))-D364)/INDEX(Lotteries!D:D,MATCH(C364,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C364,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C364,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C364,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H364" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I364,Persons!B:B,0))</f>
-        <v>29</v>
-      </c>
-      <c r="I364" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Magnus B</v>
-      </c>
-      <c r="J364">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L364" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H364" s="7"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -18468,23 +18554,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C365,Lotteries!A:A,0))*D365/INDEX(Lotteries!D:D,MATCH(C365,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C365,Lotteries!A:A,0))-D365)/INDEX(Lotteries!D:D,MATCH(C365,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C365,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C365,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C365,Lotteries!A:A,0))-1)</f>
         <v>0.63890478615300739</v>
       </c>
-      <c r="H365" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I365,Persons!B:B,0))</f>
-        <v>33</v>
-      </c>
-      <c r="I365" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Anders A</v>
-      </c>
-      <c r="J365">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="L365" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H365" s="7"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -18509,23 +18581,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C366,Lotteries!A:A,0))*D366/INDEX(Lotteries!D:D,MATCH(C366,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C366,Lotteries!A:A,0))-D366)/INDEX(Lotteries!D:D,MATCH(C366,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C366,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C366,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C366,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H366" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I366,Persons!B:B,0))</f>
-        <v>37</v>
-      </c>
-      <c r="I366" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Ruben O</v>
-      </c>
-      <c r="J366">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L366" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H366" s="7"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -18550,23 +18608,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C367,Lotteries!A:A,0))*D367/INDEX(Lotteries!D:D,MATCH(C367,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C367,Lotteries!A:A,0))-D367)/INDEX(Lotteries!D:D,MATCH(C367,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C367,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C367,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C367,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H367" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I367,Persons!B:B,0))</f>
-        <v>17</v>
-      </c>
-      <c r="I367" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Hanne</v>
-      </c>
-      <c r="J367">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L367" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H367" s="7"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -18591,21 +18635,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C368,Lotteries!A:A,0))*D368/INDEX(Lotteries!D:D,MATCH(C368,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C368,Lotteries!A:A,0))-D368)/INDEX(Lotteries!D:D,MATCH(C368,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C368,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C368,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C368,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H368" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I368,Persons!B:B,0))</f>
-        <v>20</v>
-      </c>
-      <c r="I368" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Kyrre</v>
-      </c>
-      <c r="J368">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L368" t="s">
-        <v>104</v>
-      </c>
+      <c r="H368" s="7"/>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
@@ -18632,21 +18662,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C369,Lotteries!A:A,0))*D369/INDEX(Lotteries!D:D,MATCH(C369,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C369,Lotteries!A:A,0))-D369)/INDEX(Lotteries!D:D,MATCH(C369,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C369,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C369,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C369,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H369" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I369,Persons!B:B,0))</f>
-        <v>48</v>
-      </c>
-      <c r="I369" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Ivan</v>
-      </c>
-      <c r="J369">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L369" t="s">
-        <v>148</v>
-      </c>
+      <c r="H369" s="7"/>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
@@ -18673,21 +18689,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C370,Lotteries!A:A,0))*D370/INDEX(Lotteries!D:D,MATCH(C370,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C370,Lotteries!A:A,0))-D370)/INDEX(Lotteries!D:D,MATCH(C370,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C370,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C370,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C370,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H370" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I370,Persons!B:B,0))</f>
-        <v>51</v>
-      </c>
-      <c r="I370" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Svein</v>
-      </c>
-      <c r="J370">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L370" t="s">
-        <v>149</v>
-      </c>
+      <c r="H370" s="7"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
@@ -18714,21 +18716,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C371,Lotteries!A:A,0))*D371/INDEX(Lotteries!D:D,MATCH(C371,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C371,Lotteries!A:A,0))-D371)/INDEX(Lotteries!D:D,MATCH(C371,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C371,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C371,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C371,Lotteries!A:A,0))-1)</f>
         <v>0.34243457962877016</v>
       </c>
-      <c r="H371" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I371,Persons!B:B,0))</f>
-        <v>32</v>
-      </c>
-      <c r="I371" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Martin</v>
-      </c>
-      <c r="J371">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L371" t="s">
-        <v>105</v>
-      </c>
+      <c r="H371" s="7"/>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
@@ -18755,21 +18743,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C372,Lotteries!A:A,0))*D372/INDEX(Lotteries!D:D,MATCH(C372,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C372,Lotteries!A:A,0))-D372)/INDEX(Lotteries!D:D,MATCH(C372,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C372,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C372,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C372,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H372" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I372,Persons!B:B,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I372" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Erik B</v>
-      </c>
-      <c r="J372">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L372" t="s">
-        <v>106</v>
-      </c>
+      <c r="H372" s="7"/>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
@@ -18796,21 +18770,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C373,Lotteries!A:A,0))*D373/INDEX(Lotteries!D:D,MATCH(C373,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C373,Lotteries!A:A,0))-D373)/INDEX(Lotteries!D:D,MATCH(C373,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C373,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C373,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C373,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H373" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I373,Persons!B:B,0))</f>
-        <v>43</v>
-      </c>
-      <c r="I373" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Andreas</v>
-      </c>
-      <c r="J373">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L373" t="s">
-        <v>103</v>
-      </c>
+      <c r="H373" s="7"/>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
@@ -18837,20 +18797,908 @@
         <f>INDEX(Lotteries!F:F,MATCH(C374,Lotteries!A:A,0))*D374/INDEX(Lotteries!D:D,MATCH(C374,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C374,Lotteries!A:A,0))-D374)/INDEX(Lotteries!D:D,MATCH(C374,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C374,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C374,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C374,Lotteries!A:A,0))-1)</f>
         <v>0.17696283645245164</v>
       </c>
-      <c r="H374" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I374,Persons!B:B,0))</f>
-        <v>53</v>
-      </c>
-      <c r="I374" s="2" t="str">
+      <c r="H374" s="7"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>16</v>
+      </c>
+      <c r="C375" s="11">
+        <v>21</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="E375" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C375,Lotteries!A:A,0))*D375</f>
+        <v>20</v>
+      </c>
+      <c r="F375" s="3">
+        <f>D375*INDEX(Lotteries!G:G,MATCH(C375,Lotteries!A:A,0))</f>
+        <v>5.5865921787709494E-2</v>
+      </c>
+      <c r="G375" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C375,Lotteries!A:A,0))*D375/INDEX(Lotteries!D:D,MATCH(C375,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C375,Lotteries!A:A,0))-D375)/INDEX(Lotteries!D:D,MATCH(C375,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C375,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C375,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C375,Lotteries!A:A,0))-1)</f>
+        <v>5.4000334543276539E-2</v>
+      </c>
+      <c r="H375" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I375,Persons!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="I375" s="2" t="str">
+        <f t="shared" ref="I375:I396" si="0">MID(L375,FIND("""name"": """,L375)+9,FIND("""",L375,FIND("""name"": """,L375)+9)-FIND("""name"": """,L375)-9)</f>
+        <v>Bjarke</v>
+      </c>
+      <c r="J375">
+        <f t="shared" ref="J375:J396" si="1">VALUE(MID(L375,FIND("""tickets"": ",L375)+11,MIN(IFERROR(FIND(",",L375,FIND("""tickets"": ",L375)),100),FIND("}",L375,FIND("""tickets"": ",L375)))-FIND("""tickets"": ",L375)-11))</f>
+        <v>2</v>
+      </c>
+      <c r="L375" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>51</v>
+      </c>
+      <c r="C376" s="11">
+        <v>21</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+      <c r="E376" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C376,Lotteries!A:A,0))*D376</f>
+        <v>50</v>
+      </c>
+      <c r="F376" s="3">
+        <f>D376*INDEX(Lotteries!G:G,MATCH(C376,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G376" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C376,Lotteries!A:A,0))*D376/INDEX(Lotteries!D:D,MATCH(C376,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C376,Lotteries!A:A,0))-D376)/INDEX(Lotteries!D:D,MATCH(C376,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C376,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C376,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C376,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H376" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I376,Persons!B:B,0))</f>
+        <v>51</v>
+      </c>
+      <c r="I376" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Svein</v>
+      </c>
+      <c r="J376">
         <f t="shared" si="1"/>
-        <v>Sondre</v>
-      </c>
-      <c r="J374">
-        <f>VALUE(MID(L374,FIND("""tickets"": ",L374)+11,MIN(IFERROR(FIND(",",L374,FIND("""tickets"": ",L374)),100),FIND("}",L374,FIND("""tickets"": ",L374)))-FIND("""tickets"": ",L374)-11))</f>
-        <v>5</v>
-      </c>
-      <c r="L374" t="s">
+        <v>5</v>
+      </c>
+      <c r="L376" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>17</v>
+      </c>
+      <c r="C377" s="11">
+        <v>21</v>
+      </c>
+      <c r="D377">
+        <v>5</v>
+      </c>
+      <c r="E377" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C377,Lotteries!A:A,0))*D377</f>
+        <v>50</v>
+      </c>
+      <c r="F377" s="3">
+        <f>D377*INDEX(Lotteries!G:G,MATCH(C377,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G377" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C377,Lotteries!A:A,0))*D377/INDEX(Lotteries!D:D,MATCH(C377,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C377,Lotteries!A:A,0))-D377)/INDEX(Lotteries!D:D,MATCH(C377,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C377,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C377,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C377,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H377" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I377,Persons!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="I377" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Hanne</v>
+      </c>
+      <c r="J377">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L377" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>29</v>
+      </c>
+      <c r="C378" s="11">
+        <v>21</v>
+      </c>
+      <c r="D378">
+        <v>10</v>
+      </c>
+      <c r="E378" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C378,Lotteries!A:A,0))*D378</f>
+        <v>100</v>
+      </c>
+      <c r="F378" s="3">
+        <f>D378*INDEX(Lotteries!G:G,MATCH(C378,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G378" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C378,Lotteries!A:A,0))*D378/INDEX(Lotteries!D:D,MATCH(C378,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C378,Lotteries!A:A,0))-D378)/INDEX(Lotteries!D:D,MATCH(C378,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C378,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C378,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C378,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H378" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I378,Persons!B:B,0))</f>
+        <v>29</v>
+      </c>
+      <c r="I378" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Magnus B</v>
+      </c>
+      <c r="J378">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L378" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>15</v>
+      </c>
+      <c r="C379" s="11">
+        <v>21</v>
+      </c>
+      <c r="D379">
+        <v>6</v>
+      </c>
+      <c r="E379" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C379,Lotteries!A:A,0))*D379</f>
+        <v>60</v>
+      </c>
+      <c r="F379" s="3">
+        <f>D379*INDEX(Lotteries!G:G,MATCH(C379,Lotteries!A:A,0))</f>
+        <v>0.16759776536312848</v>
+      </c>
+      <c r="G379" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C379,Lotteries!A:A,0))*D379/INDEX(Lotteries!D:D,MATCH(C379,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C379,Lotteries!A:A,0))-D379)/INDEX(Lotteries!D:D,MATCH(C379,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C379,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C379,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C379,Lotteries!A:A,0))-1)</f>
+        <v>0.15833996399977696</v>
+      </c>
+      <c r="H379" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I379,Persons!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="I379" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Yngvar</v>
+      </c>
+      <c r="J379">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L379" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>46</v>
+      </c>
+      <c r="C380" s="11">
+        <v>21</v>
+      </c>
+      <c r="D380">
+        <v>4</v>
+      </c>
+      <c r="E380" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C380,Lotteries!A:A,0))*D380</f>
+        <v>40</v>
+      </c>
+      <c r="F380" s="3">
+        <f>D380*INDEX(Lotteries!G:G,MATCH(C380,Lotteries!A:A,0))</f>
+        <v>0.11173184357541899</v>
+      </c>
+      <c r="G380" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C380,Lotteries!A:A,0))*D380/INDEX(Lotteries!D:D,MATCH(C380,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C380,Lotteries!A:A,0))-D380)/INDEX(Lotteries!D:D,MATCH(C380,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C380,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C380,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C380,Lotteries!A:A,0))-1)</f>
+        <v>0.1067803225432022</v>
+      </c>
+      <c r="H380" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I380,Persons!B:B,0))</f>
+        <v>46</v>
+      </c>
+      <c r="I380" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ciaran</v>
+      </c>
+      <c r="J380">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L380" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>55</v>
+      </c>
+      <c r="C381" s="11">
+        <v>21</v>
+      </c>
+      <c r="D381">
+        <v>5</v>
+      </c>
+      <c r="E381" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C381,Lotteries!A:A,0))*D381</f>
+        <v>50</v>
+      </c>
+      <c r="F381" s="3">
+        <f>D381*INDEX(Lotteries!G:G,MATCH(C381,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G381" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C381,Lotteries!A:A,0))*D381/INDEX(Lotteries!D:D,MATCH(C381,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C381,Lotteries!A:A,0))-D381)/INDEX(Lotteries!D:D,MATCH(C381,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C381,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C381,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C381,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H381" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I381,Persons!B:B,0))</f>
+        <v>55</v>
+      </c>
+      <c r="I381" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrea</v>
+      </c>
+      <c r="J381">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L381" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>14</v>
+      </c>
+      <c r="C382" s="11">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>5</v>
+      </c>
+      <c r="E382" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C382,Lotteries!A:A,0))*D382</f>
+        <v>50</v>
+      </c>
+      <c r="F382" s="3">
+        <f>D382*INDEX(Lotteries!G:G,MATCH(C382,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G382" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C382,Lotteries!A:A,0))*D382/INDEX(Lotteries!D:D,MATCH(C382,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C382,Lotteries!A:A,0))-D382)/INDEX(Lotteries!D:D,MATCH(C382,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C382,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C382,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C382,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H382" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I382,Persons!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="I382" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Truls</v>
+      </c>
+      <c r="J382">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L382" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>34</v>
+      </c>
+      <c r="C383" s="11">
+        <v>21</v>
+      </c>
+      <c r="D383">
+        <v>10</v>
+      </c>
+      <c r="E383" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C383,Lotteries!A:A,0))*D383</f>
+        <v>100</v>
+      </c>
+      <c r="F383" s="3">
+        <f>D383*INDEX(Lotteries!G:G,MATCH(C383,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G383" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C383,Lotteries!A:A,0))*D383/INDEX(Lotteries!D:D,MATCH(C383,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C383,Lotteries!A:A,0))-D383)/INDEX(Lotteries!D:D,MATCH(C383,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C383,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C383,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C383,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H383" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I383,Persons!B:B,0))</f>
+        <v>34</v>
+      </c>
+      <c r="I383" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Asgeir</v>
+      </c>
+      <c r="J383">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L383" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>48</v>
+      </c>
+      <c r="C384" s="11">
+        <v>21</v>
+      </c>
+      <c r="D384">
+        <v>5</v>
+      </c>
+      <c r="E384" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C384,Lotteries!A:A,0))*D384</f>
+        <v>50</v>
+      </c>
+      <c r="F384" s="3">
+        <f>D384*INDEX(Lotteries!G:G,MATCH(C384,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G384" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C384,Lotteries!A:A,0))*D384/INDEX(Lotteries!D:D,MATCH(C384,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C384,Lotteries!A:A,0))-D384)/INDEX(Lotteries!D:D,MATCH(C384,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C384,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C384,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C384,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H384" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I384,Persons!B:B,0))</f>
+        <v>48</v>
+      </c>
+      <c r="I384" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ivan</v>
+      </c>
+      <c r="J384">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L384" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385" s="11">
+        <v>21</v>
+      </c>
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C385,Lotteries!A:A,0))*D385</f>
+        <v>50</v>
+      </c>
+      <c r="F385" s="3">
+        <f>D385*INDEX(Lotteries!G:G,MATCH(C385,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G385" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C385,Lotteries!A:A,0))*D385/INDEX(Lotteries!D:D,MATCH(C385,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C385,Lotteries!A:A,0))-D385)/INDEX(Lotteries!D:D,MATCH(C385,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C385,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C385,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C385,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H385" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I385,Persons!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I385" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Erik B</v>
+      </c>
+      <c r="J385">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L385" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>52</v>
+      </c>
+      <c r="C386" s="11">
+        <v>21</v>
+      </c>
+      <c r="D386">
+        <v>40</v>
+      </c>
+      <c r="E386" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C386,Lotteries!A:A,0))*D386</f>
+        <v>400</v>
+      </c>
+      <c r="F386" s="3">
+        <f>D386*INDEX(Lotteries!G:G,MATCH(C386,Lotteries!A:A,0))</f>
+        <v>1.1173184357541899</v>
+      </c>
+      <c r="G386" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C386,Lotteries!A:A,0))*D386/INDEX(Lotteries!D:D,MATCH(C386,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C386,Lotteries!A:A,0))-D386)/INDEX(Lotteries!D:D,MATCH(C386,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C386,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C386,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C386,Lotteries!A:A,0))-1)</f>
+        <v>0.8481408476288631</v>
+      </c>
+      <c r="H386" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I386,Persons!B:B,0))</f>
+        <v>52</v>
+      </c>
+      <c r="I386" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Anders Sz</v>
+      </c>
+      <c r="J386">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L386" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>13</v>
+      </c>
+      <c r="C387" s="11">
+        <v>21</v>
+      </c>
+      <c r="D387">
+        <v>10</v>
+      </c>
+      <c r="E387" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C387,Lotteries!A:A,0))*D387</f>
+        <v>100</v>
+      </c>
+      <c r="F387" s="3">
+        <f>D387*INDEX(Lotteries!G:G,MATCH(C387,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G387" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C387,Lotteries!A:A,0))*D387/INDEX(Lotteries!D:D,MATCH(C387,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C387,Lotteries!A:A,0))-D387)/INDEX(Lotteries!D:D,MATCH(C387,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C387,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C387,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C387,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H387" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I387,Persons!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="I387" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Sven</v>
+      </c>
+      <c r="J387">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L387" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>33</v>
+      </c>
+      <c r="C388" s="11">
+        <v>21</v>
+      </c>
+      <c r="D388">
+        <v>10</v>
+      </c>
+      <c r="E388" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C388,Lotteries!A:A,0))*D388</f>
+        <v>100</v>
+      </c>
+      <c r="F388" s="3">
+        <f>D388*INDEX(Lotteries!G:G,MATCH(C388,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G388" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C388,Lotteries!A:A,0))*D388/INDEX(Lotteries!D:D,MATCH(C388,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C388,Lotteries!A:A,0))-D388)/INDEX(Lotteries!D:D,MATCH(C388,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C388,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C388,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C388,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H388" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I388,Persons!B:B,0))</f>
+        <v>33</v>
+      </c>
+      <c r="I388" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Anders A</v>
+      </c>
+      <c r="J388">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L388" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>41</v>
+      </c>
+      <c r="C389" s="11">
+        <v>21</v>
+      </c>
+      <c r="D389">
+        <v>5</v>
+      </c>
+      <c r="E389" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C389,Lotteries!A:A,0))*D389</f>
+        <v>50</v>
+      </c>
+      <c r="F389" s="3">
+        <f>D389*INDEX(Lotteries!G:G,MATCH(C389,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G389" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C389,Lotteries!A:A,0))*D389/INDEX(Lotteries!D:D,MATCH(C389,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C389,Lotteries!A:A,0))-D389)/INDEX(Lotteries!D:D,MATCH(C389,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C389,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C389,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C389,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H389" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I389,Persons!B:B,0))</f>
+        <v>41</v>
+      </c>
+      <c r="I389" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruben B</v>
+      </c>
+      <c r="J389">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L389" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>32</v>
+      </c>
+      <c r="C390" s="11">
+        <v>21</v>
+      </c>
+      <c r="D390">
+        <v>12</v>
+      </c>
+      <c r="E390" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C390,Lotteries!A:A,0))*D390</f>
+        <v>120</v>
+      </c>
+      <c r="F390" s="3">
+        <f>D390*INDEX(Lotteries!G:G,MATCH(C390,Lotteries!A:A,0))</f>
+        <v>0.33519553072625696</v>
+      </c>
+      <c r="G390" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C390,Lotteries!A:A,0))*D390/INDEX(Lotteries!D:D,MATCH(C390,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C390,Lotteries!A:A,0))-D390)/INDEX(Lotteries!D:D,MATCH(C390,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C390,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C390,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C390,Lotteries!A:A,0))-1)</f>
+        <v>0.30569680910939601</v>
+      </c>
+      <c r="H390" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I390,Persons!B:B,0))</f>
+        <v>32</v>
+      </c>
+      <c r="I390" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
+      <c r="J390">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L390" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>35</v>
+      </c>
+      <c r="C391" s="11">
+        <v>21</v>
+      </c>
+      <c r="D391">
+        <v>5</v>
+      </c>
+      <c r="E391" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C391,Lotteries!A:A,0))*D391</f>
+        <v>50</v>
+      </c>
+      <c r="F391" s="3">
+        <f>D391*INDEX(Lotteries!G:G,MATCH(C391,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G391" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C391,Lotteries!A:A,0))*D391/INDEX(Lotteries!D:D,MATCH(C391,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C391,Lotteries!A:A,0))-D391)/INDEX(Lotteries!D:D,MATCH(C391,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C391,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C391,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C391,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H391" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I391,Persons!B:B,0))</f>
+        <v>35</v>
+      </c>
+      <c r="I391" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mathias</v>
+      </c>
+      <c r="J391">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L391" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>54</v>
+      </c>
+      <c r="C392" s="11">
+        <v>21</v>
+      </c>
+      <c r="D392">
+        <v>5</v>
+      </c>
+      <c r="E392" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C392,Lotteries!A:A,0))*D392</f>
+        <v>50</v>
+      </c>
+      <c r="F392" s="3">
+        <f>D392*INDEX(Lotteries!G:G,MATCH(C392,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G392" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C392,Lotteries!A:A,0))*D392/INDEX(Lotteries!D:D,MATCH(C392,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C392,Lotteries!A:A,0))-D392)/INDEX(Lotteries!D:D,MATCH(C392,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C392,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C392,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C392,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H392" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I392,Persons!B:B,0))</f>
+        <v>54</v>
+      </c>
+      <c r="I392" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Morten S</v>
+      </c>
+      <c r="J392">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L392" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>20</v>
+      </c>
+      <c r="C393" s="11">
+        <v>21</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+      <c r="E393" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C393,Lotteries!A:A,0))*D393</f>
+        <v>50</v>
+      </c>
+      <c r="F393" s="3">
+        <f>D393*INDEX(Lotteries!G:G,MATCH(C393,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G393" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C393,Lotteries!A:A,0))*D393/INDEX(Lotteries!D:D,MATCH(C393,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C393,Lotteries!A:A,0))-D393)/INDEX(Lotteries!D:D,MATCH(C393,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C393,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C393,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C393,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H393" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I393,Persons!B:B,0))</f>
+        <v>20</v>
+      </c>
+      <c r="I393" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Kyrre</v>
+      </c>
+      <c r="J393">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L393" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>37</v>
+      </c>
+      <c r="C394" s="11">
+        <v>21</v>
+      </c>
+      <c r="D394">
+        <v>10</v>
+      </c>
+      <c r="E394" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C394,Lotteries!A:A,0))*D394</f>
+        <v>100</v>
+      </c>
+      <c r="F394" s="3">
+        <f>D394*INDEX(Lotteries!G:G,MATCH(C394,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G394" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C394,Lotteries!A:A,0))*D394/INDEX(Lotteries!D:D,MATCH(C394,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C394,Lotteries!A:A,0))-D394)/INDEX(Lotteries!D:D,MATCH(C394,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C394,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C394,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C394,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H394" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I394,Persons!B:B,0))</f>
+        <v>37</v>
+      </c>
+      <c r="I394" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruben O</v>
+      </c>
+      <c r="J394">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L394" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>10</v>
+      </c>
+      <c r="C395" s="11">
+        <v>21</v>
+      </c>
+      <c r="D395">
+        <v>10</v>
+      </c>
+      <c r="E395" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C395,Lotteries!A:A,0))*D395</f>
+        <v>100</v>
+      </c>
+      <c r="F395" s="3">
+        <f>D395*INDEX(Lotteries!G:G,MATCH(C395,Lotteries!A:A,0))</f>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="G395" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C395,Lotteries!A:A,0))*D395/INDEX(Lotteries!D:D,MATCH(C395,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C395,Lotteries!A:A,0))-D395)/INDEX(Lotteries!D:D,MATCH(C395,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C395,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C395,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C395,Lotteries!A:A,0))-1)</f>
+        <v>0.25779820728287384</v>
+      </c>
+      <c r="H395" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I395,Persons!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="I395" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Odd</v>
+      </c>
+      <c r="J395">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L395" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>36</v>
+      </c>
+      <c r="C396" s="11">
+        <v>21</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
+      </c>
+      <c r="E396" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C396,Lotteries!A:A,0))*D396</f>
+        <v>50</v>
+      </c>
+      <c r="F396" s="3">
+        <f>D396*INDEX(Lotteries!G:G,MATCH(C396,Lotteries!A:A,0))</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="G396" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C396,Lotteries!A:A,0))*D396/INDEX(Lotteries!D:D,MATCH(C396,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C396,Lotteries!A:A,0))-D396)/INDEX(Lotteries!D:D,MATCH(C396,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C396,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C396,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C396,Lotteries!A:A,0))-1)</f>
+        <v>0.13271268658940844</v>
+      </c>
+      <c r="H396" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I396,Persons!B:B,0))</f>
+        <v>36</v>
+      </c>
+      <c r="I396" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ingvild</v>
+      </c>
+      <c r="J396">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L396" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -18864,10 +19712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18894,7 +19742,7 @@
       </c>
       <c r="H1">
         <f>SUM(D:D)</f>
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20227,7 +21075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -20241,7 +21089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -20255,7 +21103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -20269,7 +21117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -20283,7 +21131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -20297,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -20311,7 +21159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -20325,7 +21173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -20339,7 +21187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20353,7 +21201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20367,7 +21215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20381,7 +21229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20395,7 +21243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20408,23 +21256,8 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F109,Persons!B:B,0))</f>
-        <v>13</v>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" ref="F109:F113" si="0">MID(I109,FIND("""name"": """,I109)+9,FIND("""",I109,FIND("""name"": """,I109)+9)-FIND("""name"": """,I109)-9)</f>
-        <v>Sven</v>
-      </c>
-      <c r="G109">
-        <f t="shared" ref="G109:G113" si="1">VALUE(MID(I109,FIND("""prizes"": ",I109)+10,FIND("}",I109,FIND("""prizes"": ",I109))-FIND("""prizes"": ",I109)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20437,23 +21270,8 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F110,Persons!B:B,0))</f>
-        <v>10</v>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Odd</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20466,23 +21284,8 @@
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="E111">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F111,Persons!B:B,0))</f>
-        <v>29</v>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Magnus B</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20494,21 +21297,6 @@
       </c>
       <c r="D112">
         <v>1</v>
-      </c>
-      <c r="E112">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F112,Persons!B:B,0))</f>
-        <v>33</v>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Anders A</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -20524,20 +21312,150 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F113,Persons!B:B,0))</f>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F114,Persons!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="F114" s="2" t="str">
+        <f t="shared" ref="F114:F118" si="0">MID(I114,FIND("""name"": """,I114)+9,FIND("""",I114,FIND("""name"": """,I114)+9)-FIND("""name"": """,I114)-9)</f>
+        <v>Hanne</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:G118" si="1">VALUE(MID(I114,FIND("""prizes"": ",I114)+10,FIND("}",I114,FIND("""prizes"": ",I114))-FIND("""prizes"": ",I114)-10))</f>
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>21</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F115,Persons!B:B,0))</f>
+        <v>34</v>
+      </c>
+      <c r="F115" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Asgeir</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <v>48</v>
       </c>
-      <c r="F113" s="2" t="str">
+      <c r="C116">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F116,Persons!B:B,0))</f>
+        <v>48</v>
+      </c>
+      <c r="F116" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ivan</v>
       </c>
-      <c r="G113">
+      <c r="G116">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I116" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>13</v>
+      </c>
+      <c r="C117">
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F117,Persons!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Sven</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>21</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F118,Persons!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Odd</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -20578,7 +21496,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>87</v>
@@ -20775,7 +21693,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -20854,7 +21772,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20884,7 +21802,7 @@
       </c>
       <c r="C3" s="13">
         <f>Sales!K1</f>
-        <v>27990</v>
+        <v>29780</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
@@ -20924,7 +21842,7 @@
         <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J5" s="13">
         <v>5</v>
@@ -20943,7 +21861,7 @@
       </c>
       <c r="G6" s="25">
         <f>-Prizes!H1</f>
-        <v>-123</v>
+        <v>-128</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -20954,14 +21872,14 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(C2:C6)</f>
-        <v>3118.8499999999985</v>
+        <v>4908.8499999999985</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="26">
         <f>SUM(G2:G6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>96</v>
@@ -20972,7 +21890,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="89"/>
+      <c r="C10" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -1136,25 +1136,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1175,6 +1156,25 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1531,8 +1531,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U57" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:U57"/>
-  <sortState ref="A2:U51">
-    <sortCondition ref="A1:A51"/>
+  <sortState ref="A2:U57">
+    <sortCondition ref="A1:A57"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="id" dataDxfId="38"/>
@@ -1639,15 +1639,15 @@
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="5" name="cost" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="1">
+    <tableColumn id="6" name="µ" dataDxfId="5">
       <calculatedColumnFormula>D2*INDEX(Lotteries!G:G,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="0">
+    <tableColumn id="7" name="σ2" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1656,7 +1656,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D118" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D118" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D118">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:E17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1684,8 +1684,8 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="7"/>
-    <tableColumn id="4" name="cost" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="2" name="date" dataDxfId="1"/>
+    <tableColumn id="4" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
     <tableColumn id="3" name="prizes"/>
     <tableColumn id="5" name="faktura"/>
   </tableColumns>
@@ -1961,8 +1961,8 @@
   </sheetPr>
   <dimension ref="B2:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,15 +2153,15 @@
       </c>
       <c r="G6" s="38">
         <f t="array" ref="G6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F6,F6)))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G6,Persons!$A:$A,0))</f>
-        <v>Fridtjof</v>
+        <v>Kenneth</v>
       </c>
       <c r="I6" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G6,Persons!$A:$A,0))</f>
-        <v>0.12701859000624371</v>
+        <v>9.4842360181836213E-2</v>
       </c>
       <c r="J6" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J6)-ROW(J$4))</f>
@@ -2203,15 +2203,15 @@
       </c>
       <c r="G7" s="38">
         <f t="array" ref="G7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F7,F7)))</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H7" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>Ruben O</v>
+        <v>Fridtjof</v>
       </c>
       <c r="I7" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>0.12986049313998585</v>
+        <v>0.12701859000624371</v>
       </c>
       <c r="J7" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J7)-ROW(J$4))</f>
@@ -2257,15 +2257,15 @@
       </c>
       <c r="G8" s="38">
         <f t="array" ref="G8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F8,F8)))</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H8" s="38" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>Kenneth</v>
+        <v>Ruben O</v>
       </c>
       <c r="I8" s="70">
         <f>INDEX(Persons!$R:$R,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>0.1341301701833536</v>
+        <v>0.12986049313998585</v>
       </c>
       <c r="J8" s="39">
         <f>SMALL(Persons!$S:$S,1+ROW(J8)-ROW(J$4))</f>
@@ -2627,15 +2627,15 @@
       </c>
       <c r="K15" s="56">
         <f t="array" ref="K15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J15,J15)))</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L15" s="56" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K15,Persons!$A:$A,0))</f>
-        <v>Asgeir</v>
+        <v>Kenneth</v>
       </c>
       <c r="M15" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K15,Persons!$A:$A,0))</f>
-        <v>-1.3959495602492105</v>
+        <v>-1.5492461951326595</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -2691,15 +2691,15 @@
       </c>
       <c r="K16" s="56">
         <f t="array" ref="K16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J16,J16)))</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L16" s="56" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>Fridtjof</v>
+        <v>Asgeir</v>
       </c>
       <c r="M16" s="73">
         <f>INDEX(Persons!$N:$N,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>-1.184672257882758</v>
+        <v>-1.3959495602492105</v>
       </c>
       <c r="U16">
         <v>8</v>
@@ -3080,8 +3080,8 @@
   </sheetPr>
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f t="shared" ref="F2:F33" si="0">IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G2" s="8">
@@ -3198,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f t="shared" ref="H2:H33" si="1">IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="8">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2:J33" si="2">IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K2" s="9">
@@ -3214,7 +3214,7 @@
         <v>0.98785425101214575</v>
       </c>
       <c r="L2" s="30" t="str">
-        <f t="shared" ref="L2:L33" si="3">IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M2" s="9">
@@ -3222,35 +3222,35 @@
         <v>0.90534417201851047</v>
       </c>
       <c r="N2" s="9">
-        <f t="shared" ref="N2:N33" si="4">I2-K2</f>
+        <f>I2-K2</f>
         <v>-0.98785425101214575</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f t="shared" ref="O2:O33" si="5">IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" ref="P2:P33" si="6">N2/M2</f>
+        <f>N2/M2</f>
         <v>-1.0911366986652986</v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f t="shared" ref="Q2:Q33" si="7">IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R2" s="17">
-        <f t="shared" ref="R2:R33" si="8">IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
+        <f>IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
         <v>0.137606368366785</v>
       </c>
       <c r="S2" s="6" t="str">
-        <f t="shared" ref="S2:S33" si="9">IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T2" s="6">
-        <f t="shared" ref="T2:T33" si="10">E2/K2</f>
+        <f>E2/K2</f>
         <v>101.22950819672131</v>
       </c>
       <c r="U2" s="6" t="str">
-        <f t="shared" ref="U2:U33" si="11">IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
+        <f>IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X2" s="4"/>
@@ -3275,7 +3275,7 @@
         <v>1360</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G3" s="4">
@@ -3283,7 +3283,7 @@
         <v>127</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I3" s="4">
@@ -3291,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K3" s="5">
@@ -3299,7 +3299,7 @@
         <v>6.0719704412152948</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M3" s="5">
@@ -3307,35 +3307,35 @@
         <v>2.2871608424340759</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="4"/>
+        <f>I3-K3</f>
         <v>-1.0719704412152948</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="6"/>
+        <f>N3/M3</f>
         <v>-0.46869044858011238</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I3&gt;K3,1-_xlfn.NORM.DIST(I3,K3,M3,1),_xlfn.NORM.DIST(I3,K3,M3,1))</f>
         <v>0.3196454575746297</v>
       </c>
       <c r="S3" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="10"/>
+        <f>E3/K3</f>
         <v>223.98000997643169</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C3=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T3)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V3" s="4"/>
@@ -3361,7 +3361,7 @@
         <v>750</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E4)+1)</f>
         <v>10</v>
       </c>
       <c r="G4" s="4">
@@ -3369,7 +3369,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G4)+1)</f>
         <v>12</v>
       </c>
       <c r="I4" s="4">
@@ -3377,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I4)+1)</f>
         <v>11</v>
       </c>
       <c r="K4" s="5">
@@ -3385,7 +3385,7 @@
         <v>3.0749747879706155</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K4)+1)</f>
         <v>12</v>
       </c>
       <c r="M4" s="5">
@@ -3393,35 +3393,35 @@
         <v>1.6670556241583492</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="4"/>
+        <f>I4-K4</f>
         <v>-1.0749747879706155</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N4)+1)</f>
         <v>26</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="6"/>
+        <f>N4/M4</f>
         <v>-0.64483438488343237</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P4)+1)</f>
         <v>21</v>
       </c>
       <c r="R4" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I4&gt;K4,1-_xlfn.NORM.DIST(I4,K4,M4,1),_xlfn.NORM.DIST(I4,K4,M4,1))</f>
         <v>0.25951725827739575</v>
       </c>
       <c r="S4" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R4)+1)</f>
         <v>17</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="10"/>
+        <f>E4/K4</f>
         <v>243.90443880516364</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C4=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T4)+1)</f>
         <v>23</v>
       </c>
       <c r="V4" s="4"/>
@@ -3447,7 +3447,7 @@
         <v>350</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E5)+1)</f>
         <v>17</v>
       </c>
       <c r="G5" s="4">
@@ -3455,15 +3455,15 @@
         <v>26</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G5)+1)</f>
+        <v>22</v>
       </c>
       <c r="I5" s="4">
         <f>SUMIF(Prizes!B:B,A5,Prizes!D:D)</f>
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I5)+1)</f>
         <v>11</v>
       </c>
       <c r="K5" s="5">
@@ -3471,7 +3471,7 @@
         <v>1.7386807932020698</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K5)+1)</f>
         <v>17</v>
       </c>
       <c r="M5" s="5">
@@ -3479,35 +3479,35 @@
         <v>1.2196223879112047</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="4"/>
+        <f>I5-K5</f>
         <v>0.26131920679793019</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N5)+1)</f>
         <v>10</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="6"/>
+        <f>N5/M5</f>
         <v>0.21426238923465521</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P5)+1)</f>
         <v>11</v>
       </c>
       <c r="R5" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I5&gt;K5,1-_xlfn.NORM.DIST(I5,K5,M5,1),_xlfn.NORM.DIST(I5,K5,M5,1))</f>
         <v>0.41517122299034059</v>
       </c>
       <c r="S5" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R5)+1)</f>
         <v>4</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="10"/>
+        <f>E5/K5</f>
         <v>201.3020454176737</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C5=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T5)+1)</f>
         <v>2</v>
       </c>
       <c r="V5" s="4"/>
@@ -3533,7 +3533,7 @@
         <v>580</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G6" s="4">
@@ -3541,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I6" s="4">
@@ -3549,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="5">
@@ -3557,7 +3557,7 @@
         <v>2.3740803347134869</v>
       </c>
       <c r="L6" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="5">
@@ -3565,35 +3565,35 @@
         <v>1.4608189121183603</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="4"/>
+        <f>I6-K6</f>
         <v>0.6259196652865131</v>
       </c>
       <c r="O6" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="6"/>
+        <f>N6/M6</f>
         <v>0.42847177024759042</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I6&gt;K6,1-_xlfn.NORM.DIST(I6,K6,M6,1),_xlfn.NORM.DIST(I6,K6,M6,1))</f>
         <v>0.33415384099578926</v>
       </c>
       <c r="S6" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="10"/>
+        <f>E6/K6</f>
         <v>244.30512797706007</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C6=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T6)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V6" s="4"/>
@@ -3619,7 +3619,7 @@
         <v>790</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G7" s="4">
@@ -3627,7 +3627,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I7" s="4">
@@ -3635,7 +3635,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="5">
@@ -3643,7 +3643,7 @@
         <v>3.2250613603274099</v>
       </c>
       <c r="L7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M7" s="5">
@@ -3651,35 +3651,35 @@
         <v>1.6993617556865768</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="4"/>
+        <f>I7-K7</f>
         <v>1.7749386396725901</v>
       </c>
       <c r="O7" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="6"/>
+        <f>N7/M7</f>
         <v>1.0444736876848677</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R7" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I7&gt;K7,1-_xlfn.NORM.DIST(I7,K7,M7,1),_xlfn.NORM.DIST(I7,K7,M7,1))</f>
         <v>0.1481331433566947</v>
       </c>
       <c r="S7" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="10"/>
+        <f>E7/K7</f>
         <v>244.95657965397558</v>
       </c>
       <c r="U7" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C7=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T7)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V7" s="4"/>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="D8" s="4">
         <f t="array" ref="D8">MAX(IF(Sales!B:B=A8,Sales!C:C))</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <f>SUMIF(Sales!B:B,A8,Sales!E:E)</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G8" s="4">
         <f>SUMIF(Sales!B:B,A8,Sales!D:D)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I8" s="4">
@@ -3721,51 +3721,51 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K8" s="5">
         <f>SUMIF(Sales!B:B,A8,Sales!F:F)</f>
-        <v>1.7672698512028924</v>
+        <v>1.3260933806146571</v>
       </c>
       <c r="L8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A8,Sales!G:G))</f>
-        <v>1.237994068051639</v>
+        <v>1.0672538107751555</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23273014879710763</v>
+        <f>I8-K8</f>
+        <v>0.67390661938534291</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="6"/>
-        <v>0.18798971239287071</v>
+        <f>N8/M8</f>
+        <v>0.63143988110558147</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" si="8"/>
-        <v>0.42544235786385365</v>
+        <f>IF(I8&gt;K8,1-_xlfn.NORM.DIST(I8,K8,M8,1),_xlfn.NORM.DIST(I8,K8,M8,1))</f>
+        <v>0.26387647326386743</v>
       </c>
       <c r="S8" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="10"/>
-        <v>226.33781690314015</v>
+        <f>E8/K8</f>
+        <v>226.22841225626743</v>
       </c>
       <c r="U8" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C8=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T8)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V8" s="4"/>
@@ -3791,7 +3791,7 @@
         <v>800</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G9" s="4">
@@ -3799,7 +3799,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I9" s="4">
@@ -3807,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="5">
@@ -3815,7 +3815,7 @@
         <v>3.0883035773743104</v>
       </c>
       <c r="L9" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M9" s="5">
@@ -3823,35 +3823,35 @@
         <v>1.645289709282524</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="4"/>
+        <f>I9-K9</f>
         <v>0.91169642262568962</v>
       </c>
       <c r="O9" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="6"/>
+        <f>N9/M9</f>
         <v>0.55412515952783847</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I9&gt;K9,1-_xlfn.NORM.DIST(I9,K9,M9,1),_xlfn.NORM.DIST(I9,K9,M9,1))</f>
         <v>0.28974659632997213</v>
       </c>
       <c r="S9" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="10"/>
+        <f>E9/K9</f>
         <v>259.04189143224175</v>
       </c>
       <c r="U9" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C9=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T9)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V9" s="4"/>
@@ -3877,7 +3877,7 @@
         <v>2060</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G10" s="4">
@@ -3885,7 +3885,7 @@
         <v>189</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I10" s="4">
@@ -3893,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="5">
@@ -3901,7 +3901,7 @@
         <v>8.7731840201125806</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M10" s="5">
@@ -3909,35 +3909,35 @@
         <v>2.7176050085623271</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="4"/>
+        <f>I10-K10</f>
         <v>-0.77318402011258058</v>
       </c>
       <c r="O10" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="6"/>
+        <f>N10/M10</f>
         <v>-0.28450934469009237</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R10" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I10&gt;K10,1-_xlfn.NORM.DIST(I10,K10,M10,1),_xlfn.NORM.DIST(I10,K10,M10,1))</f>
         <v>0.3880100368901796</v>
       </c>
       <c r="S10" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="10"/>
+        <f>E10/K10</f>
         <v>234.80642777780983</v>
       </c>
       <c r="U10" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C10=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T10)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V10" s="4"/>
@@ -3963,7 +3963,7 @@
         <v>720</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" s="4">
@@ -3971,7 +3971,7 @@
         <v>68</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I11" s="4">
@@ -3979,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="5">
@@ -3987,7 +3987,7 @@
         <v>3.2402189600805982</v>
       </c>
       <c r="L11" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="5">
@@ -3995,35 +3995,35 @@
         <v>1.6903967309717229</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="4"/>
+        <f>I11-K11</f>
         <v>3.7597810399194018</v>
       </c>
       <c r="O11" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="6"/>
+        <f>N11/M11</f>
         <v>2.224200373221318</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I11&gt;K11,1-_xlfn.NORM.DIST(I11,K11,M11,1),_xlfn.NORM.DIST(I11,K11,M11,1))</f>
         <v>1.3067482981361178E-2</v>
       </c>
       <c r="S11" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="10"/>
+        <f>E11/K11</f>
         <v>222.20720539888777</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C11=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T11)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V11" s="4"/>
@@ -4049,7 +4049,7 @@
         <v>1800</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E12)+1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="4">
@@ -4057,7 +4057,7 @@
         <v>170</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G12)+1)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4">
@@ -4065,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I12)+1)</f>
         <v>1</v>
       </c>
       <c r="K12" s="5">
@@ -4073,7 +4073,7 @@
         <v>7.5541199907867584</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K12)+1)</f>
         <v>1</v>
       </c>
       <c r="M12" s="5">
@@ -4081,35 +4081,35 @@
         <v>2.5856751094821875</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="4"/>
+        <f>I12-K12</f>
         <v>1.4458800092132416</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N12)+1)</f>
         <v>4</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="6"/>
+        <f>N12/M12</f>
         <v>0.55918858634285129</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P12)+1)</f>
         <v>5</v>
       </c>
       <c r="R12" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I12&gt;K12,1-_xlfn.NORM.DIST(I12,K12,M12,1),_xlfn.NORM.DIST(I12,K12,M12,1))</f>
         <v>0.28801651091050329</v>
       </c>
       <c r="S12" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R12)+1)</f>
         <v>16</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="10"/>
+        <f>E12/K12</f>
         <v>238.28056771607234</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C12=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T12)+1)</f>
         <v>20</v>
       </c>
       <c r="V12" s="4"/>
@@ -4135,7 +4135,7 @@
         <v>560</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E13)+1)</f>
         <v>14</v>
       </c>
       <c r="G13" s="4">
@@ -4143,7 +4143,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G13)+1)</f>
         <v>15</v>
       </c>
       <c r="I13" s="4">
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I13)+1)</f>
         <v>23</v>
       </c>
       <c r="K13" s="5">
@@ -4159,7 +4159,7 @@
         <v>2.4986609374725086</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K13)+1)</f>
         <v>14</v>
       </c>
       <c r="M13" s="5">
@@ -4167,35 +4167,35 @@
         <v>1.4954768990915936</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="4"/>
+        <f>I13-K13</f>
         <v>-2.4986609374725086</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N13)+1)</f>
         <v>32</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="6"/>
+        <f>N13/M13</f>
         <v>-1.6708121262122371</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P13)+1)</f>
         <v>33</v>
       </c>
       <c r="R13" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I13&gt;K13,1-_xlfn.NORM.DIST(I13,K13,M13,1),_xlfn.NORM.DIST(I13,K13,M13,1))</f>
         <v>4.7379396299877204E-2</v>
       </c>
       <c r="S13" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R13)+1)</f>
         <v>32</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="10"/>
+        <f>E13/K13</f>
         <v>224.12004430119339</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C13=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T13)+1)</f>
         <v>14</v>
       </c>
       <c r="V13" s="4"/>
@@ -4221,7 +4221,7 @@
         <v>530</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G14" s="4">
@@ -4229,7 +4229,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I14" s="4">
@@ -4237,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="5">
@@ -4245,7 +4245,7 @@
         <v>2.1645166106756251</v>
       </c>
       <c r="L14" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="5">
@@ -4253,35 +4253,35 @@
         <v>1.3966272062273601</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="4"/>
+        <f>I14-K14</f>
         <v>0.83548338932437494</v>
       </c>
       <c r="O14" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="6"/>
+        <f>N14/M14</f>
         <v>0.59821503232865181</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R14" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I14&gt;K14,1-_xlfn.NORM.DIST(I14,K14,M14,1),_xlfn.NORM.DIST(I14,K14,M14,1))</f>
         <v>0.27484823119819857</v>
       </c>
       <c r="S14" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" si="10"/>
+        <f>E14/K14</f>
         <v>244.85836578291148</v>
       </c>
       <c r="U14" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C14=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T14)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V14" s="4"/>
@@ -4307,7 +4307,7 @@
         <v>720</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G15" s="4">
@@ -4315,7 +4315,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I15" s="4">
@@ -4323,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="5">
@@ -4331,7 +4331,7 @@
         <v>3.3228848135790381</v>
       </c>
       <c r="L15" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M15" s="5">
@@ -4339,35 +4339,35 @@
         <v>1.7072968480631159</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="4"/>
+        <f>I15-K15</f>
         <v>-0.32288481357903809</v>
       </c>
       <c r="O15" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="6"/>
+        <f>N15/M15</f>
         <v>-0.18912048830017028</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R15" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I15&gt;K15,1-_xlfn.NORM.DIST(I15,K15,M15,1),_xlfn.NORM.DIST(I15,K15,M15,1))</f>
         <v>0.42499919195049596</v>
       </c>
       <c r="S15" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="10"/>
+        <f>E15/K15</f>
         <v>216.67919304867414</v>
       </c>
       <c r="U15" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C15=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T15)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V15" s="4"/>
@@ -4393,7 +4393,7 @@
         <v>1020</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E16)+1)</f>
         <v>5</v>
       </c>
       <c r="G16" s="4">
@@ -4401,7 +4401,7 @@
         <v>98</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G16)+1)</f>
         <v>5</v>
       </c>
       <c r="I16" s="4">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I16)+1)</f>
         <v>2</v>
       </c>
       <c r="K16" s="5">
@@ -4417,7 +4417,7 @@
         <v>4.5559227870088854</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K16)+1)</f>
         <v>5</v>
       </c>
       <c r="M16" s="5">
@@ -4425,35 +4425,35 @@
         <v>2.0169102529019636</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="4"/>
+        <f>I16-K16</f>
         <v>2.4440772129911146</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N16)+1)</f>
         <v>1</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="6"/>
+        <f>N16/M16</f>
         <v>1.2117927455991342</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P16)+1)</f>
         <v>2</v>
       </c>
       <c r="R16" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I16&gt;K16,1-_xlfn.NORM.DIST(I16,K16,M16,1),_xlfn.NORM.DIST(I16,K16,M16,1))</f>
         <v>0.11279586296928212</v>
       </c>
       <c r="S16" s="32">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R16)+1)</f>
+        <v>29</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="10"/>
+        <f>E16/K16</f>
         <v>223.88439130454708</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C16=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T16)+1)</f>
         <v>13</v>
       </c>
       <c r="V16" s="4"/>
@@ -4479,7 +4479,7 @@
         <v>1040</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E17)+1)</f>
         <v>4</v>
       </c>
       <c r="G17" s="4">
@@ -4487,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G17)+1)</f>
         <v>6</v>
       </c>
       <c r="I17" s="4">
@@ -4495,7 +4495,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I17)+1)</f>
         <v>3</v>
       </c>
       <c r="K17" s="5">
@@ -4503,7 +4503,7 @@
         <v>4.8974107512412388</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K17)+1)</f>
         <v>4</v>
       </c>
       <c r="M17" s="5">
@@ -4511,35 +4511,35 @@
         <v>2.0850751321114935</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="4"/>
+        <f>I17-K17</f>
         <v>1.1025892487587612</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N17)+1)</f>
         <v>6</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="6"/>
+        <f>N17/M17</f>
         <v>0.52880072846209714</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P17)+1)</f>
         <v>7</v>
       </c>
       <c r="R17" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I17&gt;K17,1-_xlfn.NORM.DIST(I17,K17,M17,1),_xlfn.NORM.DIST(I17,K17,M17,1))</f>
         <v>0.29847184618231593</v>
       </c>
       <c r="S17" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R17)+1)</f>
         <v>14</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="10"/>
+        <f>E17/K17</f>
         <v>212.35711130344012</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C17=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T17)+1)</f>
         <v>7</v>
       </c>
       <c r="V17" s="4"/>
@@ -4565,7 +4565,7 @@
         <v>220</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E18)+1)</f>
         <v>24</v>
       </c>
       <c r="G18" s="4">
@@ -4573,7 +4573,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G18)+1)</f>
         <v>24</v>
       </c>
       <c r="I18" s="4">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I18)+1)</f>
         <v>23</v>
       </c>
       <c r="K18" s="5">
@@ -4589,7 +4589,7 @@
         <v>0.88919799389614118</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K18)+1)</f>
         <v>24</v>
       </c>
       <c r="M18" s="5">
@@ -4597,35 +4597,35 @@
         <v>0.90983539619619269</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="4"/>
+        <f>I18-K18</f>
         <v>-0.88919799389614118</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N18)+1)</f>
         <v>25</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="6"/>
+        <f>N18/M18</f>
         <v>-0.97731743303642438</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P18)+1)</f>
         <v>28</v>
       </c>
       <c r="R18" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I18&gt;K18,1-_xlfn.NORM.DIST(I18,K18,M18,1),_xlfn.NORM.DIST(I18,K18,M18,1))</f>
         <v>0.16420601256102682</v>
       </c>
       <c r="S18" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R18)+1)</f>
         <v>25</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="10"/>
+        <f>E18/K18</f>
         <v>247.41396349314766</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C18=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T18)+1)</f>
         <v>26</v>
       </c>
       <c r="V18" s="4"/>
@@ -4651,23 +4651,23 @@
         <v>340</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E19)+1)</f>
+        <v>20</v>
       </c>
       <c r="G19" s="4">
         <f>SUMIF(Sales!B:B,A19,Sales!D:D)</f>
         <v>32</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G19)+1)</f>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <f>SUMIF(Prizes!B:B,A19,Prizes!D:D)</f>
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I19)+1)</f>
         <v>18</v>
       </c>
       <c r="K19" s="5">
@@ -4675,43 +4675,43 @@
         <v>1.3786580188649971</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K19)+1)</f>
+        <v>22</v>
       </c>
       <c r="M19" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A19,Sales!G:G))</f>
         <v>1.1321394309179194</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="4"/>
+        <f>I19-K19</f>
         <v>-0.37865801886499706</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N19)+1)</f>
         <v>18</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="6"/>
+        <f>N19/M19</f>
         <v>-0.33446235377385236</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P19)+1)</f>
         <v>16</v>
       </c>
       <c r="R19" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I19&gt;K19,1-_xlfn.NORM.DIST(I19,K19,M19,1),_xlfn.NORM.DIST(I19,K19,M19,1))</f>
         <v>0.36901534705848416</v>
       </c>
       <c r="S19" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R19)+1)</f>
         <v>8</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="10"/>
+        <f>E19/K19</f>
         <v>246.61663396402727</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C19=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T19)+1)</f>
         <v>24</v>
       </c>
       <c r="V19" s="4"/>
@@ -4737,7 +4737,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G20" s="4">
@@ -4745,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I20" s="4">
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="5">
@@ -4761,7 +4761,7 @@
         <v>0.70284369885433717</v>
       </c>
       <c r="L20" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M20" s="5">
@@ -4769,35 +4769,35 @@
         <v>0.78059289122728581</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="4"/>
+        <f>I20-K20</f>
         <v>0.29715630114566283</v>
       </c>
       <c r="O20" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="6"/>
+        <f>N20/M20</f>
         <v>0.38068025533573507</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I20&gt;K20,1-_xlfn.NORM.DIST(I20,K20,M20,1),_xlfn.NORM.DIST(I20,K20,M20,1))</f>
         <v>0.35172026081826924</v>
       </c>
       <c r="S20" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="10"/>
+        <f>E20/K20</f>
         <v>213.41871634405473</v>
       </c>
       <c r="U20" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C20=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T20)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V20" s="4"/>
@@ -4823,7 +4823,7 @@
         <v>1570</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G21" s="4">
@@ -4831,7 +4831,7 @@
         <v>147</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I21" s="4">
@@ -4839,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="5">
@@ -4847,7 +4847,7 @@
         <v>5.3872370398255942</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="5">
@@ -4855,35 +4855,35 @@
         <v>2.1480307909963821</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="4"/>
+        <f>I21-K21</f>
         <v>-1.3872370398255942</v>
       </c>
       <c r="O21" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="6"/>
+        <f>N21/M21</f>
         <v>-0.6458180421064228</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I21&gt;K21,1-_xlfn.NORM.DIST(I21,K21,M21,1),_xlfn.NORM.DIST(I21,K21,M21,1))</f>
         <v>0.25919860106105741</v>
       </c>
       <c r="S21" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="10"/>
+        <f>E21/K21</f>
         <v>291.4295377006145</v>
       </c>
       <c r="U21" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C21=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T21)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V21" s="4"/>
@@ -4909,7 +4909,7 @@
         <v>860</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E22)+1)</f>
         <v>7</v>
       </c>
       <c r="G22" s="4">
@@ -4917,7 +4917,7 @@
         <v>85</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G22)+1)</f>
         <v>7</v>
       </c>
       <c r="I22" s="4">
@@ -4925,7 +4925,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I22)+1)</f>
         <v>3</v>
       </c>
       <c r="K22" s="5">
@@ -4933,7 +4933,7 @@
         <v>3.8059384171605499</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K22)+1)</f>
         <v>7</v>
       </c>
       <c r="M22" s="5">
@@ -4941,35 +4941,35 @@
         <v>1.8697596112891726</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="4"/>
+        <f>I22-K22</f>
         <v>2.1940615828394501</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N22)+1)</f>
         <v>3</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="6"/>
+        <f>N22/M22</f>
         <v>1.1734458106765264</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P22)+1)</f>
         <v>3</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I22&gt;K22,1-_xlfn.NORM.DIST(I22,K22,M22,1),_xlfn.NORM.DIST(I22,K22,M22,1))</f>
         <v>0.12030853778064177</v>
       </c>
       <c r="S22" s="32">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R22)+1)</f>
+        <v>28</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="10"/>
+        <f>E22/K22</f>
         <v>225.96266826661102</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C22=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T22)+1)</f>
         <v>16</v>
       </c>
       <c r="V22" s="4"/>
@@ -4995,7 +4995,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G23" s="4">
@@ -5003,7 +5003,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I23" s="4">
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="5">
@@ -5019,7 +5019,7 @@
         <v>0.63164893617021267</v>
       </c>
       <c r="L23" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="5">
@@ -5027,35 +5027,35 @@
         <v>0.75810728959235163</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="4"/>
+        <f>I23-K23</f>
         <v>0.36835106382978733</v>
       </c>
       <c r="O23" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="6"/>
+        <f>N23/M23</f>
         <v>0.4858824982778579</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R23" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I23&gt;K23,1-_xlfn.NORM.DIST(I23,K23,M23,1),_xlfn.NORM.DIST(I23,K23,M23,1))</f>
         <v>0.31352523895390516</v>
       </c>
       <c r="S23" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="10"/>
+        <f>E23/K23</f>
         <v>316.6315789473685</v>
       </c>
       <c r="U23" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C23=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T23)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V23" s="4"/>
@@ -5081,7 +5081,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G24" s="4">
@@ -5089,7 +5089,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I24" s="4">
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="5">
@@ -5105,7 +5105,7 @@
         <v>0.54326923076923084</v>
       </c>
       <c r="L24" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M24" s="5">
@@ -5113,35 +5113,35 @@
         <v>0.67686632105875888</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="4"/>
+        <f>I24-K24</f>
         <v>0.45673076923076916</v>
       </c>
       <c r="O24" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="6"/>
+        <f>N24/M24</f>
         <v>0.67477248464120332</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R24" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I24&gt;K24,1-_xlfn.NORM.DIST(I24,K24,M24,1),_xlfn.NORM.DIST(I24,K24,M24,1))</f>
         <v>0.24991016218462114</v>
       </c>
       <c r="S24" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="10"/>
+        <f>E24/K24</f>
         <v>184.07079646017698</v>
       </c>
       <c r="U24" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C24=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T24)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V24" s="4"/>
@@ -5167,7 +5167,7 @@
         <v>800</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G25" s="4">
@@ -5175,7 +5175,7 @@
         <v>75</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I25" s="4">
@@ -5183,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="5">
@@ -5191,7 +5191,7 @@
         <v>2.9991021425331783</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="5">
@@ -5199,35 +5199,35 @@
         <v>1.640793642686911</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="4"/>
+        <f>I25-K25</f>
         <v>1.0008978574668217</v>
       </c>
       <c r="O25" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="6"/>
+        <f>N25/M25</f>
         <v>0.61000837120979057</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R25" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I25&gt;K25,1-_xlfn.NORM.DIST(I25,K25,M25,1),_xlfn.NORM.DIST(I25,K25,M25,1))</f>
         <v>0.27092813112251135</v>
       </c>
       <c r="S25" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="10"/>
+        <f>E25/K25</f>
         <v>266.74650011229147</v>
       </c>
       <c r="U25" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C25=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T25)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V25" s="4"/>
@@ -5253,7 +5253,7 @@
         <v>850</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E26)+1)</f>
         <v>8</v>
       </c>
       <c r="G26" s="4">
@@ -5261,7 +5261,7 @@
         <v>81</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G26)+1)</f>
         <v>9</v>
       </c>
       <c r="I26" s="4">
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I26)+1)</f>
         <v>18</v>
       </c>
       <c r="K26" s="5">
@@ -5277,7 +5277,7 @@
         <v>3.4203082743728253</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K26)+1)</f>
         <v>8</v>
       </c>
       <c r="M26" s="5">
@@ -5285,35 +5285,35 @@
         <v>1.7553836370630092</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="4"/>
+        <f>I26-K26</f>
         <v>-2.4203082743728253</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N26)+1)</f>
         <v>31</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="6"/>
+        <f>N26/M26</f>
         <v>-1.3787916346436517</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P26)+1)</f>
         <v>32</v>
       </c>
       <c r="R26" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I26&gt;K26,1-_xlfn.NORM.DIST(I26,K26,M26,1),_xlfn.NORM.DIST(I26,K26,M26,1))</f>
         <v>8.3979503335431097E-2</v>
       </c>
       <c r="S26" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R26)+1)</f>
         <v>31</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="10"/>
+        <f>E26/K26</f>
         <v>248.51561082044944</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C26=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T26)+1)</f>
         <v>27</v>
       </c>
       <c r="V26" s="4"/>
@@ -5339,7 +5339,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G27" s="4">
@@ -5347,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I27" s="4">
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="5">
@@ -5363,7 +5363,7 @@
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="5">
@@ -5371,35 +5371,35 @@
         <v>0.24791576048881739</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="4"/>
+        <f>I27-K27</f>
         <v>-6.3829787234042548E-2</v>
       </c>
       <c r="O27" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="6"/>
+        <f>N27/M27</f>
         <v>-0.25746562908380199</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R27" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I27&gt;K27,1-_xlfn.NORM.DIST(I27,K27,M27,1),_xlfn.NORM.DIST(I27,K27,M27,1))</f>
         <v>0.39840967257938792</v>
       </c>
       <c r="S27" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="10"/>
+        <f>E27/K27</f>
         <v>313.33333333333337</v>
       </c>
       <c r="U27" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C27=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T27)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V27" s="4"/>
@@ -5425,7 +5425,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G28" s="4">
@@ -5433,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I28" s="4">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="5">
@@ -5449,7 +5449,7 @@
         <v>0.31914893617021273</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M28" s="5">
@@ -5457,35 +5457,35 @@
         <v>0.54230382522055953</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="4"/>
+        <f>I28-K28</f>
         <v>-0.31914893617021273</v>
       </c>
       <c r="O28" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="6"/>
+        <f>N28/M28</f>
         <v>-0.58850578094375816</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R28" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I28&gt;K28,1-_xlfn.NORM.DIST(I28,K28,M28,1),_xlfn.NORM.DIST(I28,K28,M28,1))</f>
         <v>0.27809642736849838</v>
       </c>
       <c r="S28" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" si="10"/>
+        <f>E28/K28</f>
         <v>313.33333333333337</v>
       </c>
       <c r="U28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C28=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T28)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V28" s="4"/>
@@ -5511,7 +5511,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G29" s="4">
@@ -5519,7 +5519,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I29" s="4">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K29" s="5">
@@ -5535,7 +5535,7 @@
         <v>0.58616138763197578</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M29" s="5">
@@ -5543,35 +5543,35 @@
         <v>0.71401106976234563</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="4"/>
+        <f>I29-K29</f>
         <v>-0.58616138763197578</v>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="6"/>
+        <f>N29/M29</f>
         <v>-0.82094159664369926</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R29" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I29&gt;K29,1-_xlfn.NORM.DIST(I29,K29,M29,1),_xlfn.NORM.DIST(I29,K29,M29,1))</f>
         <v>0.20583976793322406</v>
       </c>
       <c r="S29" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="10"/>
+        <f>E29/K29</f>
         <v>170.6014795754262</v>
       </c>
       <c r="U29" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C29=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T29)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V29" s="4"/>
@@ -5597,7 +5597,7 @@
         <v>240</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G30" s="4">
@@ -5605,7 +5605,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I30" s="4">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K30" s="5">
@@ -5621,7 +5621,7 @@
         <v>0.7941427895328429</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="5">
@@ -5629,35 +5629,35 @@
         <v>0.86060092285446455</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="4"/>
+        <f>I30-K30</f>
         <v>-0.7941427895328429</v>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="6"/>
+        <f>N30/M30</f>
         <v>-0.92277706012539296</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R30" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I30&gt;K30,1-_xlfn.NORM.DIST(I30,K30,M30,1),_xlfn.NORM.DIST(I30,K30,M30,1))</f>
         <v>0.17806169891377793</v>
       </c>
       <c r="S30" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="10"/>
+        <f>E30/K30</f>
         <v>302.21265389966049</v>
       </c>
       <c r="U30" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C30=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T30)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V30" s="4"/>
@@ -5683,7 +5683,7 @@
         <v>1000</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="0"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E31)+1)</f>
         <v>6</v>
       </c>
       <c r="G31" s="4">
@@ -5691,7 +5691,7 @@
         <v>101</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G31)+1)</f>
         <v>4</v>
       </c>
       <c r="I31" s="4">
@@ -5699,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="2"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I31)+1)</f>
         <v>6</v>
       </c>
       <c r="K31" s="5">
@@ -5707,7 +5707,7 @@
         <v>4.1786525121430946</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K31)+1)</f>
         <v>6</v>
       </c>
       <c r="M31" s="5">
@@ -5715,35 +5715,35 @@
         <v>1.9324236475762098</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="4"/>
+        <f>I31-K31</f>
         <v>-0.17865251214309463</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="5"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N31)+1)</f>
         <v>16</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="6"/>
+        <f>N31/M31</f>
         <v>-9.2449972016836982E-2</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="7"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P31)+1)</f>
         <v>12</v>
       </c>
       <c r="R31" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I31&gt;K31,1-_xlfn.NORM.DIST(I31,K31,M31,1),_xlfn.NORM.DIST(I31,K31,M31,1))</f>
         <v>0.46317026873308886</v>
       </c>
       <c r="S31" s="32">
-        <f t="shared" si="9"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R31)+1)</f>
         <v>1</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="10"/>
+        <f>E31/K31</f>
         <v>239.31159556675667</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="11"/>
+        <f>IF($C31=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T31)+1)</f>
         <v>21</v>
       </c>
       <c r="V31" s="4"/>
@@ -5769,7 +5769,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G32" s="4">
@@ -5777,7 +5777,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I32" s="4">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="5">
@@ -5793,7 +5793,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="L32" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M32" s="5">
@@ -5801,35 +5801,35 @@
         <v>0.43925136315935126</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="4"/>
+        <f>I32-K32</f>
         <v>-0.20833333333333331</v>
       </c>
       <c r="O32" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="6"/>
+        <f>N32/M32</f>
         <v>-0.47429183107111794</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R32" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I32&gt;K32,1-_xlfn.NORM.DIST(I32,K32,M32,1),_xlfn.NORM.DIST(I32,K32,M32,1))</f>
         <v>0.31764590799841352</v>
       </c>
       <c r="S32" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" si="10"/>
+        <f>E32/K32</f>
         <v>240.00000000000003</v>
       </c>
       <c r="U32" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C32=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T32)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V32" s="4"/>
@@ -5855,7 +5855,7 @@
         <v>160</v>
       </c>
       <c r="F33" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G33" s="4">
@@ -5863,7 +5863,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I33" s="4">
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K33" s="5">
@@ -5879,7 +5879,7 @@
         <v>0.68315789473684219</v>
       </c>
       <c r="L33" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M33" s="5">
@@ -5887,35 +5887,35 @@
         <v>0.79496113990168826</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="4"/>
+        <f>I33-K33</f>
         <v>0.31684210526315781</v>
       </c>
       <c r="O33" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="6"/>
+        <f>N33/M33</f>
         <v>0.39856301064268529</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R33" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(I33&gt;K33,1-_xlfn.NORM.DIST(I33,K33,M33,1),_xlfn.NORM.DIST(I33,K33,M33,1))</f>
         <v>0.34510761059987882</v>
       </c>
       <c r="S33" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="10"/>
+        <f>E33/K33</f>
         <v>234.20647149460706</v>
       </c>
       <c r="U33" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF($C33=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T33)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V33" s="4"/>
@@ -5941,7 +5941,7 @@
         <v>820</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F52" si="12">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
         <v>9</v>
       </c>
       <c r="G34" s="4">
@@ -5949,7 +5949,7 @@
         <v>83</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" ref="H34:H52" si="13">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
         <v>8</v>
       </c>
       <c r="I34" s="4">
@@ -5957,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" ref="J34:J52" si="14">IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
         <v>6</v>
       </c>
       <c r="K34" s="5">
@@ -5965,7 +5965,7 @@
         <v>3.4054149521089765</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" ref="L34:L52" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
         <v>9</v>
       </c>
       <c r="M34" s="5">
@@ -5973,35 +5973,35 @@
         <v>1.7445127563867142</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" ref="N34:N52" si="16">I34-K34</f>
+        <f>I34-K34</f>
         <v>0.59458504789102351</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:O52" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
         <v>8</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34:P52" si="18">N34/M34</f>
+        <f>N34/M34</f>
         <v>0.34083158504529681</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q52" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
         <v>8</v>
       </c>
       <c r="R34" s="17">
-        <f t="shared" ref="R34:R52" si="20">IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
+        <f>IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
         <v>0.36661518558908524</v>
       </c>
       <c r="S34" s="32">
-        <f t="shared" ref="S34:S52" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
         <v>9</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" ref="T34:T52" si="22">E34/K34</f>
+        <f>E34/K34</f>
         <v>240.79297575532559</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U52" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
+        <f>IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
         <v>22</v>
       </c>
       <c r="V34" s="4"/>
@@ -6027,7 +6027,7 @@
         <v>1510</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="12"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E35)+1)</f>
         <v>2</v>
       </c>
       <c r="G35" s="4">
@@ -6035,7 +6035,7 @@
         <v>152</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="13"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G35)+1)</f>
         <v>2</v>
       </c>
       <c r="I35" s="4">
@@ -6043,7 +6043,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="14"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I35)+1)</f>
         <v>3</v>
       </c>
       <c r="K35" s="5">
@@ -6051,7 +6051,7 @@
         <v>6.7593403877425144</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K35)+1)</f>
         <v>2</v>
       </c>
       <c r="M35" s="5">
@@ -6059,35 +6059,35 @@
         <v>2.4375937677521211</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="16"/>
+        <f>I35-K35</f>
         <v>-0.75934038774251444</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="17"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N35)+1)</f>
         <v>23</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="18"/>
+        <f>N35/M35</f>
         <v>-0.31151227812776872</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="19"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P35)+1)</f>
         <v>15</v>
       </c>
       <c r="R35" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I35&gt;K35,1-_xlfn.NORM.DIST(I35,K35,M35,1),_xlfn.NORM.DIST(I35,K35,M35,1))</f>
         <v>0.37770560515978768</v>
       </c>
       <c r="S35" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R35)+1)</f>
         <v>7</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="22"/>
+        <f>E35/K35</f>
         <v>223.39457896487295</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C35=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T35)+1)</f>
         <v>12</v>
       </c>
       <c r="V35" s="4"/>
@@ -6113,7 +6113,7 @@
         <v>750</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="12"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E36)+1)</f>
         <v>10</v>
       </c>
       <c r="G36" s="4">
@@ -6121,7 +6121,7 @@
         <v>76</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="13"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G36)+1)</f>
         <v>10</v>
       </c>
       <c r="I36" s="4">
@@ -6129,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="14"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I36)+1)</f>
         <v>11</v>
       </c>
       <c r="K36" s="5">
@@ -6137,7 +6137,7 @@
         <v>3.3959495602492105</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K36)+1)</f>
         <v>10</v>
       </c>
       <c r="M36" s="5">
@@ -6145,35 +6145,35 @@
         <v>1.7584640236594731</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="16"/>
+        <f>I36-K36</f>
         <v>-1.3959495602492105</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="17"/>
-        <v>30</v>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N36)+1)</f>
+        <v>29</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="18"/>
+        <f>N36/M36</f>
         <v>-0.79384595958019799</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="19"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P36)+1)</f>
         <v>27</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I36&gt;K36,1-_xlfn.NORM.DIST(I36,K36,M36,1),_xlfn.NORM.DIST(I36,K36,M36,1))</f>
         <v>0.21364255652874861</v>
       </c>
       <c r="S36" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R36)+1)</f>
         <v>23</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="22"/>
+        <f>E36/K36</f>
         <v>220.85133677455491</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C36=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T36)+1)</f>
         <v>10</v>
       </c>
       <c r="V36" s="4"/>
@@ -6199,7 +6199,7 @@
         <v>650</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="12"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E37)+1)</f>
         <v>12</v>
       </c>
       <c r="G37" s="4">
@@ -6207,7 +6207,7 @@
         <v>66</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="13"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G37)+1)</f>
         <v>11</v>
       </c>
       <c r="I37" s="4">
@@ -6215,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="14"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I37)+1)</f>
         <v>11</v>
       </c>
       <c r="K37" s="5">
@@ -6223,7 +6223,7 @@
         <v>3.0918110715694103</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K37)+1)</f>
         <v>11</v>
       </c>
       <c r="M37" s="5">
@@ -6231,35 +6231,35 @@
         <v>1.6769795571951143</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="16"/>
+        <f>I37-K37</f>
         <v>-1.0918110715694103</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="17"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N37)+1)</f>
         <v>27</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="18"/>
+        <f>N37/M37</f>
         <v>-0.65105806858823834</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="19"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P37)+1)</f>
         <v>22</v>
       </c>
       <c r="R37" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I37&gt;K37,1-_xlfn.NORM.DIST(I37,K37,M37,1),_xlfn.NORM.DIST(I37,K37,M37,1))</f>
         <v>0.25750450144443959</v>
       </c>
       <c r="S37" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R37)+1)</f>
         <v>18</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="22"/>
+        <f>E37/K37</f>
         <v>210.23276809409268</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C37=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T37)+1)</f>
         <v>4</v>
       </c>
       <c r="V37" s="4"/>
@@ -6285,7 +6285,7 @@
         <v>450</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="12"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E38)+1)</f>
         <v>16</v>
       </c>
       <c r="G38" s="4">
@@ -6293,7 +6293,7 @@
         <v>46</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="13"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G38)+1)</f>
         <v>16</v>
       </c>
       <c r="I38" s="4">
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="14"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I38)+1)</f>
         <v>11</v>
       </c>
       <c r="K38" s="5">
@@ -6309,7 +6309,7 @@
         <v>2.1354304779193765</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K38)+1)</f>
         <v>15</v>
       </c>
       <c r="M38" s="5">
@@ -6317,35 +6317,35 @@
         <v>1.3926588531059174</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="16"/>
+        <f>I38-K38</f>
         <v>-0.13543047791937646</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="17"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N38)+1)</f>
         <v>13</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="18"/>
+        <f>N38/M38</f>
         <v>-9.7245982113522256E-2</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="19"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P38)+1)</f>
         <v>13</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I38&gt;K38,1-_xlfn.NORM.DIST(I38,K38,M38,1),_xlfn.NORM.DIST(I38,K38,M38,1))</f>
         <v>0.46126552630700979</v>
       </c>
       <c r="S38" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R38)+1)</f>
         <v>2</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="22"/>
+        <f>E38/K38</f>
         <v>210.73034437461553</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C38=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T38)+1)</f>
         <v>5</v>
       </c>
       <c r="V38" s="4"/>
@@ -6371,7 +6371,7 @@
         <v>1500</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="12"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E39)+1)</f>
         <v>3</v>
       </c>
       <c r="G39" s="4">
@@ -6379,7 +6379,7 @@
         <v>151</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="13"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G39)+1)</f>
         <v>3</v>
       </c>
       <c r="I39" s="4">
@@ -6387,7 +6387,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="14"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I39)+1)</f>
         <v>6</v>
       </c>
       <c r="K39" s="5">
@@ -6395,7 +6395,7 @@
         <v>6.7456182608128401</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K39)+1)</f>
         <v>3</v>
       </c>
       <c r="M39" s="5">
@@ -6403,35 +6403,35 @@
         <v>2.4361086141088233</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="16"/>
+        <f>I39-K39</f>
         <v>-2.7456182608128401</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="17"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N39)+1)</f>
         <v>33</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="18"/>
+        <f>N39/M39</f>
         <v>-1.1270508403900708</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P39)+1)</f>
+        <v>29</v>
       </c>
       <c r="R39" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I39&gt;K39,1-_xlfn.NORM.DIST(I39,K39,M39,1),_xlfn.NORM.DIST(I39,K39,M39,1))</f>
         <v>0.12986049313998585</v>
       </c>
       <c r="S39" s="32">
-        <f t="shared" si="21"/>
-        <v>27</v>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R39)+1)</f>
+        <v>26</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" si="22"/>
+        <f>E39/K39</f>
         <v>222.3665707136015</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C39=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T39)+1)</f>
         <v>11</v>
       </c>
       <c r="V39" s="4"/>
@@ -6457,7 +6457,7 @@
         <v>360</v>
       </c>
       <c r="F40" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G40" s="8">
@@ -6465,7 +6465,7 @@
         <v>37</v>
       </c>
       <c r="H40" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I40" s="8">
@@ -6473,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K40" s="9">
@@ -6481,7 +6481,7 @@
         <v>1.7654362892118982</v>
       </c>
       <c r="L40" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M40" s="9">
@@ -6489,35 +6489,35 @@
         <v>1.2439598119364987</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="16"/>
+        <f>I40-K40</f>
         <v>2.2345637107881018</v>
       </c>
       <c r="O40" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="18"/>
+        <f>N40/M40</f>
         <v>1.7963311108174056</v>
       </c>
       <c r="Q40" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R40" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I40&gt;K40,1-_xlfn.NORM.DIST(I40,K40,M40,1),_xlfn.NORM.DIST(I40,K40,M40,1))</f>
         <v>3.6220936405928716E-2</v>
       </c>
       <c r="S40" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="22"/>
+        <f>E40/K40</f>
         <v>203.9155999000713</v>
       </c>
       <c r="U40" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>IF($C40=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T40)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V40" s="4"/>
@@ -6543,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="30">
-        <f t="shared" si="12"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E41)+1)</f>
         <v>32</v>
       </c>
       <c r="G41" s="8">
@@ -6551,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="13"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G41)+1)</f>
         <v>29</v>
       </c>
       <c r="I41" s="8">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="14"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I41)+1)</f>
         <v>23</v>
       </c>
       <c r="K41" s="9">
@@ -6567,7 +6567,7 @@
         <v>0.44943930749557348</v>
       </c>
       <c r="L41" s="30">
-        <f t="shared" si="15"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K41)+1)</f>
         <v>27</v>
       </c>
       <c r="M41" s="9">
@@ -6575,35 +6575,35 @@
         <v>0.61791657214945761</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="16"/>
+        <f>I41-K41</f>
         <v>-0.44943930749557348</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="17"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N41)+1)</f>
         <v>22</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="18"/>
+        <f>N41/M41</f>
         <v>-0.72734625959645904</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P41)+1)</f>
         <v>26</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I41&gt;K41,1-_xlfn.NORM.DIST(I41,K41,M41,1),_xlfn.NORM.DIST(I41,K41,M41,1))</f>
         <v>0.23350693326254907</v>
       </c>
       <c r="S41" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R41)+1)</f>
         <v>22</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" si="22"/>
+        <f>E41/K41</f>
         <v>88.999781133727296</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C41=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T41)+1)</f>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="30" t="str">
-        <f t="shared" si="12"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G42" s="8">
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I42" s="8">
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K42" s="9">
@@ -6653,7 +6653,7 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="L42" s="30" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M42" s="9">
@@ -6661,35 +6661,35 @@
         <v>0.42132504423474315</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="16"/>
+        <f>I42-K42</f>
         <v>-0.23076923076923078</v>
       </c>
       <c r="O42" s="30" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="18"/>
+        <f>N42/M42</f>
         <v>-0.54772255750516619</v>
       </c>
       <c r="Q42" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I42&gt;K42,1-_xlfn.NORM.DIST(I42,K42,M42,1),_xlfn.NORM.DIST(I42,K42,M42,1))</f>
         <v>0.2919412103851825</v>
       </c>
       <c r="S42" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="22"/>
+        <f>E42/K42</f>
         <v>0</v>
       </c>
       <c r="U42" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>IF($C42=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T42)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V42" s="4"/>
@@ -6715,7 +6715,7 @@
         <v>610</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="12"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E43)+1)</f>
         <v>13</v>
       </c>
       <c r="G43" s="8">
@@ -6723,7 +6723,7 @@
         <v>61</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="13"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G43)+1)</f>
         <v>13</v>
       </c>
       <c r="I43" s="8">
@@ -6731,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="10">
-        <f t="shared" si="14"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I43)+1)</f>
         <v>6</v>
       </c>
       <c r="K43" s="9">
@@ -6739,7 +6739,7 @@
         <v>2.5954788994901623</v>
       </c>
       <c r="L43" s="30">
-        <f t="shared" si="15"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K43)+1)</f>
         <v>13</v>
       </c>
       <c r="M43" s="9">
@@ -6747,35 +6747,35 @@
         <v>1.5361196552748302</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="16"/>
+        <f>I43-K43</f>
         <v>1.4045211005098377</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="17"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N43)+1)</f>
         <v>5</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="18"/>
+        <f>N43/M43</f>
         <v>0.91433053127528141</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P43)+1)</f>
         <v>4</v>
       </c>
       <c r="R43" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I43&gt;K43,1-_xlfn.NORM.DIST(I43,K43,M43,1),_xlfn.NORM.DIST(I43,K43,M43,1))</f>
         <v>0.18027159619307453</v>
       </c>
       <c r="S43" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R43)+1)</f>
         <v>24</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="22"/>
+        <f>E43/K43</f>
         <v>235.02406439128598</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C43=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T43)+1)</f>
         <v>19</v>
       </c>
       <c r="V43" s="4"/>
@@ -6801,7 +6801,7 @@
         <v>180</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="12"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E44)+1)</f>
         <v>26</v>
       </c>
       <c r="G44" s="8">
@@ -6809,7 +6809,7 @@
         <v>18</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="13"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G44)+1)</f>
         <v>26</v>
       </c>
       <c r="I44" s="8">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="14"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I44)+1)</f>
         <v>18</v>
       </c>
       <c r="K44" s="9">
@@ -6825,7 +6825,7 @@
         <v>0.77946480083496894</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" si="15"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K44)+1)</f>
         <v>25</v>
       </c>
       <c r="M44" s="9">
@@ -6833,35 +6833,35 @@
         <v>0.85313059319831075</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="16"/>
+        <f>I44-K44</f>
         <v>0.22053519916503106</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="17"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N44)+1)</f>
         <v>11</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="18"/>
+        <f>N44/M44</f>
         <v>0.2585011027892743</v>
       </c>
       <c r="Q44" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P44)+1)</f>
         <v>9</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I44&gt;K44,1-_xlfn.NORM.DIST(I44,K44,M44,1),_xlfn.NORM.DIST(I44,K44,M44,1))</f>
         <v>0.39801009896921591</v>
       </c>
       <c r="S44" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R44)+1)</f>
         <v>6</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="22"/>
+        <f>E44/K44</f>
         <v>230.92768243951818</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C44=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T44)+1)</f>
         <v>18</v>
       </c>
       <c r="V44" s="4"/>
@@ -6887,23 +6887,23 @@
         <v>300</v>
       </c>
       <c r="F45" s="30">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E45)+1)</f>
+        <v>21</v>
       </c>
       <c r="G45" s="8">
         <f>SUMIF(Sales!B:B,A45,Sales!D:D)</f>
         <v>30</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G45)+1)</f>
+        <v>20</v>
       </c>
       <c r="I45" s="8">
         <f>SUMIF(Prizes!B:B,A45,Prizes!D:D)</f>
         <v>1</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="14"/>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I45)+1)</f>
         <v>18</v>
       </c>
       <c r="K45" s="9">
@@ -6911,43 +6911,43 @@
         <v>1.3879411334843073</v>
       </c>
       <c r="L45" s="30">
-        <f t="shared" si="15"/>
-        <v>20</v>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K45)+1)</f>
+        <v>21</v>
       </c>
       <c r="M45" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A45,Sales!G:G))</f>
         <v>1.1316866919830026</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="16"/>
+        <f>I45-K45</f>
         <v>-0.38794113348430725</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" si="17"/>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N45)+1)</f>
         <v>19</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="18"/>
+        <f>N45/M45</f>
         <v>-0.34279905934436306</v>
       </c>
       <c r="Q45" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P45)+1)</f>
         <v>17</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I45&gt;K45,1-_xlfn.NORM.DIST(I45,K45,M45,1),_xlfn.NORM.DIST(I45,K45,M45,1))</f>
         <v>0.36587481683043532</v>
       </c>
       <c r="S45" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R45)+1)</f>
         <v>10</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" si="22"/>
+        <f>E45/K45</f>
         <v>216.14749556912093</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C45=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T45)+1)</f>
         <v>9</v>
       </c>
       <c r="V45" s="4"/>
@@ -6973,7 +6973,7 @@
         <v>350</v>
       </c>
       <c r="F46" s="30">
-        <f t="shared" si="12"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E46)+1)</f>
         <v>17</v>
       </c>
       <c r="G46" s="8">
@@ -6981,7 +6981,7 @@
         <v>35</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="13"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G46)+1)</f>
         <v>17</v>
       </c>
       <c r="I46" s="8">
@@ -6989,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="14"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I46)+1)</f>
         <v>11</v>
       </c>
       <c r="K46" s="9">
@@ -6997,7 +6997,7 @@
         <v>1.7130713531328208</v>
       </c>
       <c r="L46" s="30">
-        <f t="shared" si="15"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K46)+1)</f>
         <v>18</v>
       </c>
       <c r="M46" s="9">
@@ -7005,35 +7005,35 @@
         <v>1.2443964039556024</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="16"/>
+        <f>I46-K46</f>
         <v>0.28692864686717923</v>
       </c>
       <c r="O46" s="30">
-        <f t="shared" si="17"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N46)+1)</f>
         <v>9</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="18"/>
+        <f>N46/M46</f>
         <v>0.23057656383055272</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P46)+1)</f>
         <v>10</v>
       </c>
       <c r="R46" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I46&gt;K46,1-_xlfn.NORM.DIST(I46,K46,M46,1),_xlfn.NORM.DIST(I46,K46,M46,1))</f>
         <v>0.4088218881933674</v>
       </c>
       <c r="S46" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R46)+1)</f>
         <v>5</v>
       </c>
       <c r="T46" s="6">
-        <f t="shared" si="22"/>
+        <f>E46/K46</f>
         <v>204.31139622989377</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="23"/>
+        <f>IF($C46=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T46)+1)</f>
         <v>3</v>
       </c>
       <c r="V46" s="4"/>
@@ -7059,23 +7059,23 @@
         <v>250</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E47)+1)</f>
+        <v>23</v>
       </c>
       <c r="G47" s="10">
         <f>SUMIF(Sales!B:B,A47,Sales!D:D)</f>
         <v>25</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="13"/>
-        <v>22</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G47)+1)</f>
+        <v>23</v>
       </c>
       <c r="I47" s="10">
         <f>SUMIF(Prizes!B:B,A47,Prizes!D:D)</f>
         <v>0</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="14"/>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I47)+1)</f>
         <v>23</v>
       </c>
       <c r="K47" s="5">
@@ -7083,43 +7083,43 @@
         <v>1.184672257882758</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="15"/>
-        <v>22</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K47)+1)</f>
+        <v>23</v>
       </c>
       <c r="M47" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A47,Sales!G:G))</f>
         <v>1.0386412070417264</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="16"/>
+        <f>I47-K47</f>
         <v>-1.184672257882758</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="17"/>
-        <v>29</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N47)+1)</f>
+        <v>28</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="18"/>
+        <f>N47/M47</f>
         <v>-1.1405981679245709</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="19"/>
-        <v>31</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P47)+1)</f>
+        <v>30</v>
       </c>
       <c r="R47" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I47&gt;K47,1-_xlfn.NORM.DIST(I47,K47,M47,1),_xlfn.NORM.DIST(I47,K47,M47,1))</f>
         <v>0.12701859000624371</v>
       </c>
       <c r="S47" s="32">
-        <f t="shared" si="21"/>
-        <v>28</v>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R47)+1)</f>
+        <v>27</v>
       </c>
       <c r="T47" s="6">
-        <f t="shared" si="22"/>
+        <f>E47/K47</f>
         <v>211.02882956573922</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C47=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T47)+1)</f>
         <v>6</v>
       </c>
       <c r="X47" s="4"/>
@@ -7144,23 +7144,23 @@
         <v>300</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E48)+1)</f>
+        <v>21</v>
       </c>
       <c r="G48" s="10">
         <f>SUMIF(Sales!B:B,A48,Sales!D:D)</f>
         <v>30</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G48)+1)</f>
+        <v>20</v>
       </c>
       <c r="I48" s="10">
         <f>SUMIF(Prizes!B:B,A48,Prizes!D:D)</f>
         <v>2</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="14"/>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I48)+1)</f>
         <v>11</v>
       </c>
       <c r="K48" s="5">
@@ -7168,43 +7168,43 @@
         <v>1.4022344140591172</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="15"/>
-        <v>19</v>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K48)+1)</f>
+        <v>20</v>
       </c>
       <c r="M48" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A48,Sales!G:G))</f>
         <v>1.1263544351603461</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="16"/>
+        <f>I48-K48</f>
         <v>0.5977655859408828</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="17"/>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N48)+1)</f>
         <v>7</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="18"/>
+        <f>N48/M48</f>
         <v>0.53070824536309114</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P48)+1)</f>
         <v>6</v>
       </c>
       <c r="R48" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I48&gt;K48,1-_xlfn.NORM.DIST(I48,K48,M48,1),_xlfn.NORM.DIST(I48,K48,M48,1))</f>
         <v>0.29781048568497837</v>
       </c>
       <c r="S48" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R48)+1)</f>
         <v>15</v>
       </c>
       <c r="T48" s="6">
-        <f t="shared" si="22"/>
+        <f>E48/K48</f>
         <v>213.94425710290136</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C48=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T48)+1)</f>
         <v>8</v>
       </c>
       <c r="X48" s="4"/>
@@ -7226,70 +7226,70 @@
       </c>
       <c r="E49" s="28">
         <f>SUMIF(Sales!B:B,A49,Sales!E:E)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F49" s="31">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E49)+1)</f>
+        <v>17</v>
       </c>
       <c r="G49" s="28">
         <f>SUMIF(Sales!B:B,A49,Sales!D:D)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H49" s="28">
-        <f t="shared" si="13"/>
-        <v>22</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G49)+1)</f>
+        <v>17</v>
       </c>
       <c r="I49" s="28">
         <f>SUMIF(Prizes!B:B,A49,Prizes!D:D)</f>
         <v>0</v>
       </c>
       <c r="J49" s="28">
-        <f t="shared" si="14"/>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I49)+1)</f>
         <v>23</v>
       </c>
       <c r="K49" s="29">
         <f>SUMIF(Sales!B:B,A49,Sales!F:F)</f>
-        <v>1.1080697245444242</v>
+        <v>1.5492461951326595</v>
       </c>
       <c r="L49" s="31">
-        <f t="shared" si="15"/>
-        <v>23</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K49)+1)</f>
+        <v>19</v>
       </c>
       <c r="M49" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A49,Sales!G:G))</f>
-        <v>1.0008960839395842</v>
+        <v>1.1812669413653081</v>
       </c>
       <c r="N49" s="29">
-        <f t="shared" si="16"/>
-        <v>-1.1080697245444242</v>
+        <f>I49-K49</f>
+        <v>-1.5492461951326595</v>
       </c>
       <c r="O49" s="31">
-        <f t="shared" si="17"/>
-        <v>28</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N49)+1)</f>
+        <v>30</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="18"/>
-        <v>-1.1070776900065373</v>
+        <f>N49/M49</f>
+        <v>-1.3115123609080612</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="19"/>
-        <v>29</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P49)+1)</f>
+        <v>31</v>
       </c>
       <c r="R49" s="17">
-        <f t="shared" si="20"/>
-        <v>0.1341301701833536</v>
+        <f>IF(I49&gt;K49,1-_xlfn.NORM.DIST(I49,K49,M49,1),_xlfn.NORM.DIST(I49,K49,M49,1))</f>
+        <v>9.4842360181836213E-2</v>
       </c>
       <c r="S49" s="32">
-        <f t="shared" si="21"/>
-        <v>26</v>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R49)+1)</f>
+        <v>30</v>
       </c>
       <c r="T49" s="6">
-        <f t="shared" si="22"/>
-        <v>225.61757122529983</v>
+        <f>E49/K49</f>
+        <v>225.91632053034027</v>
       </c>
       <c r="U49" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C49=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T49)+1)</f>
         <v>15</v>
       </c>
       <c r="X49" s="4"/>
@@ -7314,7 +7314,7 @@
         <v>190</v>
       </c>
       <c r="F50" s="31">
-        <f t="shared" si="12"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E50)+1)</f>
         <v>25</v>
       </c>
       <c r="G50" s="28">
@@ -7322,7 +7322,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="28">
-        <f t="shared" si="13"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G50)+1)</f>
         <v>24</v>
       </c>
       <c r="I50" s="28">
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="28">
-        <f t="shared" si="14"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I50)+1)</f>
         <v>10</v>
       </c>
       <c r="K50" s="29">
@@ -7338,7 +7338,7 @@
         <v>0.6788730060179704</v>
       </c>
       <c r="L50" s="31">
-        <f t="shared" si="15"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K50)+1)</f>
         <v>26</v>
       </c>
       <c r="M50" s="29">
@@ -7346,35 +7346,35 @@
         <v>0.79230007491312338</v>
       </c>
       <c r="N50" s="29">
-        <f t="shared" si="16"/>
+        <f>I50-K50</f>
         <v>2.3211269939820296</v>
       </c>
       <c r="O50" s="31">
-        <f t="shared" si="17"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N50)+1)</f>
         <v>2</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="18"/>
+        <f>N50/M50</f>
         <v>2.9296059251749331</v>
       </c>
       <c r="Q50" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P50)+1)</f>
         <v>1</v>
       </c>
       <c r="R50" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I50&gt;K50,1-_xlfn.NORM.DIST(I50,K50,M50,1),_xlfn.NORM.DIST(I50,K50,M50,1))</f>
         <v>1.6969605821705036E-3</v>
       </c>
       <c r="S50" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R50)+1)</f>
         <v>33</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="22"/>
+        <f>E50/K50</f>
         <v>279.87561490251761</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C50=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T50)+1)</f>
         <v>30</v>
       </c>
       <c r="X50" s="4"/>
@@ -7399,7 +7399,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="31">
-        <f t="shared" si="12"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E51)+1)</f>
         <v>33</v>
       </c>
       <c r="G51" s="28">
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="28">
-        <f t="shared" si="13"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G51)+1)</f>
         <v>33</v>
       </c>
       <c r="I51" s="28">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="28">
-        <f t="shared" si="14"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I51)+1)</f>
         <v>23</v>
       </c>
       <c r="K51" s="29">
@@ -7423,7 +7423,7 @@
         <v>4.046242774566474E-2</v>
       </c>
       <c r="L51" s="31">
-        <f t="shared" si="15"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K51)+1)</f>
         <v>33</v>
       </c>
       <c r="M51" s="29">
@@ -7431,35 +7431,35 @@
         <v>0.19704116241687067</v>
       </c>
       <c r="N51" s="29">
-        <f t="shared" si="16"/>
+        <f>I51-K51</f>
         <v>-4.046242774566474E-2</v>
       </c>
       <c r="O51" s="31">
-        <f t="shared" si="17"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N51)+1)</f>
         <v>12</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="18"/>
+        <f>N51/M51</f>
         <v>-0.20535012709710013</v>
       </c>
       <c r="Q51" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P51)+1)</f>
         <v>14</v>
       </c>
       <c r="R51" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I51&gt;K51,1-_xlfn.NORM.DIST(I51,K51,M51,1),_xlfn.NORM.DIST(I51,K51,M51,1))</f>
         <v>0.41864929133648948</v>
       </c>
       <c r="S51" s="32">
-        <f t="shared" si="21"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R51)+1)</f>
         <v>3</v>
       </c>
       <c r="T51" s="6">
-        <f t="shared" si="22"/>
+        <f>E51/K51</f>
         <v>247.14285714285714</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C51=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T51)+1)</f>
         <v>25</v>
       </c>
       <c r="X51" s="4"/>
@@ -7484,7 +7484,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="31">
-        <f t="shared" si="12"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E52)+1)</f>
         <v>28</v>
       </c>
       <c r="G52" s="28">
@@ -7492,7 +7492,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="28">
-        <f t="shared" si="13"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G52)+1)</f>
         <v>28</v>
       </c>
       <c r="I52" s="28">
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="28">
-        <f t="shared" si="14"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I52)+1)</f>
         <v>23</v>
       </c>
       <c r="K52" s="29">
@@ -7508,7 +7508,7 @@
         <v>0.44117647058823534</v>
       </c>
       <c r="L52" s="31">
-        <f t="shared" si="15"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K52)+1)</f>
         <v>28</v>
       </c>
       <c r="M52" s="29">
@@ -7516,35 +7516,35 @@
         <v>0.6273743825794571</v>
       </c>
       <c r="N52" s="29">
-        <f t="shared" si="16"/>
+        <f>I52-K52</f>
         <v>-0.44117647058823534</v>
       </c>
       <c r="O52" s="31">
-        <f t="shared" si="17"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N52)+1)</f>
         <v>21</v>
       </c>
       <c r="P52" s="29">
-        <f t="shared" si="18"/>
+        <f>N52/M52</f>
         <v>-0.70321084640774323</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" si="19"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P52)+1)</f>
         <v>25</v>
       </c>
       <c r="R52" s="17">
-        <f t="shared" si="20"/>
+        <f>IF(I52&gt;K52,1-_xlfn.NORM.DIST(I52,K52,M52,1),_xlfn.NORM.DIST(I52,K52,M52,1))</f>
         <v>0.24096218039643846</v>
       </c>
       <c r="S52" s="77">
-        <f t="shared" si="21"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R52)+1)</f>
         <v>21</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="22"/>
+        <f>E52/K52</f>
         <v>226.66666666666666</v>
       </c>
       <c r="U52" s="10">
-        <f t="shared" si="23"/>
+        <f>IF($C52=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T52)+1)</f>
         <v>17</v>
       </c>
     </row>
@@ -7976,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8500,7 +8500,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="3">
-        <f>F17/D17</f>
+        <f t="shared" ref="G17:G22" si="3">F17/D17</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="H17" s="27">
@@ -8531,7 +8531,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/D18</f>
+        <f t="shared" si="3"/>
         <v>4.046242774566474E-2</v>
       </c>
       <c r="H18" s="27">
@@ -8562,7 +8562,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="3">
-        <f>F19/D19</f>
+        <f t="shared" si="3"/>
         <v>4.4117647058823532E-2</v>
       </c>
       <c r="H19" s="27">
@@ -8593,7 +8593,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <f>F20/D20</f>
+        <f t="shared" si="3"/>
         <v>5.3691275167785234E-2</v>
       </c>
       <c r="H20" s="27">
@@ -8624,7 +8624,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="3">
-        <f>F21/D21</f>
+        <f t="shared" si="3"/>
         <v>3.7735849056603772E-2</v>
       </c>
       <c r="H21" s="27">
@@ -8655,7 +8655,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <f>F22/D22</f>
+        <f t="shared" si="3"/>
         <v>2.7932960893854747E-2</v>
       </c>
       <c r="H22" s="27">
@@ -8687,8 +8687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L396"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="K376" sqref="K376"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H400" sqref="H400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17400,7 +17400,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C323" s="11">
         <v>18</v>
@@ -21771,7 +21771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -773,7 +773,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00000\ %"/>
+    <numFmt numFmtId="168" formatCode="0.00000\ %"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1120,6 +1120,8 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1147,8 +1149,6 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1697,8 +1697,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E19">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1996,24 +1996,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="85" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:26" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
@@ -2066,7 +2066,7 @@
         <f>INDEX(Persons!$B:$B,MATCH(C4,Persons!$A:$A,0))</f>
         <v>Sivert</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="85">
         <f>INDEX(Persons!$R:$R,MATCH(C4,Persons!$A:$A,0))</f>
         <v>3.8567678073420097E-7</v>
       </c>
@@ -2102,7 +2102,7 @@
         <f>INDEX(Persons!$R:$R,MATCH(K4,Persons!$A:$A,0))</f>
         <v>0.48895292558779635</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="86">
         <f>1/E4</f>
         <v>2592844.7081940761</v>
       </c>
@@ -2338,24 +2338,24 @@
       <c r="Z9" s="40"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="86" t="s">
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
       <c r="U10">
         <v>2</v>
       </c>
@@ -2760,24 +2760,24 @@
       <c r="Z17" s="45"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="93" t="s">
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="87" t="s">
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="66" t="s">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="30" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
+        <f t="shared" ref="F2:F33" si="0">IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G2" s="8">
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
+        <f t="shared" ref="H2:H33" si="1">IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="8">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
+        <f t="shared" ref="J2:J33" si="2">IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K2" s="9">
@@ -3241,7 +3241,7 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="L2" s="30" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
+        <f t="shared" ref="L2:L33" si="3">IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M2" s="9">
@@ -3249,35 +3249,35 @@
         <v>0.42132504423474315</v>
       </c>
       <c r="N2" s="9">
-        <f>I2-K2</f>
+        <f t="shared" ref="N2:N33" si="4">I2-K2</f>
         <v>-0.23076923076923078</v>
       </c>
       <c r="O2" s="30" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
+        <f t="shared" ref="O2:O33" si="5">IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P2" s="5">
-        <f>N2/M2</f>
+        <f t="shared" ref="P2:P33" si="6">N2/M2</f>
         <v>-0.54772255750516619</v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
+        <f t="shared" ref="Q2:Q33" si="7">IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R2" s="17">
-        <f>IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
+        <f t="shared" ref="R2:R33" si="8">IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
         <v>0.2919412103851825</v>
       </c>
       <c r="S2" s="32" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
+        <f t="shared" ref="S2:S33" si="9">IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T2" s="6">
-        <f>E2/K2</f>
+        <f t="shared" ref="T2:T33" si="10">E2/K2</f>
         <v>0</v>
       </c>
       <c r="U2" s="4" t="str">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
+        <f t="shared" ref="U2:U33" si="11">IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X2" s="4"/>
@@ -3302,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="30" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E3)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G3" s="8">
@@ -3310,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="8" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G3)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I3" s="8">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I3)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K3" s="9">
@@ -3326,7 +3326,7 @@
         <v>0.44943930749557348</v>
       </c>
       <c r="L3" s="30" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K3)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M3" s="9">
@@ -3334,35 +3334,35 @@
         <v>0.61791657214945761</v>
       </c>
       <c r="N3" s="9">
-        <f>I3-K3</f>
+        <f t="shared" si="4"/>
         <v>-0.44943930749557348</v>
       </c>
       <c r="O3" s="30" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N3)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P3" s="5">
-        <f>N3/M3</f>
+        <f t="shared" si="6"/>
         <v>-0.72734625959645904</v>
       </c>
       <c r="Q3" s="10" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P3)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R3" s="17">
-        <f>IF(I3&gt;K3,1-_xlfn.NORM.DIST(I3,K3,M3,1),_xlfn.NORM.DIST(I3,K3,M3,1))</f>
+        <f t="shared" si="8"/>
         <v>0.23350693326254907</v>
       </c>
       <c r="S3" s="32" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R3)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T3" s="6">
-        <f>E3/K3</f>
+        <f t="shared" si="10"/>
         <v>88.999781133727296</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T3)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V3" s="4"/>
@@ -3388,7 +3388,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E4)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G4" s="8">
@@ -3396,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="8" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G4)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4" s="8">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I4)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K4" s="9">
@@ -3412,7 +3412,7 @@
         <v>0.98785425101214575</v>
       </c>
       <c r="L4" s="30" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K4)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M4" s="9">
@@ -3420,35 +3420,35 @@
         <v>0.90534417201851047</v>
       </c>
       <c r="N4" s="9">
-        <f>I4-K4</f>
+        <f t="shared" si="4"/>
         <v>-0.98785425101214575</v>
       </c>
       <c r="O4" s="6" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N4)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P4" s="5">
-        <f>N4/M4</f>
+        <f t="shared" si="6"/>
         <v>-1.0911366986652986</v>
       </c>
       <c r="Q4" s="10" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P4)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R4" s="17">
-        <f>IF(I4&gt;K4,1-_xlfn.NORM.DIST(I4,K4,M4,1),_xlfn.NORM.DIST(I4,K4,M4,1))</f>
+        <f t="shared" si="8"/>
         <v>0.137606368366785</v>
       </c>
       <c r="S4" s="6" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R4)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T4" s="6">
-        <f>E4/K4</f>
+        <f t="shared" si="10"/>
         <v>101.22950819672131</v>
       </c>
       <c r="U4" s="6" t="str">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T4)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V4" s="4"/>
@@ -3474,7 +3474,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E5)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G5" s="4">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G5)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I5" s="4">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I5)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="5">
@@ -3498,7 +3498,7 @@
         <v>0.58616138763197578</v>
       </c>
       <c r="L5" s="6" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K5)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M5" s="5">
@@ -3506,35 +3506,35 @@
         <v>0.71401106976234563</v>
       </c>
       <c r="N5" s="5">
-        <f>I5-K5</f>
+        <f t="shared" si="4"/>
         <v>-0.58616138763197578</v>
       </c>
       <c r="O5" s="6" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N5)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P5" s="5">
-        <f>N5/M5</f>
+        <f t="shared" si="6"/>
         <v>-0.82094159664369926</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P5)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R5" s="17">
-        <f>IF(I5&gt;K5,1-_xlfn.NORM.DIST(I5,K5,M5,1),_xlfn.NORM.DIST(I5,K5,M5,1))</f>
+        <f t="shared" si="8"/>
         <v>0.20583976793322406</v>
       </c>
       <c r="S5" s="32" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R5)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T5" s="6">
-        <f>E5/K5</f>
+        <f t="shared" si="10"/>
         <v>170.6014795754262</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T5)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V5" s="4"/>
@@ -3560,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E6)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G6" s="4">
@@ -3568,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G6)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I6" s="4">
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I6)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="5">
@@ -3584,7 +3584,7 @@
         <v>0.54326923076923084</v>
       </c>
       <c r="L6" s="6" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K6)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="5">
@@ -3592,35 +3592,35 @@
         <v>0.67686632105875888</v>
       </c>
       <c r="N6" s="5">
-        <f>I6-K6</f>
+        <f t="shared" si="4"/>
         <v>0.45673076923076916</v>
       </c>
       <c r="O6" s="6" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N6)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="5">
-        <f>N6/M6</f>
+        <f t="shared" si="6"/>
         <v>0.67477248464120332</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P6)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6" s="17">
-        <f>IF(I6&gt;K6,1-_xlfn.NORM.DIST(I6,K6,M6,1),_xlfn.NORM.DIST(I6,K6,M6,1))</f>
+        <f t="shared" si="8"/>
         <v>0.24991016218462114</v>
       </c>
       <c r="S6" s="32" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R6)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T6" s="6">
-        <f>E6/K6</f>
+        <f t="shared" si="10"/>
         <v>184.07079646017698</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T6)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V6" s="4"/>
@@ -3646,7 +3646,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="82">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E7)+1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G7" s="81">
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="81">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G7)+1)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="I7" s="81">
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="81">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I7)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K7" s="83">
@@ -3670,7 +3670,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="L7" s="82">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K7)+1)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="M7" s="83">
@@ -3678,35 +3678,35 @@
         <v>0.37430608065700288</v>
       </c>
       <c r="N7" s="83">
-        <f>I7-K7</f>
+        <f t="shared" si="4"/>
         <v>1.85</v>
       </c>
       <c r="O7" s="82">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N7)+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P7" s="83">
-        <f>N7/M7</f>
+        <f t="shared" si="6"/>
         <v>4.9424791516952569</v>
       </c>
       <c r="Q7" s="10">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P7)+1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R7" s="17">
-        <f>IF(I7&gt;K7,1-_xlfn.NORM.DIST(I7,K7,M7,1),_xlfn.NORM.DIST(I7,K7,M7,1))</f>
+        <f t="shared" si="8"/>
         <v>3.8567678073420097E-7</v>
       </c>
       <c r="S7" s="84">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R7)+1)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="T7" s="6">
-        <f>E7/K7</f>
+        <f t="shared" si="10"/>
         <v>199.99999999999997</v>
       </c>
       <c r="U7" s="10">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T7)+1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V7" s="4"/>
@@ -3732,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="82">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E8)+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G8" s="81">
@@ -3740,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="81">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G8)+1)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I8" s="81">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="81">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I8)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K8" s="83">
@@ -3756,7 +3756,7 @@
         <v>0.1</v>
       </c>
       <c r="L8" s="82">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K8)+1)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M8" s="83">
@@ -3764,35 +3764,35 @@
         <v>0.30692292301532142</v>
       </c>
       <c r="N8" s="83">
-        <f>I8-K8</f>
+        <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
       <c r="O8" s="82">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N8)+1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="P8" s="83">
-        <f>N8/M8</f>
+        <f t="shared" si="6"/>
         <v>-0.32581469972188443</v>
       </c>
       <c r="Q8" s="10">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P8)+1)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R8" s="17">
-        <f>IF(I8&gt;K8,1-_xlfn.NORM.DIST(I8,K8,M8,1),_xlfn.NORM.DIST(I8,K8,M8,1))</f>
+        <f t="shared" si="8"/>
         <v>0.3722822781606232</v>
       </c>
       <c r="S8" s="84">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R8)+1)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="T8" s="6">
-        <f>E8/K8</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="U8" s="10">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T8)+1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V8" s="4"/>
@@ -3818,7 +3818,7 @@
         <v>350</v>
       </c>
       <c r="F9" s="6">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E9)+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G9" s="4">
@@ -3826,7 +3826,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="4">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G9)+1)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I9" s="4">
@@ -3834,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="4">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I9)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K9" s="5">
@@ -3842,7 +3842,7 @@
         <v>1.7386807932020698</v>
       </c>
       <c r="L9" s="6">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K9)+1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M9" s="5">
@@ -3850,35 +3850,35 @@
         <v>1.2196223879112047</v>
       </c>
       <c r="N9" s="5">
-        <f>I9-K9</f>
+        <f t="shared" si="4"/>
         <v>0.26131920679793019</v>
       </c>
       <c r="O9" s="6">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N9)+1)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P9" s="5">
-        <f>N9/M9</f>
+        <f t="shared" si="6"/>
         <v>0.21426238923465521</v>
       </c>
       <c r="Q9" s="4">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P9)+1)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="R9" s="17">
-        <f>IF(I9&gt;K9,1-_xlfn.NORM.DIST(I9,K9,M9,1),_xlfn.NORM.DIST(I9,K9,M9,1))</f>
+        <f t="shared" si="8"/>
         <v>0.41517122299034059</v>
       </c>
       <c r="S9" s="32">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R9)+1)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T9" s="6">
-        <f>E9/K9</f>
+        <f t="shared" si="10"/>
         <v>201.3020454176737</v>
       </c>
       <c r="U9" s="4">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T9)+1)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="V9" s="4"/>
@@ -3904,7 +3904,7 @@
         <v>400</v>
       </c>
       <c r="F10" s="30">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E10)+1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G10" s="8">
@@ -3912,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="8">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G10)+1)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I10" s="8">
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="8">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I10)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K10" s="9">
@@ -3928,7 +3928,7 @@
         <v>1.9630713531328208</v>
       </c>
       <c r="L10" s="30">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K10)+1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M10" s="9">
@@ -3936,35 +3936,35 @@
         <v>1.3334313694001367</v>
       </c>
       <c r="N10" s="9">
-        <f>I10-K10</f>
+        <f t="shared" si="4"/>
         <v>3.6928646867179227E-2</v>
       </c>
       <c r="O10" s="30">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N10)+1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="P10" s="5">
-        <f>N10/M10</f>
+        <f t="shared" si="6"/>
         <v>2.7694448859255583E-2</v>
       </c>
       <c r="Q10" s="10">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P10)+1)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="R10" s="17">
-        <f>IF(I10&gt;K10,1-_xlfn.NORM.DIST(I10,K10,M10,1),_xlfn.NORM.DIST(I10,K10,M10,1))</f>
+        <f t="shared" si="8"/>
         <v>0.48895292558779635</v>
       </c>
       <c r="S10" s="32">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R10)+1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T10" s="6">
-        <f>E10/K10</f>
+        <f t="shared" si="10"/>
         <v>203.76233363175982</v>
       </c>
       <c r="U10" s="4">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T10)+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="V10" s="4"/>
@@ -3990,7 +3990,7 @@
         <v>360</v>
       </c>
       <c r="F11" s="30" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E11)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" s="8">
@@ -3998,7 +3998,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="8" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G11)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I11" s="8">
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I11)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="9">
@@ -4014,7 +4014,7 @@
         <v>1.7654362892118982</v>
       </c>
       <c r="L11" s="30" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K11)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="9">
@@ -4022,35 +4022,35 @@
         <v>1.2439598119364987</v>
       </c>
       <c r="N11" s="9">
-        <f>I11-K11</f>
+        <f t="shared" si="4"/>
         <v>2.2345637107881018</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N11)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P11" s="5">
-        <f>N11/M11</f>
+        <f t="shared" si="6"/>
         <v>1.7963311108174056</v>
       </c>
       <c r="Q11" s="10" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P11)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11" s="17">
-        <f>IF(I11&gt;K11,1-_xlfn.NORM.DIST(I11,K11,M11,1),_xlfn.NORM.DIST(I11,K11,M11,1))</f>
+        <f t="shared" si="8"/>
         <v>3.6220936405928716E-2</v>
       </c>
       <c r="S11" s="32" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R11)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T11" s="6">
-        <f>E11/K11</f>
+        <f t="shared" si="10"/>
         <v>203.9155999000713</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T11)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V11" s="4"/>
@@ -4076,7 +4076,7 @@
         <v>700</v>
       </c>
       <c r="F12" s="6">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E12)+1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G12" s="4">
@@ -4084,7 +4084,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="4">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G12)+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I12" s="4">
@@ -4092,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="4">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I12)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K12" s="5">
@@ -4100,7 +4100,7 @@
         <v>3.3418110715694103</v>
       </c>
       <c r="L12" s="6">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K12)+1)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M12" s="5">
@@ -4108,35 +4108,35 @@
         <v>1.7440691620383093</v>
       </c>
       <c r="N12" s="5">
-        <f>I12-K12</f>
+        <f t="shared" si="4"/>
         <v>-1.3418110715694103</v>
       </c>
       <c r="O12" s="6">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N12)+1)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="P12" s="5">
-        <f>N12/M12</f>
+        <f t="shared" si="6"/>
         <v>-0.76935657184674011</v>
       </c>
       <c r="Q12" s="4">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P12)+1)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="R12" s="17">
-        <f>IF(I12&gt;K12,1-_xlfn.NORM.DIST(I12,K12,M12,1),_xlfn.NORM.DIST(I12,K12,M12,1))</f>
+        <f t="shared" si="8"/>
         <v>0.22084083102697119</v>
       </c>
       <c r="S12" s="32">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R12)+1)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="T12" s="6">
-        <f>E12/K12</f>
+        <f t="shared" si="10"/>
         <v>209.46725742675213</v>
       </c>
       <c r="U12" s="4">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T12)+1)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V12" s="4"/>
@@ -4162,7 +4162,7 @@
         <v>450</v>
       </c>
       <c r="F13" s="6">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E13)+1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G13" s="4">
@@ -4170,7 +4170,7 @@
         <v>46</v>
       </c>
       <c r="H13" s="4">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G13)+1)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I13" s="4">
@@ -4178,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="4">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I13)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K13" s="5">
@@ -4186,7 +4186,7 @@
         <v>2.1354304779193765</v>
       </c>
       <c r="L13" s="6">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K13)+1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M13" s="5">
@@ -4194,35 +4194,35 @@
         <v>1.3926588531059174</v>
       </c>
       <c r="N13" s="5">
-        <f>I13-K13</f>
+        <f t="shared" si="4"/>
         <v>-0.13543047791937646</v>
       </c>
       <c r="O13" s="6">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N13)+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="P13" s="5">
-        <f>N13/M13</f>
+        <f t="shared" si="6"/>
         <v>-9.7245982113522256E-2</v>
       </c>
       <c r="Q13" s="4">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P13)+1)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="R13" s="17">
-        <f>IF(I13&gt;K13,1-_xlfn.NORM.DIST(I13,K13,M13,1),_xlfn.NORM.DIST(I13,K13,M13,1))</f>
+        <f t="shared" si="8"/>
         <v>0.46126552630700979</v>
       </c>
       <c r="S13" s="32">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R13)+1)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T13" s="6">
-        <f>E13/K13</f>
+        <f t="shared" si="10"/>
         <v>210.73034437461553</v>
       </c>
       <c r="U13" s="4">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T13)+1)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="V13" s="4"/>
@@ -4248,7 +4248,7 @@
         <v>250</v>
       </c>
       <c r="F14" s="6">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E14)+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G14" s="10">
@@ -4256,7 +4256,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G14)+1)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I14" s="10">
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I14)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K14" s="5">
@@ -4272,7 +4272,7 @@
         <v>1.184672257882758</v>
       </c>
       <c r="L14" s="6">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K14)+1)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="M14" s="5">
@@ -4280,35 +4280,35 @@
         <v>1.0386412070417264</v>
       </c>
       <c r="N14" s="5">
-        <f>I14-K14</f>
+        <f t="shared" si="4"/>
         <v>-1.184672257882758</v>
       </c>
       <c r="O14" s="6">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N14)+1)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="P14" s="5">
-        <f>N14/M14</f>
+        <f t="shared" si="6"/>
         <v>-1.1405981679245709</v>
       </c>
       <c r="Q14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P14)+1)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="R14" s="17">
-        <f>IF(I14&gt;K14,1-_xlfn.NORM.DIST(I14,K14,M14,1),_xlfn.NORM.DIST(I14,K14,M14,1))</f>
+        <f t="shared" si="8"/>
         <v>0.12701859000624371</v>
       </c>
       <c r="S14" s="32">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R14)+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="T14" s="6">
-        <f>E14/K14</f>
+        <f t="shared" si="10"/>
         <v>211.02882956573922</v>
       </c>
       <c r="U14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T14)+1)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="V14" s="4"/>
@@ -4334,7 +4334,7 @@
         <v>350</v>
       </c>
       <c r="F15" s="6">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E15)+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G15" s="10">
@@ -4342,7 +4342,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G15)+1)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I15" s="10">
@@ -4350,7 +4350,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I15)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K15" s="5">
@@ -4358,7 +4358,7 @@
         <v>1.6522344140591172</v>
       </c>
       <c r="L15" s="6">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K15)+1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="M15" s="5">
@@ -4366,35 +4366,35 @@
         <v>1.22400617658902</v>
       </c>
       <c r="N15" s="5">
-        <f>I15-K15</f>
+        <f t="shared" si="4"/>
         <v>0.3477655859408828</v>
       </c>
       <c r="O15" s="6">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N15)+1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P15" s="5">
-        <f>N15/M15</f>
+        <f t="shared" si="6"/>
         <v>0.28412077699641441</v>
       </c>
       <c r="Q15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P15)+1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="R15" s="17">
-        <f>IF(I15&gt;K15,1-_xlfn.NORM.DIST(I15,K15,M15,1),_xlfn.NORM.DIST(I15,K15,M15,1))</f>
+        <f t="shared" si="8"/>
         <v>0.38815891253105161</v>
       </c>
       <c r="S15" s="32">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R15)+1)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T15" s="6">
-        <f>E15/K15</f>
+        <f t="shared" si="10"/>
         <v>211.83434809358531</v>
       </c>
       <c r="U15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T15)+1)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="V15" s="4"/>
@@ -4420,7 +4420,7 @@
         <v>1040</v>
       </c>
       <c r="F16" s="6">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E16)+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G16" s="4">
@@ -4428,7 +4428,7 @@
         <v>94</v>
       </c>
       <c r="H16" s="4">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G16)+1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I16" s="4">
@@ -4436,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="4">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I16)+1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K16" s="5">
@@ -4444,7 +4444,7 @@
         <v>4.8974107512412388</v>
       </c>
       <c r="L16" s="6">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K16)+1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M16" s="5">
@@ -4452,35 +4452,35 @@
         <v>2.0850751321114935</v>
       </c>
       <c r="N16" s="5">
-        <f>I16-K16</f>
+        <f t="shared" si="4"/>
         <v>1.1025892487587612</v>
       </c>
       <c r="O16" s="6">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N16)+1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P16" s="5">
-        <f>N16/M16</f>
+        <f t="shared" si="6"/>
         <v>0.52880072846209714</v>
       </c>
       <c r="Q16" s="4">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P16)+1)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="R16" s="17">
-        <f>IF(I16&gt;K16,1-_xlfn.NORM.DIST(I16,K16,M16,1),_xlfn.NORM.DIST(I16,K16,M16,1))</f>
+        <f t="shared" si="8"/>
         <v>0.29847184618231593</v>
       </c>
       <c r="S16" s="32">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R16)+1)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="T16" s="6">
-        <f>E16/K16</f>
+        <f t="shared" si="10"/>
         <v>212.35711130344012</v>
       </c>
       <c r="U16" s="4">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T16)+1)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="V16" s="4"/>
@@ -4506,7 +4506,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="6" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E17)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G17" s="4">
@@ -4514,7 +4514,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G17)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I17" s="4">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I17)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="5">
@@ -4530,7 +4530,7 @@
         <v>0.70284369885433717</v>
       </c>
       <c r="L17" s="6" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K17)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M17" s="5">
@@ -4538,35 +4538,35 @@
         <v>0.78059289122728581</v>
       </c>
       <c r="N17" s="5">
-        <f>I17-K17</f>
+        <f t="shared" si="4"/>
         <v>0.29715630114566283</v>
       </c>
       <c r="O17" s="6" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N17)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P17" s="5">
-        <f>N17/M17</f>
+        <f t="shared" si="6"/>
         <v>0.38068025533573507</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P17)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R17" s="17">
-        <f>IF(I17&gt;K17,1-_xlfn.NORM.DIST(I17,K17,M17,1),_xlfn.NORM.DIST(I17,K17,M17,1))</f>
+        <f t="shared" si="8"/>
         <v>0.35172026081826924</v>
       </c>
       <c r="S17" s="32" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R17)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T17" s="6">
-        <f>E17/K17</f>
+        <f t="shared" si="10"/>
         <v>213.41871634405473</v>
       </c>
       <c r="U17" s="4" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T17)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V17" s="4"/>
@@ -4592,7 +4592,7 @@
         <v>820</v>
       </c>
       <c r="F18" s="6">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E18)+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G18" s="4">
@@ -4600,7 +4600,7 @@
         <v>78</v>
       </c>
       <c r="H18" s="4">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G18)+1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I18" s="4">
@@ -4608,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="4">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I18)+1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K18" s="5">
@@ -4616,7 +4616,7 @@
         <v>3.8228848135790381</v>
       </c>
       <c r="L18" s="6">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K18)+1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M18" s="5">
@@ -4624,35 +4624,35 @@
         <v>1.8313760284710376</v>
       </c>
       <c r="N18" s="5">
-        <f>I18-K18</f>
+        <f t="shared" si="4"/>
         <v>1.1771151864209619</v>
       </c>
       <c r="O18" s="6">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N18)+1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P18" s="5">
-        <f>N18/M18</f>
+        <f t="shared" si="6"/>
         <v>0.64274904122431975</v>
       </c>
       <c r="Q18" s="4">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P18)+1)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R18" s="17">
-        <f>IF(I18&gt;K18,1-_xlfn.NORM.DIST(I18,K18,M18,1),_xlfn.NORM.DIST(I18,K18,M18,1))</f>
+        <f t="shared" si="8"/>
         <v>0.26019347689390693</v>
       </c>
       <c r="S18" s="32">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R18)+1)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="T18" s="6">
-        <f>E18/K18</f>
+        <f t="shared" si="10"/>
         <v>214.49770003200922</v>
       </c>
       <c r="U18" s="4">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T18)+1)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="V18" s="4"/>
@@ -4678,7 +4678,7 @@
         <v>300</v>
       </c>
       <c r="F19" s="30">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E19)+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G19" s="8">
@@ -4686,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="8">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G19)+1)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I19" s="8">
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I19)+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K19" s="9">
@@ -4702,7 +4702,7 @@
         <v>1.3879411334843073</v>
       </c>
       <c r="L19" s="30">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K19)+1)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M19" s="9">
@@ -4710,35 +4710,35 @@
         <v>1.1316866919830026</v>
       </c>
       <c r="N19" s="9">
-        <f>I19-K19</f>
+        <f t="shared" si="4"/>
         <v>-0.38794113348430725</v>
       </c>
       <c r="O19" s="30">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N19)+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="P19" s="5">
-        <f>N19/M19</f>
+        <f t="shared" si="6"/>
         <v>-0.34279905934436306</v>
       </c>
       <c r="Q19" s="10">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P19)+1)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="R19" s="17">
-        <f>IF(I19&gt;K19,1-_xlfn.NORM.DIST(I19,K19,M19,1),_xlfn.NORM.DIST(I19,K19,M19,1))</f>
+        <f t="shared" si="8"/>
         <v>0.36587481683043532</v>
       </c>
       <c r="S19" s="32">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R19)+1)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="T19" s="6">
-        <f>E19/K19</f>
+        <f t="shared" si="10"/>
         <v>216.14749556912093</v>
       </c>
       <c r="U19" s="4">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T19)+1)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="V19" s="4"/>
@@ -4764,7 +4764,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="31">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E20)+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G20" s="28">
@@ -4772,7 +4772,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="28">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G20)+1)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I20" s="28">
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="28">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I20)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K20" s="29">
@@ -4788,7 +4788,7 @@
         <v>0.68867924528301883</v>
       </c>
       <c r="L20" s="31">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K20)+1)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M20" s="29">
@@ -4796,35 +4796,35 @@
         <v>0.7848811799913108</v>
       </c>
       <c r="N20" s="29">
-        <f>I20-K20</f>
+        <f t="shared" si="4"/>
         <v>-0.68867924528301883</v>
       </c>
       <c r="O20" s="31">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N20)+1)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="P20" s="29">
-        <f>N20/M20</f>
+        <f t="shared" si="6"/>
         <v>-0.87743121231501942</v>
       </c>
       <c r="Q20" s="10">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P20)+1)</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R20" s="17">
-        <f>IF(I20&gt;K20,1-_xlfn.NORM.DIST(I20,K20,M20,1),_xlfn.NORM.DIST(I20,K20,M20,1))</f>
+        <f t="shared" si="8"/>
         <v>0.19012623306866175</v>
       </c>
       <c r="S20" s="77">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R20)+1)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="T20" s="6">
-        <f>E20/K20</f>
+        <f t="shared" si="10"/>
         <v>217.8082191780822</v>
       </c>
       <c r="U20" s="10">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T20)+1)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="V20" s="4"/>
@@ -4850,7 +4850,7 @@
         <v>800</v>
       </c>
       <c r="F21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E21)+1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G21" s="4">
@@ -4858,7 +4858,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G21)+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I21" s="4">
@@ -4866,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I21)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K21" s="5">
@@ -4874,7 +4874,7 @@
         <v>3.6459495602492105</v>
       </c>
       <c r="L21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K21)+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M21" s="5">
@@ -4882,35 +4882,35 @@
         <v>1.8225565915019903</v>
       </c>
       <c r="N21" s="5">
-        <f>I21-K21</f>
+        <f t="shared" si="4"/>
         <v>-1.6459495602492105</v>
       </c>
       <c r="O21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N21)+1)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="P21" s="5">
-        <f>N21/M21</f>
+        <f t="shared" si="6"/>
         <v>-0.90309928806806705</v>
       </c>
       <c r="Q21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P21)+1)</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="R21" s="17">
-        <f>IF(I21&gt;K21,1-_xlfn.NORM.DIST(I21,K21,M21,1),_xlfn.NORM.DIST(I21,K21,M21,1))</f>
+        <f t="shared" si="8"/>
         <v>0.18323660091269262</v>
       </c>
       <c r="S21" s="32">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R21)+1)</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="T21" s="6">
-        <f>E21/K21</f>
+        <f t="shared" si="10"/>
         <v>219.42157640417764</v>
       </c>
       <c r="U21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T21)+1)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="V21" s="4"/>
@@ -4936,7 +4936,7 @@
         <v>130</v>
       </c>
       <c r="F22" s="31">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E22)+1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G22" s="28">
@@ -4944,7 +4944,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="28">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G22)+1)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="I22" s="28">
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="28">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I22)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K22" s="29">
@@ -4960,7 +4960,7 @@
         <v>0.59117647058823541</v>
       </c>
       <c r="L22" s="31">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K22)+1)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="M22" s="29">
@@ -4968,35 +4968,35 @@
         <v>0.73055024326446005</v>
       </c>
       <c r="N22" s="29">
-        <f>I22-K22</f>
+        <f t="shared" si="4"/>
         <v>-0.59117647058823541</v>
       </c>
       <c r="O22" s="31">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N22)+1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P22" s="29">
-        <f>N22/M22</f>
+        <f t="shared" si="6"/>
         <v>-0.80922082504081627</v>
       </c>
       <c r="Q22" s="10">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P22)+1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="R22" s="17">
-        <f>IF(I22&gt;K22,1-_xlfn.NORM.DIST(I22,K22,M22,1),_xlfn.NORM.DIST(I22,K22,M22,1))</f>
+        <f t="shared" si="8"/>
         <v>0.2091940691709436</v>
       </c>
       <c r="S22" s="77">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R22)+1)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="T22" s="6">
-        <f>E22/K22</f>
+        <f t="shared" si="10"/>
         <v>219.90049751243777</v>
       </c>
       <c r="U22" s="10">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T22)+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="V22" s="4"/>
@@ -5022,7 +5022,7 @@
         <v>1600</v>
       </c>
       <c r="F23" s="6">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E23)+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G23" s="4">
@@ -5030,7 +5030,7 @@
         <v>161</v>
       </c>
       <c r="H23" s="4">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G23)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I23" s="4">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="4">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I23)+1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K23" s="5">
@@ -5046,7 +5046,7 @@
         <v>7.2456182608128401</v>
       </c>
       <c r="L23" s="6">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K23)+1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M23" s="5">
@@ -5054,35 +5054,35 @@
         <v>2.5246189435214399</v>
       </c>
       <c r="N23" s="5">
-        <f>I23-K23</f>
+        <f t="shared" si="4"/>
         <v>-3.2456182608128401</v>
       </c>
       <c r="O23" s="6">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N23)+1)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="P23" s="5">
-        <f>N23/M23</f>
+        <f t="shared" si="6"/>
         <v>-1.2855873830550133</v>
       </c>
       <c r="Q23" s="4">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P23)+1)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="R23" s="17">
-        <f>IF(I23&gt;K23,1-_xlfn.NORM.DIST(I23,K23,M23,1),_xlfn.NORM.DIST(I23,K23,M23,1))</f>
+        <f t="shared" si="8"/>
         <v>9.9293551168915556E-2</v>
       </c>
       <c r="S23" s="32">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R23)+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="T23" s="6">
-        <f>E23/K23</f>
+        <f t="shared" si="10"/>
         <v>220.82311576548696</v>
       </c>
       <c r="U23" s="4">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T23)+1)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="V23" s="4"/>
@@ -5108,7 +5108,7 @@
         <v>1120</v>
       </c>
       <c r="F24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E24)+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G24" s="4">
@@ -5116,7 +5116,7 @@
         <v>108</v>
       </c>
       <c r="H24" s="4">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G24)+1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I24" s="4">
@@ -5124,7 +5124,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="4">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I24)+1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K24" s="5">
@@ -5132,7 +5132,7 @@
         <v>5.0559227870088854</v>
       </c>
       <c r="L24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K24)+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M24" s="5">
@@ -5140,35 +5140,35 @@
         <v>2.1276655239267384</v>
       </c>
       <c r="N24" s="5">
-        <f>I24-K24</f>
+        <f t="shared" si="4"/>
         <v>2.9440772129911146</v>
       </c>
       <c r="O24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N24)+1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P24" s="5">
-        <f>N24/M24</f>
+        <f t="shared" si="6"/>
         <v>1.3837124209061009</v>
       </c>
       <c r="Q24" s="4">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P24)+1)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R24" s="17">
-        <f>IF(I24&gt;K24,1-_xlfn.NORM.DIST(I24,K24,M24,1),_xlfn.NORM.DIST(I24,K24,M24,1))</f>
+        <f t="shared" si="8"/>
         <v>8.3223264378529782E-2</v>
       </c>
       <c r="S24" s="32">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R24)+1)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="T24" s="6">
-        <f>E24/K24</f>
+        <f t="shared" si="10"/>
         <v>221.52237033323027</v>
       </c>
       <c r="U24" s="4">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T24)+1)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="V24" s="4"/>
@@ -5194,7 +5194,7 @@
         <v>1610</v>
       </c>
       <c r="F25" s="6">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E25)+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25" s="4">
@@ -5202,7 +5202,7 @@
         <v>162</v>
       </c>
       <c r="H25" s="4">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G25)+1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I25" s="4">
@@ -5210,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="4">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I25)+1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K25" s="5">
@@ -5218,7 +5218,7 @@
         <v>7.2593403877425144</v>
       </c>
       <c r="L25" s="6">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K25)+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M25" s="5">
@@ -5226,35 +5226,35 @@
         <v>2.5260520594073439</v>
       </c>
       <c r="N25" s="5">
-        <f>I25-K25</f>
+        <f t="shared" si="4"/>
         <v>-1.2593403877425144</v>
       </c>
       <c r="O25" s="6">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N25)+1)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="P25" s="5">
-        <f>N25/M25</f>
+        <f t="shared" si="6"/>
         <v>-0.49854094774197877</v>
       </c>
       <c r="Q25" s="4">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P25)+1)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="R25" s="17">
-        <f>IF(I25&gt;K25,1-_xlfn.NORM.DIST(I25,K25,M25,1),_xlfn.NORM.DIST(I25,K25,M25,1))</f>
+        <f t="shared" si="8"/>
         <v>0.30905140767130379</v>
       </c>
       <c r="S25" s="32">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R25)+1)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="T25" s="6">
-        <f>E25/K25</f>
+        <f t="shared" si="10"/>
         <v>221.78323566677005</v>
       </c>
       <c r="U25" s="4">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T25)+1)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="V25" s="4"/>
@@ -5280,7 +5280,7 @@
         <v>720</v>
       </c>
       <c r="F26" s="6" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E26)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G26" s="4">
@@ -5288,7 +5288,7 @@
         <v>68</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G26)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I26" s="4">
@@ -5296,7 +5296,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I26)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="5">
@@ -5304,7 +5304,7 @@
         <v>3.2402189600805982</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K26)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M26" s="5">
@@ -5312,35 +5312,35 @@
         <v>1.6903967309717229</v>
       </c>
       <c r="N26" s="5">
-        <f>I26-K26</f>
+        <f t="shared" si="4"/>
         <v>3.7597810399194018</v>
       </c>
       <c r="O26" s="6" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N26)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P26" s="5">
-        <f>N26/M26</f>
+        <f t="shared" si="6"/>
         <v>2.224200373221318</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P26)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R26" s="17">
-        <f>IF(I26&gt;K26,1-_xlfn.NORM.DIST(I26,K26,M26,1),_xlfn.NORM.DIST(I26,K26,M26,1))</f>
+        <f t="shared" si="8"/>
         <v>1.3067482981361178E-2</v>
       </c>
       <c r="S26" s="32" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R26)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T26" s="6">
-        <f>E26/K26</f>
+        <f t="shared" si="10"/>
         <v>222.20720539888777</v>
       </c>
       <c r="U26" s="4" t="str">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T26)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V26" s="4"/>
@@ -5366,7 +5366,7 @@
         <v>1360</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E27)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G27" s="4">
@@ -5374,7 +5374,7 @@
         <v>127</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G27)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I27" s="4">
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I27)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="5">
@@ -5390,7 +5390,7 @@
         <v>6.0719704412152948</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K27)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="5">
@@ -5398,35 +5398,35 @@
         <v>2.2871608424340759</v>
       </c>
       <c r="N27" s="5">
-        <f>I27-K27</f>
+        <f t="shared" si="4"/>
         <v>-1.0719704412152948</v>
       </c>
       <c r="O27" s="6" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N27)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P27" s="5">
-        <f>N27/M27</f>
+        <f t="shared" si="6"/>
         <v>-0.46869044858011238</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P27)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R27" s="17">
-        <f>IF(I27&gt;K27,1-_xlfn.NORM.DIST(I27,K27,M27,1),_xlfn.NORM.DIST(I27,K27,M27,1))</f>
+        <f t="shared" si="8"/>
         <v>0.3196454575746297</v>
       </c>
       <c r="S27" s="32" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R27)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T27" s="6">
-        <f>E27/K27</f>
+        <f t="shared" si="10"/>
         <v>223.98000997643169</v>
       </c>
       <c r="U27" s="4" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T27)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V27" s="4"/>
@@ -5452,7 +5452,7 @@
         <v>560</v>
       </c>
       <c r="F28" s="6">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E28)+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G28" s="4">
@@ -5460,7 +5460,7 @@
         <v>49</v>
       </c>
       <c r="H28" s="4">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G28)+1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I28" s="4">
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I28)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K28" s="5">
@@ -5476,7 +5476,7 @@
         <v>2.4986609374725086</v>
       </c>
       <c r="L28" s="6">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K28)+1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M28" s="5">
@@ -5484,35 +5484,35 @@
         <v>1.4954768990915936</v>
       </c>
       <c r="N28" s="5">
-        <f>I28-K28</f>
+        <f t="shared" si="4"/>
         <v>-2.4986609374725086</v>
       </c>
       <c r="O28" s="6">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N28)+1)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="P28" s="5">
-        <f>N28/M28</f>
+        <f t="shared" si="6"/>
         <v>-1.6708121262122371</v>
       </c>
       <c r="Q28" s="4">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P28)+1)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="R28" s="17">
-        <f>IF(I28&gt;K28,1-_xlfn.NORM.DIST(I28,K28,M28,1),_xlfn.NORM.DIST(I28,K28,M28,1))</f>
+        <f t="shared" si="8"/>
         <v>4.7379396299877204E-2</v>
       </c>
       <c r="S28" s="32">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R28)+1)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="T28" s="6">
-        <f>E28/K28</f>
+        <f t="shared" si="10"/>
         <v>224.12004430119339</v>
       </c>
       <c r="U28" s="4">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T28)+1)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="V28" s="4"/>
@@ -5538,7 +5538,7 @@
         <v>350</v>
       </c>
       <c r="F29" s="31">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E29)+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G29" s="28">
@@ -5546,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="28">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G29)+1)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="28">
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I29)+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K29" s="29">
@@ -5562,7 +5562,7 @@
         <v>1.5492461951326595</v>
       </c>
       <c r="L29" s="31">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K29)+1)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M29" s="29">
@@ -5570,35 +5570,35 @@
         <v>1.1812669413653081</v>
       </c>
       <c r="N29" s="29">
-        <f>I29-K29</f>
+        <f t="shared" si="4"/>
         <v>-1.5492461951326595</v>
       </c>
       <c r="O29" s="31">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N29)+1)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="P29" s="5">
-        <f>N29/M29</f>
+        <f t="shared" si="6"/>
         <v>-1.3115123609080612</v>
       </c>
       <c r="Q29" s="10">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P29)+1)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="R29" s="17">
-        <f>IF(I29&gt;K29,1-_xlfn.NORM.DIST(I29,K29,M29,1),_xlfn.NORM.DIST(I29,K29,M29,1))</f>
+        <f t="shared" si="8"/>
         <v>9.4842360181836213E-2</v>
       </c>
       <c r="S29" s="32">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R29)+1)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="T29" s="6">
-        <f>E29/K29</f>
+        <f t="shared" si="10"/>
         <v>225.91632053034027</v>
       </c>
       <c r="U29" s="10">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T29)+1)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="V29" s="4"/>
@@ -5624,7 +5624,7 @@
         <v>860</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E30)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G30" s="4">
@@ -5632,7 +5632,7 @@
         <v>85</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G30)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I30" s="4">
@@ -5640,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I30)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K30" s="5">
@@ -5648,7 +5648,7 @@
         <v>3.8059384171605499</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K30)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="5">
@@ -5656,35 +5656,35 @@
         <v>1.8697596112891726</v>
       </c>
       <c r="N30" s="5">
-        <f>I30-K30</f>
+        <f t="shared" si="4"/>
         <v>2.1940615828394501</v>
       </c>
       <c r="O30" s="6" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N30)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P30" s="5">
-        <f>N30/M30</f>
+        <f t="shared" si="6"/>
         <v>1.1734458106765264</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P30)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R30" s="17">
-        <f>IF(I30&gt;K30,1-_xlfn.NORM.DIST(I30,K30,M30,1),_xlfn.NORM.DIST(I30,K30,M30,1))</f>
+        <f t="shared" si="8"/>
         <v>0.12030853778064177</v>
       </c>
       <c r="S30" s="32" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R30)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T30" s="6">
-        <f>E30/K30</f>
+        <f t="shared" si="10"/>
         <v>225.96266826661102</v>
       </c>
       <c r="U30" s="4" t="str">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T30)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V30" s="4"/>
@@ -5710,7 +5710,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E31)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G31" s="4">
@@ -5718,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G31)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I31" s="4">
@@ -5726,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I31)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="5">
@@ -5734,7 +5734,7 @@
         <v>1.3260933806146571</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K31)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M31" s="5">
@@ -5742,35 +5742,35 @@
         <v>1.0672538107751555</v>
       </c>
       <c r="N31" s="5">
-        <f>I31-K31</f>
+        <f t="shared" si="4"/>
         <v>0.67390661938534291</v>
       </c>
       <c r="O31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N31)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P31" s="5">
-        <f>N31/M31</f>
+        <f t="shared" si="6"/>
         <v>0.63143988110558147</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P31)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R31" s="17">
-        <f>IF(I31&gt;K31,1-_xlfn.NORM.DIST(I31,K31,M31,1),_xlfn.NORM.DIST(I31,K31,M31,1))</f>
+        <f t="shared" si="8"/>
         <v>0.26387647326386743</v>
       </c>
       <c r="S31" s="32" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R31)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T31" s="6">
-        <f>E31/K31</f>
+        <f t="shared" si="10"/>
         <v>226.22841225626743</v>
       </c>
       <c r="U31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T31)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V31" s="4"/>
@@ -5796,7 +5796,7 @@
         <v>680</v>
       </c>
       <c r="F32" s="30">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E32)+1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G32" s="8">
@@ -5804,7 +5804,7 @@
         <v>68</v>
       </c>
       <c r="H32" s="10">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G32)+1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I32" s="8">
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="10">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I32)+1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K32" s="9">
@@ -5820,7 +5820,7 @@
         <v>2.9454788994901624</v>
       </c>
       <c r="L32" s="30">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K32)+1)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M32" s="9">
@@ -5828,35 +5828,35 @@
         <v>1.6356646628937455</v>
       </c>
       <c r="N32" s="9">
-        <f>I32-K32</f>
+        <f t="shared" si="4"/>
         <v>1.0545211005098376</v>
       </c>
       <c r="O32" s="30">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N32)+1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P32" s="5">
-        <f>N32/M32</f>
+        <f t="shared" si="6"/>
         <v>0.64470494743355622</v>
       </c>
       <c r="Q32" s="10">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P32)+1)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R32" s="17">
-        <f>IF(I32&gt;K32,1-_xlfn.NORM.DIST(I32,K32,M32,1),_xlfn.NORM.DIST(I32,K32,M32,1))</f>
+        <f t="shared" si="8"/>
         <v>0.2595592047883154</v>
       </c>
       <c r="S32" s="32">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R32)+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="T32" s="6">
-        <f>E32/K32</f>
+        <f t="shared" si="10"/>
         <v>230.86228868171565</v>
       </c>
       <c r="U32" s="10">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T32)+1)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="V32" s="4"/>
@@ -5882,7 +5882,7 @@
         <v>180</v>
       </c>
       <c r="F33" s="30">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E33)+1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G33" s="8">
@@ -5890,7 +5890,7 @@
         <v>18</v>
       </c>
       <c r="H33" s="8">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G33)+1)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I33" s="8">
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="8">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I33)+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K33" s="9">
@@ -5906,7 +5906,7 @@
         <v>0.77946480083496894</v>
       </c>
       <c r="L33" s="30">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K33)+1)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M33" s="9">
@@ -5914,35 +5914,35 @@
         <v>0.85313059319831075</v>
       </c>
       <c r="N33" s="9">
-        <f>I33-K33</f>
+        <f t="shared" si="4"/>
         <v>0.22053519916503106</v>
       </c>
       <c r="O33" s="30">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N33)+1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="P33" s="5">
-        <f>N33/M33</f>
+        <f t="shared" si="6"/>
         <v>0.2585011027892743</v>
       </c>
       <c r="Q33" s="10">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P33)+1)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="R33" s="17">
-        <f>IF(I33&gt;K33,1-_xlfn.NORM.DIST(I33,K33,M33,1),_xlfn.NORM.DIST(I33,K33,M33,1))</f>
+        <f t="shared" si="8"/>
         <v>0.39801009896921591</v>
       </c>
       <c r="S33" s="32">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R33)+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="T33" s="6">
-        <f>E33/K33</f>
+        <f t="shared" si="10"/>
         <v>230.92768243951818</v>
       </c>
       <c r="U33" s="4">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T33)+1)</f>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="V33" s="4"/>
@@ -5968,7 +5968,7 @@
         <v>160</v>
       </c>
       <c r="F34" s="6" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
+        <f t="shared" ref="F34:F65" si="12">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G34" s="4">
@@ -5976,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
+        <f t="shared" ref="H34:H65" si="13">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I34" s="4">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
+        <f t="shared" ref="J34:J65" si="14">IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="5">
@@ -5992,7 +5992,7 @@
         <v>0.68315789473684219</v>
       </c>
       <c r="L34" s="6" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
+        <f t="shared" ref="L34:L65" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M34" s="5">
@@ -6000,35 +6000,35 @@
         <v>0.79496113990168826</v>
       </c>
       <c r="N34" s="5">
-        <f>I34-K34</f>
+        <f t="shared" ref="N34:N59" si="16">I34-K34</f>
         <v>0.31684210526315781</v>
       </c>
       <c r="O34" s="6" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
+        <f t="shared" ref="O34:O65" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P34" s="5">
-        <f>N34/M34</f>
+        <f t="shared" ref="P34:P59" si="18">N34/M34</f>
         <v>0.39856301064268529</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
+        <f t="shared" ref="Q34:Q65" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R34" s="17">
-        <f>IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
+        <f t="shared" ref="R34:R59" si="20">IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
         <v>0.34510761059987882</v>
       </c>
       <c r="S34" s="32" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
+        <f t="shared" ref="S34:S65" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T34" s="6">
-        <f>E34/K34</f>
+        <f t="shared" ref="T34:T59" si="22">E34/K34</f>
         <v>234.20647149460706</v>
       </c>
       <c r="U34" s="6" t="str">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
+        <f t="shared" ref="U34:U65" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V34" s="4"/>
@@ -6054,7 +6054,7 @@
         <v>2060</v>
       </c>
       <c r="F35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E35)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G35" s="4">
@@ -6062,7 +6062,7 @@
         <v>189</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G35)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I35" s="4">
@@ -6070,7 +6070,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I35)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="5">
@@ -6078,7 +6078,7 @@
         <v>8.7731840201125806</v>
       </c>
       <c r="L35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K35)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M35" s="5">
@@ -6086,35 +6086,35 @@
         <v>2.7176050085623271</v>
       </c>
       <c r="N35" s="5">
-        <f>I35-K35</f>
+        <f t="shared" si="16"/>
         <v>-0.77318402011258058</v>
       </c>
       <c r="O35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N35)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P35" s="5">
-        <f>N35/M35</f>
+        <f t="shared" si="18"/>
         <v>-0.28450934469009237</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P35)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R35" s="17">
-        <f>IF(I35&gt;K35,1-_xlfn.NORM.DIST(I35,K35,M35,1),_xlfn.NORM.DIST(I35,K35,M35,1))</f>
+        <f t="shared" si="20"/>
         <v>0.3880100368901796</v>
       </c>
       <c r="S35" s="32" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R35)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T35" s="6">
-        <f>E35/K35</f>
+        <f t="shared" si="22"/>
         <v>234.80642777780983</v>
       </c>
       <c r="U35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T35)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V35" s="4"/>
@@ -6140,7 +6140,7 @@
         <v>1100</v>
       </c>
       <c r="F36" s="6">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E36)+1)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G36" s="4">
@@ -6148,7 +6148,7 @@
         <v>111</v>
       </c>
       <c r="H36" s="4">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G36)+1)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I36" s="4">
@@ -6156,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="4">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I36)+1)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="K36" s="5">
@@ -6164,7 +6164,7 @@
         <v>4.6786525121430946</v>
       </c>
       <c r="L36" s="6">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K36)+1)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="M36" s="5">
@@ -6172,35 +6172,35 @@
         <v>2.0428746373587989</v>
       </c>
       <c r="N36" s="5">
-        <f>I36-K36</f>
+        <f t="shared" si="16"/>
         <v>-0.67865251214309463</v>
       </c>
       <c r="O36" s="6">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N36)+1)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="P36" s="5">
-        <f>N36/M36</f>
+        <f t="shared" si="18"/>
         <v>-0.33220467851150864</v>
       </c>
       <c r="Q36" s="4">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P36)+1)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="R36" s="17">
-        <f>IF(I36&gt;K36,1-_xlfn.NORM.DIST(I36,K36,M36,1),_xlfn.NORM.DIST(I36,K36,M36,1))</f>
+        <f t="shared" si="20"/>
         <v>0.3698673556233083</v>
       </c>
       <c r="S36" s="32">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R36)+1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="T36" s="6">
-        <f>E36/K36</f>
+        <f t="shared" si="22"/>
         <v>235.11042915562373</v>
       </c>
       <c r="U36" s="4">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T36)+1)</f>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="V36" s="4"/>
@@ -6226,7 +6226,7 @@
         <v>1900</v>
       </c>
       <c r="F37" s="6">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E37)+1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G37" s="4">
@@ -6234,7 +6234,7 @@
         <v>180</v>
       </c>
       <c r="H37" s="4">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G37)+1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I37" s="4">
@@ -6242,7 +6242,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I37)+1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K37" s="5">
@@ -6250,7 +6250,7 @@
         <v>8.0541199907867593</v>
       </c>
       <c r="L37" s="6">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K37)+1)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M37" s="5">
@@ -6258,35 +6258,35 @@
         <v>2.6692304887453653</v>
       </c>
       <c r="N37" s="5">
-        <f>I37-K37</f>
+        <f t="shared" si="16"/>
         <v>1.9458800092132407</v>
       </c>
       <c r="O37" s="6">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N37)+1)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="P37" s="5">
-        <f>N37/M37</f>
+        <f t="shared" si="18"/>
         <v>0.72900411463825088</v>
       </c>
       <c r="Q37" s="4">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P37)+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="R37" s="17">
-        <f>IF(I37&gt;K37,1-_xlfn.NORM.DIST(I37,K37,M37,1),_xlfn.NORM.DIST(I37,K37,M37,1))</f>
+        <f t="shared" si="20"/>
         <v>0.23299957277905714</v>
       </c>
       <c r="S37" s="32">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R37)+1)</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="T37" s="6">
-        <f>E37/K37</f>
+        <f t="shared" si="22"/>
         <v>235.9041089744679</v>
       </c>
       <c r="U37" s="4">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T37)+1)</f>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="V37" s="4"/>
@@ -6312,7 +6312,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="6" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E38)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G38" s="4">
@@ -6320,7 +6320,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G38)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I38" s="4">
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I38)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K38" s="5">
@@ -6336,7 +6336,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="L38" s="6" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K38)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M38" s="5">
@@ -6344,35 +6344,35 @@
         <v>0.43925136315935126</v>
       </c>
       <c r="N38" s="5">
-        <f>I38-K38</f>
+        <f t="shared" si="16"/>
         <v>-0.20833333333333331</v>
       </c>
       <c r="O38" s="6" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N38)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P38" s="5">
-        <f>N38/M38</f>
+        <f t="shared" si="18"/>
         <v>-0.47429183107111794</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P38)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R38" s="17">
-        <f>IF(I38&gt;K38,1-_xlfn.NORM.DIST(I38,K38,M38,1),_xlfn.NORM.DIST(I38,K38,M38,1))</f>
+        <f t="shared" si="20"/>
         <v>0.31764590799841352</v>
       </c>
       <c r="S38" s="32" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R38)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T38" s="6">
-        <f>E38/K38</f>
+        <f t="shared" si="22"/>
         <v>240.00000000000003</v>
       </c>
       <c r="U38" s="6" t="str">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T38)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V38" s="4"/>
@@ -6398,7 +6398,7 @@
         <v>820</v>
       </c>
       <c r="F39" s="6">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E39)+1)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="G39" s="4">
@@ -6406,7 +6406,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="4">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G39)+1)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="I39" s="4">
@@ -6414,7 +6414,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="4">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I39)+1)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="K39" s="5">
@@ -6422,7 +6422,7 @@
         <v>3.4054149521089765</v>
       </c>
       <c r="L39" s="6">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K39)+1)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="M39" s="5">
@@ -6430,35 +6430,35 @@
         <v>1.7445127563867142</v>
       </c>
       <c r="N39" s="5">
-        <f>I39-K39</f>
+        <f t="shared" si="16"/>
         <v>0.59458504789102351</v>
       </c>
       <c r="O39" s="6">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N39)+1)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="P39" s="5">
-        <f>N39/M39</f>
+        <f t="shared" si="18"/>
         <v>0.34083158504529681</v>
       </c>
       <c r="Q39" s="4">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P39)+1)</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="R39" s="17">
-        <f>IF(I39&gt;K39,1-_xlfn.NORM.DIST(I39,K39,M39,1),_xlfn.NORM.DIST(I39,K39,M39,1))</f>
+        <f t="shared" si="20"/>
         <v>0.36661518558908524</v>
       </c>
       <c r="S39" s="32">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R39)+1)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="T39" s="6">
-        <f>E39/K39</f>
+        <f t="shared" si="22"/>
         <v>240.79297575532559</v>
       </c>
       <c r="U39" s="4">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T39)+1)</f>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="V39" s="4"/>
@@ -6484,7 +6484,7 @@
         <v>750</v>
       </c>
       <c r="F40" s="6">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E40)+1)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="G40" s="4">
@@ -6492,7 +6492,7 @@
         <v>65</v>
       </c>
       <c r="H40" s="4">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G40)+1)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="I40" s="4">
@@ -6500,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="4">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I40)+1)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="K40" s="5">
@@ -6508,7 +6508,7 @@
         <v>3.0749747879706155</v>
       </c>
       <c r="L40" s="6">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K40)+1)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="M40" s="5">
@@ -6516,35 +6516,35 @@
         <v>1.6670556241583492</v>
       </c>
       <c r="N40" s="5">
-        <f>I40-K40</f>
+        <f t="shared" si="16"/>
         <v>-1.0749747879706155</v>
       </c>
       <c r="O40" s="6">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N40)+1)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="P40" s="5">
-        <f>N40/M40</f>
+        <f t="shared" si="18"/>
         <v>-0.64483438488343237</v>
       </c>
       <c r="Q40" s="4">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P40)+1)</f>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="R40" s="17">
-        <f>IF(I40&gt;K40,1-_xlfn.NORM.DIST(I40,K40,M40,1),_xlfn.NORM.DIST(I40,K40,M40,1))</f>
+        <f t="shared" si="20"/>
         <v>0.25951725827739575</v>
       </c>
       <c r="S40" s="32">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R40)+1)</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="T40" s="6">
-        <f>E40/K40</f>
+        <f t="shared" si="22"/>
         <v>243.90443880516364</v>
       </c>
       <c r="U40" s="4">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T40)+1)</f>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="V40" s="4"/>
@@ -6570,7 +6570,7 @@
         <v>580</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E41)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G41" s="4">
@@ -6578,7 +6578,7 @@
         <v>55</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G41)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I41" s="4">
@@ -6586,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I41)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K41" s="5">
@@ -6594,7 +6594,7 @@
         <v>2.3740803347134869</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K41)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M41" s="5">
@@ -6602,35 +6602,35 @@
         <v>1.4608189121183603</v>
       </c>
       <c r="N41" s="5">
-        <f>I41-K41</f>
+        <f t="shared" si="16"/>
         <v>0.6259196652865131</v>
       </c>
       <c r="O41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N41)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P41" s="5">
-        <f>N41/M41</f>
+        <f t="shared" si="18"/>
         <v>0.42847177024759042</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P41)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R41" s="17">
-        <f>IF(I41&gt;K41,1-_xlfn.NORM.DIST(I41,K41,M41,1),_xlfn.NORM.DIST(I41,K41,M41,1))</f>
+        <f t="shared" si="20"/>
         <v>0.33415384099578926</v>
       </c>
       <c r="S41" s="32" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R41)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T41" s="6">
-        <f>E41/K41</f>
+        <f t="shared" si="22"/>
         <v>244.30512797706007</v>
       </c>
       <c r="U41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T41)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V41" s="4"/>
@@ -6656,7 +6656,7 @@
         <v>530</v>
       </c>
       <c r="F42" s="6" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E42)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G42" s="4">
@@ -6664,7 +6664,7 @@
         <v>48</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G42)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I42" s="4">
@@ -6672,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I42)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K42" s="5">
@@ -6680,7 +6680,7 @@
         <v>2.1645166106756251</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K42)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M42" s="5">
@@ -6688,35 +6688,35 @@
         <v>1.3966272062273601</v>
       </c>
       <c r="N42" s="5">
-        <f>I42-K42</f>
+        <f t="shared" si="16"/>
         <v>0.83548338932437494</v>
       </c>
       <c r="O42" s="6" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N42)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P42" s="5">
-        <f>N42/M42</f>
+        <f t="shared" si="18"/>
         <v>0.59821503232865181</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P42)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R42" s="17">
-        <f>IF(I42&gt;K42,1-_xlfn.NORM.DIST(I42,K42,M42,1),_xlfn.NORM.DIST(I42,K42,M42,1))</f>
+        <f t="shared" si="20"/>
         <v>0.27484823119819857</v>
       </c>
       <c r="S42" s="32" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R42)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T42" s="6">
-        <f>E42/K42</f>
+        <f t="shared" si="22"/>
         <v>244.85836578291148</v>
       </c>
       <c r="U42" s="4" t="str">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T42)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V42" s="4"/>
@@ -6742,7 +6742,7 @@
         <v>790</v>
       </c>
       <c r="F43" s="6" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E43)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G43" s="4">
@@ -6750,7 +6750,7 @@
         <v>69</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G43)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I43" s="4">
@@ -6758,7 +6758,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I43)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K43" s="5">
@@ -6766,7 +6766,7 @@
         <v>3.2250613603274099</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K43)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M43" s="5">
@@ -6774,35 +6774,35 @@
         <v>1.6993617556865768</v>
       </c>
       <c r="N43" s="5">
-        <f>I43-K43</f>
+        <f t="shared" si="16"/>
         <v>1.7749386396725901</v>
       </c>
       <c r="O43" s="6" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N43)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P43" s="5">
-        <f>N43/M43</f>
+        <f t="shared" si="18"/>
         <v>1.0444736876848677</v>
       </c>
       <c r="Q43" s="4" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P43)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R43" s="17">
-        <f>IF(I43&gt;K43,1-_xlfn.NORM.DIST(I43,K43,M43,1),_xlfn.NORM.DIST(I43,K43,M43,1))</f>
+        <f t="shared" si="20"/>
         <v>0.1481331433566947</v>
       </c>
       <c r="S43" s="32" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R43)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T43" s="6">
-        <f>E43/K43</f>
+        <f t="shared" si="22"/>
         <v>244.95657965397558</v>
       </c>
       <c r="U43" s="4" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T43)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V43" s="4"/>
@@ -6828,7 +6828,7 @@
         <v>340</v>
       </c>
       <c r="F44" s="6">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E44)+1)</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="G44" s="4">
@@ -6836,7 +6836,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="4">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G44)+1)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I44" s="4">
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="4">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I44)+1)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="K44" s="5">
@@ -6852,7 +6852,7 @@
         <v>1.3786580188649971</v>
       </c>
       <c r="L44" s="6">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K44)+1)</f>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="M44" s="5">
@@ -6860,35 +6860,35 @@
         <v>1.1321394309179194</v>
       </c>
       <c r="N44" s="5">
-        <f>I44-K44</f>
+        <f t="shared" si="16"/>
         <v>-0.37865801886499706</v>
       </c>
       <c r="O44" s="6">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N44)+1)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="P44" s="5">
-        <f>N44/M44</f>
+        <f t="shared" si="18"/>
         <v>-0.33446235377385236</v>
       </c>
       <c r="Q44" s="4">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P44)+1)</f>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="R44" s="17">
-        <f>IF(I44&gt;K44,1-_xlfn.NORM.DIST(I44,K44,M44,1),_xlfn.NORM.DIST(I44,K44,M44,1))</f>
+        <f t="shared" si="20"/>
         <v>0.36901534705848416</v>
       </c>
       <c r="S44" s="32">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R44)+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="T44" s="6">
-        <f>E44/K44</f>
+        <f t="shared" si="22"/>
         <v>246.61663396402727</v>
       </c>
       <c r="U44" s="4">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T44)+1)</f>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="V44" s="4"/>
@@ -6914,7 +6914,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="31" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E45)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G45" s="28">
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="28" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G45)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I45" s="28">
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="28" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I45)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K45" s="29">
@@ -6938,7 +6938,7 @@
         <v>4.046242774566474E-2</v>
       </c>
       <c r="L45" s="31" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K45)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M45" s="29">
@@ -6946,35 +6946,35 @@
         <v>0.19704116241687067</v>
       </c>
       <c r="N45" s="29">
-        <f>I45-K45</f>
+        <f t="shared" si="16"/>
         <v>-4.046242774566474E-2</v>
       </c>
       <c r="O45" s="31" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N45)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P45" s="5">
-        <f>N45/M45</f>
+        <f t="shared" si="18"/>
         <v>-0.20535012709710013</v>
       </c>
       <c r="Q45" s="10" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P45)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R45" s="17">
-        <f>IF(I45&gt;K45,1-_xlfn.NORM.DIST(I45,K45,M45,1),_xlfn.NORM.DIST(I45,K45,M45,1))</f>
+        <f t="shared" si="20"/>
         <v>0.41864929133648948</v>
       </c>
       <c r="S45" s="32" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R45)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T45" s="6">
-        <f>E45/K45</f>
+        <f t="shared" si="22"/>
         <v>247.14285714285714</v>
       </c>
       <c r="U45" s="10" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T45)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V45" s="4"/>
@@ -7000,7 +7000,7 @@
         <v>220</v>
       </c>
       <c r="F46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E46)+1)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="G46" s="4">
@@ -7008,7 +7008,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G46)+1)</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="I46" s="4">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I46)+1)</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="K46" s="5">
@@ -7024,7 +7024,7 @@
         <v>0.88919799389614118</v>
       </c>
       <c r="L46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K46)+1)</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="M46" s="5">
@@ -7032,35 +7032,35 @@
         <v>0.90983539619619269</v>
       </c>
       <c r="N46" s="5">
-        <f>I46-K46</f>
+        <f t="shared" si="16"/>
         <v>-0.88919799389614118</v>
       </c>
       <c r="O46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N46)+1)</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="P46" s="5">
-        <f>N46/M46</f>
+        <f t="shared" si="18"/>
         <v>-0.97731743303642438</v>
       </c>
       <c r="Q46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P46)+1)</f>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="R46" s="17">
-        <f>IF(I46&gt;K46,1-_xlfn.NORM.DIST(I46,K46,M46,1),_xlfn.NORM.DIST(I46,K46,M46,1))</f>
+        <f t="shared" si="20"/>
         <v>0.16420601256102682</v>
       </c>
       <c r="S46" s="32">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R46)+1)</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="T46" s="6">
-        <f>E46/K46</f>
+        <f t="shared" si="22"/>
         <v>247.41396349314766</v>
       </c>
       <c r="U46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T46)+1)</f>
+        <f t="shared" si="23"/>
         <v>27</v>
       </c>
       <c r="V46" s="4"/>
@@ -7086,7 +7086,7 @@
         <v>170</v>
       </c>
       <c r="F47" s="31">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E47)+1)</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="G47" s="28">
@@ -7094,7 +7094,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="28">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G47)+1)</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="I47" s="28">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="28">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I47)+1)</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="K47" s="29">
@@ -7110,7 +7110,7 @@
         <v>0.68572660008786301</v>
       </c>
       <c r="L47" s="31">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K47)+1)</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="M47" s="29">
@@ -7118,35 +7118,35 @@
         <v>0.80007672906497651</v>
       </c>
       <c r="N47" s="29">
-        <f>I47-K47</f>
+        <f t="shared" si="16"/>
         <v>-0.68572660008786301</v>
       </c>
       <c r="O47" s="31">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N47)+1)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="P47" s="29">
-        <f>N47/M47</f>
+        <f t="shared" si="18"/>
         <v>-0.85707604680522231</v>
       </c>
       <c r="Q47" s="10">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P47)+1)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="R47" s="17">
-        <f>IF(I47&gt;K47,1-_xlfn.NORM.DIST(I47,K47,M47,1),_xlfn.NORM.DIST(I47,K47,M47,1))</f>
+        <f t="shared" si="20"/>
         <v>0.19570142905695206</v>
       </c>
       <c r="S47" s="77">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R47)+1)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="T47" s="6">
-        <f>E47/K47</f>
+        <f t="shared" si="22"/>
         <v>247.9122145447146</v>
       </c>
       <c r="U47" s="10">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T47)+1)</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="X47" s="4"/>
@@ -7171,7 +7171,7 @@
         <v>850</v>
       </c>
       <c r="F48" s="6">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E48)+1)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="G48" s="4">
@@ -7179,7 +7179,7 @@
         <v>81</v>
       </c>
       <c r="H48" s="4">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G48)+1)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="I48" s="4">
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="4">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I48)+1)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="K48" s="5">
@@ -7195,7 +7195,7 @@
         <v>3.4203082743728253</v>
       </c>
       <c r="L48" s="6">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K48)+1)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="M48" s="5">
@@ -7203,35 +7203,35 @@
         <v>1.7553836370630092</v>
       </c>
       <c r="N48" s="5">
-        <f>I48-K48</f>
+        <f t="shared" si="16"/>
         <v>-2.4203082743728253</v>
       </c>
       <c r="O48" s="6">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N48)+1)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="P48" s="5">
-        <f>N48/M48</f>
+        <f t="shared" si="18"/>
         <v>-1.3787916346436517</v>
       </c>
       <c r="Q48" s="4">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P48)+1)</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="R48" s="17">
-        <f>IF(I48&gt;K48,1-_xlfn.NORM.DIST(I48,K48,M48,1),_xlfn.NORM.DIST(I48,K48,M48,1))</f>
+        <f t="shared" si="20"/>
         <v>8.3979503335431097E-2</v>
       </c>
       <c r="S48" s="32">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R48)+1)</f>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="T48" s="6">
-        <f>E48/K48</f>
+        <f t="shared" si="22"/>
         <v>248.51561082044944</v>
       </c>
       <c r="U48" s="4">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T48)+1)</f>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
       <c r="X48" s="4"/>
@@ -7256,7 +7256,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="31">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E49)+1)</f>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="G49" s="28">
@@ -7264,7 +7264,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="28">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G49)+1)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I49" s="28">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="28">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I49)+1)</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="K49" s="29">
@@ -7280,7 +7280,7 @@
         <v>0.38966480446927376</v>
       </c>
       <c r="L49" s="31">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K49)+1)</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="M49" s="29">
@@ -7288,35 +7288,35 @@
         <v>0.601855043438283</v>
       </c>
       <c r="N49" s="29">
-        <f>I49-K49</f>
+        <f t="shared" si="16"/>
         <v>-0.38966480446927376</v>
       </c>
       <c r="O49" s="31">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N49)+1)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="P49" s="29">
-        <f>N49/M49</f>
+        <f t="shared" si="18"/>
         <v>-0.64743962639773378</v>
       </c>
       <c r="Q49" s="10">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P49)+1)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="R49" s="17">
-        <f>IF(I49&gt;K49,1-_xlfn.NORM.DIST(I49,K49,M49,1),_xlfn.NORM.DIST(I49,K49,M49,1))</f>
+        <f t="shared" si="20"/>
         <v>0.25867372829317148</v>
       </c>
       <c r="S49" s="77">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R49)+1)</f>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="T49" s="6">
-        <f>E49/K49</f>
+        <f t="shared" si="22"/>
         <v>256.63082437275983</v>
       </c>
       <c r="U49" s="10">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T49)+1)</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="X49" s="4"/>
@@ -7341,7 +7341,7 @@
         <v>240</v>
       </c>
       <c r="F50" s="31">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E50)+1)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="G50" s="28">
@@ -7349,7 +7349,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="28">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G50)+1)</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="I50" s="28">
@@ -7357,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="28">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I50)+1)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="K50" s="29">
@@ -7365,7 +7365,7 @@
         <v>0.9288730060179704</v>
       </c>
       <c r="L50" s="31">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K50)+1)</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="M50" s="29">
@@ -7373,35 +7373,35 @@
         <v>0.92588131822066155</v>
       </c>
       <c r="N50" s="29">
-        <f>I50-K50</f>
+        <f t="shared" si="16"/>
         <v>2.0711269939820296</v>
       </c>
       <c r="O50" s="31">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N50)+1)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P50" s="5">
-        <f>N50/M50</f>
+        <f t="shared" si="18"/>
         <v>2.2369249203151393</v>
       </c>
       <c r="Q50" s="10">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P50)+1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R50" s="17">
-        <f>IF(I50&gt;K50,1-_xlfn.NORM.DIST(I50,K50,M50,1),_xlfn.NORM.DIST(I50,K50,M50,1))</f>
+        <f t="shared" si="20"/>
         <v>1.2645623753735458E-2</v>
       </c>
       <c r="S50" s="32">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R50)+1)</f>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="T50" s="6">
-        <f>E50/K50</f>
+        <f t="shared" si="22"/>
         <v>258.37762368492906</v>
       </c>
       <c r="U50" s="10">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T50)+1)</f>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="X50" s="4"/>
@@ -7426,7 +7426,7 @@
         <v>800</v>
       </c>
       <c r="F51" s="6" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E51)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G51" s="4">
@@ -7434,7 +7434,7 @@
         <v>75</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G51)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I51" s="4">
@@ -7442,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I51)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K51" s="5">
@@ -7450,7 +7450,7 @@
         <v>3.0883035773743104</v>
       </c>
       <c r="L51" s="6" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K51)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M51" s="5">
@@ -7458,35 +7458,35 @@
         <v>1.645289709282524</v>
       </c>
       <c r="N51" s="5">
-        <f>I51-K51</f>
+        <f t="shared" si="16"/>
         <v>0.91169642262568962</v>
       </c>
       <c r="O51" s="6" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N51)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P51" s="5">
-        <f>N51/M51</f>
+        <f t="shared" si="18"/>
         <v>0.55412515952783847</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P51)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R51" s="17">
-        <f>IF(I51&gt;K51,1-_xlfn.NORM.DIST(I51,K51,M51,1),_xlfn.NORM.DIST(I51,K51,M51,1))</f>
+        <f t="shared" si="20"/>
         <v>0.28974659632997213</v>
       </c>
       <c r="S51" s="32" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R51)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T51" s="6">
-        <f>E51/K51</f>
+        <f t="shared" si="22"/>
         <v>259.04189143224175</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T51)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X51" s="4"/>
@@ -7511,7 +7511,7 @@
         <v>800</v>
       </c>
       <c r="F52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E52)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G52" s="4">
@@ -7519,7 +7519,7 @@
         <v>75</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G52)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I52" s="4">
@@ -7527,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I52)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K52" s="5">
@@ -7535,7 +7535,7 @@
         <v>2.9991021425331783</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K52)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M52" s="5">
@@ -7543,35 +7543,35 @@
         <v>1.640793642686911</v>
       </c>
       <c r="N52" s="5">
-        <f>I52-K52</f>
+        <f t="shared" si="16"/>
         <v>1.0008978574668217</v>
       </c>
       <c r="O52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N52)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P52" s="5">
-        <f>N52/M52</f>
+        <f t="shared" si="18"/>
         <v>0.61000837120979057</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P52)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R52" s="17">
-        <f>IF(I52&gt;K52,1-_xlfn.NORM.DIST(I52,K52,M52,1),_xlfn.NORM.DIST(I52,K52,M52,1))</f>
+        <f t="shared" si="20"/>
         <v>0.27092813112251135</v>
       </c>
       <c r="S52" s="32" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R52)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T52" s="6">
-        <f>E52/K52</f>
+        <f t="shared" si="22"/>
         <v>266.74650011229147</v>
       </c>
       <c r="U52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T52)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
         <v>1570</v>
       </c>
       <c r="F53" s="6" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E53)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G53" s="4">
@@ -7602,7 +7602,7 @@
         <v>147</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G53)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I53" s="4">
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I53)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K53" s="5">
@@ -7618,7 +7618,7 @@
         <v>5.3872370398255942</v>
       </c>
       <c r="L53" s="6" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K53)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M53" s="5">
@@ -7626,35 +7626,35 @@
         <v>2.1480307909963821</v>
       </c>
       <c r="N53" s="5">
-        <f>I53-K53</f>
+        <f t="shared" si="16"/>
         <v>-1.3872370398255942</v>
       </c>
       <c r="O53" s="6" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N53)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P53" s="5">
-        <f>N53/M53</f>
+        <f t="shared" si="18"/>
         <v>-0.6458180421064228</v>
       </c>
       <c r="Q53" s="4" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P53)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R53" s="17">
-        <f>IF(I53&gt;K53,1-_xlfn.NORM.DIST(I53,K53,M53,1),_xlfn.NORM.DIST(I53,K53,M53,1))</f>
+        <f t="shared" si="20"/>
         <v>0.25919860106105741</v>
       </c>
       <c r="S53" s="32" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R53)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T53" s="6">
-        <f>E53/K53</f>
+        <f t="shared" si="22"/>
         <v>291.4295377006145</v>
       </c>
       <c r="U53" s="6" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T53)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
         <v>550</v>
       </c>
       <c r="F54" s="31">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E54)+1)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G54" s="28">
@@ -7685,7 +7685,7 @@
         <v>55</v>
       </c>
       <c r="H54" s="28">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G54)+1)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="I54" s="28">
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="28">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I54)+1)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="K54" s="29">
@@ -7701,7 +7701,7 @@
         <v>1.8588658588262426</v>
       </c>
       <c r="L54" s="31">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K54)+1)</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="M54" s="29">
@@ -7709,35 +7709,35 @@
         <v>1.2295369278713271</v>
       </c>
       <c r="N54" s="29">
-        <f>I54-K54</f>
+        <f t="shared" si="16"/>
         <v>-0.85886585882624256</v>
       </c>
       <c r="O54" s="31">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N54)+1)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="P54" s="29">
-        <f>N54/M54</f>
+        <f t="shared" si="18"/>
         <v>-0.69852790864376879</v>
       </c>
       <c r="Q54" s="10">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P54)+1)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="R54" s="17">
-        <f>IF(I54&gt;K54,1-_xlfn.NORM.DIST(I54,K54,M54,1),_xlfn.NORM.DIST(I54,K54,M54,1))</f>
+        <f t="shared" si="20"/>
         <v>0.24242355528933757</v>
       </c>
       <c r="S54" s="77">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R54)+1)</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="T54" s="6">
-        <f>E54/K54</f>
+        <f t="shared" si="22"/>
         <v>295.87933813970341</v>
       </c>
       <c r="U54" s="10">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T54)+1)</f>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
         <v>240</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E55)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G55" s="4">
@@ -7768,7 +7768,7 @@
         <v>24</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G55)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I55" s="4">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I55)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K55" s="5">
@@ -7784,7 +7784,7 @@
         <v>0.7941427895328429</v>
       </c>
       <c r="L55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K55)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M55" s="5">
@@ -7792,35 +7792,35 @@
         <v>0.86060092285446455</v>
       </c>
       <c r="N55" s="5">
-        <f>I55-K55</f>
+        <f t="shared" si="16"/>
         <v>-0.7941427895328429</v>
       </c>
       <c r="O55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N55)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P55" s="5">
-        <f>N55/M55</f>
+        <f t="shared" si="18"/>
         <v>-0.92277706012539296</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P55)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R55" s="17">
-        <f>IF(I55&gt;K55,1-_xlfn.NORM.DIST(I55,K55,M55,1),_xlfn.NORM.DIST(I55,K55,M55,1))</f>
+        <f t="shared" si="20"/>
         <v>0.17806169891377793</v>
       </c>
       <c r="S55" s="32" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R55)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T55" s="6">
-        <f>E55/K55</f>
+        <f t="shared" si="22"/>
         <v>302.21265389966049</v>
       </c>
       <c r="U55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T55)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E56)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G56" s="4">
@@ -7851,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G56)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I56" s="4">
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I56)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K56" s="5">
@@ -7867,7 +7867,7 @@
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="L56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K56)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M56" s="5">
@@ -7875,35 +7875,35 @@
         <v>0.24791576048881739</v>
       </c>
       <c r="N56" s="5">
-        <f>I56-K56</f>
+        <f t="shared" si="16"/>
         <v>-6.3829787234042548E-2</v>
       </c>
       <c r="O56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N56)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P56" s="5">
-        <f>N56/M56</f>
+        <f t="shared" si="18"/>
         <v>-0.25746562908380199</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P56)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R56" s="17">
-        <f>IF(I56&gt;K56,1-_xlfn.NORM.DIST(I56,K56,M56,1),_xlfn.NORM.DIST(I56,K56,M56,1))</f>
+        <f t="shared" si="20"/>
         <v>0.39840967257938792</v>
       </c>
       <c r="S56" s="32" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R56)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T56" s="6">
-        <f>E56/K56</f>
+        <f t="shared" si="22"/>
         <v>313.33333333333337</v>
       </c>
       <c r="U56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T56)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="6" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E57)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G57" s="4">
@@ -7934,7 +7934,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G57)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I57" s="4">
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I57)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K57" s="5">
@@ -7950,7 +7950,7 @@
         <v>0.31914893617021273</v>
       </c>
       <c r="L57" s="6" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K57)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M57" s="5">
@@ -7958,35 +7958,35 @@
         <v>0.54230382522055953</v>
       </c>
       <c r="N57" s="5">
-        <f>I57-K57</f>
+        <f t="shared" si="16"/>
         <v>-0.31914893617021273</v>
       </c>
       <c r="O57" s="6" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N57)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P57" s="5">
-        <f>N57/M57</f>
+        <f t="shared" si="18"/>
         <v>-0.58850578094375816</v>
       </c>
       <c r="Q57" s="4" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P57)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R57" s="17">
-        <f>IF(I57&gt;K57,1-_xlfn.NORM.DIST(I57,K57,M57,1),_xlfn.NORM.DIST(I57,K57,M57,1))</f>
+        <f t="shared" si="20"/>
         <v>0.27809642736849838</v>
       </c>
       <c r="S57" s="32" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R57)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T57" s="6">
-        <f>E57/K57</f>
+        <f t="shared" si="22"/>
         <v>313.33333333333337</v>
       </c>
       <c r="U57" s="6" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T57)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E58)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G58" s="4">
@@ -8017,7 +8017,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G58)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I58" s="4">
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I58)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K58" s="5">
@@ -8033,7 +8033,7 @@
         <v>0.63164893617021267</v>
       </c>
       <c r="L58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K58)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M58" s="5">
@@ -8041,35 +8041,35 @@
         <v>0.75810728959235163</v>
       </c>
       <c r="N58" s="5">
-        <f>I58-K58</f>
+        <f t="shared" si="16"/>
         <v>0.36835106382978733</v>
       </c>
       <c r="O58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N58)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P58" s="5">
-        <f>N58/M58</f>
+        <f t="shared" si="18"/>
         <v>0.4858824982778579</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P58)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R58" s="17">
-        <f>IF(I58&gt;K58,1-_xlfn.NORM.DIST(I58,K58,M58,1),_xlfn.NORM.DIST(I58,K58,M58,1))</f>
+        <f t="shared" si="20"/>
         <v>0.31352523895390516</v>
       </c>
       <c r="S58" s="32" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R58)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T58" s="6">
-        <f>E58/K58</f>
+        <f t="shared" si="22"/>
         <v>316.6315789473685</v>
       </c>
       <c r="U58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T58)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
         <v>50</v>
       </c>
       <c r="F59" s="31" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E59)+1)</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G59" s="28">
@@ -8100,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="28" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G59)+1)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I59" s="28">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="28" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I59)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K59" s="29">
@@ -8116,7 +8116,7 @@
         <v>0.13966480446927373</v>
       </c>
       <c r="L59" s="31" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K59)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M59" s="29">
@@ -8124,35 +8124,35 @@
         <v>0.36429752481921757</v>
       </c>
       <c r="N59" s="29">
-        <f>I59-K59</f>
+        <f t="shared" si="16"/>
         <v>-0.13966480446927373</v>
       </c>
       <c r="O59" s="31" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N59)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P59" s="29">
-        <f>N59/M59</f>
+        <f t="shared" si="18"/>
         <v>-0.3833811512679981</v>
       </c>
       <c r="Q59" s="10" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P59)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R59" s="17">
-        <f>IF(I59&gt;K59,1-_xlfn.NORM.DIST(I59,K59,M59,1),_xlfn.NORM.DIST(I59,K59,M59,1))</f>
+        <f t="shared" si="20"/>
         <v>0.35071858839852854</v>
       </c>
       <c r="S59" s="77" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R59)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T59" s="6">
-        <f>E59/K59</f>
+        <f t="shared" si="22"/>
         <v>358</v>
       </c>
       <c r="U59" s="10" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T59)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -22203,10 +22203,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22238,11 +22238,11 @@
       </c>
       <c r="G1" s="13">
         <f>SUM(C:C)</f>
-        <v>31674.15</v>
+        <v>34276.15</v>
       </c>
       <c r="H1" s="12">
         <f>SUM(D:D)</f>
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -22508,6 +22508,23 @@
       </c>
       <c r="E18">
         <v>92156929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2602</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>92216560</v>
       </c>
     </row>
   </sheetData>
@@ -22523,8 +22540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22591,7 +22608,7 @@
       </c>
       <c r="G5" s="12">
         <f>Purchases!H1</f>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
         <v>131</v>
@@ -22606,7 +22623,7 @@
       </c>
       <c r="C6" s="16">
         <f>-Purchases!G1</f>
-        <v>-31674.15</v>
+        <v>-34276.15</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>44</v>
@@ -22624,14 +22641,14 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(C2:C6)</f>
-        <v>3165.8499999999985</v>
+        <v>563.84999999999854</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="26">
         <f>SUM(G2:G6)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>96</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -262,12 +262,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fra sommerfesten
+-12 øl og en flaske vin</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -581,9 +606,6 @@
     <t>Kenneth J</t>
   </si>
   <si>
-    <t>{"name": "Truls", "tickets": 5},</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -720,9 +742,6 @@
     <t>stats?</t>
   </si>
   <si>
-    <t>{"name": "Sivert", "tickets": 3},</t>
-  </si>
-  <si>
     <t>Sivert</t>
   </si>
   <si>
@@ -732,58 +751,7 @@
     <t>{"name": "Odd", "tickets": 10},</t>
   </si>
   <si>
-    <t>{"name": "Anders A", "tickets": 10, "prizes": 1},</t>
-  </si>
-  <si>
-    <t>{"name": "Bjarke", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Hanne", "tickets": 7},</t>
-  </si>
-  <si>
     <t>{"name": "Ruben B", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Andreas", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Ciaran", "tickets": 6, "prizes": 1},</t>
-  </si>
-  <si>
-    <t>{"name": "Eli", "tickets": 4},</t>
-  </si>
-  <si>
-    <t>{"name": "Ingvild", "tickets": 5, "prizes": 1},</t>
-  </si>
-  <si>
-    <t>{"name": "Helga", "tickets": 6},</t>
-  </si>
-  <si>
-    <t>{"name": "Anders Sz", "tickets": 50, "prizes": 3},</t>
-  </si>
-  <si>
-    <t>{"name": "Asgeir", "tickets": 6},</t>
-  </si>
-  <si>
-    <t>{"name": "Jøran", "tickets": 5},</t>
-  </si>
-  <si>
-    <t>{"name": "Jan", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Martin", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Magnus B", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Kristin T", "tickets": 10},</t>
-  </si>
-  <si>
-    <t>{"name": "Kristin G", "tickets": 10, "prizes": 1},</t>
-  </si>
-  <si>
-    <t>{"name": "Morten", "tickets": 5, "prizes": 1}</t>
   </si>
   <si>
     <t>Eli</t>
@@ -798,7 +766,94 @@
     <t>Kristin T</t>
   </si>
   <si>
-    <t>{"name": "Morten S", "tickets": 5, "prizes": 1}</t>
+    <t>{"name": "Sondre", "tickets": 10, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Ruben O", "tickets": 10, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Yngvar", "tickets": 6},</t>
+  </si>
+  <si>
+    <t>{"name": "Anders A", "tickets": 10},</t>
+  </si>
+  <si>
+    <t>{"name": "Asgeir", "tickets": 5, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Jan", "tickets": 10, "prizes": 2},</t>
+  </si>
+  <si>
+    <t>{"name": "Stein", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>{"name": "Tone", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>{"name": "Ivan", "tickets": 10},</t>
+  </si>
+  <si>
+    <t>{"name": "Payam", "tickets": 7, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Andreas", "tickets": 5, "prizes": 1},</t>
+  </si>
+  <si>
+    <t>{"name": "Håkon", "tickets": 4},</t>
+  </si>
+  <si>
+    <t>{"name": "Magnus B", "tickets": 10}</t>
+  </si>
+  <si>
+    <t>{"name": "Morten S", "tickets": 5},</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
+  <si>
+    <t>Payam</t>
+  </si>
+  <si>
+    <t>Håkon</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>R'</t>
+  </si>
+  <si>
+    <t>G'</t>
+  </si>
+  <si>
+    <t>B'</t>
+  </si>
+  <si>
+    <t>H [°]</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Expected prizes</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1006,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1089,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3FFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3FFE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3E6FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3B3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1060,7 +1169,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,21 +1203,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1118,48 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1171,34 +1224,113 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="19" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="21" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1578,16 +1710,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB3E6"/>
+      <color rgb="FFB3B3FF"/>
+      <color rgb="FFE6B3FF"/>
+      <color rgb="FFE6FFB3"/>
+      <color rgb="FFFFE6B3"/>
+      <color rgb="FFFFB3B3"/>
+      <color rgb="FFB3E6FF"/>
+      <color rgb="FFB3FFE6"/>
+      <color rgb="FFB3FFB3"/>
       <color rgb="FFE5D8BD"/>
-      <color rgb="FFF2F2F2"/>
-      <color rgb="FFFDDAEC"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFED9A6"/>
-      <color rgb="FFCCEBC5"/>
-      <color rgb="FFFBB4AE"/>
-      <color rgb="FFB3CDE3"/>
-      <color rgb="FFDECBE4"/>
-      <color rgb="FF4DAF4A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1602,10 +1734,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U62" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:U62"/>
-  <sortState ref="A2:U62">
-    <sortCondition ref="A1:A62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U65" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:U65"/>
+  <sortState ref="A2:U65">
+    <sortCondition ref="A1:A65"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="id" dataDxfId="38"/>
@@ -1671,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:H24">
-  <autoFilter ref="A1:H24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:H25">
+  <autoFilter ref="A1:H25">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1707,8 +1839,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G437" totalsRowShown="0">
-  <autoFilter ref="A1:G437"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G454" totalsRowShown="0">
+  <autoFilter ref="A1:G454"/>
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="person_id"/>
@@ -1729,8 +1861,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D128" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D134" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D134">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1747,8 +1879,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E21">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2032,276 +2164,285 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z27"/>
+  <dimension ref="B2:AH28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="2:26" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+    </row>
+    <row r="3" spans="2:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="52" t="s">
+      <c r="H3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>106</v>
+      <c r="L3" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+      <c r="B4" s="64">
         <f>SMALL(Persons!$Q:$Q,1+ROW(B4)-ROW(B$4))</f>
         <v>1</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="64">
         <f t="array" ref="C4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B4,B4)))</f>
-        <v>56</v>
-      </c>
-      <c r="D4" s="40" t="str">
+        <v>48</v>
+      </c>
+      <c r="D4" s="64" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>Sivert</v>
-      </c>
-      <c r="E4" s="95">
+        <v>Ivan</v>
+      </c>
+      <c r="E4" s="72">
         <f>INDEX(Persons!$R:$R,MATCH(C4,Persons!$A:$A,0))</f>
-        <v>3.470859913787816E-4</v>
-      </c>
-      <c r="F4" s="38">
+        <v>9.9400345048293204E-2</v>
+      </c>
+      <c r="F4" s="61">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F4)-ROW(F$4))</f>
         <v>32</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="61">
         <f t="array" ref="G4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F4,F4)))</f>
         <v>11</v>
       </c>
-      <c r="H4" s="38" t="str">
+      <c r="H4" s="61" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G4,Persons!$A:$A,0))</f>
         <v>Stein</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="83">
         <f>INDEX(Persons!$R:$R,MATCH(G4,Persons!$A:$A,0))</f>
-        <v>4.7379396299877204E-2</v>
-      </c>
-      <c r="J4" s="39">
-        <f>SMALL(Persons!$S:$S,1+ROW(J4)-ROW(J$4))</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="39">
-        <f t="array" ref="K4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J4,J4)))</f>
-        <v>52</v>
-      </c>
-      <c r="L4" s="39" t="str">
+        <v>3.8995657007222767E-2</v>
+      </c>
+      <c r="J4" s="67">
+        <f>SMALL(Persons!$L:$L,1+ROW(J4)-ROW(J$4))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="67">
+        <f t="array" ref="K4">INDEX(Persons!$A:$A,SMALL(IF(Persons!$L:$L=J4,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J4,J4)))</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="67" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K4,Persons!$A:$A,0))</f>
-        <v>Anders Sz</v>
-      </c>
-      <c r="M4" s="71">
-        <f>INDEX(Persons!$R:$R,MATCH(K4,Persons!$A:$A,0))</f>
-        <v>0.48668056523967196</v>
-      </c>
-      <c r="O4" s="85"/>
+        <v>Odd</v>
+      </c>
+      <c r="M4" s="97">
+        <f>INDEX(Persons!$K:$K,MATCH(K4,Persons!$A:$A,0))</f>
+        <v>9.0445571492567041</v>
+      </c>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="40">
+      <c r="B5" s="64">
         <f>SMALL(Persons!$Q:$Q,1+ROW(B5)-ROW(B$4))</f>
         <v>2</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="64">
         <f t="array" ref="C5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B5,B5)))</f>
-        <v>48</v>
-      </c>
-      <c r="D5" s="40" t="str">
+        <v>14</v>
+      </c>
+      <c r="D5" s="64" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C5,Persons!$A:$A,0))</f>
-        <v>Ivan</v>
-      </c>
-      <c r="E5" s="69">
+        <v>Truls</v>
+      </c>
+      <c r="E5" s="72">
         <f>INDEX(Persons!$R:$R,MATCH(C5,Persons!$A:$A,0))</f>
-        <v>1.2645623753735458E-2</v>
-      </c>
-      <c r="F5" s="38">
+        <v>0.1040325256791752</v>
+      </c>
+      <c r="F5" s="61">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F5)-ROW(F$4))</f>
         <v>31</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="61">
         <f t="array" ref="G5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F5,F5)))</f>
         <v>24</v>
       </c>
-      <c r="H5" s="38" t="str">
+      <c r="H5" s="61" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G5,Persons!$A:$A,0))</f>
         <v>Terje</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="83">
         <f>INDEX(Persons!$R:$R,MATCH(G5,Persons!$A:$A,0))</f>
         <v>8.3979503335431097E-2</v>
       </c>
-      <c r="J5" s="39">
-        <f>SMALL(Persons!$S:$S,1+ROW(J5)-ROW(J$4))</f>
+      <c r="J5" s="67">
+        <f>SMALL(Persons!$L:$L,1+ROW(J5)-ROW(J$4))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="39">
-        <f t="array" ref="K5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J5,J5)))</f>
-        <v>32</v>
-      </c>
-      <c r="L5" s="39" t="str">
+      <c r="K5" s="67">
+        <f t="array" ref="K5">INDEX(Persons!$A:$A,SMALL(IF(Persons!$L:$L=J5,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J5,J5)))</f>
+        <v>33</v>
+      </c>
+      <c r="L5" s="67" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K5,Persons!$A:$A,0))</f>
-        <v>Martin</v>
-      </c>
-      <c r="M5" s="71">
-        <f>INDEX(Persons!$R:$R,MATCH(K5,Persons!$A:$A,0))</f>
-        <v>0.46169927923283227</v>
+        <v>Anders A</v>
+      </c>
+      <c r="M5" s="97">
+        <f>INDEX(Persons!$K:$K,MATCH(K5,Persons!$A:$A,0))</f>
+        <v>8.2497775462124601</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="64">
         <f>SMALL(Persons!$Q:$Q,1+ROW(B6)-ROW(B$4))</f>
         <v>3</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="64">
         <f t="array" ref="C6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B6,B6)))</f>
-        <v>14</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v>60</v>
+      </c>
+      <c r="D6" s="64" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>Truls</v>
-      </c>
-      <c r="E6" s="69">
+        <v>Kristin G</v>
+      </c>
+      <c r="E6" s="72">
         <f>INDEX(Persons!$R:$R,MATCH(C6,Persons!$A:$A,0))</f>
-        <v>0.1040325256791752</v>
-      </c>
-      <c r="F6" s="38">
+        <v>0.1721554116441345</v>
+      </c>
+      <c r="F6" s="61">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F6)-ROW(F$4))</f>
         <v>30</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="61">
         <f t="array" ref="G6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F6,F6)))</f>
         <v>47</v>
       </c>
-      <c r="H6" s="38" t="str">
+      <c r="H6" s="61" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G6,Persons!$A:$A,0))</f>
         <v>Kenneth</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="83">
         <f>INDEX(Persons!$R:$R,MATCH(G6,Persons!$A:$A,0))</f>
         <v>9.4842360181836213E-2</v>
       </c>
-      <c r="J6" s="39">
-        <f>SMALL(Persons!$S:$S,1+ROW(J6)-ROW(J$4))</f>
+      <c r="J6" s="67">
+        <f>SMALL(Persons!$L:$L,1+ROW(J6)-ROW(J$4))</f>
         <v>3</v>
       </c>
-      <c r="K6" s="39">
-        <f t="array" ref="K6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J6,J6)))</f>
-        <v>44</v>
-      </c>
-      <c r="L6" s="39" t="str">
+      <c r="K6" s="67">
+        <f t="array" ref="K6">INDEX(Persons!$A:$A,SMALL(IF(Persons!$L:$L=J6,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J6,J6)))</f>
+        <v>37</v>
+      </c>
+      <c r="L6" s="67" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K6,Persons!$A:$A,0))</f>
-        <v>Jan</v>
-      </c>
-      <c r="M6" s="71">
-        <f>INDEX(Persons!$R:$R,MATCH(K6,Persons!$A:$A,0))</f>
-        <v>0.39802325644752967</v>
+        <v>Ruben O</v>
+      </c>
+      <c r="M6" s="97">
+        <f>INDEX(Persons!$K:$K,MATCH(K6,Persons!$A:$A,0))</f>
+        <v>7.8193887526161188</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="40">
+      <c r="B7" s="64">
         <f>SMALL(Persons!$Q:$Q,1+ROW(B7)-ROW(B$4))</f>
         <v>4</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="64">
         <f t="array" ref="C7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B7,B7)))</f>
-        <v>60</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <v>46</v>
+      </c>
+      <c r="D7" s="64" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>Kristin G</v>
-      </c>
-      <c r="E7" s="69">
+        <v>Ciaran</v>
+      </c>
+      <c r="E7" s="72">
         <f>INDEX(Persons!$R:$R,MATCH(C7,Persons!$A:$A,0))</f>
-        <v>0.1721554116441345</v>
-      </c>
-      <c r="F7" s="38">
+        <v>0.20206907686486164</v>
+      </c>
+      <c r="F7" s="61">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F7)-ROW(F$4))</f>
         <v>29</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="61">
         <f t="array" ref="G7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F7,F7)))</f>
-        <v>37</v>
-      </c>
-      <c r="H7" s="38" t="str">
+        <v>45</v>
+      </c>
+      <c r="H7" s="61" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>Ruben O</v>
-      </c>
-      <c r="I7" s="70">
+        <v>Fridtjof</v>
+      </c>
+      <c r="I7" s="83">
         <f>INDEX(Persons!$R:$R,MATCH(G7,Persons!$A:$A,0))</f>
-        <v>9.9293551168915556E-2</v>
-      </c>
-      <c r="J7" s="39">
-        <f>SMALL(Persons!$S:$S,1+ROW(J7)-ROW(J$4))</f>
+        <v>0.12701859000624371</v>
+      </c>
+      <c r="J7" s="67">
+        <f>SMALL(Persons!$L:$L,1+ROW(J7)-ROW(J$4))</f>
         <v>4</v>
       </c>
-      <c r="K7" s="39">
-        <f t="array" ref="K7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J7,J7)))</f>
-        <v>33</v>
-      </c>
-      <c r="L7" s="39" t="str">
+      <c r="K7" s="67">
+        <f t="array" ref="K7">INDEX(Persons!$A:$A,SMALL(IF(Persons!$L:$L=J7,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J7,J7)))</f>
+        <v>29</v>
+      </c>
+      <c r="L7" s="67" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K7,Persons!$A:$A,0))</f>
-        <v>Anders A</v>
-      </c>
-      <c r="M7" s="71">
-        <f>INDEX(Persons!$R:$R,MATCH(K7,Persons!$A:$A,0))</f>
-        <v>0.3974414385560473</v>
+        <v>Magnus B</v>
+      </c>
+      <c r="M7" s="97">
+        <f>INDEX(Persons!$K:$K,MATCH(K7,Persons!$A:$A,0))</f>
+        <v>5.6690896706130403</v>
       </c>
       <c r="W7">
         <f>SUMPRODUCT(V8:V17,W8:W17)</f>
@@ -2309,53 +2450,53 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+      <c r="B8" s="64">
         <f>SMALL(Persons!$Q:$Q,1+ROW(B8)-ROW(B$4))</f>
         <v>5</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="64">
         <f t="array" ref="C8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=B8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$4:B8,B8)))</f>
-        <v>46</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v>13</v>
+      </c>
+      <c r="D8" s="64" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C8,Persons!$A:$A,0))</f>
-        <v>Ciaran</v>
-      </c>
-      <c r="E8" s="69">
+        <v>Sven</v>
+      </c>
+      <c r="E8" s="72">
         <f>INDEX(Persons!$R:$R,MATCH(C8,Persons!$A:$A,0))</f>
-        <v>0.20206907686486164</v>
-      </c>
-      <c r="F8" s="38">
+        <v>0.26019347689390693</v>
+      </c>
+      <c r="F8" s="61">
         <f>LARGE(Persons!$Q:$Q,1+ROW(F8)-ROW(F$4))</f>
         <v>28</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="61">
         <f t="array" ref="G8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$Q:$Q=F8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$4:F8,F8)))</f>
-        <v>45</v>
-      </c>
-      <c r="H8" s="38" t="str">
+        <v>16</v>
+      </c>
+      <c r="H8" s="61" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>Fridtjof</v>
-      </c>
-      <c r="I8" s="70">
+        <v>Bjarke</v>
+      </c>
+      <c r="I8" s="83">
         <f>INDEX(Persons!$R:$R,MATCH(G8,Persons!$A:$A,0))</f>
-        <v>0.12701859000624371</v>
-      </c>
-      <c r="J8" s="39">
-        <f>SMALL(Persons!$S:$S,1+ROW(J8)-ROW(J$4))</f>
-        <v>5</v>
-      </c>
-      <c r="K8" s="39">
-        <f t="array" ref="K8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$S:$S=J8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J8,J8)))</f>
-        <v>36</v>
-      </c>
-      <c r="L8" s="39" t="str">
+        <v>0.13896545370290456</v>
+      </c>
+      <c r="J8" s="67">
+        <f>SMALL(Persons!$L:$L,1+ROW(J8)-ROW(J$4))</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="67">
+        <f t="array" ref="K8">INDEX(Persons!$A:$A,SMALL(IF(Persons!$L:$L=J8,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$4:J8,J8)))</f>
+        <v>14</v>
+      </c>
+      <c r="L8" s="67" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(K8,Persons!$A:$A,0))</f>
-        <v>Ingvild</v>
-      </c>
-      <c r="M8" s="71">
-        <f>INDEX(Persons!$R:$R,MATCH(K8,Persons!$A:$A,0))</f>
-        <v>0.32667185034445034</v>
+        <v>Truls</v>
+      </c>
+      <c r="M8" s="97">
+        <f>INDEX(Persons!$K:$K,MATCH(K8,Persons!$A:$A,0))</f>
+        <v>5.2642561203422185</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2382,27 +2523,27 @@
       <c r="Y9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="40"/>
+      <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
       <c r="U10">
         <v>2</v>
       </c>
@@ -2416,44 +2557,44 @@
       <c r="Y10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="38"/>
+      <c r="Z10" s="33"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="48" t="s">
+      <c r="D11" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="107" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>111</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2466,58 +2607,58 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z11" s="39"/>
+        <v>114</v>
+      </c>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
-        <f>SMALL(Persons!$J:$J,1+ROW(B12)-ROW(B$12))</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="49">
-        <f t="array" ref="C12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=B12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B12,B12)))</f>
-        <v>10</v>
-      </c>
-      <c r="D12" s="49" t="str">
+      <c r="B12" s="75">
+        <f>SMALL(Persons!$O:$O,1+ROW(B12)-ROW(B$12))</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="75">
+        <f t="array" ref="C12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=B12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B12,B12)))</f>
+        <v>14</v>
+      </c>
+      <c r="D12" s="75" t="str">
         <f>INDEX(Persons!$B:$B,MATCH(C12,Persons!$A:$A,0))</f>
+        <v>Truls</v>
+      </c>
+      <c r="E12" s="76">
+        <f>INDEX(Persons!$N:$N,MATCH(C12,Persons!$A:$A,0))</f>
+        <v>2.7357438796577815</v>
+      </c>
+      <c r="F12" s="86">
+        <f>LARGE(Persons!$O:$O,1+ROW(F12)-ROW(F$12))</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="86">
+        <f t="array" ref="G12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F12,F12)))</f>
+        <v>37</v>
+      </c>
+      <c r="H12" s="86" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G12,Persons!$A:$A,0))</f>
+        <v>Ruben O</v>
+      </c>
+      <c r="I12" s="87">
+        <f>INDEX(Persons!$N:$N,MATCH(G12,Persons!$A:$A,0))</f>
+        <v>-2.8193887526161188</v>
+      </c>
+      <c r="J12" s="89">
+        <f>SMALL(Persons!$J:$J,1+ROW(J12)-ROW(J$12))</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="89">
+        <f t="array" ref="K12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=J12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J12,J12)))</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="89" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K12,Persons!$A:$A,0))</f>
         <v>Odd</v>
       </c>
-      <c r="E12" s="49">
-        <f>INDEX(Persons!$I:$I,MATCH(C12,Persons!$A:$A,0))</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="59">
-        <f>SMALL(Persons!$O:$O,1+ROW(F12)-ROW(F$12))</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="59">
-        <f t="array" ref="G12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F12,F12)))</f>
-        <v>14</v>
-      </c>
-      <c r="H12" s="59" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G12,Persons!$A:$A,0))</f>
-        <v>Truls</v>
-      </c>
-      <c r="I12" s="72">
-        <f>INDEX(Persons!$N:$N,MATCH(G12,Persons!$A:$A,0))</f>
-        <v>2.7357438796577815</v>
-      </c>
-      <c r="J12" s="56">
-        <f>LARGE(Persons!$O:$O,1+ROW(J12)-ROW(J$12))</f>
-        <v>32</v>
-      </c>
-      <c r="K12" s="56">
-        <f t="array" ref="K12">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J12,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J12,J12)))</f>
-        <v>37</v>
-      </c>
-      <c r="L12" s="56" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K12,Persons!$A:$A,0))</f>
-        <v>Ruben O</v>
-      </c>
-      <c r="M12" s="73">
-        <f>INDEX(Persons!$N:$N,MATCH(K12,Persons!$A:$A,0))</f>
-        <v>-3.2456182608128401</v>
+      <c r="M12" s="89">
+        <f>INDEX(Persons!$I:$I,MATCH(K12,Persons!$A:$A,0))</f>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2532,56 +2673,56 @@
       <c r="Y12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="41"/>
+      <c r="Z12" s="36"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
-        <f>SMALL(Persons!$J:$J,1+ROW(B13)-ROW(B$12))</f>
+      <c r="B13" s="75">
+        <f>SMALL(Persons!$O:$O,1+ROW(B13)-ROW(B$12))</f>
         <v>2</v>
       </c>
-      <c r="C13" s="49">
-        <f t="array" ref="C13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=B13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B13,B13)))</f>
+      <c r="C13" s="75">
+        <f t="array" ref="C13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=B13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B13,B13)))</f>
+        <v>48</v>
+      </c>
+      <c r="D13" s="75" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C13,Persons!$A:$A,0))</f>
+        <v>Ivan</v>
+      </c>
+      <c r="E13" s="76">
+        <f>INDEX(Persons!$N:$N,MATCH(C13,Persons!$A:$A,0))</f>
+        <v>1.4973565021787509</v>
+      </c>
+      <c r="F13" s="86">
+        <f>LARGE(Persons!$O:$O,1+ROW(F13)-ROW(F$12))</f>
+        <v>31</v>
+      </c>
+      <c r="G13" s="86">
+        <f t="array" ref="G13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F13,F13)))</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="86" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G13,Persons!$A:$A,0))</f>
+        <v>Stein</v>
+      </c>
+      <c r="I13" s="87">
+        <f>INDEX(Persons!$N:$N,MATCH(G13,Persons!$A:$A,0))</f>
+        <v>-2.7855461833741479</v>
+      </c>
+      <c r="J13" s="89">
+        <f>SMALL(Persons!$J:$J,1+ROW(J13)-ROW(J$12))</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="89">
+        <f t="array" ref="K13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=J13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J13,J13)))</f>
         <v>14</v>
       </c>
-      <c r="D13" s="49" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C13,Persons!$A:$A,0))</f>
+      <c r="L13" s="89" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K13,Persons!$A:$A,0))</f>
         <v>Truls</v>
       </c>
-      <c r="E13" s="49">
-        <f>INDEX(Persons!$I:$I,MATCH(C13,Persons!$A:$A,0))</f>
+      <c r="M13" s="89">
+        <f>INDEX(Persons!$I:$I,MATCH(K13,Persons!$A:$A,0))</f>
         <v>8</v>
-      </c>
-      <c r="F13" s="59">
-        <f>SMALL(Persons!$O:$O,1+ROW(F13)-ROW(F$12))</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="59">
-        <f t="array" ref="G13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F13,F13)))</f>
-        <v>48</v>
-      </c>
-      <c r="H13" s="59" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G13,Persons!$A:$A,0))</f>
-        <v>Ivan</v>
-      </c>
-      <c r="I13" s="72">
-        <f>INDEX(Persons!$N:$N,MATCH(G13,Persons!$A:$A,0))</f>
-        <v>2.0711269939820296</v>
-      </c>
-      <c r="J13" s="56">
-        <f>LARGE(Persons!$O:$O,1+ROW(J13)-ROW(J$12))</f>
-        <v>31</v>
-      </c>
-      <c r="K13" s="56">
-        <f t="array" ref="K13">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J13,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J13,J13)))</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="56" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K13,Persons!$A:$A,0))</f>
-        <v>Stein</v>
-      </c>
-      <c r="M13" s="73">
-        <f>INDEX(Persons!$N:$N,MATCH(K13,Persons!$A:$A,0))</f>
-        <v>-2.4986609374725086</v>
       </c>
       <c r="U13">
         <v>5</v>
@@ -2594,58 +2735,58 @@
         <v>1</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z13" s="43"/>
+        <v>110</v>
+      </c>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <f>SMALL(Persons!$J:$J,1+ROW(B14)-ROW(B$12))</f>
+      <c r="B14" s="75">
+        <f>SMALL(Persons!$O:$O,1+ROW(B14)-ROW(B$12))</f>
         <v>3</v>
       </c>
-      <c r="C14" s="49">
-        <f t="array" ref="C14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=B14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B14,B14)))</f>
+      <c r="C14" s="75">
+        <f t="array" ref="C14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=B14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B14,B14)))</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="75" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C14,Persons!$A:$A,0))</f>
+        <v>Sven</v>
+      </c>
+      <c r="E14" s="76">
+        <f>INDEX(Persons!$N:$N,MATCH(C14,Persons!$A:$A,0))</f>
+        <v>1.1771151864209619</v>
+      </c>
+      <c r="F14" s="86">
+        <f>LARGE(Persons!$O:$O,1+ROW(F14)-ROW(F$12))</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="86">
+        <f t="array" ref="G14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F14,F14)))</f>
+        <v>24</v>
+      </c>
+      <c r="H14" s="86" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G14,Persons!$A:$A,0))</f>
+        <v>Terje</v>
+      </c>
+      <c r="I14" s="87">
+        <f>INDEX(Persons!$N:$N,MATCH(G14,Persons!$A:$A,0))</f>
+        <v>-2.4203082743728253</v>
+      </c>
+      <c r="J14" s="89">
+        <f>SMALL(Persons!$J:$J,1+ROW(J14)-ROW(J$12))</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="89">
+        <f t="array" ref="K14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=J14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J14,J14)))</f>
         <v>33</v>
       </c>
-      <c r="D14" s="49" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C14,Persons!$A:$A,0))</f>
+      <c r="L14" s="89" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K14,Persons!$A:$A,0))</f>
         <v>Anders A</v>
       </c>
-      <c r="E14" s="49">
-        <f>INDEX(Persons!$I:$I,MATCH(C14,Persons!$A:$A,0))</f>
+      <c r="M14" s="89">
+        <f>INDEX(Persons!$I:$I,MATCH(K14,Persons!$A:$A,0))</f>
         <v>7</v>
-      </c>
-      <c r="F14" s="59">
-        <f>SMALL(Persons!$O:$O,1+ROW(F14)-ROW(F$12))</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="59">
-        <f t="array" ref="G14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F14,F14)))</f>
-        <v>56</v>
-      </c>
-      <c r="H14" s="59" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G14,Persons!$A:$A,0))</f>
-        <v>Sivert</v>
-      </c>
-      <c r="I14" s="72">
-        <f>INDEX(Persons!$N:$N,MATCH(G14,Persons!$A:$A,0))</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="J14" s="56">
-        <f>LARGE(Persons!$O:$O,1+ROW(J14)-ROW(J$12))</f>
-        <v>30</v>
-      </c>
-      <c r="K14" s="56">
-        <f t="array" ref="K14">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J14,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J14,J14)))</f>
-        <v>24</v>
-      </c>
-      <c r="L14" s="56" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K14,Persons!$A:$A,0))</f>
-        <v>Terje</v>
-      </c>
-      <c r="M14" s="73">
-        <f>INDEX(Persons!$N:$N,MATCH(K14,Persons!$A:$A,0))</f>
-        <v>-2.4203082743728253</v>
       </c>
       <c r="U14">
         <v>6</v>
@@ -2658,58 +2799,58 @@
         <v>1</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z14" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="Z14" s="37"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
-        <f>SMALL(Persons!$J:$J,1+ROW(B15)-ROW(B$12))</f>
+      <c r="B15" s="75">
+        <f>SMALL(Persons!$O:$O,1+ROW(B15)-ROW(B$12))</f>
         <v>4</v>
       </c>
-      <c r="C15" s="49">
-        <f t="array" ref="C15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=B15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B15,B15)))</f>
+      <c r="C15" s="75">
+        <f t="array" ref="C15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=B15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B15,B15)))</f>
+        <v>46</v>
+      </c>
+      <c r="D15" s="75" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C15,Persons!$A:$A,0))</f>
+        <v>Ciaran</v>
+      </c>
+      <c r="E15" s="76">
+        <f>INDEX(Persons!$N:$N,MATCH(C15,Persons!$A:$A,0))</f>
+        <v>1.0977655859408828</v>
+      </c>
+      <c r="F15" s="86">
+        <f>LARGE(Persons!$O:$O,1+ROW(F15)-ROW(F$12))</f>
+        <v>29</v>
+      </c>
+      <c r="G15" s="86">
+        <f t="array" ref="G15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F15,F15)))</f>
+        <v>35</v>
+      </c>
+      <c r="H15" s="86" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G15,Persons!$A:$A,0))</f>
+        <v>Mathias</v>
+      </c>
+      <c r="I15" s="87">
+        <f>INDEX(Persons!$N:$N,MATCH(G15,Persons!$A:$A,0))</f>
+        <v>-1.8370296508043831</v>
+      </c>
+      <c r="J15" s="89">
+        <f>SMALL(Persons!$J:$J,1+ROW(J15)-ROW(J$12))</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="89">
+        <f t="array" ref="K15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=J15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J15,J15)))</f>
         <v>15</v>
       </c>
-      <c r="D15" s="49" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C15,Persons!$A:$A,0))</f>
+      <c r="L15" s="89" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K15,Persons!$A:$A,0))</f>
         <v>Yngvar</v>
       </c>
-      <c r="E15" s="49">
-        <f>INDEX(Persons!$I:$I,MATCH(C15,Persons!$A:$A,0))</f>
+      <c r="M15" s="89">
+        <f>INDEX(Persons!$I:$I,MATCH(K15,Persons!$A:$A,0))</f>
         <v>6</v>
-      </c>
-      <c r="F15" s="59">
-        <f>SMALL(Persons!$O:$O,1+ROW(F15)-ROW(F$12))</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="59">
-        <f t="array" ref="G15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F15,F15)))</f>
-        <v>10</v>
-      </c>
-      <c r="H15" s="59" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G15,Persons!$A:$A,0))</f>
-        <v>Odd</v>
-      </c>
-      <c r="I15" s="72">
-        <f>INDEX(Persons!$N:$N,MATCH(G15,Persons!$A:$A,0))</f>
-        <v>1.5292133425465746</v>
-      </c>
-      <c r="J15" s="56">
-        <f>LARGE(Persons!$O:$O,1+ROW(J15)-ROW(J$12))</f>
-        <v>29</v>
-      </c>
-      <c r="K15" s="56">
-        <f t="array" ref="K15">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J15,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J15,J15)))</f>
-        <v>34</v>
-      </c>
-      <c r="L15" s="56" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K15,Persons!$A:$A,0))</f>
-        <v>Asgeir</v>
-      </c>
-      <c r="M15" s="73">
-        <f>INDEX(Persons!$N:$N,MATCH(K15,Persons!$A:$A,0))</f>
-        <v>-1.8959495602492105</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -2722,58 +2863,58 @@
         <v>0</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z15" s="44"/>
+        <v>112</v>
+      </c>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
-        <f>SMALL(Persons!$J:$J,1+ROW(B16)-ROW(B$12))</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="49">
-        <f t="array" ref="C16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=B16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B16,B16)))</f>
+      <c r="B16" s="75">
+        <f>SMALL(Persons!$O:$O,1+ROW(B16)-ROW(B$12))</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="75">
+        <f t="array" ref="C16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=B16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$12:B16,B16)))</f>
+        <v>44</v>
+      </c>
+      <c r="D16" s="75" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C16,Persons!$A:$A,0))</f>
+        <v>Jan</v>
+      </c>
+      <c r="E16" s="76">
+        <f>INDEX(Persons!$N:$N,MATCH(C16,Persons!$A:$A,0))</f>
+        <v>1.0464914883972338</v>
+      </c>
+      <c r="F16" s="86">
+        <f>LARGE(Persons!$O:$O,1+ROW(F16)-ROW(F$12))</f>
+        <v>28</v>
+      </c>
+      <c r="G16" s="86">
+        <f t="array" ref="G16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F16,F16)))</f>
+        <v>29</v>
+      </c>
+      <c r="H16" s="86" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G16,Persons!$A:$A,0))</f>
+        <v>Magnus B</v>
+      </c>
+      <c r="I16" s="87">
+        <f>INDEX(Persons!$N:$N,MATCH(G16,Persons!$A:$A,0))</f>
+        <v>-1.6690896706130403</v>
+      </c>
+      <c r="J16" s="89">
+        <f>SMALL(Persons!$J:$J,1+ROW(J16)-ROW(J$12))</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="89">
+        <f t="array" ref="K16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$J:$J=J16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J16,J16)))</f>
         <v>13</v>
       </c>
-      <c r="D16" s="49" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C16,Persons!$A:$A,0))</f>
+      <c r="L16" s="89" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K16,Persons!$A:$A,0))</f>
         <v>Sven</v>
       </c>
-      <c r="E16" s="49">
-        <f>INDEX(Persons!$I:$I,MATCH(C16,Persons!$A:$A,0))</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="59">
-        <f>SMALL(Persons!$O:$O,1+ROW(F16)-ROW(F$12))</f>
-        <v>5</v>
-      </c>
-      <c r="G16" s="59">
-        <f t="array" ref="G16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=F16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$12:F16,F16)))</f>
-        <v>13</v>
-      </c>
-      <c r="H16" s="59" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G16,Persons!$A:$A,0))</f>
-        <v>Sven</v>
-      </c>
-      <c r="I16" s="72">
-        <f>INDEX(Persons!$N:$N,MATCH(G16,Persons!$A:$A,0))</f>
-        <v>1.1771151864209619</v>
-      </c>
-      <c r="J16" s="56">
-        <f>LARGE(Persons!$O:$O,1+ROW(J16)-ROW(J$12))</f>
-        <v>28</v>
-      </c>
-      <c r="K16" s="56">
-        <f t="array" ref="K16">INDEX(Persons!$A:$A,SMALL(IF(Persons!$O:$O=J16,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$12:J16,J16)))</f>
-        <v>35</v>
-      </c>
-      <c r="L16" s="56" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>Mathias</v>
-      </c>
-      <c r="M16" s="73">
-        <f>INDEX(Persons!$N:$N,MATCH(K16,Persons!$A:$A,0))</f>
-        <v>-1.5501444049027437</v>
+      <c r="M16" s="89">
+        <f>INDEX(Persons!$I:$I,MATCH(K16,Persons!$A:$A,0))</f>
+        <v>5</v>
       </c>
       <c r="U16">
         <v>8</v>
@@ -2788,9 +2929,9 @@
       <c r="Y16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z16" s="46"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z16" s="41"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="U17">
         <v>9</v>
       </c>
@@ -2804,343 +2945,835 @@
       <c r="Y17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z17" s="45"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="89" t="s">
+      <c r="Z17" s="40"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="88" t="s">
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="W19" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z19" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA19" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB19" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC19" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD19" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE19" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF19" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG19" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="79">
+        <f>SMALL(Persons!$U:$U,1+ROW(B20)-ROW(B$20))</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="79">
+        <f t="array" ref="C20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=B20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B20,B20)))</f>
+        <v>61</v>
+      </c>
+      <c r="D20" s="79" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C20,Persons!$A:$A,0))</f>
+        <v>Tone</v>
+      </c>
+      <c r="E20" s="80">
+        <f>INDEX(Persons!$T:$T,MATCH(C20,Persons!$A:$A,0))</f>
+        <v>174.28571428571431</v>
+      </c>
+      <c r="F20" s="92">
+        <f>LARGE(Persons!$U:$U,1+ROW(F20)-ROW(F$20))</f>
+        <v>32</v>
+      </c>
+      <c r="G20" s="92">
+        <f t="array" ref="G20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F20,F20)))</f>
+        <v>52</v>
+      </c>
+      <c r="H20" s="92" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G20,Persons!$A:$A,0))</f>
+        <v>Anders Sz</v>
+      </c>
+      <c r="I20" s="93">
+        <f>INDEX(Persons!$T:$T,MATCH(G20,Persons!$A:$A,0))</f>
+        <v>266.34879386315322</v>
+      </c>
+      <c r="J20" s="100">
+        <f>SMALL(Persons!$H:$H,1+ROW(J20)-ROW(J$20))</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="100">
+        <f t="array" ref="K20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=J20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J20,J20)))</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="100" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K20,Persons!$A:$A,0))</f>
+        <v>Odd</v>
+      </c>
+      <c r="M20" s="101">
+        <f>INDEX(Persons!$G:$G,MATCH(K20,Persons!$A:$A,0))</f>
+        <v>200</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X20" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="60">
+        <f>W20*X20</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z20" s="52">
+        <f>Y20*(1-ABS(MOD(V20/60,2)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="60">
+        <f>X20-Y20</f>
+        <v>0.7</v>
+      </c>
+      <c r="AB20" s="52">
+        <f>IF(OR(AND(V20&gt;=0,V20&lt;60),AND(V20&gt;=300,V20&lt;360)),Y20,IF(OR(AND(V20&gt;=60,V20&lt;120),AND(V20&gt;=240,V20&lt;300)),Z20,0))</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC20" s="52">
+        <f>IF(OR(AND(V20&gt;=60,V20&lt;120),AND(V20&gt;=120,V20&lt;180)),Y20,IF(OR(AND(V20&gt;=0,V20&lt;60),AND(V20&gt;=180,V20&lt;240)),Z20,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="52">
+        <f>IF(OR(AND(V20&gt;=180,V20&lt;240),AND(V20&gt;=240,V20&lt;300)),Y20,IF(OR(AND(V20&gt;=120,V20&lt;180),AND(V20&gt;=300,V20&lt;360)),Z20,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="27">
+        <f>($AA20+AB20)*255</f>
+        <v>255</v>
+      </c>
+      <c r="AF20" s="27">
+        <f>($AA20+AC20)*255</f>
+        <v>178.5</v>
+      </c>
+      <c r="AG20" s="27">
+        <f>($AA20+AD20)*255</f>
+        <v>178.5</v>
+      </c>
+      <c r="AH20" s="61"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="79">
+        <f>SMALL(Persons!$U:$U,1+ROW(B21)-ROW(B$20))</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="79">
+        <f t="array" ref="C21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=B21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B21,B21)))</f>
+        <v>63</v>
+      </c>
+      <c r="D21" s="79" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C21,Persons!$A:$A,0))</f>
+        <v>Håkon</v>
+      </c>
+      <c r="E21" s="80">
+        <f>INDEX(Persons!$T:$T,MATCH(C21,Persons!$A:$A,0))</f>
+        <v>174.28571428571428</v>
+      </c>
+      <c r="F21" s="92">
+        <f>LARGE(Persons!$U:$U,1+ROW(F21)-ROW(F$20))</f>
+        <v>31</v>
+      </c>
+      <c r="G21" s="92">
+        <f t="array" ref="G21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F21,F21)))</f>
+        <v>24</v>
+      </c>
+      <c r="H21" s="92" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G21,Persons!$A:$A,0))</f>
+        <v>Terje</v>
+      </c>
+      <c r="I21" s="93">
+        <f>INDEX(Persons!$T:$T,MATCH(G21,Persons!$A:$A,0))</f>
+        <v>248.51561082044944</v>
+      </c>
+      <c r="J21" s="100">
+        <f>SMALL(Persons!$H:$H,1+ROW(J21)-ROW(J$20))</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="100">
+        <f t="array" ref="K21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=J21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J21,J21)))</f>
+        <v>33</v>
+      </c>
+      <c r="L21" s="100" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K21,Persons!$A:$A,0))</f>
+        <v>Anders A</v>
+      </c>
+      <c r="M21" s="101">
+        <f>INDEX(Persons!$G:$G,MATCH(K21,Persons!$A:$A,0))</f>
+        <v>182</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <f>V20+360/9</f>
+        <v>40</v>
+      </c>
+      <c r="W21" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X21" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="60">
+        <f t="shared" ref="Y21:Y28" si="1">W21*X21</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z21" s="52">
+        <f t="shared" ref="Z21:Z28" si="2">Y21*(1-ABS(MOD(V21/60,2)-1))</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AA21" s="60">
+        <f t="shared" ref="AA21:AA28" si="3">X21-Y21</f>
+        <v>0.7</v>
+      </c>
+      <c r="AB21" s="52">
+        <f t="shared" ref="AB21:AB28" si="4">IF(OR(AND(V21&gt;=0,V21&lt;60),AND(V21&gt;=300,V21&lt;360)),Y21,IF(OR(AND(V21&gt;=60,V21&lt;120),AND(V21&gt;=240,V21&lt;300)),Z21,0))</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC21" s="52">
+        <f t="shared" ref="AC21:AC28" si="5">IF(OR(AND(V21&gt;=60,V21&lt;120),AND(V21&gt;=120,V21&lt;180)),Y21,IF(OR(AND(V21&gt;=0,V21&lt;60),AND(V21&gt;=180,V21&lt;240)),Z21,0))</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AD21" s="52">
+        <f t="shared" ref="AD21:AD28" si="6">IF(OR(AND(V21&gt;=180,V21&lt;240),AND(V21&gt;=240,V21&lt;300)),Y21,IF(OR(AND(V21&gt;=120,V21&lt;180),AND(V21&gt;=300,V21&lt;360)),Z21,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="27">
+        <f t="shared" ref="AE21:AG28" si="7">($AA21+AB21)*255</f>
+        <v>255</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="7"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="AG21" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AH21" s="62"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="79">
+        <f>SMALL(Persons!$U:$U,1+ROW(B22)-ROW(B$20))</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="79">
+        <f t="array" ref="C22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=B22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B22,B22)))</f>
+        <v>53</v>
+      </c>
+      <c r="D22" s="79" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C22,Persons!$A:$A,0))</f>
+        <v>Sondre</v>
+      </c>
+      <c r="E22" s="80">
+        <f>INDEX(Persons!$T:$T,MATCH(C22,Persons!$A:$A,0))</f>
+        <v>198.02768589979175</v>
+      </c>
+      <c r="F22" s="92">
+        <f>LARGE(Persons!$U:$U,1+ROW(F22)-ROW(F$20))</f>
+        <v>30</v>
+      </c>
+      <c r="G22" s="92">
+        <f t="array" ref="G22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F22,F22)))</f>
+        <v>16</v>
+      </c>
+      <c r="H22" s="92" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G22,Persons!$A:$A,0))</f>
+        <v>Bjarke</v>
+      </c>
+      <c r="I22" s="93">
+        <f>INDEX(Persons!$T:$T,MATCH(G22,Persons!$A:$A,0))</f>
+        <v>246.00664536981162</v>
+      </c>
+      <c r="J22" s="100">
+        <f>SMALL(Persons!$H:$H,1+ROW(J22)-ROW(J$20))</f>
+        <v>3</v>
+      </c>
+      <c r="K22" s="100">
+        <f t="array" ref="K22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=J22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J22,J22)))</f>
+        <v>37</v>
+      </c>
+      <c r="L22" s="100" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K22,Persons!$A:$A,0))</f>
+        <v>Ruben O</v>
+      </c>
+      <c r="M22" s="101">
+        <f>INDEX(Persons!$G:$G,MATCH(K22,Persons!$A:$A,0))</f>
+        <v>171</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <f>V21+360/9</f>
+        <v>80</v>
+      </c>
+      <c r="W22" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X22" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z22" s="52">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA22" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB22" s="52">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC22" s="52">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD22" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="27">
+        <f t="shared" si="7"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="AF22" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AG22" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AH22" s="63"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="79">
+        <f>SMALL(Persons!$U:$U,1+ROW(B23)-ROW(B$20))</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="79">
+        <f t="array" ref="C23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=B23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B23,B23)))</f>
+        <v>27</v>
+      </c>
+      <c r="D23" s="79" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C23,Persons!$A:$A,0))</f>
+        <v>Kristin T</v>
+      </c>
+      <c r="E23" s="80">
+        <f>INDEX(Persons!$T:$T,MATCH(C23,Persons!$A:$A,0))</f>
+        <v>199.43598420755782</v>
+      </c>
+      <c r="F23" s="92">
+        <f>LARGE(Persons!$U:$U,1+ROW(F23)-ROW(F$20))</f>
+        <v>29</v>
+      </c>
+      <c r="G23" s="92">
+        <f t="array" ref="G23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F23,F23)))</f>
+        <v>17</v>
+      </c>
+      <c r="H23" s="92" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G23,Persons!$A:$A,0))</f>
+        <v>Hanne</v>
+      </c>
+      <c r="I23" s="93">
+        <f>INDEX(Persons!$T:$T,MATCH(G23,Persons!$A:$A,0))</f>
+        <v>245.46125885069893</v>
+      </c>
+      <c r="J23" s="100">
+        <f>SMALL(Persons!$H:$H,1+ROW(J23)-ROW(J$20))</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="100">
+        <f t="array" ref="K23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=J23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J23,J23)))</f>
+        <v>29</v>
+      </c>
+      <c r="L23" s="100" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K23,Persons!$A:$A,0))</f>
+        <v>Magnus B</v>
+      </c>
+      <c r="M23" s="101">
+        <f>INDEX(Persons!$G:$G,MATCH(K23,Persons!$A:$A,0))</f>
+        <v>131</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V28" si="8">V22+360/9</f>
         <v>120</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="68">
-        <f>SMALL(Persons!$H:$H,1+ROW(B20)-ROW(B$20))</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="68">
-        <f t="array" ref="C20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B20,B20)))</f>
-        <v>10</v>
-      </c>
-      <c r="D20" s="68" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C20,Persons!$A:$A,0))</f>
-        <v>Odd</v>
-      </c>
-      <c r="E20" s="74">
-        <f>INDEX(Persons!$G:$G,MATCH(C20,Persons!$A:$A,0))</f>
-        <v>190</v>
-      </c>
-      <c r="F20" s="62">
-        <f>SMALL(Persons!$U:$U,1+ROW(F20)-ROW(F$20))</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="62">
-        <f t="array" ref="G20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F20,F20)))</f>
-        <v>27</v>
-      </c>
-      <c r="H20" s="62" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G20,Persons!$A:$A,0))</f>
-        <v>Kristin T</v>
-      </c>
-      <c r="I20" s="76">
-        <f>INDEX(Persons!$T:$T,MATCH(G20,Persons!$A:$A,0))</f>
-        <v>199.43598420755782</v>
-      </c>
-      <c r="J20" s="65">
-        <f>LARGE(Persons!$U:$U,1+ROW(J20)-ROW(J$20))</f>
-        <v>32</v>
-      </c>
-      <c r="K20" s="65">
-        <f t="array" ref="K20">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J20,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J20,J20)))</f>
-        <v>52</v>
-      </c>
-      <c r="L20" s="65" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K20,Persons!$A:$A,0))</f>
-        <v>Anders Sz</v>
-      </c>
-      <c r="M20" s="75">
-        <f>INDEX(Persons!$T:$T,MATCH(K20,Persons!$A:$A,0))</f>
-        <v>266.34879386315322</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="68">
-        <f>SMALL(Persons!$H:$H,1+ROW(B21)-ROW(B$20))</f>
+      <c r="W23" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X23" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z23" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB23" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="52">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD23" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AH23" s="64"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="79">
+        <f>SMALL(Persons!$U:$U,1+ROW(B24)-ROW(B$20))</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="79">
+        <f t="array" ref="C24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=B24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B24,B24)))</f>
+        <v>44</v>
+      </c>
+      <c r="D24" s="79" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(C24,Persons!$A:$A,0))</f>
+        <v>Jan</v>
+      </c>
+      <c r="E24" s="80">
+        <f>INDEX(Persons!$T:$T,MATCH(C24,Persons!$A:$A,0))</f>
+        <v>203.14822105401717</v>
+      </c>
+      <c r="F24" s="92">
+        <f>LARGE(Persons!$U:$U,1+ROW(F24)-ROW(F$20))</f>
+        <v>28</v>
+      </c>
+      <c r="G24" s="92">
+        <f t="array" ref="G24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F24,F24)))</f>
         <v>2</v>
       </c>
-      <c r="C21" s="68">
-        <f t="array" ref="C21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B21,B21)))</f>
-        <v>33</v>
-      </c>
-      <c r="D21" s="68" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C21,Persons!$A:$A,0))</f>
-        <v>Anders A</v>
-      </c>
-      <c r="E21" s="74">
-        <f>INDEX(Persons!$G:$G,MATCH(C21,Persons!$A:$A,0))</f>
-        <v>172</v>
-      </c>
-      <c r="F21" s="62">
-        <f>SMALL(Persons!$U:$U,1+ROW(F21)-ROW(F$20))</f>
-        <v>2</v>
-      </c>
-      <c r="G21" s="62">
-        <f t="array" ref="G21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F21,F21)))</f>
-        <v>44</v>
-      </c>
-      <c r="H21" s="62" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G21,Persons!$A:$A,0))</f>
-        <v>Jan</v>
-      </c>
-      <c r="I21" s="76">
-        <f>INDEX(Persons!$T:$T,MATCH(G21,Persons!$A:$A,0))</f>
-        <v>210.1071613093483</v>
-      </c>
-      <c r="J21" s="65">
-        <f>LARGE(Persons!$U:$U,1+ROW(J21)-ROW(J$20))</f>
-        <v>31</v>
-      </c>
-      <c r="K21" s="65">
-        <f t="array" ref="K21">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J21,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J21,J21)))</f>
-        <v>48</v>
-      </c>
-      <c r="L21" s="65" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K21,Persons!$A:$A,0))</f>
-        <v>Ivan</v>
-      </c>
-      <c r="M21" s="75">
-        <f>INDEX(Persons!$T:$T,MATCH(K21,Persons!$A:$A,0))</f>
-        <v>258.37762368492906</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="68">
-        <f>SMALL(Persons!$H:$H,1+ROW(B22)-ROW(B$20))</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="68">
-        <f t="array" ref="C22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B22,B22)))</f>
-        <v>37</v>
-      </c>
-      <c r="D22" s="68" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>Ruben O</v>
-      </c>
-      <c r="E22" s="74">
-        <f>INDEX(Persons!$G:$G,MATCH(C22,Persons!$A:$A,0))</f>
-        <v>161</v>
-      </c>
-      <c r="F22" s="62">
-        <f>SMALL(Persons!$U:$U,1+ROW(F22)-ROW(F$20))</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="62">
-        <f t="array" ref="G22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F22,F22)))</f>
-        <v>45</v>
-      </c>
-      <c r="H22" s="62" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G22,Persons!$A:$A,0))</f>
-        <v>Fridtjof</v>
-      </c>
-      <c r="I22" s="76">
-        <f>INDEX(Persons!$T:$T,MATCH(G22,Persons!$A:$A,0))</f>
-        <v>211.02882956573922</v>
-      </c>
-      <c r="J22" s="65">
-        <f>LARGE(Persons!$U:$U,1+ROW(J22)-ROW(J$20))</f>
-        <v>30</v>
-      </c>
-      <c r="K22" s="65">
-        <f t="array" ref="K22">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J22,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J22,J22)))</f>
-        <v>54</v>
-      </c>
-      <c r="L22" s="65" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K22,Persons!$A:$A,0))</f>
-        <v>Morten S</v>
-      </c>
-      <c r="M22" s="75">
-        <f>INDEX(Persons!$T:$T,MATCH(K22,Persons!$A:$A,0))</f>
-        <v>250.8369015181004</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="68">
-        <f>SMALL(Persons!$H:$H,1+ROW(B23)-ROW(B$20))</f>
-        <v>4</v>
-      </c>
-      <c r="C23" s="68">
-        <f t="array" ref="C23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B23,B23)))</f>
-        <v>29</v>
-      </c>
-      <c r="D23" s="68" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C23,Persons!$A:$A,0))</f>
-        <v>Magnus B</v>
-      </c>
-      <c r="E23" s="74">
-        <f>INDEX(Persons!$G:$G,MATCH(C23,Persons!$A:$A,0))</f>
+      <c r="H24" s="92" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(G24,Persons!$A:$A,0))</f>
+        <v>Erik B</v>
+      </c>
+      <c r="I24" s="93">
+        <f>INDEX(Persons!$T:$T,MATCH(G24,Persons!$A:$A,0))</f>
+        <v>243.90443880516364</v>
+      </c>
+      <c r="J24" s="100">
+        <f>SMALL(Persons!$H:$H,1+ROW(J24)-ROW(J$20))</f>
+        <v>5</v>
+      </c>
+      <c r="K24" s="100">
+        <f t="array" ref="K24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=J24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J24,J24)))</f>
+        <v>14</v>
+      </c>
+      <c r="L24" s="100" t="str">
+        <f>INDEX(Persons!$B:$B,MATCH(K24,Persons!$A:$A,0))</f>
+        <v>Truls</v>
+      </c>
+      <c r="M24" s="101">
+        <f>INDEX(Persons!$G:$G,MATCH(K24,Persons!$A:$A,0))</f>
+        <v>113</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="W24" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X24" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z24" s="52">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA24" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB24" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="52">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD24" s="52">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AE24" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AF24" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AG24" s="27">
+        <f t="shared" si="7"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="AH24" s="65"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W25" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X25" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z25" s="52">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA25" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB25" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="52">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AD25" s="52">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="AE25" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AF25" s="27">
+        <f t="shared" si="7"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="AG25" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AH25" s="66"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>120</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="W26" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X26" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z26" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB26" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="52">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="AE26" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AF26" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AG26" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AH26" s="67"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O27" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="62">
-        <f>SMALL(Persons!$U:$U,1+ROW(F23)-ROW(F$20))</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="62">
-        <f t="array" ref="G23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F23,F23)))</f>
-        <v>35</v>
-      </c>
-      <c r="H23" s="62" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G23,Persons!$A:$A,0))</f>
-        <v>Mathias</v>
-      </c>
-      <c r="I23" s="76">
-        <f>INDEX(Persons!$T:$T,MATCH(G23,Persons!$A:$A,0))</f>
-        <v>211.25901215856211</v>
-      </c>
-      <c r="J23" s="65">
-        <f>LARGE(Persons!$U:$U,1+ROW(J23)-ROW(J$20))</f>
-        <v>29</v>
-      </c>
-      <c r="K23" s="65">
-        <f t="array" ref="K23">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J23,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J23,J23)))</f>
-        <v>24</v>
-      </c>
-      <c r="L23" s="65" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K23,Persons!$A:$A,0))</f>
-        <v>Terje</v>
-      </c>
-      <c r="M23" s="75">
-        <f>INDEX(Persons!$T:$T,MATCH(K23,Persons!$A:$A,0))</f>
-        <v>248.51561082044944</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="68">
-        <f>SMALL(Persons!$H:$H,1+ROW(B24)-ROW(B$20))</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="68">
-        <f t="array" ref="C24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$H:$H=B24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(B$20:B24,B24)))</f>
-        <v>14</v>
-      </c>
-      <c r="D24" s="68" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>Truls</v>
-      </c>
-      <c r="E24" s="74">
-        <f>INDEX(Persons!$G:$G,MATCH(C24,Persons!$A:$A,0))</f>
-        <v>113</v>
-      </c>
-      <c r="F24" s="62">
-        <f>SMALL(Persons!$U:$U,1+ROW(F24)-ROW(F$20))</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="62">
-        <f t="array" ref="G24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=F24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(F$20:F24,F24)))</f>
-        <v>15</v>
-      </c>
-      <c r="H24" s="62" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(G24,Persons!$A:$A,0))</f>
-        <v>Yngvar</v>
-      </c>
-      <c r="I24" s="76">
-        <f>INDEX(Persons!$T:$T,MATCH(G24,Persons!$A:$A,0))</f>
-        <v>212.35711130344012</v>
-      </c>
-      <c r="J24" s="65">
-        <f>LARGE(Persons!$U:$U,1+ROW(J24)-ROW(J$20))</f>
-        <v>28</v>
-      </c>
-      <c r="K24" s="65">
-        <f t="array" ref="K24">INDEX(Persons!$A:$A,SMALL(IF(Persons!$U:$U=J24,ROW(Persons!$A:$A)-ROW(Persons!$A$1)+1),COUNTIF(J$20:J24,J24)))</f>
-        <v>16</v>
-      </c>
-      <c r="L24" s="65" t="str">
-        <f>INDEX(Persons!$B:$B,MATCH(K24,Persons!$A:$A,0))</f>
-        <v>Bjarke</v>
-      </c>
-      <c r="M24" s="75">
-        <f>INDEX(Persons!$T:$T,MATCH(K24,Persons!$A:$A,0))</f>
-        <v>246.00664536981162</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="W27" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X27" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z27" s="52">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="AA27" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB27" s="52">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="AC27" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="52">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="AE27" s="27">
+        <f t="shared" si="7"/>
+        <v>229.5</v>
+      </c>
+      <c r="AF27" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AG27" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AH27" s="68"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>320</v>
+      </c>
+      <c r="W28" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="X28" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z28" s="52">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="AA28" s="60">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB28" s="52">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC28" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="52">
+        <f t="shared" si="6"/>
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="AE28" s="27">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="AF28" s="27">
+        <f t="shared" si="7"/>
+        <v>178.5</v>
+      </c>
+      <c r="AG28" s="27">
+        <f t="shared" si="7"/>
+        <v>229.5</v>
+      </c>
+      <c r="AH28" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -3152,10 +3785,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,61 +3812,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="54" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4" t="s">
@@ -3436,7 +4069,7 @@
       </c>
       <c r="F4" s="6">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E4)+1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <f>SUMIF(Sales!B:B,A4,Sales!D:D)</f>
@@ -3452,7 +4085,7 @@
       </c>
       <c r="J4" s="4">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I4)+1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5">
         <f>SUMIF(Sales!B:B,A4,Sales!F:F)</f>
@@ -3472,7 +4105,7 @@
       </c>
       <c r="O4" s="6">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N4)+1)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="5">
         <f>N4/M4</f>
@@ -3480,7 +4113,7 @@
       </c>
       <c r="Q4" s="4">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P4)+1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" s="17">
         <f>IF(I4&gt;K4,1-_xlfn.NORM.DIST(I4,K4,M4,1),_xlfn.NORM.DIST(I4,K4,M4,1))</f>
@@ -3488,7 +4121,7 @@
       </c>
       <c r="S4" s="32">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R4)+1)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T4" s="6">
         <f>E4/K4</f>
@@ -3496,7 +4129,7 @@
       </c>
       <c r="U4" s="4">
         <f>IF($C4=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T4)+1)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V4" s="4"/>
       <c r="X4" s="4"/>
@@ -4116,11 +4749,11 @@
       </c>
       <c r="D12" s="4">
         <f t="array" ref="D12">MAX(IF(Sales!B:B=A12,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4">
         <f>SUMIF(Sales!B:B,A12,Sales!E:E)</f>
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="6">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E12)+1)</f>
@@ -4128,7 +4761,7 @@
       </c>
       <c r="G12" s="4">
         <f>SUMIF(Sales!B:B,A12,Sales!D:D)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H12" s="4">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G12)+1)</f>
@@ -4144,7 +4777,7 @@
       </c>
       <c r="K12" s="5">
         <f>SUMIF(Sales!B:B,A12,Sales!F:F)</f>
-        <v>8.4707866574534254</v>
+        <v>9.0445571492567041</v>
       </c>
       <c r="L12" s="6">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K12)+1)</f>
@@ -4152,39 +4785,39 @@
       </c>
       <c r="M12" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A12,Sales!G:G))</f>
-        <v>2.7395768856845759</v>
+        <v>2.8294703199056279</v>
       </c>
       <c r="N12" s="5">
         <f>I12-K12</f>
-        <v>1.5292133425465746</v>
+        <v>0.95544285074329593</v>
       </c>
       <c r="O12" s="6">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N12)+1)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P12" s="5">
         <f>N12/M12</f>
-        <v>0.55819325624235905</v>
+        <v>0.33767551616345037</v>
       </c>
       <c r="Q12" s="4">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P12)+1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R12" s="17">
         <f>IF(I12&gt;K12,1-_xlfn.NORM.DIST(I12,K12,M12,1),_xlfn.NORM.DIST(I12,K12,M12,1))</f>
-        <v>0.28835621268778244</v>
+        <v>0.36780386368053908</v>
       </c>
       <c r="S12" s="32">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R12)+1)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T12" s="6">
         <f>E12/K12</f>
-        <v>236.1055803760805</v>
+        <v>232.18383889282865</v>
       </c>
       <c r="U12" s="4">
         <f>IF($C12=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T12)+1)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V12" s="4"/>
       <c r="X12" s="4"/>
@@ -4202,11 +4835,11 @@
       </c>
       <c r="D13" s="4">
         <f t="array" ref="D13">MAX(IF(Sales!B:B=A13,Sales!C:C))</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4">
         <f>SUMIF(Sales!B:B,A13,Sales!E:E)</f>
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="F13" s="6">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E13)+1)</f>
@@ -4214,11 +4847,11 @@
       </c>
       <c r="G13" s="4">
         <f>SUMIF(Sales!B:B,A13,Sales!D:D)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H13" s="4">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G13)+1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(Prizes!B:B,A13,Prizes!D:D)</f>
@@ -4230,19 +4863,19 @@
       </c>
       <c r="K13" s="5">
         <f>SUMIF(Sales!B:B,A13,Sales!F:F)</f>
-        <v>2.4986609374725086</v>
+        <v>2.7855461833741479</v>
       </c>
       <c r="L13" s="6">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K13)+1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A13,Sales!G:G))</f>
-        <v>1.4954768990915936</v>
+        <v>1.5804860378989236</v>
       </c>
       <c r="N13" s="5">
         <f>I13-K13</f>
-        <v>-2.4986609374725086</v>
+        <v>-2.7855461833741479</v>
       </c>
       <c r="O13" s="6">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N13)+1)</f>
@@ -4250,7 +4883,7 @@
       </c>
       <c r="P13" s="5">
         <f>N13/M13</f>
-        <v>-1.6708121262122371</v>
+        <v>-1.7624617469428674</v>
       </c>
       <c r="Q13" s="4">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P13)+1)</f>
@@ -4258,19 +4891,19 @@
       </c>
       <c r="R13" s="17">
         <f>IF(I13&gt;K13,1-_xlfn.NORM.DIST(I13,K13,M13,1),_xlfn.NORM.DIST(I13,K13,M13,1))</f>
-        <v>4.7379396299877204E-2</v>
+        <v>3.8995657007222767E-2</v>
       </c>
       <c r="S13" s="32">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R13)+1)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T13" s="6">
         <f>E13/K13</f>
-        <v>224.12004430119339</v>
+        <v>218.98757365462293</v>
       </c>
       <c r="U13" s="4">
         <f>IF($C13=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T13)+1)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V13" s="4"/>
       <c r="X13" s="4"/>
@@ -4390,7 +5023,7 @@
       </c>
       <c r="H15" s="4">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G15)+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="4">
         <f>SUMIF(Prizes!B:B,A15,Prizes!D:D)</f>
@@ -4406,7 +5039,7 @@
       </c>
       <c r="L15" s="6">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K15)+1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A15,Sales!G:G))</f>
@@ -4418,7 +5051,7 @@
       </c>
       <c r="O15" s="6">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N15)+1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" s="5">
         <f>N15/M15</f>
@@ -4426,7 +5059,7 @@
       </c>
       <c r="Q15" s="4">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P15)+1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="17">
         <f>IF(I15&gt;K15,1-_xlfn.NORM.DIST(I15,K15,M15,1),_xlfn.NORM.DIST(I15,K15,M15,1))</f>
@@ -4434,7 +5067,7 @@
       </c>
       <c r="S15" s="32">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R15)+1)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T15" s="6">
         <f>E15/K15</f>
@@ -4442,7 +5075,7 @@
       </c>
       <c r="U15" s="4">
         <f>IF($C15=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T15)+1)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V15" s="4"/>
       <c r="X15" s="4"/>
@@ -4492,7 +5125,7 @@
       </c>
       <c r="L16" s="6">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K16)+1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A16,Sales!G:G))</f>
@@ -4512,7 +5145,7 @@
       </c>
       <c r="Q16" s="4">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P16)+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="17">
         <f>IF(I16&gt;K16,1-_xlfn.NORM.DIST(I16,K16,M16,1),_xlfn.NORM.DIST(I16,K16,M16,1))</f>
@@ -4520,7 +5153,7 @@
       </c>
       <c r="S16" s="32">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R16)+1)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T16" s="6">
         <f>E16/K16</f>
@@ -4528,7 +5161,7 @@
       </c>
       <c r="U16" s="4">
         <f>IF($C16=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T16)+1)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V16" s="4"/>
       <c r="X16" s="4"/>
@@ -4546,19 +5179,19 @@
       </c>
       <c r="D17" s="4">
         <f t="array" ref="D17">MAX(IF(Sales!B:B=A17,Sales!C:C))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4">
         <f>SUMIF(Sales!B:B,A17,Sales!E:E)</f>
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="6">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E17)+1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4">
         <f>SUMIF(Sales!B:B,A17,Sales!D:D)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G17)+1)</f>
@@ -4574,7 +5207,7 @@
       </c>
       <c r="K17" s="5">
         <f>SUMIF(Sales!B:B,A17,Sales!F:F)</f>
-        <v>4.8974107512412388</v>
+        <v>5.2416730463232062</v>
       </c>
       <c r="L17" s="6">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K17)+1)</f>
@@ -4582,39 +5215,39 @@
       </c>
       <c r="M17" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A17,Sales!G:G))</f>
-        <v>2.0850751321114935</v>
+        <v>2.1583879081049071</v>
       </c>
       <c r="N17" s="5">
         <f>I17-K17</f>
-        <v>1.1025892487587612</v>
+        <v>0.75832695367679381</v>
       </c>
       <c r="O17" s="6">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N17)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P17" s="5">
         <f>N17/M17</f>
-        <v>0.52880072846209714</v>
+        <v>0.35133951169260152</v>
       </c>
       <c r="Q17" s="4">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P17)+1)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" s="17">
         <f>IF(I17&gt;K17,1-_xlfn.NORM.DIST(I17,K17,M17,1),_xlfn.NORM.DIST(I17,K17,M17,1))</f>
-        <v>0.29847184618231593</v>
+        <v>0.36266682794985294</v>
       </c>
       <c r="S17" s="32">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R17)+1)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17" s="6">
         <f>E17/K17</f>
-        <v>212.35711130344012</v>
+        <v>209.85666032176496</v>
       </c>
       <c r="U17" s="4">
         <f>IF($C17=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T17)+1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V17" s="4"/>
       <c r="X17" s="4"/>
@@ -4640,7 +5273,7 @@
       </c>
       <c r="F18" s="6">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E18)+1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="4">
         <f>SUMIF(Sales!B:B,A18,Sales!D:D)</f>
@@ -4648,7 +5281,7 @@
       </c>
       <c r="H18" s="4">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G18)+1)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" s="4">
         <f>SUMIF(Prizes!B:B,A18,Prizes!D:D)</f>
@@ -4664,7 +5297,7 @@
       </c>
       <c r="L18" s="6">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K18)+1)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M18" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A18,Sales!G:G))</f>
@@ -4676,7 +5309,7 @@
       </c>
       <c r="O18" s="6">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N18)+1)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P18" s="5">
         <f>N18/M18</f>
@@ -4684,7 +5317,7 @@
       </c>
       <c r="Q18" s="4">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P18)+1)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R18" s="17">
         <f>IF(I18&gt;K18,1-_xlfn.NORM.DIST(I18,K18,M18,1),_xlfn.NORM.DIST(I18,K18,M18,1))</f>
@@ -4692,7 +5325,7 @@
       </c>
       <c r="S18" s="32">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R18)+1)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T18" s="6">
         <f>E18/K18</f>
@@ -4700,7 +5333,7 @@
       </c>
       <c r="U18" s="4">
         <f>IF($C18=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T18)+1)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V18" s="4"/>
       <c r="X18" s="4"/>
@@ -4734,7 +5367,7 @@
       </c>
       <c r="H19" s="4">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G19)+1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4">
         <f>SUMIF(Prizes!B:B,A19,Prizes!D:D)</f>
@@ -4750,7 +5383,7 @@
       </c>
       <c r="L19" s="6">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K19)+1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A19,Sales!G:G))</f>
@@ -4762,7 +5395,7 @@
       </c>
       <c r="O19" s="6">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N19)+1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" s="5">
         <f>N19/M19</f>
@@ -4778,7 +5411,7 @@
       </c>
       <c r="S19" s="32">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R19)+1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T19" s="6">
         <f>E19/K19</f>
@@ -4786,7 +5419,7 @@
       </c>
       <c r="U19" s="4">
         <f>IF($C19=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T19)+1)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V19" s="4"/>
       <c r="X19" s="4"/>
@@ -5352,7 +5985,7 @@
       </c>
       <c r="L26" s="6">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K26)+1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A26,Sales!G:G))</f>
@@ -5380,7 +6013,7 @@
       </c>
       <c r="S26" s="32">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R26)+1)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T26" s="6">
         <f>E26/K26</f>
@@ -5388,7 +6021,7 @@
       </c>
       <c r="U26" s="4">
         <f>IF($C26=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T26)+1)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V26" s="4"/>
       <c r="X26" s="4"/>
@@ -5571,7 +6204,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -5586,7 +6219,7 @@
       </c>
       <c r="F29" s="6">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E29)+1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4">
         <f>SUMIF(Sales!B:B,A29,Sales!D:D)</f>
@@ -5594,7 +6227,7 @@
       </c>
       <c r="H29" s="4">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G29)+1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" s="4">
         <f>SUMIF(Prizes!B:B,A29,Prizes!D:D)</f>
@@ -5610,7 +6243,7 @@
       </c>
       <c r="L29" s="6">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K29)+1)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M29" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A29,Sales!G:G))</f>
@@ -5622,7 +6255,7 @@
       </c>
       <c r="O29" s="6">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N29)+1)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" s="5">
         <f>N29/M29</f>
@@ -5638,7 +6271,7 @@
       </c>
       <c r="S29" s="32">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R29)+1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" s="6">
         <f>E29/K29</f>
@@ -5646,7 +6279,7 @@
       </c>
       <c r="U29" s="4">
         <f>IF($C29=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T29)+1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" s="4"/>
       <c r="X29" s="4"/>
@@ -5743,18 +6376,18 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
       <c r="D31" s="4">
         <f t="array" ref="D31">MAX(IF(Sales!B:B=A31,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4">
         <f>SUMIF(Sales!B:B,A31,Sales!E:E)</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="6">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E31)+1)</f>
@@ -5762,7 +6395,7 @@
       </c>
       <c r="G31" s="4">
         <f>SUMIF(Sales!B:B,A31,Sales!D:D)</f>
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H31" s="4">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G31)+1)</f>
@@ -5774,51 +6407,51 @@
       </c>
       <c r="J31" s="4">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I31)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" s="5">
         <f>SUMIF(Sales!B:B,A31,Sales!F:F)</f>
-        <v>5.0953191788097616</v>
+        <v>5.6690896706130403</v>
       </c>
       <c r="L31" s="6">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K31)+1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A31,Sales!G:G))</f>
-        <v>2.1339697501354657</v>
+        <v>2.2482098819155825</v>
       </c>
       <c r="N31" s="5">
         <f>I31-K31</f>
-        <v>-1.0953191788097616</v>
+        <v>-1.6690896706130403</v>
       </c>
       <c r="O31" s="6">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N31)+1)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P31" s="5">
         <f>N31/M31</f>
-        <v>-0.513277743857536</v>
+        <v>-0.74240829739209935</v>
       </c>
       <c r="Q31" s="4">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P31)+1)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R31" s="17">
         <f>IF(I31&gt;K31,1-_xlfn.NORM.DIST(I31,K31,M31,1),_xlfn.NORM.DIST(I31,K31,M31,1))</f>
-        <v>0.30387852502930257</v>
+        <v>0.22891999692444598</v>
       </c>
       <c r="S31" s="32">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R31)+1)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T31" s="6">
         <f>E31/K31</f>
-        <v>235.5102708757714</v>
+        <v>229.31371270044164</v>
       </c>
       <c r="U31" s="4">
         <f>IF($C31=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T31)+1)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V31" s="4"/>
       <c r="X31" s="4"/>
@@ -6032,7 +6665,7 @@
       </c>
       <c r="J34" s="4">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K34" s="5">
         <f>SUMIF(Sales!B:B,A34,Sales!F:F)</f>
@@ -6040,7 +6673,7 @@
       </c>
       <c r="L34" s="6">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M34" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A34,Sales!G:G))</f>
@@ -6052,7 +6685,7 @@
       </c>
       <c r="O34" s="6">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P34" s="5">
         <f>N34/M34</f>
@@ -6068,7 +6701,7 @@
       </c>
       <c r="S34" s="32">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34" s="6">
         <f>E34/K34</f>
@@ -6076,7 +6709,7 @@
       </c>
       <c r="U34" s="4">
         <f>IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V34" s="4"/>
       <c r="X34" s="4"/>
@@ -6094,11 +6727,11 @@
       </c>
       <c r="D35" s="4">
         <f t="array" ref="D35">MAX(IF(Sales!B:B=A35,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4">
         <f>SUMIF(Sales!B:B,A35,Sales!E:E)</f>
-        <v>1710</v>
+        <v>1810</v>
       </c>
       <c r="F35" s="6">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E35)+1)</f>
@@ -6106,7 +6739,7 @@
       </c>
       <c r="G35" s="4">
         <f>SUMIF(Sales!B:B,A35,Sales!D:D)</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H35" s="4">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G35)+1)</f>
@@ -6122,7 +6755,7 @@
       </c>
       <c r="K35" s="5">
         <f>SUMIF(Sales!B:B,A35,Sales!F:F)</f>
-        <v>7.6760070544091814</v>
+        <v>8.2497775462124601</v>
       </c>
       <c r="L35" s="6">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K35)+1)</f>
@@ -6130,35 +6763,35 @@
       </c>
       <c r="M35" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A35,Sales!G:G))</f>
-        <v>2.600274815738802</v>
+        <v>2.6948190840973196</v>
       </c>
       <c r="N35" s="5">
         <f>I35-K35</f>
-        <v>-0.67600705440918141</v>
+        <v>-1.2497775462124601</v>
       </c>
       <c r="O35" s="6">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N35)+1)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P35" s="5">
         <f>N35/M35</f>
-        <v>-0.25997523427811653</v>
+        <v>-0.46377048225153733</v>
       </c>
       <c r="Q35" s="4">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P35)+1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R35" s="17">
         <f>IF(I35&gt;K35,1-_xlfn.NORM.DIST(I35,K35,M35,1),_xlfn.NORM.DIST(I35,K35,M35,1))</f>
-        <v>0.3974414385560473</v>
+        <v>0.32140609680239007</v>
       </c>
       <c r="S35" s="32">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R35)+1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T35" s="6">
         <f>E35/K35</f>
-        <v>222.77207249539427</v>
+        <v>219.39985531258182</v>
       </c>
       <c r="U35" s="4">
         <f>IF($C35=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T35)+1)</f>
@@ -6180,11 +6813,11 @@
       </c>
       <c r="D36" s="4">
         <f t="array" ref="D36">MAX(IF(Sales!B:B=A36,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4">
         <f>SUMIF(Sales!B:B,A36,Sales!E:E)</f>
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="F36" s="6">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E36)+1)</f>
@@ -6192,7 +6825,7 @@
       </c>
       <c r="G36" s="4">
         <f>SUMIF(Sales!B:B,A36,Sales!D:D)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H36" s="4">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G36)+1)</f>
@@ -6200,55 +6833,55 @@
       </c>
       <c r="I36" s="4">
         <f>SUMIF(Prizes!B:B,A36,Prizes!D:D)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="4">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I36)+1)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K36" s="5">
         <f>SUMIF(Sales!B:B,A36,Sales!F:F)</f>
-        <v>3.8959495602492105</v>
+        <v>4.1828348061508498</v>
       </c>
       <c r="L36" s="6">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K36)+1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M36" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A36,Sales!G:G))</f>
-        <v>1.885477140554072</v>
+        <v>1.9535887509475451</v>
       </c>
       <c r="N36" s="5">
         <f>I36-K36</f>
-        <v>-1.8959495602492105</v>
+        <v>-1.1828348061508498</v>
       </c>
       <c r="O36" s="6">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N36)+1)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P36" s="5">
         <f>N36/M36</f>
-        <v>-1.0055542543952884</v>
+        <v>-0.60546765821473014</v>
       </c>
       <c r="Q36" s="4">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P36)+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R36" s="17">
         <f>IF(I36&gt;K36,1-_xlfn.NORM.DIST(I36,K36,M36,1),_xlfn.NORM.DIST(I36,K36,M36,1))</f>
-        <v>0.15731501931929426</v>
+        <v>0.27243415385644643</v>
       </c>
       <c r="S36" s="32">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R36)+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T36" s="6">
         <f>E36/K36</f>
-        <v>220.74207756041605</v>
+        <v>217.55580656970886</v>
       </c>
       <c r="U36" s="4">
         <f>IF($C36=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T36)+1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V36" s="4"/>
       <c r="X36" s="4"/>
@@ -6266,11 +6899,11 @@
       </c>
       <c r="D37" s="4">
         <f t="array" ref="D37">MAX(IF(Sales!B:B=A37,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="4">
         <f>SUMIF(Sales!B:B,A37,Sales!E:E)</f>
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F37" s="6">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E37)+1)</f>
@@ -6278,11 +6911,11 @@
       </c>
       <c r="G37" s="4">
         <f>SUMIF(Sales!B:B,A37,Sales!D:D)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H37" s="4">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G37)+1)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4">
         <f>SUMIF(Prizes!B:B,A37,Prizes!D:D)</f>
@@ -6290,51 +6923,51 @@
       </c>
       <c r="J37" s="4">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I37)+1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K37" s="5">
         <f>SUMIF(Sales!B:B,A37,Sales!F:F)</f>
-        <v>3.5501444049027437</v>
+        <v>3.8370296508043831</v>
       </c>
       <c r="L37" s="6">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K37)+1)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M37" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A37,Sales!G:G))</f>
-        <v>1.7992356181848366</v>
+        <v>1.8704902485770409</v>
       </c>
       <c r="N37" s="5">
         <f>I37-K37</f>
-        <v>-1.5501444049027437</v>
+        <v>-1.8370296508043831</v>
       </c>
       <c r="O37" s="6">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N37)+1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P37" s="5">
         <f>N37/M37</f>
-        <v>-0.86155720197814389</v>
+        <v>-0.98211132199266327</v>
       </c>
       <c r="Q37" s="4">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P37)+1)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R37" s="17">
         <f>IF(I37&gt;K37,1-_xlfn.NORM.DIST(I37,K37,M37,1),_xlfn.NORM.DIST(I37,K37,M37,1))</f>
-        <v>0.19446561540363369</v>
+        <v>0.16302250413413777</v>
       </c>
       <c r="S37" s="32">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R37)+1)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T37" s="6">
         <f>E37/K37</f>
-        <v>211.25901215856211</v>
+        <v>208.4946098428743</v>
       </c>
       <c r="U37" s="4">
         <f>IF($C37=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T37)+1)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V37" s="4"/>
       <c r="X37" s="4"/>
@@ -6360,7 +6993,7 @@
       </c>
       <c r="F38" s="6">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E38)+1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4">
         <f>SUMIF(Sales!B:B,A38,Sales!D:D)</f>
@@ -6368,7 +7001,7 @@
       </c>
       <c r="H38" s="4">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G38)+1)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38" s="4">
         <f>SUMIF(Prizes!B:B,A38,Prizes!D:D)</f>
@@ -6376,7 +7009,7 @@
       </c>
       <c r="J38" s="4">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I38)+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38" s="5">
         <f>SUMIF(Sales!B:B,A38,Sales!F:F)</f>
@@ -6396,7 +7029,7 @@
       </c>
       <c r="O38" s="6">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N38)+1)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P38" s="5">
         <f>N38/M38</f>
@@ -6404,7 +7037,7 @@
       </c>
       <c r="Q38" s="4">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P38)+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R38" s="17">
         <f>IF(I38&gt;K38,1-_xlfn.NORM.DIST(I38,K38,M38,1),_xlfn.NORM.DIST(I38,K38,M38,1))</f>
@@ -6412,7 +7045,7 @@
       </c>
       <c r="S38" s="32">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R38)+1)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T38" s="6">
         <f>E38/K38</f>
@@ -6420,7 +7053,7 @@
       </c>
       <c r="U38" s="4">
         <f>IF($C38=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T38)+1)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V38" s="4"/>
       <c r="X38" s="4"/>
@@ -6438,11 +7071,11 @@
       </c>
       <c r="D39" s="4">
         <f t="array" ref="D39">MAX(IF(Sales!B:B=A39,Sales!C:C))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E39" s="4">
         <f>SUMIF(Sales!B:B,A39,Sales!E:E)</f>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F39" s="6">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E39)+1)</f>
@@ -6450,7 +7083,7 @@
       </c>
       <c r="G39" s="4">
         <f>SUMIF(Sales!B:B,A39,Sales!D:D)</f>
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H39" s="4">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G39)+1)</f>
@@ -6458,15 +7091,15 @@
       </c>
       <c r="I39" s="4">
         <f>SUMIF(Prizes!B:B,A39,Prizes!D:D)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" s="4">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I39)+1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" s="5">
         <f>SUMIF(Sales!B:B,A39,Sales!F:F)</f>
-        <v>7.2456182608128401</v>
+        <v>7.8193887526161188</v>
       </c>
       <c r="L39" s="6">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K39)+1)</f>
@@ -6474,11 +7107,11 @@
       </c>
       <c r="M39" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A39,Sales!G:G))</f>
-        <v>2.5246189435214399</v>
+        <v>2.6218927492628237</v>
       </c>
       <c r="N39" s="5">
         <f>I39-K39</f>
-        <v>-3.2456182608128401</v>
+        <v>-2.8193887526161188</v>
       </c>
       <c r="O39" s="6">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N39)+1)</f>
@@ -6486,27 +7119,27 @@
       </c>
       <c r="P39" s="5">
         <f>N39/M39</f>
-        <v>-1.2855873830550133</v>
+        <v>-1.0753257368779954</v>
       </c>
       <c r="Q39" s="4">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P39)+1)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R39" s="17">
         <f>IF(I39&gt;K39,1-_xlfn.NORM.DIST(I39,K39,M39,1),_xlfn.NORM.DIST(I39,K39,M39,1))</f>
-        <v>9.9293551168915556E-2</v>
+        <v>0.14111445868543901</v>
       </c>
       <c r="S39" s="32">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R39)+1)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T39" s="6">
         <f>E39/K39</f>
-        <v>220.82311576548696</v>
+        <v>217.40829798636551</v>
       </c>
       <c r="U39" s="4">
         <f>IF($C39=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T39)+1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V39" s="4"/>
       <c r="X39" s="4"/>
@@ -6782,23 +7415,23 @@
       </c>
       <c r="D43" s="4">
         <f t="array" ref="D43">MAX(IF(Sales!B:B=A43,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="8">
         <f>SUMIF(Sales!B:B,A43,Sales!E:E)</f>
-        <v>730</v>
+        <v>780</v>
       </c>
       <c r="F43" s="30">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E43)+1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" s="8">
         <f>SUMIF(Sales!B:B,A43,Sales!D:D)</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H43" s="10">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G43)+1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8">
         <f>SUMIF(Prizes!B:B,A43,Prizes!D:D)</f>
@@ -6806,31 +7439,31 @@
       </c>
       <c r="J43" s="10">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I43)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K43" s="9">
         <f>SUMIF(Sales!B:B,A43,Sales!F:F)</f>
-        <v>3.1538122328234959</v>
+        <v>3.4406974787251352</v>
       </c>
       <c r="L43" s="30">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K43)+1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A43,Sales!G:G))</f>
-        <v>1.6943643224558498</v>
+        <v>1.7698461564464014</v>
       </c>
       <c r="N43" s="9">
         <f>I43-K43</f>
-        <v>0.84618776717650412</v>
+        <v>0.55930252127486479</v>
       </c>
       <c r="O43" s="30">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N43)+1)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P43" s="5">
         <f>N43/M43</f>
-        <v>0.49941311674340527</v>
+        <v>0.31601759239789773</v>
       </c>
       <c r="Q43" s="10">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P43)+1)</f>
@@ -6838,19 +7471,19 @@
       </c>
       <c r="R43" s="17">
         <f>IF(I43&gt;K43,1-_xlfn.NORM.DIST(I43,K43,M43,1),_xlfn.NORM.DIST(I43,K43,M43,1))</f>
-        <v>0.30874419027823152</v>
+        <v>0.37599457754227006</v>
       </c>
       <c r="S43" s="32">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R43)+1)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T43" s="6">
         <f>E43/K43</f>
-        <v>231.4659041532276</v>
+        <v>226.6982217480537</v>
       </c>
       <c r="U43" s="10">
         <f>IF($C43=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T43)+1)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V43" s="4"/>
       <c r="X43" s="4"/>
@@ -6954,11 +7587,11 @@
       </c>
       <c r="D45" s="4">
         <f t="array" ref="D45">MAX(IF(Sales!B:B=A45,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="8">
         <f>SUMIF(Sales!B:B,A45,Sales!E:E)</f>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F45" s="30">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E45)+1)</f>
@@ -6966,63 +7599,63 @@
       </c>
       <c r="G45" s="8">
         <f>SUMIF(Sales!B:B,A45,Sales!D:D)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H45" s="8">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G45)+1)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8">
         <f>SUMIF(Prizes!B:B,A45,Prizes!D:D)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="8">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I45)+1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K45" s="9">
         <f>SUMIF(Sales!B:B,A45,Sales!F:F)</f>
-        <v>1.5962744668176405</v>
+        <v>1.8831597127192798</v>
       </c>
       <c r="L45" s="30">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K45)+1)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A45,Sales!G:G))</f>
-        <v>1.2149840890247872</v>
+        <v>1.3182076076476805</v>
       </c>
       <c r="N45" s="9">
         <f>I45-K45</f>
-        <v>-0.59627446681764051</v>
+        <v>0.11684028728072016</v>
       </c>
       <c r="O45" s="30">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N45)+1)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P45" s="5">
         <f>N45/M45</f>
-        <v>-0.49076730485931142</v>
+        <v>8.863572520964258E-2</v>
       </c>
       <c r="Q45" s="10">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P45)+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R45" s="17">
         <f>IF(I45&gt;K45,1-_xlfn.NORM.DIST(I45,K45,M45,1),_xlfn.NORM.DIST(I45,K45,M45,1))</f>
-        <v>0.3117955185222675</v>
+        <v>0.4646857075994808</v>
       </c>
       <c r="S45" s="32">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R45)+1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T45" s="6">
         <f>E45/K45</f>
-        <v>219.26053900853645</v>
+        <v>212.40896207491642</v>
       </c>
       <c r="U45" s="4">
         <f>IF($C45=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T45)+1)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V45" s="4"/>
       <c r="X45" s="4"/>
@@ -7040,11 +7673,11 @@
       </c>
       <c r="D46" s="4">
         <f t="array" ref="D46">MAX(IF(Sales!B:B=A46,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46" s="8">
         <f>SUMIF(Sales!B:B,A46,Sales!E:E)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F46" s="30">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E46)+1)</f>
@@ -7052,63 +7685,63 @@
       </c>
       <c r="G46" s="8">
         <f>SUMIF(Sales!B:B,A46,Sales!D:D)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H46" s="8">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G46)+1)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8">
         <f>SUMIF(Prizes!B:B,A46,Prizes!D:D)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" s="8">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I46)+1)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K46" s="9">
         <f>SUMIF(Sales!B:B,A46,Sales!F:F)</f>
-        <v>2.3797380197994875</v>
+        <v>2.9535085116027662</v>
       </c>
       <c r="L46" s="30">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K46)+1)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9">
         <f>SQRT(SUMIF(Sales!B:B,A46,Sales!G:G))</f>
-        <v>1.469193427506978</v>
+        <v>1.6306900705159635</v>
       </c>
       <c r="N46" s="9">
         <f>I46-K46</f>
-        <v>-0.37973801979948751</v>
+        <v>1.0464914883972338</v>
       </c>
       <c r="O46" s="30">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N46)+1)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P46" s="5">
         <f>N46/M46</f>
-        <v>-0.25846700147839036</v>
+        <v>0.64174763023246684</v>
       </c>
       <c r="Q46" s="10">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P46)+1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R46" s="17">
         <f>IF(I46&gt;K46,1-_xlfn.NORM.DIST(I46,K46,M46,1),_xlfn.NORM.DIST(I46,K46,M46,1))</f>
-        <v>0.39802325644752967</v>
+        <v>0.26051852892207705</v>
       </c>
       <c r="S46" s="32">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R46)+1)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T46" s="6">
         <f>E46/K46</f>
-        <v>210.1071613093483</v>
+        <v>203.14822105401717</v>
       </c>
       <c r="U46" s="4">
         <f>IF($C46=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T46)+1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V46" s="4"/>
       <c r="X46" s="4"/>
@@ -7134,7 +7767,7 @@
       </c>
       <c r="F47" s="6">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E47)+1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G47" s="10">
         <f>SUMIF(Sales!B:B,A47,Sales!D:D)</f>
@@ -7142,7 +7775,7 @@
       </c>
       <c r="H47" s="10">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G47)+1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" s="10">
         <f>SUMIF(Prizes!B:B,A47,Prizes!D:D)</f>
@@ -7158,7 +7791,7 @@
       </c>
       <c r="L47" s="6">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K47)+1)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M47" s="5">
         <f>SQRT(SUMIF(Sales!B:B,A47,Sales!G:G))</f>
@@ -7170,7 +7803,7 @@
       </c>
       <c r="O47" s="6">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N47)+1)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P47" s="5">
         <f>N47/M47</f>
@@ -7178,7 +7811,7 @@
       </c>
       <c r="Q47" s="10">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P47)+1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R47" s="17">
         <f>IF(I47&gt;K47,1-_xlfn.NORM.DIST(I47,K47,M47,1),_xlfn.NORM.DIST(I47,K47,M47,1))</f>
@@ -7186,7 +7819,7 @@
       </c>
       <c r="S47" s="32">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R47)+1)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T47" s="6">
         <f>E47/K47</f>
@@ -7194,7 +7827,7 @@
       </c>
       <c r="U47" s="10">
         <f>IF($C47=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T47)+1)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
@@ -7235,7 +7868,7 @@
       </c>
       <c r="J48" s="10">
         <f>IF($C48=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I48)+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K48" s="5">
         <f>SUMIF(Sales!B:B,A48,Sales!F:F)</f>
@@ -7255,7 +7888,7 @@
       </c>
       <c r="O48" s="6">
         <f>IF($C48=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N48)+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P48" s="5">
         <f>N48/M48</f>
@@ -7263,7 +7896,7 @@
       </c>
       <c r="Q48" s="10">
         <f>IF($C48=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P48)+1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" s="17">
         <f>IF(I48&gt;K48,1-_xlfn.NORM.DIST(I48,K48,M48,1),_xlfn.NORM.DIST(I48,K48,M48,1))</f>
@@ -7271,7 +7904,7 @@
       </c>
       <c r="S48" s="32">
         <f>IF($C48=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R48)+1)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T48" s="6">
         <f>E48/K48</f>
@@ -7279,7 +7912,7 @@
       </c>
       <c r="U48" s="10">
         <f>IF($C48=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T48)+1)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -7304,7 +7937,7 @@
       </c>
       <c r="F49" s="31">
         <f>IF($C49=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E49)+1)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="28">
         <f>SUMIF(Sales!B:B,A49,Sales!D:D)</f>
@@ -7312,7 +7945,7 @@
       </c>
       <c r="H49" s="28">
         <f>IF($C49=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G49)+1)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" s="28">
         <f>SUMIF(Prizes!B:B,A49,Prizes!D:D)</f>
@@ -7356,7 +7989,7 @@
       </c>
       <c r="S49" s="32">
         <f>IF($C49=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R49)+1)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T49" s="6">
         <f>E49/K49</f>
@@ -7364,7 +7997,7 @@
       </c>
       <c r="U49" s="10">
         <f>IF($C49=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T49)+1)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
@@ -7374,30 +8007,30 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
       <c r="D50" s="4">
         <f t="array" ref="D50">MAX(IF(Sales!B:B=A50,Sales!C:C))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E50" s="28">
         <f>SUMIF(Sales!B:B,A50,Sales!E:E)</f>
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F50" s="31">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E50)+1)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G50" s="28">
         <f>SUMIF(Sales!B:B,A50,Sales!D:D)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H50" s="28">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G50)+1)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="28">
         <f>SUMIF(Prizes!B:B,A50,Prizes!D:D)</f>
@@ -7405,23 +8038,23 @@
       </c>
       <c r="J50" s="28">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I50)+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K50" s="29">
         <f>SUMIF(Sales!B:B,A50,Sales!F:F)</f>
-        <v>0.9288730060179704</v>
+        <v>1.5026434978212491</v>
       </c>
       <c r="L50" s="31">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K50)+1)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M50" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A50,Sales!G:G))</f>
-        <v>0.92588131822066155</v>
+        <v>1.1652797921871323</v>
       </c>
       <c r="N50" s="29">
         <f>I50-K50</f>
-        <v>2.0711269939820296</v>
+        <v>1.4973565021787509</v>
       </c>
       <c r="O50" s="31">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N50)+1)</f>
@@ -7429,27 +8062,27 @@
       </c>
       <c r="P50" s="5">
         <f>N50/M50</f>
-        <v>2.2369249203151393</v>
+        <v>1.2849759450203273</v>
       </c>
       <c r="Q50" s="10">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P50)+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R50" s="17">
         <f>IF(I50&gt;K50,1-_xlfn.NORM.DIST(I50,K50,M50,1),_xlfn.NORM.DIST(I50,K50,M50,1))</f>
-        <v>1.2645623753735458E-2</v>
+        <v>9.9400345048293204E-2</v>
       </c>
       <c r="S50" s="32">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R50)+1)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T50" s="6">
         <f>E50/K50</f>
-        <v>258.37762368492906</v>
+        <v>226.26790751963551</v>
       </c>
       <c r="U50" s="10">
         <f>IF($C50=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T50)+1)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
@@ -7459,7 +8092,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -7544,7 +8177,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -7595,7 +8228,7 @@
       </c>
       <c r="O52" s="31">
         <f>IF($C52=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N52)+1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P52" s="29">
         <f>N52/M52</f>
@@ -7603,15 +8236,15 @@
       </c>
       <c r="Q52" s="10">
         <f>IF($C52=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P52)+1)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R52" s="17">
         <f>IF(I52&gt;K52,1-_xlfn.NORM.DIST(I52,K52,M52,1),_xlfn.NORM.DIST(I52,K52,M52,1))</f>
         <v>0.2091940691709436</v>
       </c>
-      <c r="S52" s="77">
+      <c r="S52" s="43">
         <f>IF($C52=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R52)+1)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T52" s="6">
         <f>E52/K52</f>
@@ -7619,7 +8252,7 @@
       </c>
       <c r="U52" s="10">
         <f>IF($C52=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T52)+1)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -7627,7 +8260,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -7692,7 +8325,7 @@
         <f>IF(I53&gt;K53,1-_xlfn.NORM.DIST(I53,K53,M53,1),_xlfn.NORM.DIST(I53,K53,M53,1))</f>
         <v>0.19570142905695206</v>
       </c>
-      <c r="S53" s="77" t="str">
+      <c r="S53" s="43" t="str">
         <f>IF($C53=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R53)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -7710,7 +8343,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -7725,7 +8358,7 @@
       </c>
       <c r="F54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E54)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" s="28">
         <f>SUMIF(Sales!B:B,A54,Sales!D:D)</f>
@@ -7741,7 +8374,7 @@
       </c>
       <c r="J54" s="28">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I54)+1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K54" s="29">
         <f>SUMIF(Sales!B:B,A54,Sales!F:F)</f>
@@ -7749,7 +8382,7 @@
       </c>
       <c r="L54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K54)+1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M54" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A54,Sales!G:G))</f>
@@ -7761,7 +8394,7 @@
       </c>
       <c r="O54" s="31">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N54)+1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P54" s="29">
         <f>N54/M54</f>
@@ -7769,13 +8402,13 @@
       </c>
       <c r="Q54" s="10">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P54)+1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R54" s="17">
         <f>IF(I54&gt;K54,1-_xlfn.NORM.DIST(I54,K54,M54,1),_xlfn.NORM.DIST(I54,K54,M54,1))</f>
         <v>0.48668056523967196</v>
       </c>
-      <c r="S54" s="77">
+      <c r="S54" s="43">
         <f>IF($C54=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R54)+1)</f>
         <v>1</v>
       </c>
@@ -7793,82 +8426,82 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="28">
         <f t="array" ref="D55">MAX(IF(Sales!B:B=A55,Sales!C:C))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E55" s="28">
         <f>SUMIF(Sales!B:B,A55,Sales!E:E)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F55" s="31">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E55)+1)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G55" s="28">
         <f>SUMIF(Sales!B:B,A55,Sales!D:D)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H55" s="28">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G55)+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I55" s="28">
         <f>SUMIF(Prizes!B:B,A55,Prizes!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="28">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I55)+1)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K55" s="29">
         <f>SUMIF(Sales!B:B,A55,Sales!F:F)</f>
-        <v>0.68867924528301883</v>
+        <v>1.2624497370862975</v>
       </c>
       <c r="L55" s="31">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K55)+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M55" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A55,Sales!G:G))</f>
-        <v>0.7848811799913108</v>
+        <v>1.0567209874674623</v>
       </c>
       <c r="N55" s="29">
         <f>I55-K55</f>
-        <v>-0.68867924528301883</v>
+        <v>-0.26244973708629749</v>
       </c>
       <c r="O55" s="31">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N55)+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P55" s="29">
         <f>N55/M55</f>
-        <v>-0.87743121231501942</v>
+        <v>-0.2483623777694475</v>
       </c>
       <c r="Q55" s="10">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P55)+1)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R55" s="17">
         <f>IF(I55&gt;K55,1-_xlfn.NORM.DIST(I55,K55,M55,1),_xlfn.NORM.DIST(I55,K55,M55,1))</f>
-        <v>0.19012623306866175</v>
-      </c>
-      <c r="S55" s="77">
+        <v>0.40192701997671243</v>
+      </c>
+      <c r="S55" s="43">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R55)+1)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T55" s="6">
         <f>E55/K55</f>
-        <v>217.8082191780822</v>
+        <v>198.02768589979175</v>
       </c>
       <c r="U55" s="10">
         <f>IF($C55=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T55)+1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -7876,18 +8509,18 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="28">
         <f t="array" ref="D56">MAX(IF(Sales!B:B=A56,Sales!C:C))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" s="28">
         <f>SUMIF(Sales!B:B,A56,Sales!E:E)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F56" s="31">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E56)+1)</f>
@@ -7895,11 +8528,11 @@
       </c>
       <c r="G56" s="28">
         <f>SUMIF(Sales!B:B,A56,Sales!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H56" s="28">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G56)+1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I56" s="28">
         <f>SUMIF(Prizes!B:B,A56,Prizes!D:D)</f>
@@ -7911,7 +8544,7 @@
       </c>
       <c r="K56" s="29">
         <f>SUMIF(Sales!B:B,A56,Sales!F:F)</f>
-        <v>0.59799813780260713</v>
+        <v>0.88488338370424646</v>
       </c>
       <c r="L56" s="31">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K56)+1)</f>
@@ -7919,39 +8552,39 @@
       </c>
       <c r="M56" s="29">
         <f>SQRT(SUMIF(Sales!B:B,A56,Sales!G:G))</f>
-        <v>0.74679385447662738</v>
+        <v>0.90508895770575359</v>
       </c>
       <c r="N56" s="29">
         <f>I56-K56</f>
-        <v>0.40200186219739287</v>
+        <v>0.11511661629575354</v>
       </c>
       <c r="O56" s="31">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N56)+1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P56" s="29">
         <f>N56/M56</f>
-        <v>0.53830365607270059</v>
+        <v>0.12718817892503578</v>
       </c>
       <c r="Q56" s="10">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P56)+1)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R56" s="17">
         <f>IF(I56&gt;K56,1-_xlfn.NORM.DIST(I56,K56,M56,1),_xlfn.NORM.DIST(I56,K56,M56,1))</f>
-        <v>0.29518371384498832</v>
-      </c>
-      <c r="S56" s="77">
+        <v>0.44939573062342486</v>
+      </c>
+      <c r="S56" s="43">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R56)+1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T56" s="6">
         <f>E56/K56</f>
-        <v>250.8369015181004</v>
+        <v>226.01848298108146</v>
       </c>
       <c r="U56" s="10">
         <f>IF($C56=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T56)+1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -7959,7 +8592,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -8024,7 +8657,7 @@
         <f>IF(I57&gt;K57,1-_xlfn.NORM.DIST(I57,K57,M57,1),_xlfn.NORM.DIST(I57,K57,M57,1))</f>
         <v>0.35071858839852854</v>
       </c>
-      <c r="S57" s="77" t="str">
+      <c r="S57" s="43" t="str">
         <f>IF($C57=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R57)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -8042,82 +8675,82 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="81">
+        <v>0</v>
+      </c>
+      <c r="D58" s="47">
         <f t="array" ref="D58">MAX(IF(Sales!B:B=A58,Sales!C:C))</f>
         <v>23</v>
       </c>
-      <c r="E58" s="81">
+      <c r="E58" s="47">
         <f>SUMIF(Sales!B:B,A58,Sales!E:E)</f>
         <v>60</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="48" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E58)+1)</f>
-        <v>31</v>
-      </c>
-      <c r="G58" s="81">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G58" s="47">
         <f>SUMIF(Sales!B:B,A58,Sales!D:D)</f>
         <v>6</v>
       </c>
-      <c r="H58" s="81">
+      <c r="H58" s="47" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G58)+1)</f>
-        <v>31</v>
-      </c>
-      <c r="I58" s="81">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I58" s="47">
         <f>SUMIF(Prizes!B:B,A58,Prizes!D:D)</f>
         <v>2</v>
       </c>
-      <c r="J58" s="81">
+      <c r="J58" s="47" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I58)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="K58" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K58" s="49">
         <f>SUMIF(Sales!B:B,A58,Sales!F:F)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L58" s="82">
+      <c r="L58" s="48" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K58)+1)</f>
-        <v>31</v>
-      </c>
-      <c r="M58" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M58" s="49">
         <f>SQRT(SUMIF(Sales!B:B,A58,Sales!G:G))</f>
         <v>0.50856891930369497</v>
       </c>
-      <c r="N58" s="83">
+      <c r="N58" s="49">
         <f>I58-K58</f>
         <v>1.7250000000000001</v>
       </c>
-      <c r="O58" s="82">
+      <c r="O58" s="48" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N58)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="P58" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P58" s="49">
         <f>N58/M58</f>
         <v>3.3918706679161139</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="10" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P58)+1)</f>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R58" s="17">
         <f>IF(I58&gt;K58,1-_xlfn.NORM.DIST(I58,K58,M58,1),_xlfn.NORM.DIST(I58,K58,M58,1))</f>
         <v>3.470859913787816E-4</v>
       </c>
-      <c r="S58" s="84">
+      <c r="S58" s="50" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R58)+1)</f>
-        <v>32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T58" s="6">
         <f>E58/K58</f>
         <v>218.18181818181816</v>
       </c>
-      <c r="U58" s="10">
+      <c r="U58" s="10" t="str">
         <f>IF($C58=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T58)+1)</f>
-        <v>10</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -8125,82 +8758,82 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="81">
+        <v>0</v>
+      </c>
+      <c r="D59" s="47">
         <f t="array" ref="D59">MAX(IF(Sales!B:B=A59,Sales!C:C))</f>
         <v>23</v>
       </c>
-      <c r="E59" s="81">
+      <c r="E59" s="47">
         <f>SUMIF(Sales!B:B,A59,Sales!E:E)</f>
         <v>80</v>
       </c>
-      <c r="F59" s="82">
+      <c r="F59" s="48" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E59)+1)</f>
-        <v>30</v>
-      </c>
-      <c r="G59" s="81">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G59" s="47">
         <f>SUMIF(Sales!B:B,A59,Sales!D:D)</f>
         <v>8</v>
       </c>
-      <c r="H59" s="81">
+      <c r="H59" s="47" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G59)+1)</f>
-        <v>30</v>
-      </c>
-      <c r="I59" s="81">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I59" s="47">
         <f>SUMIF(Prizes!B:B,A59,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="81">
+      <c r="J59" s="47" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I59)+1)</f>
-        <v>24</v>
-      </c>
-      <c r="K59" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K59" s="49">
         <f>SUMIF(Sales!B:B,A59,Sales!F:F)</f>
         <v>0.35</v>
       </c>
-      <c r="L59" s="82">
+      <c r="L59" s="48" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K59)+1)</f>
-        <v>30</v>
-      </c>
-      <c r="M59" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M59" s="49">
         <f>SQRT(SUMIF(Sales!B:B,A59,Sales!G:G))</f>
         <v>0.57228768901390514</v>
       </c>
-      <c r="N59" s="83">
+      <c r="N59" s="49">
         <f>I59-K59</f>
         <v>-0.35</v>
       </c>
-      <c r="O59" s="82">
+      <c r="O59" s="48" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N59)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="P59" s="83">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P59" s="49">
         <f>N59/M59</f>
         <v>-0.61158051574213723</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="10" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P59)+1)</f>
-        <v>20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R59" s="17">
         <f>IF(I59&gt;K59,1-_xlfn.NORM.DIST(I59,K59,M59,1),_xlfn.NORM.DIST(I59,K59,M59,1))</f>
         <v>0.27040766625583312</v>
       </c>
-      <c r="S59" s="84">
+      <c r="S59" s="50" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R59)+1)</f>
-        <v>14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T59" s="6">
         <f>E59/K59</f>
         <v>228.57142857142858</v>
       </c>
-      <c r="U59" s="10">
+      <c r="U59" s="10" t="str">
         <f>IF($C59=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T59)+1)</f>
-        <v>19</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -8208,60 +8841,60 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="47">
         <f t="array" ref="D60">MAX(IF(Sales!B:B=A60,Sales!C:C))</f>
         <v>23</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="47">
         <f>SUMIF(Sales!B:B,A60,Sales!E:E)</f>
         <v>40</v>
       </c>
-      <c r="F60" s="82" t="str">
+      <c r="F60" s="48" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G60" s="81">
+      <c r="G60" s="47">
         <f>SUMIF(Sales!B:B,A60,Sales!D:D)</f>
         <v>4</v>
       </c>
-      <c r="H60" s="81" t="str">
+      <c r="H60" s="47" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I60" s="81">
+      <c r="I60" s="47">
         <f>SUMIF(Prizes!B:B,A60,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="81" t="str">
+      <c r="J60" s="47" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K60" s="83">
+      <c r="K60" s="49">
         <f>SUMIF(Sales!B:B,A60,Sales!F:F)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L60" s="82" t="str">
+      <c r="L60" s="48" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M60" s="83">
+      <c r="M60" s="49">
         <f>SQRT(SUMIF(Sales!B:B,A60,Sales!G:G))</f>
         <v>0.39650157152113763</v>
       </c>
-      <c r="N60" s="83">
+      <c r="N60" s="49">
         <f>I60-K60</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="O60" s="82" t="str">
+      <c r="O60" s="48" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P60" s="83">
+      <c r="P60" s="49">
         <f>N60/M60</f>
         <v>-0.42034301661722823</v>
       </c>
@@ -8273,7 +8906,7 @@
         <f>IF(I60&gt;K60,1-_xlfn.NORM.DIST(I60,K60,M60,1),_xlfn.NORM.DIST(I60,K60,M60,1))</f>
         <v>0.33711744470907012</v>
       </c>
-      <c r="S60" s="84" t="str">
+      <c r="S60" s="50" t="str">
         <f>IF($C60=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R60)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -8291,74 +8924,74 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="47">
         <f t="array" ref="D61">MAX(IF(Sales!B:B=A61,Sales!C:C))</f>
         <v>23</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="47">
         <f>SUMIF(Sales!B:B,A61,Sales!E:E)</f>
         <v>50</v>
       </c>
-      <c r="F61" s="82">
+      <c r="F61" s="48">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E61)+1)</f>
-        <v>32</v>
-      </c>
-      <c r="G61" s="81">
+        <v>30</v>
+      </c>
+      <c r="G61" s="47">
         <f>SUMIF(Sales!B:B,A61,Sales!D:D)</f>
         <v>5</v>
       </c>
-      <c r="H61" s="81">
+      <c r="H61" s="47">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G61)+1)</f>
-        <v>32</v>
-      </c>
-      <c r="I61" s="81">
+        <v>30</v>
+      </c>
+      <c r="I61" s="47">
         <f>SUMIF(Prizes!B:B,A61,Prizes!D:D)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="81">
+      <c r="J61" s="47">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I61)+1)</f>
         <v>24</v>
       </c>
-      <c r="K61" s="83">
+      <c r="K61" s="49">
         <f>SUMIF(Sales!B:B,A61,Sales!F:F)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="L61" s="82">
+      <c r="L61" s="48">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K61)+1)</f>
         <v>32</v>
       </c>
-      <c r="M61" s="83">
+      <c r="M61" s="49">
         <f>SQRT(SUMIF(Sales!B:B,A61,Sales!G:G))</f>
         <v>0.44212166625484495</v>
       </c>
-      <c r="N61" s="83">
+      <c r="N61" s="49">
         <f>I61-K61</f>
         <v>-0.20833333333333331</v>
       </c>
-      <c r="O61" s="82">
+      <c r="O61" s="48">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N61)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="P61" s="83">
+        <v>15</v>
+      </c>
+      <c r="P61" s="49">
         <f>N61/M61</f>
         <v>-0.47121267568291292</v>
       </c>
       <c r="Q61" s="10">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P61)+1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R61" s="17">
         <f>IF(I61&gt;K61,1-_xlfn.NORM.DIST(I61,K61,M61,1),_xlfn.NORM.DIST(I61,K61,M61,1))</f>
         <v>0.31874443385238571</v>
       </c>
-      <c r="S61" s="84">
+      <c r="S61" s="50">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R61)+1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T61" s="6">
         <f>E61/K61</f>
@@ -8366,7 +8999,7 @@
       </c>
       <c r="U61" s="10">
         <f>IF($C61=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T61)+1)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -8374,74 +9007,74 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="47">
         <f t="array" ref="D62">MAX(IF(Sales!B:B=A62,Sales!C:C))</f>
         <v>23</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="47">
         <f>SUMIF(Sales!B:B,A62,Sales!E:E)</f>
         <v>100</v>
       </c>
-      <c r="F62" s="82">
+      <c r="F62" s="48">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E62)+1)</f>
         <v>29</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="47">
         <f>SUMIF(Sales!B:B,A62,Sales!D:D)</f>
         <v>10</v>
       </c>
-      <c r="H62" s="81">
+      <c r="H62" s="47">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G62)+1)</f>
         <v>29</v>
       </c>
-      <c r="I62" s="81">
+      <c r="I62" s="47">
         <f>SUMIF(Prizes!B:B,A62,Prizes!D:D)</f>
         <v>1</v>
       </c>
-      <c r="J62" s="81">
+      <c r="J62" s="47">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I62)+1)</f>
         <v>19</v>
       </c>
-      <c r="K62" s="83">
+      <c r="K62" s="49">
         <f>SUMIF(Sales!B:B,A62,Sales!F:F)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="L62" s="82">
+      <c r="L62" s="48">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K62)+1)</f>
         <v>29</v>
       </c>
-      <c r="M62" s="83">
+      <c r="M62" s="49">
         <f>SQRT(SUMIF(Sales!B:B,A62,Sales!G:G))</f>
         <v>0.61683880433171323</v>
       </c>
-      <c r="N62" s="83">
+      <c r="N62" s="49">
         <f>I62-K62</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="O62" s="82">
+      <c r="O62" s="48">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N62)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="P62" s="83">
+        <v>9</v>
+      </c>
+      <c r="P62" s="49">
         <f>N62/M62</f>
         <v>0.94568196623965661</v>
       </c>
       <c r="Q62" s="10">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P62)+1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R62" s="17">
         <f>IF(I62&gt;K62,1-_xlfn.NORM.DIST(I62,K62,M62,1),_xlfn.NORM.DIST(I62,K62,M62,1))</f>
         <v>0.1721554116441345</v>
       </c>
-      <c r="S62" s="84">
+      <c r="S62" s="50">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R62)+1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T62" s="6">
         <f>E62/K62</f>
@@ -8449,7 +9082,256 @@
       </c>
       <c r="U62" s="10">
         <f>IF($C62=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T62)+1)</f>
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="47">
+        <f t="array" ref="D63">MAX(IF(Sales!B:B=A63,Sales!C:C))</f>
+        <v>24</v>
+      </c>
+      <c r="E63" s="47">
+        <f>SUMIF(Sales!B:B,A63,Sales!E:E)</f>
+        <v>50</v>
+      </c>
+      <c r="F63" s="48">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E63)+1)</f>
+        <v>30</v>
+      </c>
+      <c r="G63" s="47">
+        <f>SUMIF(Sales!B:B,A63,Sales!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="H63" s="47">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G63)+1)</f>
+        <v>30</v>
+      </c>
+      <c r="I63" s="47">
+        <f>SUMIF(Prizes!B:B,A63,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="47">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I63)+1)</f>
+        <v>24</v>
+      </c>
+      <c r="K63" s="49">
+        <f>SUMIF(Sales!B:B,A63,Sales!F:F)</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="L63" s="48">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K63)+1)</f>
+        <v>30</v>
+      </c>
+      <c r="M63" s="49">
+        <f>SQRT(SUMIF(Sales!B:B,A63,Sales!G:G))</f>
+        <v>0.51135600150661131</v>
+      </c>
+      <c r="N63" s="49">
+        <f>I63-K63</f>
+        <v>-0.28688524590163933</v>
+      </c>
+      <c r="O63" s="48">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N63)+1)</f>
+        <v>18</v>
+      </c>
+      <c r="P63" s="49">
+        <f>N63/M63</f>
+        <v>-0.5610284128012335</v>
+      </c>
+      <c r="Q63" s="10">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P63)+1)</f>
+        <v>20</v>
+      </c>
+      <c r="R63" s="17">
+        <f>IF(I63&gt;K63,1-_xlfn.NORM.DIST(I63,K63,M63,1),_xlfn.NORM.DIST(I63,K63,M63,1))</f>
+        <v>0.2873890840329536</v>
+      </c>
+      <c r="S63" s="50">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R63)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="T63" s="6">
+        <f>E63/K63</f>
+        <v>174.28571428571431</v>
+      </c>
+      <c r="U63" s="10">
+        <f>IF($C63=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T63)+1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="47">
+        <f t="array" ref="D64">MAX(IF(Sales!B:B=A64,Sales!C:C))</f>
+        <v>24</v>
+      </c>
+      <c r="E64" s="47">
+        <f>SUMIF(Sales!B:B,A64,Sales!E:E)</f>
+        <v>70</v>
+      </c>
+      <c r="F64" s="48" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G64" s="47">
+        <f>SUMIF(Sales!B:B,A64,Sales!D:D)</f>
+        <v>7</v>
+      </c>
+      <c r="H64" s="47" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I64" s="47">
+        <f>SUMIF(Prizes!B:B,A64,Prizes!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="J64" s="47" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K64" s="49">
+        <f>SUMIF(Sales!B:B,A64,Sales!F:F)</f>
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="L64" s="48" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M64" s="49">
+        <f>SQRT(SUMIF(Sales!B:B,A64,Sales!G:G))</f>
+        <v>0.59985096870342769</v>
+      </c>
+      <c r="N64" s="49">
+        <f>I64-K64</f>
+        <v>0.59836065573770492</v>
+      </c>
+      <c r="O64" s="48" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P64" s="49">
+        <f>N64/M64</f>
+        <v>0.99751552795031062</v>
+      </c>
+      <c r="Q64" s="10" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R64" s="17">
+        <f>IF(I64&gt;K64,1-_xlfn.NORM.DIST(I64,K64,M64,1),_xlfn.NORM.DIST(I64,K64,M64,1))</f>
+        <v>0.15925717022701158</v>
+      </c>
+      <c r="S64" s="50" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T64" s="6">
+        <f>E64/K64</f>
+        <v>174.28571428571428</v>
+      </c>
+      <c r="U64" s="10" t="str">
+        <f>IF($C64=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T64)+1)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="47">
+        <f t="array" ref="D65">MAX(IF(Sales!B:B=A65,Sales!C:C))</f>
+        <v>24</v>
+      </c>
+      <c r="E65" s="47">
+        <f>SUMIF(Sales!B:B,A65,Sales!E:E)</f>
+        <v>40</v>
+      </c>
+      <c r="F65" s="48">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E65)+1)</f>
+        <v>32</v>
+      </c>
+      <c r="G65" s="47">
+        <f>SUMIF(Sales!B:B,A65,Sales!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="H65" s="47">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G65)+1)</f>
+        <v>32</v>
+      </c>
+      <c r="I65" s="47">
+        <f>SUMIF(Prizes!B:B,A65,Prizes!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="47">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I65)+1)</f>
+        <v>24</v>
+      </c>
+      <c r="K65" s="49">
+        <f>SUMIF(Sales!B:B,A65,Sales!F:F)</f>
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="L65" s="48">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K65)+1)</f>
+        <v>31</v>
+      </c>
+      <c r="M65" s="49">
+        <f>SQRT(SUMIF(Sales!B:B,A65,Sales!G:G))</f>
+        <v>0.45932112903042449</v>
+      </c>
+      <c r="N65" s="49">
+        <f>I65-K65</f>
+        <v>-0.22950819672131148</v>
+      </c>
+      <c r="O65" s="48">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N65)+1)</f>
+        <v>16</v>
+      </c>
+      <c r="P65" s="49">
+        <f>N65/M65</f>
+        <v>-0.49966827610516767</v>
+      </c>
+      <c r="Q65" s="10">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P65)+1)</f>
+        <v>18</v>
+      </c>
+      <c r="R65" s="17">
+        <f>IF(I65&gt;K65,1-_xlfn.NORM.DIST(I65,K65,M65,1),_xlfn.NORM.DIST(I65,K65,M65,1))</f>
+        <v>0.30865433689119232</v>
+      </c>
+      <c r="S65" s="50">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R65)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="T65" s="6">
+        <f>E65/K65</f>
+        <v>174.28571428571428</v>
+      </c>
+      <c r="U65" s="10">
+        <f>IF($C65=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T65)+1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8463,10 +9345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8488,8 +9370,8 @@
       <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="79" t="s">
-        <v>131</v>
+      <c r="E1" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>21</v>
@@ -9214,13 +10096,44 @@
         <v>240</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUMIFS(Sales!D:D,Sales!C:C,A25)</f>
+        <v>122</v>
+      </c>
+      <c r="E25" s="14">
+        <f>C25*D25</f>
+        <v>1220</v>
+      </c>
+      <c r="F25" s="7">
+        <f>SUMIFS(Prizes!D:D,Prizes!C:C,A25)</f>
+        <v>7</v>
+      </c>
+      <c r="G25" s="3">
+        <f>F25/D25</f>
+        <v>5.737704918032787E-2</v>
+      </c>
+      <c r="H25" s="27">
+        <f>C25*D25/F25</f>
+        <v>174.28571428571428</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H24">
+  <conditionalFormatting sqref="H2:H25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="percentile" val="90"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -9236,10 +10149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L437"/>
+  <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="G435" sqref="G435"/>
+    <sheetView showGridLines="0" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="F444" sqref="F444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9275,7 +10188,7 @@
       </c>
       <c r="K1" s="13">
         <f>SUM(E:E)</f>
-        <v>32900</v>
+        <v>34120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -20051,7 +20964,7 @@
       </c>
       <c r="H400" s="7"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -20078,7 +20991,7 @@
       </c>
       <c r="H401" s="7"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -20105,7 +21018,7 @@
       </c>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -20132,7 +21045,7 @@
       </c>
       <c r="H403" s="7"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -20159,7 +21072,7 @@
       </c>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20186,7 +21099,7 @@
       </c>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20213,7 +21126,7 @@
       </c>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20240,7 +21153,7 @@
       </c>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20267,7 +21180,7 @@
       </c>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20294,7 +21207,7 @@
       </c>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20321,7 +21234,7 @@
       </c>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20348,7 +21261,7 @@
       </c>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20375,7 +21288,7 @@
       </c>
       <c r="H412" s="7"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20402,7 +21315,7 @@
       </c>
       <c r="H413" s="7"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20429,7 +21342,7 @@
       </c>
       <c r="H414" s="7"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20456,7 +21369,7 @@
       </c>
       <c r="H415" s="7"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20481,23 +21394,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C416,Lotteries!A:A,0))*D416/INDEX(Lotteries!D:D,MATCH(C416,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C416,Lotteries!A:A,0))-D416)/INDEX(Lotteries!D:D,MATCH(C416,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C416,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C416,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C416,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H416" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I416,Persons!B:B,0))</f>
-        <v>33</v>
-      </c>
-      <c r="I416" s="2" t="str">
-        <f t="shared" ref="I416:I436" si="0">MID(L416,FIND("""name"": """,L416)+9,FIND("""",L416,FIND("""name"": """,L416)+9)-FIND("""name"": """,L416)-9)</f>
-        <v>Anders A</v>
-      </c>
-      <c r="J416">
-        <f t="shared" ref="J416:J436" si="1">VALUE(MID(L416,FIND("""tickets"": ",L416)+11,MIN(IFERROR(FIND(",",L416,FIND("""tickets"": ",L416)),100),FIND("}",L416,FIND("""tickets"": ",L416)))-FIND("""tickets"": ",L416)-11))</f>
-        <v>10</v>
-      </c>
-      <c r="L416" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H416" s="7"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -20522,23 +21421,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C417,Lotteries!A:A,0))*D417/INDEX(Lotteries!D:D,MATCH(C417,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C417,Lotteries!A:A,0))-D417)/INDEX(Lotteries!D:D,MATCH(C417,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C417,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C417,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C417,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H417" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I417,Persons!B:B,0))</f>
-        <v>35</v>
-      </c>
-      <c r="I417" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Mathias</v>
-      </c>
-      <c r="J417">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L417" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H417" s="7"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -20563,23 +21448,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C418,Lotteries!A:A,0))*D418/INDEX(Lotteries!D:D,MATCH(C418,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C418,Lotteries!A:A,0))-D418)/INDEX(Lotteries!D:D,MATCH(C418,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C418,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C418,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C418,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H418" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I418,Persons!B:B,0))</f>
-        <v>16</v>
-      </c>
-      <c r="I418" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Bjarke</v>
-      </c>
-      <c r="J418">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L418" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H418" s="7"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20604,23 +21475,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C419,Lotteries!A:A,0))*D419/INDEX(Lotteries!D:D,MATCH(C419,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C419,Lotteries!A:A,0))-D419)/INDEX(Lotteries!D:D,MATCH(C419,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C419,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C419,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C419,Lotteries!A:A,0))-1)</f>
         <v>0.27073334787667247</v>
       </c>
-      <c r="H419" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I419,Persons!B:B,0))</f>
-        <v>17</v>
-      </c>
-      <c r="I419" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Hanne</v>
-      </c>
-      <c r="J419">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L419" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H419" s="7"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20645,23 +21502,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C420,Lotteries!A:A,0))*D420/INDEX(Lotteries!D:D,MATCH(C420,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C420,Lotteries!A:A,0))-D420)/INDEX(Lotteries!D:D,MATCH(C420,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C420,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C420,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C420,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H420" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I420,Persons!B:B,0))</f>
-        <v>41</v>
-      </c>
-      <c r="I420" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ruben B</v>
-      </c>
-      <c r="J420">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L420" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H420" s="7"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20686,23 +21529,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C421,Lotteries!A:A,0))*D421/INDEX(Lotteries!D:D,MATCH(C421,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C421,Lotteries!A:A,0))-D421)/INDEX(Lotteries!D:D,MATCH(C421,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C421,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C421,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C421,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H421" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I421,Persons!B:B,0))</f>
-        <v>43</v>
-      </c>
-      <c r="I421" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Andreas</v>
-      </c>
-      <c r="J421">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L421" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H421" s="7"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20727,23 +21556,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C422,Lotteries!A:A,0))*D422/INDEX(Lotteries!D:D,MATCH(C422,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C422,Lotteries!A:A,0))-D422)/INDEX(Lotteries!D:D,MATCH(C422,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C422,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C422,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C422,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H422" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I422,Persons!B:B,0))</f>
-        <v>14</v>
-      </c>
-      <c r="I422" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Truls</v>
-      </c>
-      <c r="J422">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L422" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H422" s="7"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20768,23 +21583,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C423,Lotteries!A:A,0))*D423/INDEX(Lotteries!D:D,MATCH(C423,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C423,Lotteries!A:A,0))-D423)/INDEX(Lotteries!D:D,MATCH(C423,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C423,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C423,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C423,Lotteries!A:A,0))-1)</f>
         <v>0.23331151832460734</v>
       </c>
-      <c r="H423" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I423,Persons!B:B,0))</f>
-        <v>46</v>
-      </c>
-      <c r="I423" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ciaran</v>
-      </c>
-      <c r="J423">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L423" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H423" s="7"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -20809,23 +21610,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C424,Lotteries!A:A,0))*D424/INDEX(Lotteries!D:D,MATCH(C424,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C424,Lotteries!A:A,0))-D424)/INDEX(Lotteries!D:D,MATCH(C424,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C424,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C424,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C424,Lotteries!A:A,0))-1)</f>
         <v>0.15721349621873182</v>
       </c>
-      <c r="H424" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I424,Persons!B:B,0))</f>
-        <v>58</v>
-      </c>
-      <c r="I424" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Eli</v>
-      </c>
-      <c r="J424">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L424" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H424" s="7"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -20850,23 +21637,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C425,Lotteries!A:A,0))*D425/INDEX(Lotteries!D:D,MATCH(C425,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C425,Lotteries!A:A,0))-D425)/INDEX(Lotteries!D:D,MATCH(C425,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C425,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C425,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C425,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H425" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I425,Persons!B:B,0))</f>
-        <v>36</v>
-      </c>
-      <c r="I425" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ingvild</v>
-      </c>
-      <c r="J425">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L425" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H425" s="7"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -20891,23 +21664,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C426,Lotteries!A:A,0))*D426/INDEX(Lotteries!D:D,MATCH(C426,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C426,Lotteries!A:A,0))-D426)/INDEX(Lotteries!D:D,MATCH(C426,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C426,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C426,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C426,Lotteries!A:A,0))-1)</f>
         <v>0.23331151832460734</v>
       </c>
-      <c r="H426" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I426,Persons!B:B,0))</f>
-        <v>57</v>
-      </c>
-      <c r="I426" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Helga</v>
-      </c>
-      <c r="J426">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L426" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H426" s="7"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -20932,23 +21691,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C427,Lotteries!A:A,0))*D427/INDEX(Lotteries!D:D,MATCH(C427,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C427,Lotteries!A:A,0))-D427)/INDEX(Lotteries!D:D,MATCH(C427,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C427,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C427,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C427,Lotteries!A:A,0))-1)</f>
         <v>0.11853730366492146</v>
       </c>
-      <c r="H427" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I427,Persons!B:B,0))</f>
-        <v>56</v>
-      </c>
-      <c r="I427" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sivert</v>
-      </c>
-      <c r="J427">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L427" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H427" s="7"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -20973,23 +21718,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C428,Lotteries!A:A,0))*D428/INDEX(Lotteries!D:D,MATCH(C428,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C428,Lotteries!A:A,0))-D428)/INDEX(Lotteries!D:D,MATCH(C428,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C428,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C428,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C428,Lotteries!A:A,0))-1)</f>
         <v>1.4843295520651545</v>
       </c>
-      <c r="H428" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I428,Persons!B:B,0))</f>
-        <v>52</v>
-      </c>
-      <c r="I428" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Anders Sz</v>
-      </c>
-      <c r="J428">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="L428" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H428" s="7"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21014,23 +21745,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C429,Lotteries!A:A,0))*D429/INDEX(Lotteries!D:D,MATCH(C429,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C429,Lotteries!A:A,0))-D429)/INDEX(Lotteries!D:D,MATCH(C429,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C429,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C429,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C429,Lotteries!A:A,0))-1)</f>
         <v>0.23331151832460734</v>
       </c>
-      <c r="H429" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I429,Persons!B:B,0))</f>
-        <v>34</v>
-      </c>
-      <c r="I429" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Asgeir</v>
-      </c>
-      <c r="J429">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L429" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H429" s="7"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21055,23 +21772,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C430,Lotteries!A:A,0))*D430/INDEX(Lotteries!D:D,MATCH(C430,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C430,Lotteries!A:A,0))-D430)/INDEX(Lotteries!D:D,MATCH(C430,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C430,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C430,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C430,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H430" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I430,Persons!B:B,0))</f>
-        <v>59</v>
-      </c>
-      <c r="I430" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Jøran</v>
-      </c>
-      <c r="J430">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L430" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H430" s="7"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -21096,23 +21799,9 @@
         <f>INDEX(Lotteries!F:F,MATCH(C431,Lotteries!A:A,0))*D431/INDEX(Lotteries!D:D,MATCH(C431,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C431,Lotteries!A:A,0))-D431)/INDEX(Lotteries!D:D,MATCH(C431,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C431,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C431,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C431,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H431" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I431,Persons!B:B,0))</f>
-        <v>44</v>
-      </c>
-      <c r="I431" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Jan</v>
-      </c>
-      <c r="J431">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L431" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H431" s="7"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -21137,21 +21826,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C432,Lotteries!A:A,0))*D432/INDEX(Lotteries!D:D,MATCH(C432,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C432,Lotteries!A:A,0))-D432)/INDEX(Lotteries!D:D,MATCH(C432,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C432,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C432,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C432,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H432" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I432,Persons!B:B,0))</f>
-        <v>32</v>
-      </c>
-      <c r="I432" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Martin</v>
-      </c>
-      <c r="J432">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L432" t="s">
-        <v>155</v>
-      </c>
+      <c r="H432" s="7"/>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
@@ -21178,21 +21853,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C433,Lotteries!A:A,0))*D433/INDEX(Lotteries!D:D,MATCH(C433,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C433,Lotteries!A:A,0))-D433)/INDEX(Lotteries!D:D,MATCH(C433,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C433,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C433,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C433,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H433" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I433,Persons!B:B,0))</f>
-        <v>29</v>
-      </c>
-      <c r="I433" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Magnus B</v>
-      </c>
-      <c r="J433">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L433" t="s">
-        <v>156</v>
-      </c>
+      <c r="H433" s="7"/>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
@@ -21219,21 +21880,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C434,Lotteries!A:A,0))*D434/INDEX(Lotteries!D:D,MATCH(C434,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C434,Lotteries!A:A,0))-D434)/INDEX(Lotteries!D:D,MATCH(C434,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C434,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C434,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C434,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H434" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I434,Persons!B:B,0))</f>
-        <v>10</v>
-      </c>
-      <c r="I434" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Odd</v>
-      </c>
-      <c r="J434">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L434" t="s">
-        <v>141</v>
-      </c>
+      <c r="H434" s="7"/>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
@@ -21260,20 +21907,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C435,Lotteries!A:A,0))*D435/INDEX(Lotteries!D:D,MATCH(C435,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C435,Lotteries!A:A,0))-D435)/INDEX(Lotteries!D:D,MATCH(C435,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C435,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C435,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C435,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H435" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I435,Persons!B:B,0))</f>
-        <v>27</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J435">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L435" t="s">
-        <v>157</v>
-      </c>
+      <c r="H435" s="7"/>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
@@ -21300,21 +21934,7 @@
         <f>INDEX(Lotteries!F:F,MATCH(C436,Lotteries!A:A,0))*D436/INDEX(Lotteries!D:D,MATCH(C436,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C436,Lotteries!A:A,0))-D436)/INDEX(Lotteries!D:D,MATCH(C436,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C436,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C436,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C436,Lotteries!A:A,0))-1)</f>
         <v>0.38049011052937765</v>
       </c>
-      <c r="H436" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I436,Persons!B:B,0))</f>
-        <v>60</v>
-      </c>
-      <c r="I436" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Kristin G</v>
-      </c>
-      <c r="J436">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L436" t="s">
-        <v>158</v>
-      </c>
+      <c r="H436" s="7"/>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
@@ -21341,19 +21961,703 @@
         <f>INDEX(Lotteries!F:F,MATCH(C437,Lotteries!A:A,0))*D437/INDEX(Lotteries!D:D,MATCH(C437,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C437,Lotteries!A:A,0))-D437)/INDEX(Lotteries!D:D,MATCH(C437,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C437,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C437,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C437,Lotteries!A:A,0))-1)</f>
         <v>0.19547156777196048</v>
       </c>
-      <c r="H437" s="7">
-        <f>INDEX(Persons!A:A,MATCH(Sales!I437,Persons!B:B,0))</f>
+      <c r="H437" s="7"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>53</v>
+      </c>
+      <c r="C438" s="11">
+        <v>24</v>
+      </c>
+      <c r="D438">
+        <v>10</v>
+      </c>
+      <c r="E438" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C438,Lotteries!A:A,0))*D438</f>
+        <v>100</v>
+      </c>
+      <c r="F438" s="3">
+        <f>D438*INDEX(Lotteries!G:G,MATCH(C438,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G438" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C438,Lotteries!A:A,0))*D438/INDEX(Lotteries!D:D,MATCH(C438,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C438,Lotteries!A:A,0))-D438)/INDEX(Lotteries!D:D,MATCH(C438,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C438,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C438,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C438,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H438" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I438,Persons!B:B,0))</f>
+        <v>53</v>
+      </c>
+      <c r="I438" s="2" t="str">
+        <f t="shared" ref="I438:I454" si="0">MID(L438,FIND("""name"": """,L438)+9,FIND("""",L438,FIND("""name"": """,L438)+9)-FIND("""name"": """,L438)-9)</f>
+        <v>Sondre</v>
+      </c>
+      <c r="J438">
+        <f t="shared" ref="J438:J454" si="1">VALUE(MID(L438,FIND("""tickets"": ",L438)+11,MIN(IFERROR(FIND(",",L438,FIND("""tickets"": ",L438)),100),FIND("}",L438,FIND("""tickets"": ",L438)))-FIND("""tickets"": ",L438)-11))</f>
+        <v>10</v>
+      </c>
+      <c r="L438" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>37</v>
+      </c>
+      <c r="C439" s="11">
+        <v>24</v>
+      </c>
+      <c r="D439">
+        <v>10</v>
+      </c>
+      <c r="E439" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C439,Lotteries!A:A,0))*D439</f>
+        <v>100</v>
+      </c>
+      <c r="F439" s="3">
+        <f>D439*INDEX(Lotteries!G:G,MATCH(C439,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G439" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C439,Lotteries!A:A,0))*D439/INDEX(Lotteries!D:D,MATCH(C439,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C439,Lotteries!A:A,0))-D439)/INDEX(Lotteries!D:D,MATCH(C439,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C439,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C439,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C439,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H439" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I439,Persons!B:B,0))</f>
+        <v>37</v>
+      </c>
+      <c r="I439" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruben O</v>
+      </c>
+      <c r="J439">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L439" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>35</v>
+      </c>
+      <c r="C440" s="11">
+        <v>24</v>
+      </c>
+      <c r="D440">
+        <v>5</v>
+      </c>
+      <c r="E440" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C440,Lotteries!A:A,0))*D440</f>
+        <v>50</v>
+      </c>
+      <c r="F440" s="3">
+        <f>D440*INDEX(Lotteries!G:G,MATCH(C440,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G440" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C440,Lotteries!A:A,0))*D440/INDEX(Lotteries!D:D,MATCH(C440,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C440,Lotteries!A:A,0))-D440)/INDEX(Lotteries!D:D,MATCH(C440,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C440,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C440,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C440,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H440" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I440,Persons!B:B,0))</f>
+        <v>35</v>
+      </c>
+      <c r="I440" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mathias</v>
+      </c>
+      <c r="J440">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L440" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>15</v>
+      </c>
+      <c r="C441" s="11">
+        <v>24</v>
+      </c>
+      <c r="D441">
+        <v>6</v>
+      </c>
+      <c r="E441" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C441,Lotteries!A:A,0))*D441</f>
+        <v>60</v>
+      </c>
+      <c r="F441" s="3">
+        <f>D441*INDEX(Lotteries!G:G,MATCH(C441,Lotteries!A:A,0))</f>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="G441" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C441,Lotteries!A:A,0))*D441/INDEX(Lotteries!D:D,MATCH(C441,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C441,Lotteries!A:A,0))-D441)/INDEX(Lotteries!D:D,MATCH(C441,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C441,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C441,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C441,Lotteries!A:A,0))-1)</f>
+        <v>0.31110005530371515</v>
+      </c>
+      <c r="H441" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I441,Persons!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="I441" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Yngvar</v>
+      </c>
+      <c r="J441">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L441" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
         <v>54</v>
       </c>
-      <c r="I437" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J437">
-        <f t="shared" ref="J437" si="2">VALUE(MID(L437,FIND("""tickets"": ",L437)+11,MIN(IFERROR(FIND(",",L437,FIND("""tickets"": ",L437)),100),FIND("}",L437,FIND("""tickets"": ",L437)))-FIND("""tickets"": ",L437)-11))</f>
-        <v>5</v>
-      </c>
-      <c r="L437" t="s">
-        <v>159</v>
+      <c r="C442" s="11">
+        <v>24</v>
+      </c>
+      <c r="D442">
+        <v>5</v>
+      </c>
+      <c r="E442" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C442,Lotteries!A:A,0))*D442</f>
+        <v>50</v>
+      </c>
+      <c r="F442" s="3">
+        <f>D442*INDEX(Lotteries!G:G,MATCH(C442,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G442" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C442,Lotteries!A:A,0))*D442/INDEX(Lotteries!D:D,MATCH(C442,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C442,Lotteries!A:A,0))-D442)/INDEX(Lotteries!D:D,MATCH(C442,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C442,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C442,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C442,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H442" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I442,Persons!B:B,0))</f>
+        <v>54</v>
+      </c>
+      <c r="I442" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Morten S</v>
+      </c>
+      <c r="J442">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L442" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>33</v>
+      </c>
+      <c r="C443" s="11">
+        <v>24</v>
+      </c>
+      <c r="D443">
+        <v>10</v>
+      </c>
+      <c r="E443" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C443,Lotteries!A:A,0))*D443</f>
+        <v>100</v>
+      </c>
+      <c r="F443" s="3">
+        <f>D443*INDEX(Lotteries!G:G,MATCH(C443,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G443" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C443,Lotteries!A:A,0))*D443/INDEX(Lotteries!D:D,MATCH(C443,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C443,Lotteries!A:A,0))-D443)/INDEX(Lotteries!D:D,MATCH(C443,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C443,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C443,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C443,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H443" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I443,Persons!B:B,0))</f>
+        <v>33</v>
+      </c>
+      <c r="I443" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Anders A</v>
+      </c>
+      <c r="J443">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L443" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>10</v>
+      </c>
+      <c r="C444" s="11">
+        <v>24</v>
+      </c>
+      <c r="D444">
+        <v>10</v>
+      </c>
+      <c r="E444" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C444,Lotteries!A:A,0))*D444</f>
+        <v>100</v>
+      </c>
+      <c r="F444" s="3">
+        <f>D444*INDEX(Lotteries!G:G,MATCH(C444,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G444" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C444,Lotteries!A:A,0))*D444/INDEX(Lotteries!D:D,MATCH(C444,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C444,Lotteries!A:A,0))-D444)/INDEX(Lotteries!D:D,MATCH(C444,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C444,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C444,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C444,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H444" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I444,Persons!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="I444" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Odd</v>
+      </c>
+      <c r="J444">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L444" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>34</v>
+      </c>
+      <c r="C445" s="11">
+        <v>24</v>
+      </c>
+      <c r="D445">
+        <v>5</v>
+      </c>
+      <c r="E445" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C445,Lotteries!A:A,0))*D445</f>
+        <v>50</v>
+      </c>
+      <c r="F445" s="3">
+        <f>D445*INDEX(Lotteries!G:G,MATCH(C445,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G445" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C445,Lotteries!A:A,0))*D445/INDEX(Lotteries!D:D,MATCH(C445,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C445,Lotteries!A:A,0))-D445)/INDEX(Lotteries!D:D,MATCH(C445,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C445,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C445,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C445,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H445" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I445,Persons!B:B,0))</f>
+        <v>34</v>
+      </c>
+      <c r="I445" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Asgeir</v>
+      </c>
+      <c r="J445">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L445" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>44</v>
+      </c>
+      <c r="C446" s="11">
+        <v>24</v>
+      </c>
+      <c r="D446">
+        <v>10</v>
+      </c>
+      <c r="E446" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C446,Lotteries!A:A,0))*D446</f>
+        <v>100</v>
+      </c>
+      <c r="F446" s="3">
+        <f>D446*INDEX(Lotteries!G:G,MATCH(C446,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G446" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C446,Lotteries!A:A,0))*D446/INDEX(Lotteries!D:D,MATCH(C446,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C446,Lotteries!A:A,0))-D446)/INDEX(Lotteries!D:D,MATCH(C446,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C446,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C446,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C446,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H446" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I446,Persons!B:B,0))</f>
+        <v>44</v>
+      </c>
+      <c r="I446" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jan</v>
+      </c>
+      <c r="J446">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L446" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>11</v>
+      </c>
+      <c r="C447" s="11">
+        <v>24</v>
+      </c>
+      <c r="D447">
+        <v>5</v>
+      </c>
+      <c r="E447" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C447,Lotteries!A:A,0))*D447</f>
+        <v>50</v>
+      </c>
+      <c r="F447" s="3">
+        <f>D447*INDEX(Lotteries!G:G,MATCH(C447,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G447" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C447,Lotteries!A:A,0))*D447/INDEX(Lotteries!D:D,MATCH(C447,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C447,Lotteries!A:A,0))-D447)/INDEX(Lotteries!D:D,MATCH(C447,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C447,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C447,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C447,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H447" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I447,Persons!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="I447" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Stein</v>
+      </c>
+      <c r="J447">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L447" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>61</v>
+      </c>
+      <c r="C448" s="11">
+        <v>24</v>
+      </c>
+      <c r="D448">
+        <v>5</v>
+      </c>
+      <c r="E448" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C448,Lotteries!A:A,0))*D448</f>
+        <v>50</v>
+      </c>
+      <c r="F448" s="3">
+        <f>D448*INDEX(Lotteries!G:G,MATCH(C448,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G448" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C448,Lotteries!A:A,0))*D448/INDEX(Lotteries!D:D,MATCH(C448,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C448,Lotteries!A:A,0))-D448)/INDEX(Lotteries!D:D,MATCH(C448,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C448,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C448,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C448,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H448" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I448,Persons!B:B,0))</f>
+        <v>61</v>
+      </c>
+      <c r="I448" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tone</v>
+      </c>
+      <c r="J448">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L448" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>48</v>
+      </c>
+      <c r="C449" s="11">
+        <v>24</v>
+      </c>
+      <c r="D449">
+        <v>10</v>
+      </c>
+      <c r="E449" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C449,Lotteries!A:A,0))*D449</f>
+        <v>100</v>
+      </c>
+      <c r="F449" s="3">
+        <f>D449*INDEX(Lotteries!G:G,MATCH(C449,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G449" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C449,Lotteries!A:A,0))*D449/INDEX(Lotteries!D:D,MATCH(C449,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C449,Lotteries!A:A,0))-D449)/INDEX(Lotteries!D:D,MATCH(C449,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C449,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C449,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C449,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H449" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I449,Persons!B:B,0))</f>
+        <v>48</v>
+      </c>
+      <c r="I449" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ivan</v>
+      </c>
+      <c r="J449">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L449" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>62</v>
+      </c>
+      <c r="C450" s="11">
+        <v>24</v>
+      </c>
+      <c r="D450">
+        <v>7</v>
+      </c>
+      <c r="E450" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C450,Lotteries!A:A,0))*D450</f>
+        <v>70</v>
+      </c>
+      <c r="F450" s="3">
+        <f>D450*INDEX(Lotteries!G:G,MATCH(C450,Lotteries!A:A,0))</f>
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="G450" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C450,Lotteries!A:A,0))*D450/INDEX(Lotteries!D:D,MATCH(C450,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C450,Lotteries!A:A,0))-D450)/INDEX(Lotteries!D:D,MATCH(C450,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C450,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C450,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C450,Lotteries!A:A,0))-1)</f>
+        <v>0.35982118465444063</v>
+      </c>
+      <c r="H450" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I450,Persons!B:B,0))</f>
+        <v>62</v>
+      </c>
+      <c r="I450" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Payam</v>
+      </c>
+      <c r="J450">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L450" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>43</v>
+      </c>
+      <c r="C451" s="11">
+        <v>24</v>
+      </c>
+      <c r="D451">
+        <v>5</v>
+      </c>
+      <c r="E451" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C451,Lotteries!A:A,0))*D451</f>
+        <v>50</v>
+      </c>
+      <c r="F451" s="3">
+        <f>D451*INDEX(Lotteries!G:G,MATCH(C451,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G451" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C451,Lotteries!A:A,0))*D451/INDEX(Lotteries!D:D,MATCH(C451,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C451,Lotteries!A:A,0))-D451)/INDEX(Lotteries!D:D,MATCH(C451,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C451,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C451,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C451,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H451" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I451,Persons!B:B,0))</f>
+        <v>43</v>
+      </c>
+      <c r="I451" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Andreas</v>
+      </c>
+      <c r="J451">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L451" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>63</v>
+      </c>
+      <c r="C452" s="11">
+        <v>24</v>
+      </c>
+      <c r="D452">
+        <v>4</v>
+      </c>
+      <c r="E452" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C452,Lotteries!A:A,0))*D452</f>
+        <v>40</v>
+      </c>
+      <c r="F452" s="3">
+        <f>D452*INDEX(Lotteries!G:G,MATCH(C452,Lotteries!A:A,0))</f>
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="G452" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C452,Lotteries!A:A,0))*D452/INDEX(Lotteries!D:D,MATCH(C452,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C452,Lotteries!A:A,0))-D452)/INDEX(Lotteries!D:D,MATCH(C452,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C452,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C452,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C452,Lotteries!A:A,0))-1)</f>
+        <v>0.21097589957378385</v>
+      </c>
+      <c r="H452" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I452,Persons!B:B,0))</f>
+        <v>63</v>
+      </c>
+      <c r="I452" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Håkon</v>
+      </c>
+      <c r="J452">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L452" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>41</v>
+      </c>
+      <c r="C453" s="11">
+        <v>24</v>
+      </c>
+      <c r="D453">
+        <v>5</v>
+      </c>
+      <c r="E453" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C453,Lotteries!A:A,0))*D453</f>
+        <v>50</v>
+      </c>
+      <c r="F453" s="3">
+        <f>D453*INDEX(Lotteries!G:G,MATCH(C453,Lotteries!A:A,0))</f>
+        <v>0.28688524590163933</v>
+      </c>
+      <c r="G453" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C453,Lotteries!A:A,0))*D453/INDEX(Lotteries!D:D,MATCH(C453,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C453,Lotteries!A:A,0))-D453)/INDEX(Lotteries!D:D,MATCH(C453,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C453,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C453,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C453,Lotteries!A:A,0))-1)</f>
+        <v>0.26148496027682949</v>
+      </c>
+      <c r="H453" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I453,Persons!B:B,0))</f>
+        <v>41</v>
+      </c>
+      <c r="I453" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruben B</v>
+      </c>
+      <c r="J453">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L453" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>29</v>
+      </c>
+      <c r="C454" s="11">
+        <v>24</v>
+      </c>
+      <c r="D454">
+        <v>10</v>
+      </c>
+      <c r="E454" s="7">
+        <f>INDEX(Lotteries!C:C,MATCH(C454,Lotteries!A:A,0))*D454</f>
+        <v>100</v>
+      </c>
+      <c r="F454" s="3">
+        <f>D454*INDEX(Lotteries!G:G,MATCH(C454,Lotteries!A:A,0))</f>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="G454" s="3">
+        <f>INDEX(Lotteries!F:F,MATCH(C454,Lotteries!A:A,0))*D454/INDEX(Lotteries!D:D,MATCH(C454,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C454,Lotteries!A:A,0))-D454)/INDEX(Lotteries!D:D,MATCH(C454,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C454,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C454,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C454,Lotteries!A:A,0))-1)</f>
+        <v>0.50062077864965648</v>
+      </c>
+      <c r="H454" s="7">
+        <f>INDEX(Persons!A:A,MATCH(Sales!I454,Persons!B:B,0))</f>
+        <v>29</v>
+      </c>
+      <c r="I454" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Magnus B</v>
+      </c>
+      <c r="J454">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L454" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -21367,10 +22671,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView showGridLines="0" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21397,7 +22701,7 @@
       </c>
       <c r="H1">
         <f>SUM(D:D)</f>
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -22954,7 +24258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22968,7 +24272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22982,7 +24286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -22996,7 +24300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -23010,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -23024,7 +24328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -23038,7 +24342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -23052,7 +24356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -23066,7 +24370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -23080,7 +24384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -23094,7 +24398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -23107,23 +24411,8 @@
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F123,Persons!B:B,0))</f>
-        <v>33</v>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" ref="F123:F128" si="0">MID(I123,FIND("""name"": """,I123)+9,FIND("""",I123,FIND("""name"": """,I123)+9)-FIND("""name"": """,I123)-9)</f>
-        <v>Anders A</v>
-      </c>
-      <c r="G123">
-        <f t="shared" ref="G123" si="1">VALUE(MID(I123,FIND("""prizes"": ",I123)+10,FIND("}",I123,FIND("""prizes"": ",I123))-FIND("""prizes"": ",I123)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -23136,23 +24425,8 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F124,Persons!B:B,0))</f>
-        <v>46</v>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f>MID(I124,FIND("""name"": """,I124)+9,FIND("""",I124,FIND("""name"": """,I124)+9)-FIND("""name"": """,I124)-9)</f>
-        <v>Ciaran</v>
-      </c>
-      <c r="G124">
-        <f>VALUE(MID(I124,FIND("""prizes"": ",I124)+10,FIND("}",I124,FIND("""prizes"": ",I124))-FIND("""prizes"": ",I124)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -23165,23 +24439,8 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F125,Persons!B:B,0))</f>
-        <v>36</v>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f>MID(I125,FIND("""name"": """,I125)+9,FIND("""",I125,FIND("""name"": """,I125)+9)-FIND("""name"": """,I125)-9)</f>
-        <v>Ingvild</v>
-      </c>
-      <c r="G125">
-        <f>VALUE(MID(I125,FIND("""prizes"": ",I125)+10,FIND("}",I125,FIND("""prizes"": ",I125))-FIND("""prizes"": ",I125)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -23194,23 +24453,8 @@
       <c r="D126">
         <v>3</v>
       </c>
-      <c r="E126">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F126,Persons!B:B,0))</f>
-        <v>52</v>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f>MID(I126,FIND("""name"": """,I126)+9,FIND("""",I126,FIND("""name"": """,I126)+9)-FIND("""name"": """,I126)-9)</f>
-        <v>Anders Sz</v>
-      </c>
-      <c r="G126">
-        <f>VALUE(MID(I126,FIND("""prizes"": ",I126)+10,FIND("}",I126,FIND("""prizes"": ",I126))-FIND("""prizes"": ",I126)-10))</f>
-        <v>3</v>
-      </c>
-      <c r="I126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -23223,23 +24467,8 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F127,Persons!B:B,0))</f>
-        <v>60</v>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f>MID(I127,FIND("""name"": """,I127)+9,FIND("""",I127,FIND("""name"": """,I127)+9)-FIND("""name"": """,I127)-9)</f>
-        <v>Kristin G</v>
-      </c>
-      <c r="G127">
-        <f>VALUE(MID(I127,FIND("""prizes"": ",I127)+10,FIND("}",I127,FIND("""prizes"": ",I127))-FIND("""prizes"": ",I127)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -23252,20 +24481,179 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128">
-        <f>INDEX(Persons!A:A,MATCH(Prizes!F128,Persons!B:B,0))</f>
-        <v>54</v>
-      </c>
-      <c r="F128" s="2" t="str">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>53</v>
+      </c>
+      <c r="C129">
+        <v>24</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F129,Persons!B:B,0))</f>
+        <v>53</v>
+      </c>
+      <c r="F129" s="2" t="str">
+        <f t="shared" ref="F129:F134" si="0">MID(I129,FIND("""name"": """,I129)+9,FIND("""",I129,FIND("""name"": """,I129)+9)-FIND("""name"": """,I129)-9)</f>
+        <v>Sondre</v>
+      </c>
+      <c r="G129">
+        <f t="shared" ref="G129:G134" si="1">VALUE(MID(I129,FIND("""prizes"": ",I129)+10,FIND("}",I129,FIND("""prizes"": ",I129))-FIND("""prizes"": ",I129)-10))</f>
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>37</v>
+      </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F130,Persons!B:B,0))</f>
+        <v>37</v>
+      </c>
+      <c r="F130" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Morten S</v>
-      </c>
-      <c r="G128">
-        <f>VALUE(MID(I128,FIND("""prizes"": ",I128)+10,FIND("}",I128,FIND("""prizes"": ",I128))-FIND("""prizes"": ",I128)-10))</f>
-        <v>1</v>
-      </c>
-      <c r="I128" t="s">
-        <v>164</v>
+        <v>Ruben O</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F131,Persons!B:B,0))</f>
+        <v>34</v>
+      </c>
+      <c r="F131" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Asgeir</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>44</v>
+      </c>
+      <c r="C132">
+        <v>24</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F132,Persons!B:B,0))</f>
+        <v>44</v>
+      </c>
+      <c r="F132" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jan</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>62</v>
+      </c>
+      <c r="C133">
+        <v>24</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F133,Persons!B:B,0))</f>
+        <v>62</v>
+      </c>
+      <c r="F133" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Payam</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>43</v>
+      </c>
+      <c r="C134">
+        <v>24</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <f>INDEX(Persons!A:A,MATCH(Prizes!F134,Persons!B:B,0))</f>
+        <v>43</v>
+      </c>
+      <c r="F134" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Andreas</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -23278,10 +24666,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23306,7 +24694,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>86</v>
@@ -23317,7 +24705,7 @@
       </c>
       <c r="H1" s="12">
         <f>SUM(D:D)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -23503,7 +24891,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -23614,6 +25002,20 @@
       </c>
       <c r="D20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23630,7 +25032,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23660,7 +25062,7 @@
       </c>
       <c r="C3" s="13">
         <f>Sales!K1</f>
-        <v>32900</v>
+        <v>34120</v>
       </c>
       <c r="I3" t="s">
         <v>93</v>
@@ -23697,10 +25099,10 @@
       </c>
       <c r="G5" s="12">
         <f>Purchases!H1</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="13">
         <v>5</v>
@@ -23719,7 +25121,7 @@
       </c>
       <c r="G6" s="25">
         <f>-Prizes!H1</f>
-        <v>-142</v>
+        <v>-149</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -23730,14 +25132,14 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(C2:C6)</f>
-        <v>2483.8499999999985</v>
+        <v>3703.8499999999985</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>89</v>
       </c>
       <c r="G7" s="26">
         <f>SUM(G2:G6)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>95</v>
@@ -23748,7 +25150,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="80"/>
+      <c r="C10" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460C98C-8923-4F6A-982A-D63195FA71CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -21,22 +22,31 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Persons[#All]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Top 5'!$B$2:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -894,11 +904,14 @@
   <si>
     <t>OB 5300704</t>
   </si>
+  <si>
+    <t>Renter 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1904,67 +1917,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Persons" displayName="Persons" ref="A1:U65" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:U65"/>
-  <sortState ref="A2:U65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Persons" displayName="Persons" ref="A1:U65" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:U65" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U65">
     <sortCondition descending="1" ref="P1:P65"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="id" dataDxfId="38"/>
-    <tableColumn id="2" name="name" dataDxfId="37"/>
-    <tableColumn id="3" name="stats?" dataDxfId="36"/>
-    <tableColumn id="20" name="last lottery" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="stats?" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="last lottery" dataDxfId="35">
       <calculatedColumnFormula array="1">MAX(IF(Sales!B:B=A2,Sales!C:C))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="cost" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="cost" dataDxfId="34">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="#cost" dataDxfId="33">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="#cost" dataDxfId="33">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="tickets" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="tickets" dataDxfId="32">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="#tickets" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="#tickets" dataDxfId="31">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="prizes" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="prizes" dataDxfId="30">
       <calculatedColumnFormula>SUMIF(Prizes!B:B,A2,Prizes!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="#prizes" dataDxfId="29">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="#prizes" dataDxfId="29">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="μ" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="μ" dataDxfId="28">
       <calculatedColumnFormula>SUMIF(Sales!B:B,A2,Sales!F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="#μ" dataDxfId="27">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="#μ" dataDxfId="27">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="σ" dataDxfId="26">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="σ" dataDxfId="26">
       <calculatedColumnFormula>SQRT(SUMIF(Sales!B:B,A2,Sales!G:G))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="prizes - µ" dataDxfId="25">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="prizes - µ" dataDxfId="25">
       <calculatedColumnFormula>I2-K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="#prizes - µ" dataDxfId="24">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="#prizes - µ" dataDxfId="24">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Nσ" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nσ" dataDxfId="23">
       <calculatedColumnFormula>N2/M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="#Nσ" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="#Nσ" dataDxfId="22">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="P" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="P" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="#P" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="#P" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="cost/μ" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="cost/μ" dataDxfId="19">
       <calculatedColumnFormula>E2/K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="#investor" dataDxfId="18">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="#investor" dataDxfId="18">
       <calculatedColumnFormula>IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1973,8 +1986,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Lotteries" displayName="Lotteries" ref="A1:H26">
-  <autoFilter ref="A1:H26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Lotteries" displayName="Lotteries" ref="A1:H26">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1985,22 +1998,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="date" dataDxfId="17"/>
-    <tableColumn id="4" name="cost" dataDxfId="16"/>
-    <tableColumn id="3" name="sales" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="date" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="cost" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sales" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS(Sales!D:D,Sales!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="income" dataDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="income" dataDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="prizes" totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="prizes" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Prizes!D:D,Prizes!C:C,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ/ticket" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="µ/ticket" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="cost/µ" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="cost/µ" dataDxfId="10">
       <calculatedColumnFormula>C2*D2/F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2009,20 +2022,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Sales" displayName="Sales" ref="A1:G479" totalsRowShown="0">
-  <autoFilter ref="A1:G479"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Sales" displayName="Sales" ref="A1:G479" totalsRowShown="0">
+  <autoFilter ref="A1:G479" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="tickets"/>
-    <tableColumn id="5" name="cost" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="person_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="lottery_id" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="tickets"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="cost" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>INDEX(Lotteries!C:C,MATCH(C2,Lotteries!A:A,0))*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="µ" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="µ" dataDxfId="5">
       <calculatedColumnFormula>D2*INDEX(Lotteries!G:G,MATCH(C2,Lotteries!A:A,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="σ2" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="σ2" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0))*D2/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-D2)/INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))*(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-INDEX(Lotteries!F:F,MATCH(C2,Lotteries!A:A,0)))/(INDEX(Lotteries!D:D,MATCH(C2,Lotteries!A:A,0))-1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2031,26 +2044,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Prizes" displayName="Prizes" ref="A1:D139" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Prizes" displayName="Prizes" ref="A1:D139" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D139" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="person_id"/>
-    <tableColumn id="3" name="lottery_id"/>
-    <tableColumn id="4" name="prizes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="person_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="lottery_id"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="prizes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E22" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2058,11 +2071,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="date" dataDxfId="1"/>
-    <tableColumn id="4" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="prizes"/>
-    <tableColumn id="5" name="faktura"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="cost" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="prizes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="faktura"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2330,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5855,14 +5868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11506,7 +11519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -12341,11 +12354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L479"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="I458" sqref="I458"/>
+    <sheetView showGridLines="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187:C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25650,7 +25663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A114" workbookViewId="0">
@@ -27700,10 +27713,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -28080,11 +28093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28129,7 +28142,7 @@
       </c>
       <c r="C4" s="13">
         <f>J7</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
@@ -28175,8 +28188,12 @@
         <f>-Prizes!H1</f>
         <v>-155</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -28184,7 +28201,7 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(C2:C6)</f>
-        <v>2498.8499999999985</v>
+        <v>2501.8499999999985</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>89</v>
@@ -28198,7 +28215,7 @@
       </c>
       <c r="J7" s="24">
         <f>SUM(J2:J6)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -28211,7 +28228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28346,7 +28363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/database.xlsx
+++ b/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778496A-BA2D-4E4F-A61C-8277439490CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7602E1-D2CC-457F-BEE5-345445FC4D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="-228" windowWidth="30936" windowHeight="16908" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="7" r:id="rId1"/>
@@ -46,6 +46,7 @@
   <authors>
     <author>Author</author>
     <author>tc={DC36AB38-1C26-4EC4-8C26-D3555B580DB9}</author>
+    <author>tc={28295E5A-B652-4923-ACEF-39DFB5639B6F}</author>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -307,6 +308,14 @@
     Ukjent kilde. Sommerfest?</t>
       </text>
     </comment>
+    <comment ref="E24" authorId="2" shapeId="0" xr:uid="{28295E5A-B652-4923-ACEF-39DFB5639B6F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fridtjof</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -352,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -1616,6 +1625,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1646,8 +1657,6 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2051,6 +2060,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Persons" displayName="Persons" ref="A1:U72" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:U72" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
@@ -2197,8 +2210,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2482,6 +2495,9 @@
   <threadedComment ref="D23" dT="2022-04-26T08:37:47.96" personId="{00000000-0000-0000-0000-000000000000}" id="{DC36AB38-1C26-4EC4-8C26-D3555B580DB9}">
     <text>Ukjent kilde. Sommerfest?</text>
   </threadedComment>
+  <threadedComment ref="E24" dT="2022-05-03T12:07:03.60" personId="{00000000-0000-0000-0000-000000000000}" id="{28295E5A-B652-4923-ACEF-39DFB5639B6F}">
+    <text>Fridtjof</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2500,7 +2516,7 @@
   </sheetPr>
   <dimension ref="B1:AW49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -2527,46 +2543,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R1" s="130" t="s">
+      <c r="R1" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="135" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
       <c r="R2" s="111" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +2702,7 @@
         <f>INDEX(Persons!$B:$B,MATCH(D4,Persons!$A:$A,0))</f>
         <v>Øystein</v>
       </c>
-      <c r="F4" s="141">
+      <c r="F4" s="131">
         <f>INDEX(Persons!$R:$R,MATCH(D4,Persons!$A:$A,0))</f>
         <v>7.460691399774344E-5</v>
       </c>
@@ -2793,7 +2809,7 @@
         <f>INDEX(Persons!$B:$B,MATCH(D5,Persons!$A:$A,0))</f>
         <v>Bente</v>
       </c>
-      <c r="F5" s="141">
+      <c r="F5" s="131">
         <f>INDEX(Persons!$R:$R,MATCH(D5,Persons!$A:$A,0))</f>
         <v>1.2078745731658458E-4</v>
       </c>
@@ -3250,27 +3266,27 @@
       <c r="AO9" s="33"/>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="136" t="s">
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="139" t="s">
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
       <c r="R10" s="114" t="s">
         <v>116</v>
       </c>
@@ -4038,27 +4054,27 @@
       <c r="AO17" s="38"/>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="137" t="s">
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138" t="s">
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
       <c r="R18" s="114" t="s">
         <v>118</v>
       </c>
@@ -5037,23 +5053,23 @@
       <c r="AW25" s="63"/>
     </row>
     <row r="26" spans="2:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R26" s="130" t="s">
+      <c r="R26" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
       <c r="AH26" s="42" t="s">
         <v>123</v>
       </c>
@@ -6144,7 +6160,7 @@
         <v>2400</v>
       </c>
       <c r="F2" s="6">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
+        <f t="shared" ref="F2:F33" si="0">IF($C2=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E2)+1)</f>
         <v>1</v>
       </c>
       <c r="G2" s="4">
@@ -6152,7 +6168,7 @@
         <v>230</v>
       </c>
       <c r="H2" s="4">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
+        <f t="shared" ref="H2:H33" si="1">IF($C2=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G2)+1)</f>
         <v>1</v>
       </c>
       <c r="I2" s="4">
@@ -6160,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="4">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
+        <f t="shared" ref="J2:J33" si="2">IF($C2=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I2)+1)</f>
         <v>1</v>
       </c>
       <c r="K2" s="5">
@@ -6168,7 +6184,7 @@
         <v>10.413020401542852</v>
       </c>
       <c r="L2" s="6">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
+        <f t="shared" ref="L2:L33" si="3">IF($C2=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K2)+1)</f>
         <v>1</v>
       </c>
       <c r="M2" s="5">
@@ -6176,35 +6192,35 @@
         <v>3.0369382220261789</v>
       </c>
       <c r="N2" s="5">
-        <f>I2-K2</f>
+        <f t="shared" ref="N2:N33" si="4">I2-K2</f>
         <v>0.5869795984571482</v>
       </c>
       <c r="O2" s="6">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
+        <f t="shared" ref="O2:O33" si="5">IF($C2=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N2)+1)</f>
         <v>10</v>
       </c>
       <c r="P2" s="5">
-        <f>N2/M2</f>
+        <f t="shared" ref="P2:P33" si="6">N2/M2</f>
         <v>0.19328005890930774</v>
       </c>
       <c r="Q2" s="4">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
+        <f t="shared" ref="Q2:Q33" si="7">IF($C2=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P2)+1)</f>
         <v>11</v>
       </c>
       <c r="R2" s="16">
-        <f>IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
+        <f t="shared" ref="R2:R33" si="8">IF(I2&gt;K2,1-_xlfn.NORM.DIST(I2,K2,M2,1),_xlfn.NORM.DIST(I2,K2,M2,1))</f>
         <v>0.42336982127778078</v>
       </c>
       <c r="S2" s="30">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
+        <f t="shared" ref="S2:S33" si="9">IF($C2=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R2)+1)</f>
         <v>4</v>
       </c>
       <c r="T2" s="6">
-        <f>E2/K2</f>
+        <f t="shared" ref="T2:T33" si="10">E2/K2</f>
         <v>230.48067779108572</v>
       </c>
       <c r="U2" s="4">
-        <f>IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
+        <f t="shared" ref="U2:U33" si="11">IF($C2=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T2)+1)</f>
         <v>26</v>
       </c>
       <c r="X2" s="4"/>
@@ -6217,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="AD2" s="16">
-        <f t="shared" ref="AD2:AD7" si="0">AC2/AC$9</f>
+        <f t="shared" ref="AD2:AD7" si="12">AC2/AC$9</f>
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
@@ -6240,7 +6256,7 @@
         <v>580</v>
       </c>
       <c r="F3" s="6">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E3)+1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G3" s="4">
@@ -6248,7 +6264,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G3)+1)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I3" s="4">
@@ -6256,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="4">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I3)+1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K3" s="5">
@@ -6264,7 +6280,7 @@
         <v>2.4124504949731458</v>
       </c>
       <c r="L3" s="6">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K3)+1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M3" s="5">
@@ -6272,35 +6288,35 @@
         <v>1.4759243004093037</v>
       </c>
       <c r="N3" s="5">
-        <f>I3-K3</f>
+        <f t="shared" si="4"/>
         <v>0.58754950502685421</v>
       </c>
       <c r="O3" s="6">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N3)+1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P3" s="5">
-        <f>N3/M3</f>
+        <f t="shared" si="6"/>
         <v>0.39808918713779212</v>
       </c>
       <c r="Q3" s="4">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P3)+1)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="R3" s="16">
-        <f>IF(I3&gt;K3,1-_xlfn.NORM.DIST(I3,K3,M3,1),_xlfn.NORM.DIST(I3,K3,M3,1))</f>
+        <f t="shared" si="8"/>
         <v>0.34528222227660921</v>
       </c>
       <c r="S3" s="30">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R3)+1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="T3" s="6">
-        <f>E3/K3</f>
+        <f t="shared" si="10"/>
         <v>240.41944123145885</v>
       </c>
       <c r="U3" s="4">
-        <f>IF($C3=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T3)+1)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="V3" s="4"/>
@@ -6317,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="AD3" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0.12121212121212122</v>
       </c>
     </row>
@@ -6340,7 +6356,7 @@
         <v>1260</v>
       </c>
       <c r="F4" s="6">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E4)+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G4" s="4">
@@ -6348,7 +6364,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="4">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G4)+1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I4" s="4">
@@ -6356,7 +6372,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="4">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I4)+1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K4" s="5">
@@ -6364,7 +6380,7 @@
         <v>5.908156928662323</v>
       </c>
       <c r="L4" s="6">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K4)+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M4" s="5">
@@ -6372,35 +6388,35 @@
         <v>2.2926817043208523</v>
       </c>
       <c r="N4" s="5">
-        <f>I4-K4</f>
+        <f t="shared" si="4"/>
         <v>9.1843071337676996E-2</v>
       </c>
       <c r="O4" s="6">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N4)+1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="P4" s="5">
-        <f>N4/M4</f>
+        <f t="shared" si="6"/>
         <v>4.0059233326888322E-2</v>
       </c>
       <c r="Q4" s="4">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P4)+1)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="R4" s="16">
-        <f>IF(I4&gt;K4,1-_xlfn.NORM.DIST(I4,K4,M4,1),_xlfn.NORM.DIST(I4,K4,M4,1))</f>
+        <f t="shared" si="8"/>
         <v>0.48402295139363349</v>
       </c>
       <c r="S4" s="30">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R4)+1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T4" s="6">
-        <f>E4/K4</f>
+        <f t="shared" si="10"/>
         <v>213.26447743582176</v>
       </c>
       <c r="U4" s="4">
-        <f>IF($C4=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T4)+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="V4" s="4"/>
@@ -6413,11 +6429,11 @@
         <v>1</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" ref="AC4:AC6" si="1">COUNTIFS(P:P,"&gt;"&amp;AA4,P:P,"&lt;="&amp;AB4,C:C,1)</f>
+        <f t="shared" ref="AC4:AC6" si="13">COUNTIFS(P:P,"&gt;"&amp;AA4,P:P,"&lt;="&amp;AB4,C:C,1)</f>
         <v>6</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
@@ -6440,7 +6456,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="6">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E5)+1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G5" s="4">
@@ -6448,7 +6464,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="4">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G5)+1)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I5" s="4">
@@ -6456,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I5)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K5" s="5">
@@ -6464,7 +6480,7 @@
         <v>1.498695822893684</v>
       </c>
       <c r="L5" s="6">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K5)+1)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M5" s="5">
@@ -6472,35 +6488,35 @@
         <v>1.1516228793139285</v>
       </c>
       <c r="N5" s="5">
-        <f>I5-K5</f>
+        <f t="shared" si="4"/>
         <v>-1.498695822893684</v>
       </c>
       <c r="O5" s="6">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N5)+1)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="P5" s="5">
-        <f>N5/M5</f>
+        <f t="shared" si="6"/>
         <v>-1.3013772562303745</v>
       </c>
       <c r="Q5" s="4">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P5)+1)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="R5" s="16">
-        <f>IF(I5&gt;K5,1-_xlfn.NORM.DIST(I5,K5,M5,1),_xlfn.NORM.DIST(I5,K5,M5,1))</f>
+        <f t="shared" si="8"/>
         <v>9.6564677360626544E-2</v>
       </c>
       <c r="S5" s="30">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R5)+1)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="T5" s="6">
-        <f>E5/K5</f>
+        <f t="shared" si="10"/>
         <v>200.17404160155701</v>
       </c>
       <c r="U5" s="4">
-        <f>IF($C5=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T5)+1)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="V5" s="4"/>
@@ -6513,11 +6529,11 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AD5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
@@ -6540,7 +6556,7 @@
         <v>2110</v>
       </c>
       <c r="F6" s="6">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E6)+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="4">
@@ -6548,7 +6564,7 @@
         <v>212</v>
       </c>
       <c r="H6" s="4">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G6)+1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I6" s="4">
@@ -6556,7 +6572,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="4">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I6)+1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K6" s="5">
@@ -6564,7 +6580,7 @@
         <v>9.6182407984986078</v>
       </c>
       <c r="L6" s="6">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K6)+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M6" s="5">
@@ -6572,35 +6588,35 @@
         <v>2.9118965244650763</v>
       </c>
       <c r="N6" s="5">
-        <f>I6-K6</f>
+        <f t="shared" si="4"/>
         <v>-1.6182407984986078</v>
       </c>
       <c r="O6" s="6">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N6)+1)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="P6" s="5">
-        <f>N6/M6</f>
+        <f t="shared" si="6"/>
         <v>-0.55573430748741437</v>
       </c>
       <c r="Q6" s="4">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P6)+1)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="R6" s="16">
-        <f>IF(I6&gt;K6,1-_xlfn.NORM.DIST(I6,K6,M6,1),_xlfn.NORM.DIST(I6,K6,M6,1))</f>
+        <f t="shared" si="8"/>
         <v>0.28919624988063525</v>
       </c>
       <c r="S6" s="30">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R6)+1)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="T6" s="6">
-        <f>E6/K6</f>
+        <f t="shared" si="10"/>
         <v>219.37483623090074</v>
       </c>
       <c r="U6" s="4">
-        <f>IF($C6=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T6)+1)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="V6" s="4"/>
@@ -6613,11 +6629,11 @@
         <v>-1</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AD6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
@@ -6640,7 +6656,7 @@
         <v>950</v>
       </c>
       <c r="F7" s="6">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E7)+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G7" s="4">
@@ -6648,7 +6664,7 @@
         <v>96</v>
       </c>
       <c r="H7" s="4">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G7)+1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I7" s="4">
@@ -6656,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I7)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K7" s="5">
@@ -6664,7 +6680,7 @@
         <v>4.5212612769474569</v>
       </c>
       <c r="L7" s="6">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K7)+1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M7" s="5">
@@ -6672,35 +6688,35 @@
         <v>2.0323974192131122</v>
       </c>
       <c r="N7" s="5">
-        <f>I7-K7</f>
+        <f t="shared" si="4"/>
         <v>-2.5212612769474569</v>
       </c>
       <c r="O7" s="6">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N7)+1)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="P7" s="5">
-        <f>N7/M7</f>
+        <f t="shared" si="6"/>
         <v>-1.2405355631299804</v>
       </c>
       <c r="Q7" s="4">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P7)+1)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="R7" s="16">
-        <f>IF(I7&gt;K7,1-_xlfn.NORM.DIST(I7,K7,M7,1),_xlfn.NORM.DIST(I7,K7,M7,1))</f>
+        <f t="shared" si="8"/>
         <v>0.10738868437100026</v>
       </c>
       <c r="S7" s="30">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R7)+1)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="T7" s="6">
-        <f>E7/K7</f>
+        <f t="shared" si="10"/>
         <v>210.11835897291814</v>
       </c>
       <c r="U7" s="4">
-        <f>IF($C7=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T7)+1)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="V7" s="4"/>
@@ -6714,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6737,7 +6753,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="6">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E8)+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8" s="4">
@@ -6745,7 +6761,7 @@
         <v>201</v>
       </c>
       <c r="H8" s="4">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G8)+1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I8" s="4">
@@ -6753,7 +6769,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="4">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I8)+1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K8" s="5">
@@ -6761,7 +6777,7 @@
         <v>9.1878520049022665</v>
       </c>
       <c r="L8" s="6">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K8)+1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M8" s="5">
@@ -6769,35 +6785,35 @@
         <v>2.844540922857965</v>
       </c>
       <c r="N8" s="5">
-        <f>I8-K8</f>
+        <f t="shared" si="4"/>
         <v>-4.1878520049022665</v>
       </c>
       <c r="O8" s="6">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N8)+1)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="P8" s="5">
-        <f>N8/M8</f>
+        <f t="shared" si="6"/>
         <v>-1.4722417846935565</v>
       </c>
       <c r="Q8" s="4">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P8)+1)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="R8" s="16">
-        <f>IF(I8&gt;K8,1-_xlfn.NORM.DIST(I8,K8,M8,1),_xlfn.NORM.DIST(I8,K8,M8,1))</f>
+        <f t="shared" si="8"/>
         <v>7.047779876791653E-2</v>
       </c>
       <c r="S8" s="30">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R8)+1)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="T8" s="6">
-        <f>E8/K8</f>
+        <f t="shared" si="10"/>
         <v>217.67873480470527</v>
       </c>
       <c r="U8" s="4">
-        <f>IF($C8=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T8)+1)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="V8" s="4"/>
@@ -6823,7 +6839,7 @@
         <v>450</v>
       </c>
       <c r="F9" s="28">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E9)+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G9" s="8">
@@ -6831,7 +6847,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="8">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G9)+1)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I9" s="8">
@@ -6839,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="8">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I9)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K9" s="9">
@@ -6847,7 +6863,7 @@
         <v>2.1310935970168003</v>
       </c>
       <c r="L9" s="28">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K9)+1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M9" s="9">
@@ -6855,35 +6871,35 @@
         <v>1.4019473186337896</v>
       </c>
       <c r="N9" s="9">
-        <f>I9-K9</f>
+        <f t="shared" si="4"/>
         <v>-0.13109359701680035</v>
       </c>
       <c r="O9" s="28">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N9)+1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="P9" s="5">
-        <f>N9/M9</f>
+        <f t="shared" si="6"/>
         <v>-9.3508219085259386E-2</v>
       </c>
       <c r="Q9" s="10">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P9)+1)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="R9" s="16">
-        <f>IF(I9&gt;K9,1-_xlfn.NORM.DIST(I9,K9,M9,1),_xlfn.NORM.DIST(I9,K9,M9,1))</f>
+        <f t="shared" si="8"/>
         <v>0.46274991020997108</v>
       </c>
       <c r="S9" s="30">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R9)+1)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T9" s="6">
-        <f>E9/K9</f>
+        <f t="shared" si="10"/>
         <v>211.15919105098436</v>
       </c>
       <c r="U9" s="4">
-        <f>IF($C9=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T9)+1)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="V9" s="4"/>
@@ -6913,7 +6929,7 @@
         <v>550</v>
       </c>
       <c r="F10" s="6">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E10)+1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G10" s="10">
@@ -6921,7 +6937,7 @@
         <v>55</v>
       </c>
       <c r="H10" s="10">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G10)+1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I10" s="10">
@@ -6929,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I10)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K10" s="5">
@@ -6937,7 +6953,7 @@
         <v>2.5531355101689064</v>
       </c>
       <c r="L10" s="6">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K10)+1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M10" s="5">
@@ -6945,35 +6961,35 @@
         <v>1.5152118763201954</v>
       </c>
       <c r="N10" s="5">
-        <f>I10-K10</f>
+        <f t="shared" si="4"/>
         <v>-2.5531355101689064</v>
       </c>
       <c r="O10" s="6">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N10)+1)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="P10" s="5">
-        <f>N10/M10</f>
+        <f t="shared" si="6"/>
         <v>-1.6850023089638035</v>
       </c>
       <c r="Q10" s="10">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P10)+1)</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="R10" s="16">
-        <f>IF(I10&gt;K10,1-_xlfn.NORM.DIST(I10,K10,M10,1),_xlfn.NORM.DIST(I10,K10,M10,1))</f>
+        <f t="shared" si="8"/>
         <v>4.5994063011389245E-2</v>
       </c>
       <c r="S10" s="30">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R10)+1)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="T10" s="6">
-        <f>E10/K10</f>
+        <f t="shared" si="10"/>
         <v>215.42138982024261</v>
       </c>
       <c r="U10" s="10">
-        <f>IF($C10=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T10)+1)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="V10" s="4"/>
@@ -6999,7 +7015,7 @@
         <v>600</v>
       </c>
       <c r="F11" s="29">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E11)+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G11" s="26">
@@ -7007,7 +7023,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="26">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G11)+1)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I11" s="26">
@@ -7015,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="26">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I11)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K11" s="27">
@@ -7023,7 +7039,7 @@
         <v>2.4716542480878902</v>
       </c>
       <c r="L11" s="29">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K11)+1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M11" s="27">
@@ -7031,35 +7047,35 @@
         <v>1.4893316251306001</v>
       </c>
       <c r="N11" s="27">
-        <f>I11-K11</f>
+        <f t="shared" si="4"/>
         <v>-0.47165424808789025</v>
       </c>
       <c r="O11" s="29">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N11)+1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P11" s="5">
-        <f>N11/M11</f>
+        <f t="shared" si="6"/>
         <v>-0.31668853338592784</v>
       </c>
       <c r="Q11" s="10">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P11)+1)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="R11" s="16">
-        <f>IF(I11&gt;K11,1-_xlfn.NORM.DIST(I11,K11,M11,1),_xlfn.NORM.DIST(I11,K11,M11,1))</f>
+        <f t="shared" si="8"/>
         <v>0.37573997516928714</v>
       </c>
       <c r="S11" s="30">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R11)+1)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="T11" s="6">
-        <f>E11/K11</f>
+        <f t="shared" si="10"/>
         <v>242.75239971940624</v>
       </c>
       <c r="U11" s="10">
-        <f>IF($C11=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T11)+1)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="V11" s="4"/>
@@ -7085,7 +7101,7 @@
         <v>250</v>
       </c>
       <c r="F12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E12)+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G12" s="26">
@@ -7093,7 +7109,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="26">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G12)+1)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I12" s="26">
@@ -7101,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="26">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I12)+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K12" s="27">
@@ -7109,7 +7125,7 @@
         <v>1.1328172680017672</v>
       </c>
       <c r="L12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K12)+1)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M12" s="27">
@@ -7117,35 +7133,35 @@
         <v>1.0232160127388246</v>
       </c>
       <c r="N12" s="27">
-        <f>I12-K12</f>
+        <f t="shared" si="4"/>
         <v>-0.13281726800176719</v>
       </c>
       <c r="O12" s="29">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N12)+1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="P12" s="27">
-        <f>N12/M12</f>
+        <f t="shared" si="6"/>
         <v>-0.12980374265865671</v>
       </c>
       <c r="Q12" s="10">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P12)+1)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R12" s="16">
-        <f>IF(I12&gt;K12,1-_xlfn.NORM.DIST(I12,K12,M12,1),_xlfn.NORM.DIST(I12,K12,M12,1))</f>
+        <f t="shared" si="8"/>
         <v>0.44836085087830485</v>
       </c>
       <c r="S12" s="41">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R12)+1)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T12" s="6">
-        <f>E12/K12</f>
+        <f t="shared" si="10"/>
         <v>220.68872629474254</v>
       </c>
       <c r="U12" s="10">
-        <f>IF($C12=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T12)+1)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="V12" s="4"/>
@@ -7171,7 +7187,7 @@
         <v>190</v>
       </c>
       <c r="F13" s="46">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E13)+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G13" s="45">
@@ -7179,7 +7195,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="45">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G13)+1)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I13" s="45">
@@ -7187,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="45">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I13)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K13" s="47">
@@ -7195,7 +7211,7 @@
         <v>0.88190583217853002</v>
       </c>
       <c r="L13" s="46">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K13)+1)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="M13" s="47">
@@ -7203,35 +7219,35 @@
         <v>0.90261676172469207</v>
       </c>
       <c r="N13" s="47">
-        <f>I13-K13</f>
+        <f t="shared" si="4"/>
         <v>1.11809416782147</v>
       </c>
       <c r="O13" s="46">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N13)+1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P13" s="47">
-        <f>N13/M13</f>
+        <f t="shared" si="6"/>
         <v>1.2387252433525058</v>
       </c>
       <c r="Q13" s="10">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P13)+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="R13" s="16">
-        <f>IF(I13&gt;K13,1-_xlfn.NORM.DIST(I13,K13,M13,1),_xlfn.NORM.DIST(I13,K13,M13,1))</f>
+        <f t="shared" si="8"/>
         <v>0.10772363346198055</v>
       </c>
       <c r="S13" s="48">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R13)+1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="T13" s="6">
-        <f>E13/K13</f>
+        <f t="shared" si="10"/>
         <v>215.44250311924125</v>
       </c>
       <c r="U13" s="10">
-        <f>IF($C13=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T13)+1)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="V13" s="4"/>
@@ -7257,7 +7273,7 @@
         <v>150</v>
       </c>
       <c r="F14" s="46">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E14)+1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G14" s="45">
@@ -7265,7 +7281,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="45">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G14)+1)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I14" s="45">
@@ -7273,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="45">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I14)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K14" s="47">
@@ -7281,7 +7297,7 @@
         <v>0.83038325748942032</v>
       </c>
       <c r="L14" s="46">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K14)+1)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M14" s="47">
@@ -7289,35 +7305,35 @@
         <v>0.87099819594189543</v>
       </c>
       <c r="N14" s="47">
-        <f>I14-K14</f>
+        <f t="shared" si="4"/>
         <v>-0.83038325748942032</v>
       </c>
       <c r="O14" s="46">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N14)+1)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="P14" s="47">
-        <f>N14/M14</f>
+        <f t="shared" si="6"/>
         <v>-0.95336966409149193</v>
       </c>
       <c r="Q14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P14)+1)</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="R14" s="16">
-        <f>IF(I14&gt;K14,1-_xlfn.NORM.DIST(I14,K14,M14,1),_xlfn.NORM.DIST(I14,K14,M14,1))</f>
+        <f t="shared" si="8"/>
         <v>0.17020140303938389</v>
       </c>
       <c r="S14" s="48">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R14)+1)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="T14" s="6">
-        <f>E14/K14</f>
+        <f t="shared" si="10"/>
         <v>180.63948020039544</v>
       </c>
       <c r="U14" s="10">
-        <f>IF($C14=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T14)+1)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="V14" s="4"/>
@@ -7343,7 +7359,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="46">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E15)+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G15" s="45">
@@ -7351,7 +7367,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="45">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G15)+1)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I15" s="45">
@@ -7359,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="45">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I15)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K15" s="47">
@@ -7367,7 +7383,7 @@
         <v>0.54205153135634421</v>
       </c>
       <c r="L15" s="46">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K15)+1)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M15" s="47">
@@ -7375,35 +7391,35 @@
         <v>0.70455633043844934</v>
       </c>
       <c r="N15" s="47">
-        <f>I15-K15</f>
+        <f t="shared" si="4"/>
         <v>-0.54205153135634421</v>
       </c>
       <c r="O15" s="46">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N15)+1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="P15" s="47">
-        <f>N15/M15</f>
+        <f t="shared" si="6"/>
         <v>-0.76935158757146149</v>
       </c>
       <c r="Q15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P15)+1)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="R15" s="16">
-        <f>IF(I15&gt;K15,1-_xlfn.NORM.DIST(I15,K15,M15,1),_xlfn.NORM.DIST(I15,K15,M15,1))</f>
+        <f t="shared" si="8"/>
         <v>0.2208423100720007</v>
       </c>
       <c r="S15" s="48">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R15)+1)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="T15" s="6">
-        <f>E15/K15</f>
+        <f t="shared" si="10"/>
         <v>184.48430493273543</v>
       </c>
       <c r="U15" s="10">
-        <f>IF($C15=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T15)+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="V15" s="4"/>
@@ -7429,7 +7445,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="46">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E16)+1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G16" s="45">
@@ -7437,7 +7453,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="45">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G16)+1)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I16" s="45">
@@ -7445,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="45">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I16)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K16" s="47">
@@ -7453,7 +7469,7 @@
         <v>0.24793388429752067</v>
       </c>
       <c r="L16" s="46">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K16)+1)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M16" s="47">
@@ -7461,35 +7477,35 @@
         <v>0.47726825513986476</v>
       </c>
       <c r="N16" s="47">
-        <f>I16-K16</f>
+        <f t="shared" si="4"/>
         <v>1.7520661157024793</v>
       </c>
       <c r="O16" s="46">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N16)+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P16" s="47">
-        <f>N16/M16</f>
+        <f t="shared" si="6"/>
         <v>3.671030069219734</v>
       </c>
       <c r="Q16" s="10">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P16)+1)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R16" s="16">
-        <f>IF(I16&gt;K16,1-_xlfn.NORM.DIST(I16,K16,M16,1),_xlfn.NORM.DIST(I16,K16,M16,1))</f>
+        <f t="shared" si="8"/>
         <v>1.2078745731658458E-4</v>
       </c>
       <c r="S16" s="48">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R16)+1)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="T16" s="6">
-        <f>E16/K16</f>
+        <f t="shared" si="10"/>
         <v>201.66666666666666</v>
       </c>
       <c r="U16" s="10">
-        <f>IF($C16=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T16)+1)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="V16" s="4"/>
@@ -7515,7 +7531,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="46" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E17)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G17" s="45">
@@ -7523,7 +7539,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="45" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G17)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I17" s="45">
@@ -7531,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="45" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I17)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="47">
@@ -7539,7 +7555,7 @@
         <v>0.24793388429752067</v>
       </c>
       <c r="L17" s="46" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K17)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M17" s="47">
@@ -7547,35 +7563,35 @@
         <v>0.47726825513986476</v>
       </c>
       <c r="N17" s="47">
-        <f>I17-K17</f>
+        <f t="shared" si="4"/>
         <v>-0.24793388429752067</v>
       </c>
       <c r="O17" s="46" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N17)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P17" s="47">
-        <f>N17/M17</f>
+        <f t="shared" si="6"/>
         <v>-0.51948538715373593</v>
       </c>
       <c r="Q17" s="10" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P17)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R17" s="16">
-        <f>IF(I17&gt;K17,1-_xlfn.NORM.DIST(I17,K17,M17,1),_xlfn.NORM.DIST(I17,K17,M17,1))</f>
+        <f t="shared" si="8"/>
         <v>0.30171115026048501</v>
       </c>
       <c r="S17" s="48" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R17)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T17" s="6">
-        <f>E17/K17</f>
+        <f t="shared" si="10"/>
         <v>201.66666666666666</v>
       </c>
       <c r="U17" s="10" t="str">
-        <f>IF($C17=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T17)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V17" s="4"/>
@@ -7601,7 +7617,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="46">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E18)+1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G18" s="45">
@@ -7609,7 +7625,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="45">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G18)+1)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I18" s="45">
@@ -7617,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="45">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I18)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K18" s="47">
@@ -7625,7 +7641,7 @@
         <v>0.24793388429752067</v>
       </c>
       <c r="L18" s="46">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K18)+1)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M18" s="47">
@@ -7633,35 +7649,35 @@
         <v>0.47726825513986476</v>
       </c>
       <c r="N18" s="47">
-        <f>I18-K18</f>
+        <f t="shared" si="4"/>
         <v>-0.24793388429752067</v>
       </c>
       <c r="O18" s="46">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N18)+1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="P18" s="47">
-        <f>N18/M18</f>
+        <f t="shared" si="6"/>
         <v>-0.51948538715373593</v>
       </c>
       <c r="Q18" s="10">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P18)+1)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="R18" s="16">
-        <f>IF(I18&gt;K18,1-_xlfn.NORM.DIST(I18,K18,M18,1),_xlfn.NORM.DIST(I18,K18,M18,1))</f>
+        <f t="shared" si="8"/>
         <v>0.30171115026048501</v>
       </c>
       <c r="S18" s="48">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R18)+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="T18" s="6">
-        <f>E18/K18</f>
+        <f t="shared" si="10"/>
         <v>201.66666666666666</v>
       </c>
       <c r="U18" s="10">
-        <f>IF($C18=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T18)+1)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="V18" s="4"/>
@@ -7687,7 +7703,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="46">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E19)+1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G19" s="45">
@@ -7695,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="45">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G19)+1)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="I19" s="45">
@@ -7703,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="45">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I19)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K19" s="47">
@@ -7711,7 +7727,7 @@
         <v>4.9586776859504134E-2</v>
       </c>
       <c r="L19" s="46">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K19)+1)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="M19" s="47">
@@ -7719,35 +7735,35 @@
         <v>0.21708967829030903</v>
       </c>
       <c r="N19" s="47">
-        <f>I19-K19</f>
+        <f t="shared" si="4"/>
         <v>-4.9586776859504134E-2</v>
       </c>
       <c r="O19" s="46">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N19)+1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="P19" s="47">
-        <f>N19/M19</f>
+        <f t="shared" si="6"/>
         <v>-0.22841609628806431</v>
       </c>
       <c r="Q19" s="10">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P19)+1)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R19" s="16">
-        <f>IF(I19&gt;K19,1-_xlfn.NORM.DIST(I19,K19,M19,1),_xlfn.NORM.DIST(I19,K19,M19,1))</f>
+        <f t="shared" si="8"/>
         <v>0.40966138857566942</v>
       </c>
       <c r="S19" s="48">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R19)+1)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T19" s="6">
-        <f>E19/K19</f>
+        <f t="shared" si="10"/>
         <v>201.66666666666666</v>
       </c>
       <c r="U19" s="10">
-        <f>IF($C19=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T19)+1)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="V19" s="4"/>
@@ -7773,7 +7789,7 @@
         <v>1320</v>
       </c>
       <c r="F20" s="6">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E20)+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G20" s="4">
@@ -7781,7 +7797,7 @@
         <v>128</v>
       </c>
       <c r="H20" s="4">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G20)+1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I20" s="4">
@@ -7789,7 +7805,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I20)+1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K20" s="5">
@@ -7797,7 +7813,7 @@
         <v>5.9946715092465954</v>
       </c>
       <c r="L20" s="6">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K20)+1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M20" s="5">
@@ -7805,35 +7821,35 @@
         <v>2.3183318060867322</v>
       </c>
       <c r="N20" s="5">
-        <f>I20-K20</f>
+        <f t="shared" si="4"/>
         <v>4.0053284907534046</v>
       </c>
       <c r="O20" s="6">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N20)+1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P20" s="5">
-        <f>N20/M20</f>
+        <f t="shared" si="6"/>
         <v>1.7276769788679505</v>
       </c>
       <c r="Q20" s="4">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P20)+1)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R20" s="16">
-        <f>IF(I20&gt;K20,1-_xlfn.NORM.DIST(I20,K20,M20,1),_xlfn.NORM.DIST(I20,K20,M20,1))</f>
+        <f t="shared" si="8"/>
         <v>4.2023076554305816E-2</v>
       </c>
       <c r="S20" s="30">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R20)+1)</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="T20" s="6">
-        <f>E20/K20</f>
+        <f t="shared" si="10"/>
         <v>220.19555166016033</v>
       </c>
       <c r="U20" s="4">
-        <f>IF($C20=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T20)+1)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="V20" s="4"/>
@@ -7859,7 +7875,7 @@
         <v>1500</v>
       </c>
       <c r="F21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E21)+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G21" s="4">
@@ -7867,7 +7883,7 @@
         <v>151</v>
       </c>
       <c r="H21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G21)+1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I21" s="4">
@@ -7875,7 +7891,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I21)+1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K21" s="5">
@@ -7883,7 +7899,7 @@
         <v>6.5416851543041465</v>
       </c>
       <c r="L21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K21)+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M21" s="5">
@@ -7891,35 +7907,35 @@
         <v>2.4156998589296634</v>
       </c>
       <c r="N21" s="5">
-        <f>I21-K21</f>
+        <f t="shared" si="4"/>
         <v>-2.5416851543041465</v>
       </c>
       <c r="O21" s="6">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N21)+1)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="P21" s="5">
-        <f>N21/M21</f>
+        <f t="shared" si="6"/>
         <v>-1.05215271049041</v>
       </c>
       <c r="Q21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P21)+1)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="R21" s="16">
-        <f>IF(I21&gt;K21,1-_xlfn.NORM.DIST(I21,K21,M21,1),_xlfn.NORM.DIST(I21,K21,M21,1))</f>
+        <f t="shared" si="8"/>
         <v>0.14636474592887255</v>
       </c>
       <c r="S21" s="30">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R21)+1)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="T21" s="6">
-        <f>E21/K21</f>
+        <f t="shared" si="10"/>
         <v>229.29871502804821</v>
       </c>
       <c r="U21" s="4">
-        <f>IF($C21=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T21)+1)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="V21" s="4"/>
@@ -7945,7 +7961,7 @@
         <v>1220</v>
       </c>
       <c r="F22" s="6" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E22)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G22" s="4">
@@ -7953,7 +7969,7 @@
         <v>123</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G22)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I22" s="4">
@@ -7961,7 +7977,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I22)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="5">
@@ -7969,7 +7985,7 @@
         <v>4.9790372920402088</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K22)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M22" s="5">
@@ -7977,35 +7993,35 @@
         <v>2.1078650290675003</v>
       </c>
       <c r="N22" s="5">
-        <f>I22-K22</f>
+        <f t="shared" si="4"/>
         <v>1.0209627079597912</v>
       </c>
       <c r="O22" s="6" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N22)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P22" s="5">
-        <f>N22/M22</f>
+        <f t="shared" si="6"/>
         <v>0.48435867281856065</v>
       </c>
       <c r="Q22" s="4" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P22)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R22" s="16">
-        <f>IF(I22&gt;K22,1-_xlfn.NORM.DIST(I22,K22,M22,1),_xlfn.NORM.DIST(I22,K22,M22,1))</f>
+        <f t="shared" si="8"/>
         <v>0.31406567137732877</v>
       </c>
       <c r="S22" s="30" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R22)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T22" s="6">
-        <f>E22/K22</f>
+        <f t="shared" si="10"/>
         <v>245.02728709229916</v>
       </c>
       <c r="U22" s="4" t="str">
-        <f>IF($C22=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T22)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V22" s="4"/>
@@ -8031,7 +8047,7 @@
         <v>830</v>
       </c>
       <c r="F23" s="28">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E23)+1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G23" s="8">
@@ -8039,7 +8055,7 @@
         <v>83</v>
       </c>
       <c r="H23" s="10">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G23)+1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I23" s="8">
@@ -8047,7 +8063,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="10">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I23)+1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K23" s="9">
@@ -8055,7 +8071,7 @@
         <v>3.7348151257839586</v>
       </c>
       <c r="L23" s="28">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K23)+1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M23" s="9">
@@ -8063,35 +8079,35 @@
         <v>1.8441719152196041</v>
       </c>
       <c r="N23" s="9">
-        <f>I23-K23</f>
+        <f t="shared" si="4"/>
         <v>1.2651848742160414</v>
       </c>
       <c r="O23" s="28">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N23)+1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P23" s="5">
-        <f>N23/M23</f>
+        <f t="shared" si="6"/>
         <v>0.68604497431866762</v>
       </c>
       <c r="Q23" s="10">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P23)+1)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="R23" s="16">
-        <f>IF(I23&gt;K23,1-_xlfn.NORM.DIST(I23,K23,M23,1),_xlfn.NORM.DIST(I23,K23,M23,1))</f>
+        <f t="shared" si="8"/>
         <v>0.24634237410081439</v>
       </c>
       <c r="S23" s="30">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R23)+1)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="T23" s="6">
-        <f>E23/K23</f>
+        <f t="shared" si="10"/>
         <v>222.23322227382764</v>
       </c>
       <c r="U23" s="10">
-        <f>IF($C23=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T23)+1)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="V23" s="4"/>
@@ -8117,7 +8133,7 @@
         <v>510</v>
       </c>
       <c r="F24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E24)+1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G24" s="10">
@@ -8125,7 +8141,7 @@
         <v>51</v>
       </c>
       <c r="H24" s="10">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G24)+1)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I24" s="10">
@@ -8133,7 +8149,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="10">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I24)+1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K24" s="5">
@@ -8141,7 +8157,7 @@
         <v>2.3081446454502519</v>
       </c>
       <c r="L24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K24)+1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M24" s="5">
@@ -8149,35 +8165,35 @@
         <v>1.4525331112498971</v>
       </c>
       <c r="N24" s="5">
-        <f>I24-K24</f>
+        <f t="shared" si="4"/>
         <v>1.6918553545497481</v>
       </c>
       <c r="O24" s="6">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N24)+1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P24" s="5">
-        <f>N24/M24</f>
+        <f t="shared" si="6"/>
         <v>1.1647619881752063</v>
       </c>
       <c r="Q24" s="10">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P24)+1)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R24" s="16">
-        <f>IF(I24&gt;K24,1-_xlfn.NORM.DIST(I24,K24,M24,1),_xlfn.NORM.DIST(I24,K24,M24,1))</f>
+        <f t="shared" si="8"/>
         <v>0.12205767468285544</v>
       </c>
       <c r="S24" s="30">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R24)+1)</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="T24" s="6">
-        <f>E24/K24</f>
+        <f t="shared" si="10"/>
         <v>220.95668961011489</v>
       </c>
       <c r="U24" s="10">
-        <f>IF($C24=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T24)+1)</f>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="V24" s="4"/>
@@ -8203,7 +8219,7 @@
         <v>440</v>
       </c>
       <c r="F25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E25)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G25" s="26">
@@ -8211,7 +8227,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G25)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I25" s="26">
@@ -8219,7 +8235,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="26" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I25)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="27">
@@ -8227,7 +8243,7 @@
         <v>1.9389412396668024</v>
       </c>
       <c r="L25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K25)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="27">
@@ -8235,35 +8251,35 @@
         <v>1.3274025411749653</v>
       </c>
       <c r="N25" s="27">
-        <f>I25-K25</f>
+        <f t="shared" si="4"/>
         <v>2.0610587603331973</v>
       </c>
       <c r="O25" s="29" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N25)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P25" s="5">
-        <f>N25/M25</f>
+        <f t="shared" si="6"/>
         <v>1.5527006287850165</v>
       </c>
       <c r="Q25" s="10" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P25)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R25" s="16">
-        <f>IF(I25&gt;K25,1-_xlfn.NORM.DIST(I25,K25,M25,1),_xlfn.NORM.DIST(I25,K25,M25,1))</f>
+        <f t="shared" si="8"/>
         <v>6.024733602422272E-2</v>
       </c>
       <c r="S25" s="30" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R25)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T25" s="6">
-        <f>E25/K25</f>
+        <f t="shared" si="10"/>
         <v>226.92797027495885</v>
       </c>
       <c r="U25" s="10" t="str">
-        <f>IF($C25=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T25)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V25" s="4"/>
@@ -8289,7 +8305,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E26)+1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G26" s="26">
@@ -8297,7 +8313,7 @@
         <v>35</v>
       </c>
       <c r="H26" s="26">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G26)+1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I26" s="26">
@@ -8305,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="26">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I26)+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K26" s="27">
@@ -8313,7 +8329,7 @@
         <v>1.6987474789318509</v>
       </c>
       <c r="L26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K26)+1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="M26" s="27">
@@ -8321,35 +8337,35 @@
         <v>1.2331989935092704</v>
       </c>
       <c r="N26" s="27">
-        <f>I26-K26</f>
+        <f t="shared" si="4"/>
         <v>-0.69874747893185085</v>
       </c>
       <c r="O26" s="29">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N26)+1)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="P26" s="27">
-        <f>N26/M26</f>
+        <f t="shared" si="6"/>
         <v>-0.56661372788137787</v>
       </c>
       <c r="Q26" s="10">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P26)+1)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="R26" s="16">
-        <f>IF(I26&gt;K26,1-_xlfn.NORM.DIST(I26,K26,M26,1),_xlfn.NORM.DIST(I26,K26,M26,1))</f>
+        <f t="shared" si="8"/>
         <v>0.28548832304330563</v>
       </c>
       <c r="S26" s="41">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R26)+1)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="T26" s="6">
-        <f>E26/K26</f>
+        <f t="shared" si="10"/>
         <v>206.03415418757544</v>
       </c>
       <c r="U26" s="10">
-        <f>IF($C26=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T26)+1)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="V26" s="4"/>
@@ -8375,7 +8391,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="46" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E27)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G27" s="45">
@@ -8383,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="45" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G27)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I27" s="45">
@@ -8391,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="45" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I27)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="47">
@@ -8399,7 +8415,7 @@
         <v>0.58529411764705874</v>
       </c>
       <c r="L27" s="46" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K27)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="47">
@@ -8407,35 +8423,35 @@
         <v>0.73759426654100935</v>
       </c>
       <c r="N27" s="47">
-        <f>I27-K27</f>
+        <f t="shared" si="4"/>
         <v>0.41470588235294126</v>
       </c>
       <c r="O27" s="46" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N27)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P27" s="47">
-        <f>N27/M27</f>
+        <f t="shared" si="6"/>
         <v>0.56224119568842135</v>
       </c>
       <c r="Q27" s="10" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P27)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R27" s="16">
-        <f>IF(I27&gt;K27,1-_xlfn.NORM.DIST(I27,K27,M27,1),_xlfn.NORM.DIST(I27,K27,M27,1))</f>
+        <f t="shared" si="8"/>
         <v>0.28697584859310987</v>
       </c>
       <c r="S27" s="48" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R27)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T27" s="6">
-        <f>E27/K27</f>
+        <f t="shared" si="10"/>
         <v>205.02512562814073</v>
       </c>
       <c r="U27" s="10" t="str">
-        <f>IF($C27=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T27)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V27" s="4"/>
@@ -8461,7 +8477,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="46">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E28)+1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G28" s="45">
@@ -8469,7 +8485,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="45">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G28)+1)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I28" s="45">
@@ -8477,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="45">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I28)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K28" s="47">
@@ -8485,7 +8501,7 @@
         <v>0.79656862745098045</v>
       </c>
       <c r="L28" s="46">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K28)+1)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M28" s="47">
@@ -8493,35 +8509,35 @@
         <v>0.84391700099328582</v>
       </c>
       <c r="N28" s="47">
-        <f>I28-K28</f>
+        <f t="shared" si="4"/>
         <v>-0.79656862745098045</v>
       </c>
       <c r="O28" s="46">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N28)+1)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="P28" s="47">
-        <f>N28/M28</f>
+        <f t="shared" si="6"/>
         <v>-0.94389451393137402</v>
       </c>
       <c r="Q28" s="10">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P28)+1)</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="R28" s="16">
-        <f>IF(I28&gt;K28,1-_xlfn.NORM.DIST(I28,K28,M28,1),_xlfn.NORM.DIST(I28,K28,M28,1))</f>
+        <f t="shared" si="8"/>
         <v>0.17261177788033752</v>
       </c>
       <c r="S28" s="48">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R28)+1)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="T28" s="6">
-        <f>E28/K28</f>
+        <f t="shared" si="10"/>
         <v>188.30769230769229</v>
       </c>
       <c r="U28" s="10">
-        <f>IF($C28=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T28)+1)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V28" s="4"/>
@@ -8547,7 +8563,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="46">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E29)+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G29" s="45">
@@ -8555,7 +8571,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="45">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G29)+1)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I29" s="45">
@@ -8563,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="45">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I29)+1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K29" s="47">
@@ -8571,7 +8587,7 @@
         <v>0.23529411764705882</v>
       </c>
       <c r="L29" s="46">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K29)+1)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M29" s="47">
@@ -8579,35 +8595,35 @@
         <v>0.46533010115110041</v>
       </c>
       <c r="N29" s="47">
-        <f>I29-K29</f>
+        <f t="shared" si="4"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="O29" s="46">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N29)+1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P29" s="47">
-        <f>N29/M29</f>
+        <f t="shared" si="6"/>
         <v>3.792374226355737</v>
       </c>
       <c r="Q29" s="10">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P29)+1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R29" s="16">
-        <f>IF(I29&gt;K29,1-_xlfn.NORM.DIST(I29,K29,M29,1),_xlfn.NORM.DIST(I29,K29,M29,1))</f>
+        <f t="shared" si="8"/>
         <v>7.460691399774344E-5</v>
       </c>
       <c r="S29" s="48">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R29)+1)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="T29" s="6">
-        <f>E29/K29</f>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="U29" s="10">
-        <f>IF($C29=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T29)+1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V29" s="4"/>
@@ -8633,7 +8649,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="46">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E30)+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G30" s="45">
@@ -8641,7 +8657,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="45">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G30)+1)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I30" s="45">
@@ -8649,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="45">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I30)+1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K30" s="47">
@@ -8657,7 +8673,7 @@
         <v>0.58823529411764708</v>
       </c>
       <c r="L30" s="46">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K30)+1)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M30" s="47">
@@ -8665,35 +8681,35 @@
         <v>0.7188354031303279</v>
       </c>
       <c r="N30" s="47">
-        <f>I30-K30</f>
+        <f t="shared" si="4"/>
         <v>-0.58823529411764708</v>
       </c>
       <c r="O30" s="46">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N30)+1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="P30" s="47">
-        <f>N30/M30</f>
+        <f t="shared" si="6"/>
         <v>-0.81831708838497141</v>
       </c>
       <c r="Q30" s="10">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P30)+1)</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R30" s="16">
-        <f>IF(I30&gt;K30,1-_xlfn.NORM.DIST(I30,K30,M30,1),_xlfn.NORM.DIST(I30,K30,M30,1))</f>
+        <f t="shared" si="8"/>
         <v>0.20658807549365618</v>
       </c>
       <c r="S30" s="48">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R30)+1)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="T30" s="6">
-        <f>E30/K30</f>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="U30" s="10">
-        <f>IF($C30=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T30)+1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V30" s="4"/>
@@ -8719,7 +8735,7 @@
         <v>660</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E31)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G31" s="4">
@@ -8727,7 +8743,7 @@
         <v>59</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G31)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I31" s="4">
@@ -8735,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I31)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="5">
@@ -8743,7 +8759,7 @@
         <v>2.9277262781608777</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K31)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M31" s="5">
@@ -8751,35 +8767,35 @@
         <v>1.6227883388892295</v>
       </c>
       <c r="N31" s="5">
-        <f>I31-K31</f>
+        <f t="shared" si="4"/>
         <v>-2.9277262781608777</v>
       </c>
       <c r="O31" s="6" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N31)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P31" s="5">
-        <f>N31/M31</f>
+        <f t="shared" si="6"/>
         <v>-1.8041331749800813</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P31)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R31" s="16">
-        <f>IF(I31&gt;K31,1-_xlfn.NORM.DIST(I31,K31,M31,1),_xlfn.NORM.DIST(I31,K31,M31,1))</f>
+        <f t="shared" si="8"/>
         <v>3.5605216057864056E-2</v>
       </c>
       <c r="S31" s="30" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R31)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T31" s="6">
-        <f>E31/K31</f>
+        <f t="shared" si="10"/>
         <v>225.43091030169495</v>
       </c>
       <c r="U31" s="4" t="str">
-        <f>IF($C31=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T31)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V31" s="4"/>
@@ -8805,7 +8821,7 @@
         <v>920</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E32)+1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G32" s="4">
@@ -8813,7 +8829,7 @@
         <v>88</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G32)+1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I32" s="4">
@@ -8821,7 +8837,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I32)+1)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="5">
@@ -8829,7 +8845,7 @@
         <v>4.1072450031524976</v>
       </c>
       <c r="L32" s="6" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K32)+1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M32" s="5">
@@ -8837,35 +8853,35 @@
         <v>1.9022018705055272</v>
       </c>
       <c r="N32" s="5">
-        <f>I32-K32</f>
+        <f t="shared" si="4"/>
         <v>0.89275499684750237</v>
       </c>
       <c r="O32" s="6" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N32)+1)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P32" s="5">
-        <f>N32/M32</f>
+        <f t="shared" si="6"/>
         <v>0.46932715748525927</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P32)+1)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R32" s="16">
-        <f>IF(I32&gt;K32,1-_xlfn.NORM.DIST(I32,K32,M32,1),_xlfn.NORM.DIST(I32,K32,M32,1))</f>
+        <f t="shared" si="8"/>
         <v>0.31941790315924523</v>
       </c>
       <c r="S32" s="30" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R32)+1)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T32" s="6">
-        <f>E32/K32</f>
+        <f t="shared" si="10"/>
         <v>223.99442918400487</v>
       </c>
       <c r="U32" s="4" t="str">
-        <f>IF($C32=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T32)+1)</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V32" s="4"/>
@@ -8891,7 +8907,7 @@
         <v>900</v>
       </c>
       <c r="F33" s="6">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E33)+1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G33" s="4">
@@ -8899,7 +8915,7 @@
         <v>86</v>
       </c>
       <c r="H33" s="4">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G33)+1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I33" s="4">
@@ -8907,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I33)+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K33" s="5">
@@ -8915,7 +8931,7 @@
         <v>3.562488369159555</v>
       </c>
       <c r="L33" s="6">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K33)+1)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M33" s="5">
@@ -8923,35 +8939,35 @@
         <v>1.7935656079747917</v>
       </c>
       <c r="N33" s="5">
-        <f>I33-K33</f>
+        <f t="shared" si="4"/>
         <v>-2.562488369159555</v>
       </c>
       <c r="O33" s="6">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N33)+1)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="P33" s="5">
-        <f>N33/M33</f>
+        <f t="shared" si="6"/>
         <v>-1.4287118116927955</v>
       </c>
       <c r="Q33" s="4">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P33)+1)</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="R33" s="16">
-        <f>IF(I33&gt;K33,1-_xlfn.NORM.DIST(I33,K33,M33,1),_xlfn.NORM.DIST(I33,K33,M33,1))</f>
+        <f t="shared" si="8"/>
         <v>7.6543540741150745E-2</v>
       </c>
       <c r="S33" s="30">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R33)+1)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="T33" s="6">
-        <f>E33/K33</f>
+        <f t="shared" si="10"/>
         <v>252.63240374096256</v>
       </c>
       <c r="U33" s="4">
-        <f>IF($C33=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T33)+1)</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="V33" s="4"/>
@@ -8977,7 +8993,7 @@
         <v>970</v>
       </c>
       <c r="F34" s="6">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
+        <f t="shared" ref="F34:F65" si="14">IF($C34=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E34)+1)</f>
         <v>7</v>
       </c>
       <c r="G34" s="4">
@@ -8985,7 +9001,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="4">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
+        <f t="shared" ref="H34:H65" si="15">IF($C34=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G34)+1)</f>
         <v>7</v>
       </c>
       <c r="I34" s="4">
@@ -8993,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="4">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
+        <f t="shared" ref="J34:J65" si="16">IF($C34=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I34)+1)</f>
         <v>11</v>
       </c>
       <c r="K34" s="5">
@@ -9001,7 +9017,7 @@
         <v>4.3534509198949252</v>
       </c>
       <c r="L34" s="6">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
+        <f t="shared" ref="L34:L65" si="17">IF($C34=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K34)+1)</f>
         <v>8</v>
       </c>
       <c r="M34" s="5">
@@ -9009,35 +9025,35 @@
         <v>1.9945743168446053</v>
       </c>
       <c r="N34" s="5">
-        <f>I34-K34</f>
+        <f t="shared" ref="N34:N65" si="18">I34-K34</f>
         <v>-1.3534509198949252</v>
       </c>
       <c r="O34" s="6">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
+        <f t="shared" ref="O34:O65" si="19">IF($C34=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N34)+1)</f>
         <v>26</v>
       </c>
       <c r="P34" s="5">
-        <f>N34/M34</f>
+        <f t="shared" ref="P34:P65" si="20">N34/M34</f>
         <v>-0.67856630282699604</v>
       </c>
       <c r="Q34" s="4">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
+        <f t="shared" ref="Q34:Q65" si="21">IF($C34=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P34)+1)</f>
         <v>22</v>
       </c>
       <c r="R34" s="16">
-        <f>IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
+        <f t="shared" ref="R34:R65" si="22">IF(I34&gt;K34,1-_xlfn.NORM.DIST(I34,K34,M34,1),_xlfn.NORM.DIST(I34,K34,M34,1))</f>
         <v>0.24870634998260621</v>
       </c>
       <c r="S34" s="30">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
+        <f t="shared" ref="S34:S65" si="23">IF($C34=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R34)+1)</f>
         <v>14</v>
       </c>
       <c r="T34" s="6">
-        <f>E34/K34</f>
+        <f t="shared" ref="T34:T65" si="24">E34/K34</f>
         <v>222.81174586514274</v>
       </c>
       <c r="U34" s="4">
-        <f>IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
+        <f t="shared" ref="U34:U65" si="25">IF($C34=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T34)+1)</f>
         <v>23</v>
       </c>
       <c r="V34" s="4"/>
@@ -9063,7 +9079,7 @@
         <v>550</v>
       </c>
       <c r="F35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E35)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G35" s="4">
@@ -9071,7 +9087,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G35)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I35" s="4">
@@ -9079,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I35)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="5">
@@ -9087,7 +9103,7 @@
         <v>2.4859439060394397</v>
       </c>
       <c r="L35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K35)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M35" s="5">
@@ -9095,35 +9111,35 @@
         <v>1.5068099169263773</v>
       </c>
       <c r="N35" s="5">
-        <f>I35-K35</f>
+        <f t="shared" si="18"/>
         <v>0.51405609396056029</v>
       </c>
       <c r="O35" s="6" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N35)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P35" s="5">
-        <f>N35/M35</f>
+        <f t="shared" si="20"/>
         <v>0.34115523675948639</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P35)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R35" s="16">
-        <f>IF(I35&gt;K35,1-_xlfn.NORM.DIST(I35,K35,M35,1),_xlfn.NORM.DIST(I35,K35,M35,1))</f>
+        <f t="shared" si="22"/>
         <v>0.36649335990656162</v>
       </c>
       <c r="S35" s="30" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R35)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T35" s="6">
-        <f>E35/K35</f>
+        <f t="shared" si="24"/>
         <v>221.24393018837256</v>
       </c>
       <c r="U35" s="4" t="str">
-        <f>IF($C35=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T35)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V35" s="4"/>
@@ -9149,7 +9165,7 @@
         <v>650</v>
       </c>
       <c r="F36" s="28">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E36)+1)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="G36" s="8">
@@ -9157,7 +9173,7 @@
         <v>65</v>
       </c>
       <c r="H36" s="8">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G36)+1)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="I36" s="8">
@@ -9165,7 +9181,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="8">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I36)+1)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="K36" s="9">
@@ -9173,7 +9189,7 @@
         <v>3.0956886063894959</v>
       </c>
       <c r="L36" s="28">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K36)+1)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="M36" s="9">
@@ -9181,35 +9197,35 @@
         <v>1.6717224598960152</v>
       </c>
       <c r="N36" s="9">
-        <f>I36-K36</f>
+        <f t="shared" si="18"/>
         <v>0.90431139361050406</v>
       </c>
       <c r="O36" s="28">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N36)+1)</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P36" s="5">
-        <f>N36/M36</f>
+        <f t="shared" si="20"/>
         <v>0.54094588982596681</v>
       </c>
       <c r="Q36" s="10">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P36)+1)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="R36" s="16">
-        <f>IF(I36&gt;K36,1-_xlfn.NORM.DIST(I36,K36,M36,1),_xlfn.NORM.DIST(I36,K36,M36,1))</f>
+        <f t="shared" si="22"/>
         <v>0.29427243970880734</v>
       </c>
       <c r="S36" s="30">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R36)+1)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="T36" s="6">
-        <f>E36/K36</f>
+        <f t="shared" si="24"/>
         <v>209.96943899925887</v>
       </c>
       <c r="U36" s="4">
-        <f>IF($C36=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T36)+1)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="V36" s="4"/>
@@ -9235,7 +9251,7 @@
         <v>1460</v>
       </c>
       <c r="F37" s="29" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E37)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G37" s="26">
@@ -9243,7 +9259,7 @@
         <v>146</v>
       </c>
       <c r="H37" s="26" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G37)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I37" s="26">
@@ -9251,7 +9267,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="26" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I37)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K37" s="27">
@@ -9259,7 +9275,7 @@
         <v>5.1080759694107609</v>
       </c>
       <c r="L37" s="29" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K37)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M37" s="27">
@@ -9267,35 +9283,35 @@
         <v>2.0150443563942693</v>
       </c>
       <c r="N37" s="27">
-        <f>I37-K37</f>
+        <f t="shared" si="18"/>
         <v>0.89192403058923908</v>
       </c>
       <c r="O37" s="29" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N37)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P37" s="27">
-        <f>N37/M37</f>
+        <f t="shared" si="20"/>
         <v>0.44263245509158544</v>
       </c>
       <c r="Q37" s="10" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P37)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R37" s="16">
-        <f>IF(I37&gt;K37,1-_xlfn.NORM.DIST(I37,K37,M37,1),_xlfn.NORM.DIST(I37,K37,M37,1))</f>
+        <f t="shared" si="22"/>
         <v>0.32901580282901155</v>
       </c>
       <c r="S37" s="41" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R37)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T37" s="6">
-        <f>E37/K37</f>
+        <f t="shared" si="24"/>
         <v>285.82190412653893</v>
       </c>
       <c r="U37" s="10" t="str">
-        <f>IF($C37=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T37)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V37" s="4"/>
@@ -9321,7 +9337,7 @@
         <v>140</v>
       </c>
       <c r="F38" s="46">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E38)+1)</f>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="G38" s="45">
@@ -9329,7 +9345,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="45">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G38)+1)</f>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I38" s="45">
@@ -9337,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="45">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I38)+1)</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="K38" s="47">
@@ -9345,7 +9361,7 @@
         <v>0.45102685624012639</v>
       </c>
       <c r="L38" s="46">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K38)+1)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="M38" s="47">
@@ -9353,35 +9369,35 @@
         <v>0.64934374156921504</v>
       </c>
       <c r="N38" s="47">
-        <f>I38-K38</f>
+        <f t="shared" si="18"/>
         <v>-0.45102685624012639</v>
       </c>
       <c r="O38" s="46">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N38)+1)</f>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="P38" s="47">
-        <f>N38/M38</f>
+        <f t="shared" si="20"/>
         <v>-0.69458874763336798</v>
       </c>
       <c r="Q38" s="10">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P38)+1)</f>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="R38" s="16">
-        <f>IF(I38&gt;K38,1-_xlfn.NORM.DIST(I38,K38,M38,1),_xlfn.NORM.DIST(I38,K38,M38,1))</f>
+        <f t="shared" si="22"/>
         <v>0.24365653299274614</v>
       </c>
       <c r="S38" s="48">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R38)+1)</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="T38" s="6">
-        <f>E38/K38</f>
+        <f t="shared" si="24"/>
         <v>310.40280210157619</v>
       </c>
       <c r="U38" s="10">
-        <f>IF($C38=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T38)+1)</f>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="V38" s="4"/>
@@ -9407,7 +9423,7 @@
         <v>110</v>
       </c>
       <c r="F39" s="46">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E39)+1)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="G39" s="45">
@@ -9415,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="45">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G39)+1)</f>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I39" s="45">
@@ -9423,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="45">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I39)+1)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="K39" s="47">
@@ -9431,7 +9447,7 @@
         <v>0.44510268562401262</v>
       </c>
       <c r="L39" s="46">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K39)+1)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="M39" s="47">
@@ -9439,35 +9455,35 @@
         <v>0.63884076444179816</v>
       </c>
       <c r="N39" s="47">
-        <f>I39-K39</f>
+        <f t="shared" si="18"/>
         <v>0.55489731437598744</v>
       </c>
       <c r="O39" s="46">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N39)+1)</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="P39" s="47">
-        <f>N39/M39</f>
+        <f t="shared" si="20"/>
         <v>0.86860035436348804</v>
       </c>
       <c r="Q39" s="10">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P39)+1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="R39" s="16">
-        <f>IF(I39&gt;K39,1-_xlfn.NORM.DIST(I39,K39,M39,1),_xlfn.NORM.DIST(I39,K39,M39,1))</f>
+        <f t="shared" si="22"/>
         <v>0.19253288029890714</v>
       </c>
       <c r="S39" s="48">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R39)+1)</f>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="T39" s="6">
-        <f>E39/K39</f>
+        <f t="shared" si="24"/>
         <v>247.13398402839397</v>
       </c>
       <c r="U39" s="10">
-        <f>IF($C39=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T39)+1)</f>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="V39" s="4"/>
@@ -9493,7 +9509,7 @@
         <v>70</v>
       </c>
       <c r="F40" s="46" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E40)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G40" s="45">
@@ -9501,7 +9517,7 @@
         <v>7</v>
       </c>
       <c r="H40" s="45" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G40)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I40" s="45">
@@ -9509,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="45" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I40)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K40" s="47">
@@ -9517,7 +9533,7 @@
         <v>0.40163934426229508</v>
       </c>
       <c r="L40" s="46" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K40)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M40" s="47">
@@ -9525,35 +9541,35 @@
         <v>0.59985096870342769</v>
       </c>
       <c r="N40" s="47">
-        <f>I40-K40</f>
+        <f t="shared" si="18"/>
         <v>0.59836065573770492</v>
       </c>
       <c r="O40" s="46" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N40)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P40" s="47">
-        <f>N40/M40</f>
+        <f t="shared" si="20"/>
         <v>0.99751552795031062</v>
       </c>
       <c r="Q40" s="10" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P40)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R40" s="16">
-        <f>IF(I40&gt;K40,1-_xlfn.NORM.DIST(I40,K40,M40,1),_xlfn.NORM.DIST(I40,K40,M40,1))</f>
+        <f t="shared" si="22"/>
         <v>0.15925717022701158</v>
       </c>
       <c r="S40" s="48" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R40)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T40" s="6">
-        <f>E40/K40</f>
+        <f t="shared" si="24"/>
         <v>174.28571428571428</v>
       </c>
       <c r="U40" s="10" t="str">
-        <f>IF($C40=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T40)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V40" s="4"/>
@@ -9579,7 +9595,7 @@
         <v>270</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E41)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G41" s="4">
@@ -9587,7 +9603,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G41)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I41" s="4">
@@ -9595,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I41)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K41" s="5">
@@ -9603,7 +9619,7 @@
         <v>1.0975313272294744</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K41)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M41" s="5">
@@ -9611,35 +9627,35 @@
         <v>1.0115690860951829</v>
       </c>
       <c r="N41" s="5">
-        <f>I41-K41</f>
+        <f t="shared" si="18"/>
         <v>-1.0975313272294744</v>
       </c>
       <c r="O41" s="6" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N41)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P41" s="5">
-        <f>N41/M41</f>
+        <f t="shared" si="20"/>
         <v>-1.0849791104887549</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P41)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R41" s="16">
-        <f>IF(I41&gt;K41,1-_xlfn.NORM.DIST(I41,K41,M41,1),_xlfn.NORM.DIST(I41,K41,M41,1))</f>
+        <f t="shared" si="22"/>
         <v>0.13896545370290456</v>
       </c>
       <c r="S41" s="30" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R41)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T41" s="6">
-        <f>E41/K41</f>
+        <f t="shared" si="24"/>
         <v>246.00664536981162</v>
       </c>
       <c r="U41" s="4" t="str">
-        <f>IF($C41=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T41)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V41" s="4"/>
@@ -9665,7 +9681,7 @@
         <v>410</v>
       </c>
       <c r="F42" s="6">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E42)+1)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="G42" s="4">
@@ -9673,7 +9689,7 @@
         <v>39</v>
       </c>
       <c r="H42" s="4">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G42)+1)</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="I42" s="4">
@@ -9681,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="4">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I42)+1)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="K42" s="5">
@@ -9689,7 +9705,7 @@
         <v>1.6703246855316638</v>
       </c>
       <c r="L42" s="6">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K42)+1)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="M42" s="5">
@@ -9697,35 +9713,35 @@
         <v>1.245982760280343</v>
       </c>
       <c r="N42" s="5">
-        <f>I42-K42</f>
+        <f t="shared" si="18"/>
         <v>-0.6703246855316638</v>
       </c>
       <c r="O42" s="6">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N42)+1)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="P42" s="5">
-        <f>N42/M42</f>
+        <f t="shared" si="20"/>
         <v>-0.5379887321882707</v>
       </c>
       <c r="Q42" s="4">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P42)+1)</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="R42" s="16">
-        <f>IF(I42&gt;K42,1-_xlfn.NORM.DIST(I42,K42,M42,1),_xlfn.NORM.DIST(I42,K42,M42,1))</f>
+        <f t="shared" si="22"/>
         <v>0.29529241384275995</v>
       </c>
       <c r="S42" s="30">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R42)+1)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="T42" s="6">
-        <f>E42/K42</f>
+        <f t="shared" si="24"/>
         <v>245.46125885069893</v>
       </c>
       <c r="U42" s="4">
-        <f>IF($C42=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T42)+1)</f>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="V42" s="4"/>
@@ -9751,7 +9767,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="46" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E43)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G43" s="45">
@@ -9759,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="45" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G43)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I43" s="45">
@@ -9767,7 +9783,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="45" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I43)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K43" s="47">
@@ -9775,7 +9791,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="L43" s="46" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K43)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M43" s="47">
@@ -9783,35 +9799,35 @@
         <v>0.50856891930369497</v>
       </c>
       <c r="N43" s="47">
-        <f>I43-K43</f>
+        <f t="shared" si="18"/>
         <v>1.7250000000000001</v>
       </c>
       <c r="O43" s="46" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N43)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P43" s="47">
-        <f>N43/M43</f>
+        <f t="shared" si="20"/>
         <v>3.3918706679161139</v>
       </c>
       <c r="Q43" s="10" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P43)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R43" s="16">
-        <f>IF(I43&gt;K43,1-_xlfn.NORM.DIST(I43,K43,M43,1),_xlfn.NORM.DIST(I43,K43,M43,1))</f>
+        <f t="shared" si="22"/>
         <v>3.470859913787816E-4</v>
       </c>
       <c r="S43" s="48" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R43)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T43" s="6">
-        <f>E43/K43</f>
+        <f t="shared" si="24"/>
         <v>218.18181818181816</v>
       </c>
       <c r="U43" s="10" t="str">
-        <f>IF($C43=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T43)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V43" s="4"/>
@@ -9837,7 +9853,7 @@
         <v>130</v>
       </c>
       <c r="F44" s="29" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E44)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G44" s="26">
@@ -9845,7 +9861,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="26" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G44)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I44" s="26">
@@ -9853,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I44)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K44" s="27">
@@ -9861,7 +9877,7 @@
         <v>0.59117647058823541</v>
       </c>
       <c r="L44" s="29" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K44)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M44" s="27">
@@ -9869,35 +9885,35 @@
         <v>0.73055024326446005</v>
       </c>
       <c r="N44" s="27">
-        <f>I44-K44</f>
+        <f t="shared" si="18"/>
         <v>-0.59117647058823541</v>
       </c>
       <c r="O44" s="29" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N44)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P44" s="27">
-        <f>N44/M44</f>
+        <f t="shared" si="20"/>
         <v>-0.80922082504081627</v>
       </c>
       <c r="Q44" s="10" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P44)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R44" s="16">
-        <f>IF(I44&gt;K44,1-_xlfn.NORM.DIST(I44,K44,M44,1),_xlfn.NORM.DIST(I44,K44,M44,1))</f>
+        <f t="shared" si="22"/>
         <v>0.2091940691709436</v>
       </c>
       <c r="S44" s="41" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R44)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T44" s="6">
-        <f>E44/K44</f>
+        <f t="shared" si="24"/>
         <v>219.90049751243777</v>
       </c>
       <c r="U44" s="10" t="str">
-        <f>IF($C44=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T44)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V44" s="4"/>
@@ -9923,7 +9939,7 @@
         <v>170</v>
       </c>
       <c r="F45" s="29" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E45)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G45" s="26">
@@ -9931,7 +9947,7 @@
         <v>17</v>
       </c>
       <c r="H45" s="26" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G45)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I45" s="26">
@@ -9939,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="26" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I45)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K45" s="27">
@@ -9947,7 +9963,7 @@
         <v>0.68572660008786301</v>
       </c>
       <c r="L45" s="29" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K45)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M45" s="27">
@@ -9955,35 +9971,35 @@
         <v>0.80007672906497651</v>
       </c>
       <c r="N45" s="27">
-        <f>I45-K45</f>
+        <f t="shared" si="18"/>
         <v>-0.68572660008786301</v>
       </c>
       <c r="O45" s="29" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N45)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P45" s="27">
-        <f>N45/M45</f>
+        <f t="shared" si="20"/>
         <v>-0.85707604680522231</v>
       </c>
       <c r="Q45" s="10" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P45)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R45" s="16">
-        <f>IF(I45&gt;K45,1-_xlfn.NORM.DIST(I45,K45,M45,1),_xlfn.NORM.DIST(I45,K45,M45,1))</f>
+        <f t="shared" si="22"/>
         <v>0.19570142905695206</v>
       </c>
       <c r="S45" s="41" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R45)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T45" s="6">
-        <f>E45/K45</f>
+        <f t="shared" si="24"/>
         <v>247.9122145447146</v>
       </c>
       <c r="U45" s="10" t="str">
-        <f>IF($C45=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T45)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V45" s="4"/>
@@ -10009,7 +10025,7 @@
         <v>750</v>
       </c>
       <c r="F46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E46)+1)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G46" s="4">
@@ -10017,7 +10033,7 @@
         <v>65</v>
       </c>
       <c r="H46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G46)+1)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="I46" s="4">
@@ -10025,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I46)+1)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="K46" s="5">
@@ -10033,7 +10049,7 @@
         <v>3.0749747879706155</v>
       </c>
       <c r="L46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K46)+1)</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="M46" s="5">
@@ -10041,35 +10057,35 @@
         <v>1.6670556241583492</v>
       </c>
       <c r="N46" s="5">
-        <f>I46-K46</f>
+        <f t="shared" si="18"/>
         <v>-1.0749747879706155</v>
       </c>
       <c r="O46" s="6">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N46)+1)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="P46" s="5">
-        <f>N46/M46</f>
+        <f t="shared" si="20"/>
         <v>-0.64483438488343237</v>
       </c>
       <c r="Q46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P46)+1)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="R46" s="16">
-        <f>IF(I46&gt;K46,1-_xlfn.NORM.DIST(I46,K46,M46,1),_xlfn.NORM.DIST(I46,K46,M46,1))</f>
+        <f t="shared" si="22"/>
         <v>0.25951725827739575</v>
       </c>
       <c r="S46" s="30">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R46)+1)</f>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="T46" s="6">
-        <f>E46/K46</f>
+        <f t="shared" si="24"/>
         <v>243.90443880516364</v>
       </c>
       <c r="U46" s="4">
-        <f>IF($C46=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T46)+1)</f>
+        <f t="shared" si="25"/>
         <v>29</v>
       </c>
       <c r="V46" s="4"/>
@@ -10095,7 +10111,7 @@
         <v>860</v>
       </c>
       <c r="F47" s="6">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E47)+1)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="G47" s="4">
@@ -10103,7 +10119,7 @@
         <v>85</v>
       </c>
       <c r="H47" s="4">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G47)+1)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="I47" s="4">
@@ -10111,7 +10127,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="4">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I47)+1)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K47" s="5">
@@ -10119,7 +10135,7 @@
         <v>3.8059384171605499</v>
       </c>
       <c r="L47" s="6">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K47)+1)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="M47" s="5">
@@ -10127,35 +10143,35 @@
         <v>1.8697596112891726</v>
       </c>
       <c r="N47" s="5">
-        <f>I47-K47</f>
+        <f t="shared" si="18"/>
         <v>2.1940615828394501</v>
       </c>
       <c r="O47" s="6">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N47)+1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P47" s="5">
-        <f>N47/M47</f>
+        <f t="shared" si="20"/>
         <v>1.1734458106765264</v>
       </c>
       <c r="Q47" s="4">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P47)+1)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="R47" s="16">
-        <f>IF(I47&gt;K47,1-_xlfn.NORM.DIST(I47,K47,M47,1),_xlfn.NORM.DIST(I47,K47,M47,1))</f>
+        <f t="shared" si="22"/>
         <v>0.12030853778064177</v>
       </c>
       <c r="S47" s="30">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R47)+1)</f>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="T47" s="6">
-        <f>E47/K47</f>
+        <f t="shared" si="24"/>
         <v>225.96266826661102</v>
       </c>
       <c r="U47" s="4">
-        <f>IF($C47=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T47)+1)</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="X47" s="4"/>
@@ -10180,7 +10196,7 @@
         <v>50</v>
       </c>
       <c r="F48" s="29" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E48)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G48" s="26">
@@ -10188,7 +10204,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="26" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G48)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I48" s="26">
@@ -10196,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="26" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I48)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K48" s="27">
@@ -10204,7 +10220,7 @@
         <v>0.13966480446927373</v>
       </c>
       <c r="L48" s="29" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K48)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M48" s="27">
@@ -10212,35 +10228,35 @@
         <v>0.36429752481921757</v>
       </c>
       <c r="N48" s="27">
-        <f>I48-K48</f>
+        <f t="shared" si="18"/>
         <v>-0.13966480446927373</v>
       </c>
       <c r="O48" s="29" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N48)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P48" s="27">
-        <f>N48/M48</f>
+        <f t="shared" si="20"/>
         <v>-0.3833811512679981</v>
       </c>
       <c r="Q48" s="10" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P48)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R48" s="16">
-        <f>IF(I48&gt;K48,1-_xlfn.NORM.DIST(I48,K48,M48,1),_xlfn.NORM.DIST(I48,K48,M48,1))</f>
+        <f t="shared" si="22"/>
         <v>0.35071858839852854</v>
       </c>
       <c r="S48" s="41" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R48)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T48" s="6">
-        <f>E48/K48</f>
+        <f t="shared" si="24"/>
         <v>358</v>
       </c>
       <c r="U48" s="10" t="str">
-        <f>IF($C48=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T48)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X48" s="4"/>
@@ -10265,7 +10281,7 @@
         <v>180</v>
       </c>
       <c r="F49" s="28" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E49)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G49" s="8">
@@ -10273,7 +10289,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="8" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G49)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I49" s="8">
@@ -10281,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="8" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I49)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K49" s="9">
@@ -10289,7 +10305,7 @@
         <v>0.77946480083496894</v>
       </c>
       <c r="L49" s="28" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K49)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M49" s="9">
@@ -10297,35 +10313,35 @@
         <v>0.85313059319831075</v>
       </c>
       <c r="N49" s="9">
-        <f>I49-K49</f>
+        <f t="shared" si="18"/>
         <v>0.22053519916503106</v>
       </c>
       <c r="O49" s="28" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N49)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P49" s="5">
-        <f>N49/M49</f>
+        <f t="shared" si="20"/>
         <v>0.2585011027892743</v>
       </c>
       <c r="Q49" s="10" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P49)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R49" s="16">
-        <f>IF(I49&gt;K49,1-_xlfn.NORM.DIST(I49,K49,M49,1),_xlfn.NORM.DIST(I49,K49,M49,1))</f>
+        <f t="shared" si="22"/>
         <v>0.39801009896921591</v>
       </c>
       <c r="S49" s="30" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R49)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T49" s="6">
-        <f>E49/K49</f>
+        <f t="shared" si="24"/>
         <v>230.92768243951818</v>
       </c>
       <c r="U49" s="4" t="str">
-        <f>IF($C49=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T49)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X49" s="4"/>
@@ -10350,7 +10366,7 @@
         <v>1360</v>
       </c>
       <c r="F50" s="6" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E50)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G50" s="4">
@@ -10358,7 +10374,7 @@
         <v>127</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G50)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I50" s="4">
@@ -10366,7 +10382,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I50)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K50" s="5">
@@ -10374,7 +10390,7 @@
         <v>6.0719704412152948</v>
       </c>
       <c r="L50" s="6" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K50)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M50" s="5">
@@ -10382,35 +10398,35 @@
         <v>2.2871608424340759</v>
       </c>
       <c r="N50" s="5">
-        <f>I50-K50</f>
+        <f t="shared" si="18"/>
         <v>-1.0719704412152948</v>
       </c>
       <c r="O50" s="6" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N50)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P50" s="5">
-        <f>N50/M50</f>
+        <f t="shared" si="20"/>
         <v>-0.46869044858011238</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P50)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R50" s="16">
-        <f>IF(I50&gt;K50,1-_xlfn.NORM.DIST(I50,K50,M50,1),_xlfn.NORM.DIST(I50,K50,M50,1))</f>
+        <f t="shared" si="22"/>
         <v>0.3196454575746297</v>
       </c>
       <c r="S50" s="30" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R50)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T50" s="6">
-        <f>E50/K50</f>
+        <f t="shared" si="24"/>
         <v>223.98000997643169</v>
       </c>
       <c r="U50" s="4" t="str">
-        <f>IF($C50=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T50)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X50" s="4"/>
@@ -10435,7 +10451,7 @@
         <v>40</v>
       </c>
       <c r="F51" s="28" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E51)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G51" s="8">
@@ -10443,7 +10459,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G51)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I51" s="8">
@@ -10451,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="8" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I51)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K51" s="9">
@@ -10459,7 +10475,7 @@
         <v>0.44943930749557348</v>
       </c>
       <c r="L51" s="28" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K51)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M51" s="9">
@@ -10467,35 +10483,35 @@
         <v>0.61791657214945761</v>
       </c>
       <c r="N51" s="9">
-        <f>I51-K51</f>
+        <f t="shared" si="18"/>
         <v>-0.44943930749557348</v>
       </c>
       <c r="O51" s="28" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N51)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P51" s="5">
-        <f>N51/M51</f>
+        <f t="shared" si="20"/>
         <v>-0.72734625959645904</v>
       </c>
       <c r="Q51" s="10" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P51)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R51" s="16">
-        <f>IF(I51&gt;K51,1-_xlfn.NORM.DIST(I51,K51,M51,1),_xlfn.NORM.DIST(I51,K51,M51,1))</f>
+        <f t="shared" si="22"/>
         <v>0.23350693326254907</v>
       </c>
       <c r="S51" s="30" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R51)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T51" s="6">
-        <f>E51/K51</f>
+        <f t="shared" si="24"/>
         <v>88.999781133727296</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f>IF($C51=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T51)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X51" s="4"/>
@@ -10520,7 +10536,7 @@
         <v>2060</v>
       </c>
       <c r="F52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E52)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G52" s="4">
@@ -10528,7 +10544,7 @@
         <v>189</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G52)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I52" s="4">
@@ -10536,7 +10552,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I52)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K52" s="5">
@@ -10544,7 +10560,7 @@
         <v>8.7731840201125806</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K52)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M52" s="5">
@@ -10552,35 +10568,35 @@
         <v>2.7176050085623271</v>
       </c>
       <c r="N52" s="5">
-        <f>I52-K52</f>
+        <f t="shared" si="18"/>
         <v>-0.77318402011258058</v>
       </c>
       <c r="O52" s="6" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N52)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P52" s="5">
-        <f>N52/M52</f>
+        <f t="shared" si="20"/>
         <v>-0.28450934469009237</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P52)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R52" s="16">
-        <f>IF(I52&gt;K52,1-_xlfn.NORM.DIST(I52,K52,M52,1),_xlfn.NORM.DIST(I52,K52,M52,1))</f>
+        <f t="shared" si="22"/>
         <v>0.3880100368901796</v>
       </c>
       <c r="S52" s="30" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R52)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T52" s="6">
-        <f>E52/K52</f>
+        <f t="shared" si="24"/>
         <v>234.80642777780983</v>
       </c>
       <c r="U52" s="4" t="str">
-        <f>IF($C52=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T52)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -10603,7 +10619,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="29" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E53)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G53" s="26">
@@ -10611,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="26" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G53)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I53" s="26">
@@ -10619,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="26" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I53)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K53" s="27">
@@ -10627,7 +10643,7 @@
         <v>4.046242774566474E-2</v>
       </c>
       <c r="L53" s="29" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K53)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M53" s="27">
@@ -10635,35 +10651,35 @@
         <v>0.19704116241687067</v>
       </c>
       <c r="N53" s="27">
-        <f>I53-K53</f>
+        <f t="shared" si="18"/>
         <v>-4.046242774566474E-2</v>
       </c>
       <c r="O53" s="29" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N53)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P53" s="5">
-        <f>N53/M53</f>
+        <f t="shared" si="20"/>
         <v>-0.20535012709710013</v>
       </c>
       <c r="Q53" s="10" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P53)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R53" s="16">
-        <f>IF(I53&gt;K53,1-_xlfn.NORM.DIST(I53,K53,M53,1),_xlfn.NORM.DIST(I53,K53,M53,1))</f>
+        <f t="shared" si="22"/>
         <v>0.41864929133648948</v>
       </c>
       <c r="S53" s="30" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R53)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T53" s="6">
-        <f>E53/K53</f>
+        <f t="shared" si="24"/>
         <v>247.14285714285714</v>
       </c>
       <c r="U53" s="10" t="str">
-        <f>IF($C53=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T53)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -10686,7 +10702,7 @@
         <v>790</v>
       </c>
       <c r="F54" s="6" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E54)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G54" s="4">
@@ -10694,7 +10710,7 @@
         <v>69</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G54)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I54" s="4">
@@ -10702,7 +10718,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I54)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K54" s="5">
@@ -10710,7 +10726,7 @@
         <v>3.2250613603274099</v>
       </c>
       <c r="L54" s="6" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K54)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M54" s="5">
@@ -10718,35 +10734,35 @@
         <v>1.6993617556865768</v>
       </c>
       <c r="N54" s="5">
-        <f>I54-K54</f>
+        <f t="shared" si="18"/>
         <v>1.7749386396725901</v>
       </c>
       <c r="O54" s="6" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N54)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P54" s="5">
-        <f>N54/M54</f>
+        <f t="shared" si="20"/>
         <v>1.0444736876848677</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P54)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R54" s="16">
-        <f>IF(I54&gt;K54,1-_xlfn.NORM.DIST(I54,K54,M54,1),_xlfn.NORM.DIST(I54,K54,M54,1))</f>
+        <f t="shared" si="22"/>
         <v>0.1481331433566947</v>
       </c>
       <c r="S54" s="30" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R54)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T54" s="6">
-        <f>E54/K54</f>
+        <f t="shared" si="24"/>
         <v>244.95657965397558</v>
       </c>
       <c r="U54" s="4" t="str">
-        <f>IF($C54=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T54)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -10769,7 +10785,7 @@
         <v>350</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E55)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G55" s="4">
@@ -10777,7 +10793,7 @@
         <v>26</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G55)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I55" s="4">
@@ -10785,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I55)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K55" s="5">
@@ -10793,7 +10809,7 @@
         <v>1.7386807932020698</v>
       </c>
       <c r="L55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K55)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M55" s="5">
@@ -10801,35 +10817,35 @@
         <v>1.2196223879112047</v>
       </c>
       <c r="N55" s="5">
-        <f>I55-K55</f>
+        <f t="shared" si="18"/>
         <v>0.26131920679793019</v>
       </c>
       <c r="O55" s="6" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N55)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P55" s="5">
-        <f>N55/M55</f>
+        <f t="shared" si="20"/>
         <v>0.21426238923465521</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P55)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R55" s="16">
-        <f>IF(I55&gt;K55,1-_xlfn.NORM.DIST(I55,K55,M55,1),_xlfn.NORM.DIST(I55,K55,M55,1))</f>
+        <f t="shared" si="22"/>
         <v>0.41517122299034059</v>
       </c>
       <c r="S55" s="30" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R55)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T55" s="6">
-        <f>E55/K55</f>
+        <f t="shared" si="24"/>
         <v>201.3020454176737</v>
       </c>
       <c r="U55" s="4" t="str">
-        <f>IF($C55=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T55)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -10852,7 +10868,7 @@
         <v>800</v>
       </c>
       <c r="F56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E56)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G56" s="4">
@@ -10860,7 +10876,7 @@
         <v>75</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G56)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I56" s="4">
@@ -10868,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I56)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K56" s="5">
@@ -10876,7 +10892,7 @@
         <v>3.0883035773743104</v>
       </c>
       <c r="L56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K56)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M56" s="5">
@@ -10884,35 +10900,35 @@
         <v>1.645289709282524</v>
       </c>
       <c r="N56" s="5">
-        <f>I56-K56</f>
+        <f t="shared" si="18"/>
         <v>0.91169642262568962</v>
       </c>
       <c r="O56" s="6" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N56)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P56" s="5">
-        <f>N56/M56</f>
+        <f t="shared" si="20"/>
         <v>0.55412515952783847</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P56)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R56" s="16">
-        <f>IF(I56&gt;K56,1-_xlfn.NORM.DIST(I56,K56,M56,1),_xlfn.NORM.DIST(I56,K56,M56,1))</f>
+        <f t="shared" si="22"/>
         <v>0.28974659632997213</v>
       </c>
       <c r="S56" s="30" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R56)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T56" s="6">
-        <f>E56/K56</f>
+        <f t="shared" si="24"/>
         <v>259.04189143224175</v>
       </c>
       <c r="U56" s="4" t="str">
-        <f>IF($C56=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T56)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -10935,7 +10951,7 @@
         <v>360</v>
       </c>
       <c r="F57" s="28" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E57)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G57" s="8">
@@ -10943,7 +10959,7 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G57)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I57" s="8">
@@ -10951,7 +10967,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I57)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K57" s="9">
@@ -10959,7 +10975,7 @@
         <v>1.7654362892118982</v>
       </c>
       <c r="L57" s="28" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K57)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M57" s="9">
@@ -10967,35 +10983,35 @@
         <v>1.2439598119364987</v>
       </c>
       <c r="N57" s="9">
-        <f>I57-K57</f>
+        <f t="shared" si="18"/>
         <v>2.2345637107881018</v>
       </c>
       <c r="O57" s="28" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N57)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P57" s="5">
-        <f>N57/M57</f>
+        <f t="shared" si="20"/>
         <v>1.7963311108174056</v>
       </c>
       <c r="Q57" s="10" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P57)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R57" s="16">
-        <f>IF(I57&gt;K57,1-_xlfn.NORM.DIST(I57,K57,M57,1),_xlfn.NORM.DIST(I57,K57,M57,1))</f>
+        <f t="shared" si="22"/>
         <v>3.6220936405928716E-2</v>
       </c>
       <c r="S57" s="30" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R57)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T57" s="6">
-        <f>E57/K57</f>
+        <f t="shared" si="24"/>
         <v>203.9155999000713</v>
       </c>
       <c r="U57" s="4" t="str">
-        <f>IF($C57=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T57)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11018,7 +11034,7 @@
         <v>580</v>
       </c>
       <c r="F58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E58)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G58" s="4">
@@ -11026,7 +11042,7 @@
         <v>55</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G58)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I58" s="4">
@@ -11034,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I58)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K58" s="5">
@@ -11042,7 +11058,7 @@
         <v>2.3740803347134869</v>
       </c>
       <c r="L58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K58)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M58" s="5">
@@ -11050,35 +11066,35 @@
         <v>1.4608189121183603</v>
       </c>
       <c r="N58" s="5">
-        <f>I58-K58</f>
+        <f t="shared" si="18"/>
         <v>0.6259196652865131</v>
       </c>
       <c r="O58" s="6" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N58)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P58" s="5">
-        <f>N58/M58</f>
+        <f t="shared" si="20"/>
         <v>0.42847177024759042</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P58)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R58" s="16">
-        <f>IF(I58&gt;K58,1-_xlfn.NORM.DIST(I58,K58,M58,1),_xlfn.NORM.DIST(I58,K58,M58,1))</f>
+        <f t="shared" si="22"/>
         <v>0.33415384099578926</v>
       </c>
       <c r="S58" s="30" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R58)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T58" s="6">
-        <f>E58/K58</f>
+        <f t="shared" si="24"/>
         <v>244.30512797706007</v>
       </c>
       <c r="U58" s="4" t="str">
-        <f>IF($C58=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T58)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11101,7 +11117,7 @@
         <v>720</v>
       </c>
       <c r="F59" s="6" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E59)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G59" s="4">
@@ -11109,7 +11125,7 @@
         <v>68</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G59)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I59" s="4">
@@ -11117,7 +11133,7 @@
         <v>7</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I59)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K59" s="5">
@@ -11125,7 +11141,7 @@
         <v>3.2402189600805982</v>
       </c>
       <c r="L59" s="6" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K59)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M59" s="5">
@@ -11133,35 +11149,35 @@
         <v>1.6903967309717229</v>
       </c>
       <c r="N59" s="5">
-        <f>I59-K59</f>
+        <f t="shared" si="18"/>
         <v>3.7597810399194018</v>
       </c>
       <c r="O59" s="6" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N59)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P59" s="5">
-        <f>N59/M59</f>
+        <f t="shared" si="20"/>
         <v>2.224200373221318</v>
       </c>
       <c r="Q59" s="4" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P59)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R59" s="16">
-        <f>IF(I59&gt;K59,1-_xlfn.NORM.DIST(I59,K59,M59,1),_xlfn.NORM.DIST(I59,K59,M59,1))</f>
+        <f t="shared" si="22"/>
         <v>1.3067482981361178E-2</v>
       </c>
       <c r="S59" s="30" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R59)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T59" s="6">
-        <f>E59/K59</f>
+        <f t="shared" si="24"/>
         <v>222.20720539888777</v>
       </c>
       <c r="U59" s="4" t="str">
-        <f>IF($C59=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T59)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11184,7 +11200,7 @@
         <v>1570</v>
       </c>
       <c r="F60" s="6" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E60)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G60" s="4">
@@ -11192,7 +11208,7 @@
         <v>147</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G60)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I60" s="4">
@@ -11200,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I60)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K60" s="5">
@@ -11208,7 +11224,7 @@
         <v>5.3872370398255942</v>
       </c>
       <c r="L60" s="6" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K60)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M60" s="5">
@@ -11216,35 +11232,35 @@
         <v>2.1480307909963821</v>
       </c>
       <c r="N60" s="5">
-        <f>I60-K60</f>
+        <f t="shared" si="18"/>
         <v>-1.3872370398255942</v>
       </c>
       <c r="O60" s="6" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N60)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P60" s="5">
-        <f>N60/M60</f>
+        <f t="shared" si="20"/>
         <v>-0.6458180421064228</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P60)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R60" s="16">
-        <f>IF(I60&gt;K60,1-_xlfn.NORM.DIST(I60,K60,M60,1),_xlfn.NORM.DIST(I60,K60,M60,1))</f>
+        <f t="shared" si="22"/>
         <v>0.25919860106105741</v>
       </c>
       <c r="S60" s="30" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R60)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T60" s="6">
-        <f>E60/K60</f>
+        <f t="shared" si="24"/>
         <v>291.4295377006145</v>
       </c>
       <c r="U60" s="6" t="str">
-        <f>IF($C60=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T60)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11267,7 +11283,7 @@
         <v>800</v>
       </c>
       <c r="F61" s="6" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E61)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G61" s="4">
@@ -11275,7 +11291,7 @@
         <v>75</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G61)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I61" s="4">
@@ -11283,7 +11299,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I61)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K61" s="5">
@@ -11291,7 +11307,7 @@
         <v>2.9991021425331783</v>
       </c>
       <c r="L61" s="6" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K61)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M61" s="5">
@@ -11299,35 +11315,35 @@
         <v>1.640793642686911</v>
       </c>
       <c r="N61" s="5">
-        <f>I61-K61</f>
+        <f t="shared" si="18"/>
         <v>1.0008978574668217</v>
       </c>
       <c r="O61" s="6" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N61)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P61" s="5">
-        <f>N61/M61</f>
+        <f t="shared" si="20"/>
         <v>0.61000837120979057</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P61)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R61" s="16">
-        <f>IF(I61&gt;K61,1-_xlfn.NORM.DIST(I61,K61,M61,1),_xlfn.NORM.DIST(I61,K61,M61,1))</f>
+        <f t="shared" si="22"/>
         <v>0.27092813112251135</v>
       </c>
       <c r="S61" s="30" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R61)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T61" s="6">
-        <f>E61/K61</f>
+        <f t="shared" si="24"/>
         <v>266.74650011229147</v>
       </c>
       <c r="U61" s="4" t="str">
-        <f>IF($C61=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T61)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11350,7 +11366,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="6" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E62)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G62" s="8">
@@ -11358,7 +11374,7 @@
         <v>12</v>
       </c>
       <c r="H62" s="8" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G62)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I62" s="8">
@@ -11366,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I62)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K62" s="9">
@@ -11374,7 +11390,7 @@
         <v>0.98785425101214575</v>
       </c>
       <c r="L62" s="28" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K62)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M62" s="9">
@@ -11382,35 +11398,35 @@
         <v>0.90534417201851047</v>
       </c>
       <c r="N62" s="9">
-        <f>I62-K62</f>
+        <f t="shared" si="18"/>
         <v>-0.98785425101214575</v>
       </c>
       <c r="O62" s="6" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N62)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P62" s="5">
-        <f>N62/M62</f>
+        <f t="shared" si="20"/>
         <v>-1.0911366986652986</v>
       </c>
       <c r="Q62" s="10" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P62)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R62" s="16">
-        <f>IF(I62&gt;K62,1-_xlfn.NORM.DIST(I62,K62,M62,1),_xlfn.NORM.DIST(I62,K62,M62,1))</f>
+        <f t="shared" si="22"/>
         <v>0.137606368366785</v>
       </c>
       <c r="S62" s="6" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R62)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T62" s="6">
-        <f>E62/K62</f>
+        <f t="shared" si="24"/>
         <v>101.22950819672131</v>
       </c>
       <c r="U62" s="6" t="str">
-        <f>IF($C62=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T62)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11433,7 +11449,7 @@
         <v>150</v>
       </c>
       <c r="F63" s="6" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E63)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G63" s="4">
@@ -11441,7 +11457,7 @@
         <v>11</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G63)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I63" s="4">
@@ -11449,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I63)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K63" s="5">
@@ -11457,7 +11473,7 @@
         <v>0.70284369885433717</v>
       </c>
       <c r="L63" s="6" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K63)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M63" s="5">
@@ -11465,35 +11481,35 @@
         <v>0.78059289122728581</v>
       </c>
       <c r="N63" s="5">
-        <f>I63-K63</f>
+        <f t="shared" si="18"/>
         <v>0.29715630114566283</v>
       </c>
       <c r="O63" s="6" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N63)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P63" s="5">
-        <f>N63/M63</f>
+        <f t="shared" si="20"/>
         <v>0.38068025533573507</v>
       </c>
       <c r="Q63" s="4" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P63)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R63" s="16">
-        <f>IF(I63&gt;K63,1-_xlfn.NORM.DIST(I63,K63,M63,1),_xlfn.NORM.DIST(I63,K63,M63,1))</f>
+        <f t="shared" si="22"/>
         <v>0.35172026081826924</v>
       </c>
       <c r="S63" s="30" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R63)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T63" s="6">
-        <f>E63/K63</f>
+        <f t="shared" si="24"/>
         <v>213.41871634405473</v>
       </c>
       <c r="U63" s="4" t="str">
-        <f>IF($C63=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T63)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11516,7 +11532,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="6" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E64)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G64" s="4">
@@ -11524,7 +11540,7 @@
         <v>6</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G64)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I64" s="4">
@@ -11532,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I64)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K64" s="5">
@@ -11540,7 +11556,7 @@
         <v>0.54326923076923084</v>
       </c>
       <c r="L64" s="6" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K64)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M64" s="5">
@@ -11548,35 +11564,35 @@
         <v>0.67686632105875888</v>
       </c>
       <c r="N64" s="5">
-        <f>I64-K64</f>
+        <f t="shared" si="18"/>
         <v>0.45673076923076916</v>
       </c>
       <c r="O64" s="6" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N64)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P64" s="5">
-        <f>N64/M64</f>
+        <f t="shared" si="20"/>
         <v>0.67477248464120332</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P64)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R64" s="16">
-        <f>IF(I64&gt;K64,1-_xlfn.NORM.DIST(I64,K64,M64,1),_xlfn.NORM.DIST(I64,K64,M64,1))</f>
+        <f t="shared" si="22"/>
         <v>0.24991016218462114</v>
       </c>
       <c r="S64" s="30" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R64)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T64" s="6">
-        <f>E64/K64</f>
+        <f t="shared" si="24"/>
         <v>184.07079646017698</v>
       </c>
       <c r="U64" s="4" t="str">
-        <f>IF($C64=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T64)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11599,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="28" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E65)+1)</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G65" s="8">
@@ -11607,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="8" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G65)+1)</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I65" s="8">
@@ -11615,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="8" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I65)+1)</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K65" s="9">
@@ -11623,7 +11639,7 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="L65" s="28" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K65)+1)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M65" s="9">
@@ -11631,35 +11647,35 @@
         <v>0.42132504423474315</v>
       </c>
       <c r="N65" s="9">
-        <f>I65-K65</f>
+        <f t="shared" si="18"/>
         <v>-0.23076923076923078</v>
       </c>
       <c r="O65" s="28" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N65)+1)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P65" s="5">
-        <f>N65/M65</f>
+        <f t="shared" si="20"/>
         <v>-0.54772255750516619</v>
       </c>
       <c r="Q65" s="10" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P65)+1)</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R65" s="16">
-        <f>IF(I65&gt;K65,1-_xlfn.NORM.DIST(I65,K65,M65,1),_xlfn.NORM.DIST(I65,K65,M65,1))</f>
+        <f t="shared" si="22"/>
         <v>0.2919412103851825</v>
       </c>
       <c r="S65" s="30" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R65)+1)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T65" s="6">
-        <f>E65/K65</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U65" s="4" t="str">
-        <f>IF($C65=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T65)+1)</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11682,7 +11698,7 @@
         <v>240</v>
       </c>
       <c r="F66" s="6" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E66)+1)</f>
+        <f t="shared" ref="F66:F97" si="26">IF($C66=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G66" s="4">
@@ -11690,7 +11706,7 @@
         <v>24</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G66)+1)</f>
+        <f t="shared" ref="H66:H97" si="27">IF($C66=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I66" s="4">
@@ -11698,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I66)+1)</f>
+        <f t="shared" ref="J66:J97" si="28">IF($C66=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K66" s="5">
@@ -11706,7 +11722,7 @@
         <v>0.7941427895328429</v>
       </c>
       <c r="L66" s="6" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K66)+1)</f>
+        <f t="shared" ref="L66:L97" si="29">IF($C66=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M66" s="5">
@@ -11714,35 +11730,35 @@
         <v>0.86060092285446455</v>
       </c>
       <c r="N66" s="5">
-        <f>I66-K66</f>
+        <f t="shared" ref="N66:N72" si="30">I66-K66</f>
         <v>-0.7941427895328429</v>
       </c>
       <c r="O66" s="6" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N66)+1)</f>
+        <f t="shared" ref="O66:O97" si="31">IF($C66=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P66" s="5">
-        <f>N66/M66</f>
+        <f t="shared" ref="P66:P72" si="32">N66/M66</f>
         <v>-0.92277706012539296</v>
       </c>
       <c r="Q66" s="4" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P66)+1)</f>
+        <f t="shared" ref="Q66:Q97" si="33">IF($C66=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R66" s="16">
-        <f>IF(I66&gt;K66,1-_xlfn.NORM.DIST(I66,K66,M66,1),_xlfn.NORM.DIST(I66,K66,M66,1))</f>
+        <f t="shared" ref="R66:R72" si="34">IF(I66&gt;K66,1-_xlfn.NORM.DIST(I66,K66,M66,1),_xlfn.NORM.DIST(I66,K66,M66,1))</f>
         <v>0.17806169891377793</v>
       </c>
       <c r="S66" s="30" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R66)+1)</f>
+        <f t="shared" ref="S66:S97" si="35">IF($C66=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T66" s="6">
-        <f>E66/K66</f>
+        <f t="shared" ref="T66:T72" si="36">E66/K66</f>
         <v>302.21265389966049</v>
       </c>
       <c r="U66" s="6" t="str">
-        <f>IF($C66=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T66)+1)</f>
+        <f t="shared" ref="U66:U97" si="37">IF($C66=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T66)+1)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11765,7 +11781,7 @@
         <v>160</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E67)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G67" s="4">
@@ -11773,7 +11789,7 @@
         <v>16</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G67)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I67" s="4">
@@ -11781,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I67)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K67" s="5">
@@ -11789,7 +11805,7 @@
         <v>0.68315789473684219</v>
       </c>
       <c r="L67" s="6" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K67)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M67" s="5">
@@ -11797,35 +11813,35 @@
         <v>0.79496113990168826</v>
       </c>
       <c r="N67" s="5">
-        <f>I67-K67</f>
+        <f t="shared" si="30"/>
         <v>0.31684210526315781</v>
       </c>
       <c r="O67" s="6" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N67)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P67" s="5">
-        <f>N67/M67</f>
+        <f t="shared" si="32"/>
         <v>0.39856301064268529</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P67)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R67" s="16">
-        <f>IF(I67&gt;K67,1-_xlfn.NORM.DIST(I67,K67,M67,1),_xlfn.NORM.DIST(I67,K67,M67,1))</f>
+        <f t="shared" si="34"/>
         <v>0.34510761059987882</v>
       </c>
       <c r="S67" s="30" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R67)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T67" s="6">
-        <f>E67/K67</f>
+        <f t="shared" si="36"/>
         <v>234.20647149460706</v>
       </c>
       <c r="U67" s="6" t="str">
-        <f>IF($C67=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T67)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11848,7 +11864,7 @@
         <v>50</v>
       </c>
       <c r="F68" s="6" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E68)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G68" s="4">
@@ -11856,7 +11872,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G68)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I68" s="4">
@@ -11864,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I68)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K68" s="5">
@@ -11872,7 +11888,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="L68" s="6" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K68)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M68" s="5">
@@ -11880,35 +11896,35 @@
         <v>0.43925136315935126</v>
       </c>
       <c r="N68" s="5">
-        <f>I68-K68</f>
+        <f t="shared" si="30"/>
         <v>-0.20833333333333331</v>
       </c>
       <c r="O68" s="6" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N68)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P68" s="5">
-        <f>N68/M68</f>
+        <f t="shared" si="32"/>
         <v>-0.47429183107111794</v>
       </c>
       <c r="Q68" s="4" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P68)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R68" s="16">
-        <f>IF(I68&gt;K68,1-_xlfn.NORM.DIST(I68,K68,M68,1),_xlfn.NORM.DIST(I68,K68,M68,1))</f>
+        <f t="shared" si="34"/>
         <v>0.31764590799841352</v>
       </c>
       <c r="S68" s="30" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R68)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T68" s="6">
-        <f>E68/K68</f>
+        <f t="shared" si="36"/>
         <v>240.00000000000003</v>
       </c>
       <c r="U68" s="6" t="str">
-        <f>IF($C68=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T68)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11931,7 +11947,7 @@
         <v>300</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E69)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G69" s="4">
@@ -11939,7 +11955,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G69)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I69" s="4">
@@ -11947,7 +11963,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I69)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K69" s="5">
@@ -11955,7 +11971,7 @@
         <v>1.3260933806146571</v>
       </c>
       <c r="L69" s="6" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K69)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M69" s="5">
@@ -11963,35 +11979,35 @@
         <v>1.0672538107751555</v>
       </c>
       <c r="N69" s="5">
-        <f>I69-K69</f>
+        <f t="shared" si="30"/>
         <v>0.67390661938534291</v>
       </c>
       <c r="O69" s="6" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N69)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P69" s="5">
-        <f>N69/M69</f>
+        <f t="shared" si="32"/>
         <v>0.63143988110558147</v>
       </c>
       <c r="Q69" s="4" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P69)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R69" s="16">
-        <f>IF(I69&gt;K69,1-_xlfn.NORM.DIST(I69,K69,M69,1),_xlfn.NORM.DIST(I69,K69,M69,1))</f>
+        <f t="shared" si="34"/>
         <v>0.26387647326386743</v>
       </c>
       <c r="S69" s="30" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R69)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T69" s="6">
-        <f>E69/K69</f>
+        <f t="shared" si="36"/>
         <v>226.22841225626743</v>
       </c>
       <c r="U69" s="6" t="str">
-        <f>IF($C69=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T69)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12014,7 +12030,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="6" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E70)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G70" s="4">
@@ -12022,7 +12038,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G70)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I70" s="4">
@@ -12030,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I70)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K70" s="5">
@@ -12038,7 +12054,7 @@
         <v>0.63164893617021267</v>
       </c>
       <c r="L70" s="6" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K70)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M70" s="5">
@@ -12046,35 +12062,35 @@
         <v>0.75810728959235163</v>
       </c>
       <c r="N70" s="5">
-        <f>I70-K70</f>
+        <f t="shared" si="30"/>
         <v>0.36835106382978733</v>
       </c>
       <c r="O70" s="6" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N70)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P70" s="5">
-        <f>N70/M70</f>
+        <f t="shared" si="32"/>
         <v>0.4858824982778579</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P70)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R70" s="16">
-        <f>IF(I70&gt;K70,1-_xlfn.NORM.DIST(I70,K70,M70,1),_xlfn.NORM.DIST(I70,K70,M70,1))</f>
+        <f t="shared" si="34"/>
         <v>0.31352523895390516</v>
       </c>
       <c r="S70" s="30" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R70)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T70" s="6">
-        <f>E70/K70</f>
+        <f t="shared" si="36"/>
         <v>316.6315789473685</v>
       </c>
       <c r="U70" s="4" t="str">
-        <f>IF($C70=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T70)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12097,7 +12113,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E71)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G71" s="4">
@@ -12105,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G71)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I71" s="4">
@@ -12113,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I71)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K71" s="5">
@@ -12121,7 +12137,7 @@
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="L71" s="6" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K71)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M71" s="5">
@@ -12129,35 +12145,35 @@
         <v>0.24791576048881739</v>
       </c>
       <c r="N71" s="5">
-        <f>I71-K71</f>
+        <f t="shared" si="30"/>
         <v>-6.3829787234042548E-2</v>
       </c>
       <c r="O71" s="6" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N71)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P71" s="5">
-        <f>N71/M71</f>
+        <f t="shared" si="32"/>
         <v>-0.25746562908380199</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P71)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R71" s="16">
-        <f>IF(I71&gt;K71,1-_xlfn.NORM.DIST(I71,K71,M71,1),_xlfn.NORM.DIST(I71,K71,M71,1))</f>
+        <f t="shared" si="34"/>
         <v>0.39840967257938792</v>
       </c>
       <c r="S71" s="30" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R71)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T71" s="6">
-        <f>E71/K71</f>
+        <f t="shared" si="36"/>
         <v>313.33333333333337</v>
       </c>
       <c r="U71" s="4" t="str">
-        <f>IF($C71=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T71)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12180,7 +12196,7 @@
         <v>100</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,E:E,"&gt;"&amp;E72)+1)</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G72" s="4">
@@ -12188,7 +12204,7 @@
         <v>10</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,G:G,"&gt;"&amp;G72)+1)</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I72" s="4">
@@ -12196,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,I:I,"&gt;"&amp;I72)+1)</f>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K72" s="5">
@@ -12204,7 +12220,7 @@
         <v>0.31914893617021273</v>
       </c>
       <c r="L72" s="6" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,K:K,"&gt;"&amp;K72)+1)</f>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M72" s="5">
@@ -12212,35 +12228,35 @@
         <v>0.54230382522055953</v>
       </c>
       <c r="N72" s="5">
-        <f>I72-K72</f>
+        <f t="shared" si="30"/>
         <v>-0.31914893617021273</v>
       </c>
       <c r="O72" s="6" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,N:N,"&gt;"&amp;N72)+1)</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P72" s="5">
-        <f>N72/M72</f>
+        <f t="shared" si="32"/>
         <v>-0.58850578094375816</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,P:P,"&gt;"&amp;P72)+1)</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R72" s="16">
-        <f>IF(I72&gt;K72,1-_xlfn.NORM.DIST(I72,K72,M72,1),_xlfn.NORM.DIST(I72,K72,M72,1))</f>
+        <f t="shared" si="34"/>
         <v>0.27809642736849838</v>
       </c>
       <c r="S72" s="30" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,R:R,"&gt;"&amp;R72)+1)</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T72" s="6">
-        <f>E72/K72</f>
+        <f t="shared" si="36"/>
         <v>313.33333333333337</v>
       </c>
       <c r="U72" s="6" t="str">
-        <f>IF($C72=0," ",COUNTIFS($C:$C,1,T:T,"&lt;"&amp;T72)+1)</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12968,7 +12984,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3">
-        <f>F23/D23</f>
+        <f t="shared" ref="G23:G28" si="6">F23/D23</f>
         <v>0.05</v>
       </c>
       <c r="H23" s="25">
@@ -12999,7 +13015,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <f>F24/D24</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H24" s="25">
@@ -13030,7 +13046,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3">
-        <f>F25/D25</f>
+        <f t="shared" si="6"/>
         <v>5.737704918032787E-2</v>
       </c>
       <c r="H25" s="25">
@@ -13061,7 +13077,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3">
-        <f>F26/D26</f>
+        <f t="shared" si="6"/>
         <v>2.843601895734597E-2</v>
       </c>
       <c r="H26" s="25">
@@ -13092,7 +13108,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <f>F27/D27</f>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="H27" s="25">
@@ -13121,7 +13137,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="3">
-        <f>F28/D28</f>
+        <f t="shared" si="6"/>
         <v>4.9586776859504134E-2</v>
       </c>
       <c r="H28" s="25">
@@ -27913,7 +27929,7 @@
       <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="140"/>
+      <c r="E1" s="130"/>
       <c r="G1" t="s">
         <v>43</v>
       </c>
@@ -30185,11 +30201,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30221,11 +30237,11 @@
       </c>
       <c r="G1" s="13">
         <f>SUM(C:C)</f>
-        <v>37591.15</v>
+        <v>40324.25</v>
       </c>
       <c r="H1" s="12">
         <f>SUM(D:D)</f>
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -30567,6 +30583,20 @@
       </c>
       <c r="D23">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2733.1</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -30582,7 +30612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -30658,7 +30688,7 @@
       </c>
       <c r="G6" s="12">
         <f>Purchases!H1</f>
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I6" s="115" t="s">
         <v>188</v>
@@ -30673,7 +30703,7 @@
       </c>
       <c r="C7" s="125">
         <f>-Purchases!G1</f>
-        <v>-37591.15</v>
+        <v>-40324.25</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>43</v>
@@ -30695,14 +30725,14 @@
       </c>
       <c r="C8" s="128">
         <f>SUM(C3:C7)</f>
-        <v>5071.8499999999985</v>
+        <v>2338.75</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="24">
         <f>SUM(G3:G7)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I8" s="124" t="s">
         <v>95</v>
